--- a/WebRoot/costcenter_resources/UWPR sample submission form.xlsx
+++ b/WebRoot/costcenter_resources/UWPR sample submission form.xlsx
@@ -9,45 +9,18 @@
   <sheets>
     <sheet name="Sample Submission" sheetId="1" r:id="rId1"/>
     <sheet name="Concentrations" sheetId="2" r:id="rId2"/>
-    <sheet name="Inclusion or Exclusion List" sheetId="4" r:id="rId3"/>
-    <sheet name="Salt Tolerances" sheetId="7" r:id="rId4"/>
+    <sheet name="Salt Tolerances" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Priska</author>
-  </authors>
-  <commentList>
-    <comment ref="K57" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>= # samples x # replicates</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="242">
   <si>
     <t>UWPR sample submission form for LC-MS/MS analyses:</t>
   </si>
   <si>
-    <t>https://proteomicsresource.washington.edu/pr/pages/login/login.jsp</t>
-  </si>
-  <si>
     <t>Submission Date</t>
   </si>
   <si>
@@ -75,33 +48,18 @@
     <t>Method of Purification</t>
   </si>
   <si>
-    <t>Reduction &amp; Alkylation Chemicals:</t>
-  </si>
-  <si>
     <t>Amino Acids Modified:</t>
   </si>
   <si>
-    <t>Digestion Enzyme:</t>
-  </si>
-  <si>
     <t>Taxonomy (species):</t>
   </si>
   <si>
     <t>Analysis Requested:</t>
   </si>
   <si>
-    <t>If you prefer different beads please provide beads and description</t>
-  </si>
-  <si>
-    <t>Column length please specify (10-30cm):</t>
-  </si>
-  <si>
     <t>Chromatography information:</t>
   </si>
   <si>
-    <t>Analytical Gradient (specify if you prefer different trapping conditions):</t>
-  </si>
-  <si>
     <t>Short</t>
   </si>
   <si>
@@ -111,12 +69,6 @@
     <t>Long</t>
   </si>
   <si>
-    <t>Specify your own:</t>
-  </si>
-  <si>
-    <t>Instrument (select one)</t>
-  </si>
-  <si>
     <t>Scans:</t>
   </si>
   <si>
@@ -144,24 +96,9 @@
     <t>µg/µl</t>
   </si>
   <si>
-    <t>Other know/suspected Modifications:</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trapping please select: </t>
-  </si>
-  <si>
-    <t>Trap column ID 100 µm, beads Magic C18AQ  5µm  200Å</t>
-  </si>
-  <si>
     <t>Gradient information:</t>
   </si>
   <si>
-    <t>Sample Composition (salts, buffers, pH etc):</t>
-  </si>
-  <si>
     <t>Full scan</t>
   </si>
   <si>
@@ -180,21 +117,12 @@
     <t>Extra long</t>
   </si>
   <si>
-    <t>Peptide Analysis via LC-MS/MS:</t>
-  </si>
-  <si>
     <t>Database Search Information</t>
   </si>
   <si>
     <t xml:space="preserve">Database search performed by UWPR? </t>
   </si>
   <si>
-    <t>If desired, select up to three modifications below (normally include oxidation (M))</t>
-  </si>
-  <si>
-    <t>Custom modification request:</t>
-  </si>
-  <si>
     <t>salt tolerances</t>
   </si>
   <si>
@@ -258,57 +186,13 @@
     <t>Denaturants (e.g. urea)</t>
   </si>
   <si>
-    <t>Quant. details (e.g. 4 plex, delta mass etc)</t>
-  </si>
-  <si>
     <t>aa</t>
   </si>
   <si>
-    <t>mass (mono/average?)</t>
-  </si>
-  <si>
-    <t>Please do not hesitate to contact us anytime to discuss any aspects of your project, our doors are always open!</t>
-  </si>
-  <si>
     <t>http://masspec.scripps.edu/services/proteomics/images/saltbuffer.pdf</t>
   </si>
   <si>
-    <t>Radioactive samples are not accepted.</t>
-  </si>
-  <si>
-    <t>Invitrogen Silver Quest</t>
-  </si>
-  <si>
-    <t>Database search includes SEQUEST search, and Peptide/Protein profit analysis.</t>
-  </si>
-  <si>
     <t>Mass Spec Information:</t>
-  </si>
-  <si>
-    <r>
-      <t>samples unclaimed within two weeks of analysis will be discarded, sample storage at -20</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C</t>
-    </r>
   </si>
   <si>
     <t>Before submitting any samples:</t>
@@ -845,9 +729,6 @@
     <t>This table for Salt Tolaraces is originally from the Scripps website, but we are adding new concentrations as they become available.:</t>
   </si>
   <si>
-    <t>http://www.proteomicsresource.washington.edu/docs/UWPR_Protocols_Peptide_Fractionation_and_Cleanup.pdf</t>
-  </si>
-  <si>
     <t>In-gel-digest samples</t>
   </si>
   <si>
@@ -857,9 +738,6 @@
     <t xml:space="preserve">We recommend gels be stained with either Commassie Blue or Sypro Ruby. These produce the best results. Stains with colloidal coomassie G-250 generally produce “better stains”, most common commassie blue stains are capatible with mass spectrometry. Silver stained gels generally produce less robust results because they modify the proteins and crosslink the peptides to the gels. If you need to use silver stains, they must be mass spec compatible. Most commercial suppliers will indicate this on their product insert. </t>
   </si>
   <si>
-    <t>Samples can be submitted in solution (min 10-20 µL volume). Avoid any detergents and unnecessary sample buffers. Buffers such as 25 mM Tris or Ammonium Bicarbonate are acceptable. For a comprehensive list of buffers and salts compatible with mass spectrometry, please see the Salt Tolerance Table. A Bradford assay (or similar) should be done to estimate the amount of protein in solution before submission and the amount indicated on the form.  Ideally, we would like several hundred femtomoles to 1 pmol of protein for identification. If you need to clean up your sample, you can find some tips on our website:</t>
-  </si>
-  <si>
     <t>Recommended concentrations</t>
   </si>
   <si>
@@ -875,9 +753,6 @@
     <t>Start with min of one picomole of protein (in gel)</t>
   </si>
   <si>
-    <t>Sources for contamination</t>
-  </si>
-  <si>
     <t>acids contaminated with plastic from pipett tips</t>
   </si>
   <si>
@@ -893,45 +768,15 @@
     <t>There are many protocols out there, including on our website.</t>
   </si>
   <si>
-    <t>http://www.proteomicsresource.washington.edu/docs/UWPR_Protocols_In_Gel_Digest.pdf</t>
-  </si>
-  <si>
-    <t>m/z</t>
-  </si>
-  <si>
-    <t>mono</t>
-  </si>
-  <si>
-    <t>avrg</t>
-  </si>
-  <si>
-    <t>peptide/compound</t>
-  </si>
-  <si>
-    <t>charge</t>
-  </si>
-  <si>
     <t>Create a project and submit billing information online and make sure you select “Mass Spec. analysis by UWPR personnel?”:</t>
   </si>
   <si>
-    <t>Trap column length please specify (2-4cm):</t>
-  </si>
-  <si>
-    <t>Analytical column ID 75 µm, beads Magic C18AQ  5µm  100Å</t>
-  </si>
-  <si>
-    <t>Sample label (as appears on vials):</t>
-  </si>
-  <si>
     <t>Injection volume per LC-MS run</t>
   </si>
   <si>
     <t>µl</t>
   </si>
   <si>
-    <t>rage 1-9 µl</t>
-  </si>
-  <si>
     <t>If you submitted more than one budget/PO number please specify which one should to be used. You can use up to two budget numbers, please specify the percentage for each number.</t>
   </si>
   <si>
@@ -941,18 +786,9 @@
     <t>PO total amount</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
     <t>total time [min]</t>
   </si>
   <si>
-    <t>total [hrs]</t>
-  </si>
-  <si>
     <t>blanks</t>
   </si>
   <si>
@@ -960,12 +796,6 @@
   </si>
   <si>
     <t>Number of samples:</t>
-  </si>
-  <si>
-    <t>Number of replicate LC-MS analyses:</t>
-  </si>
-  <si>
-    <t>Then complete this form and upload it to your project, email priska@uw.edu to coordinate a time to drop off your samples.</t>
   </si>
   <si>
     <r>
@@ -1017,70 +847,113 @@
     </r>
   </si>
   <si>
-    <t>Trapping:     Default trapping is 2% B / 98% A for 10 min at 2.5µl/min</t>
-  </si>
-  <si>
-    <t>specify if you prefer different trapping conditions</t>
-  </si>
-  <si>
-    <t>please specify how many blanks, min run time per blank is 40 min</t>
-  </si>
-  <si>
-    <t>min 1 QC required</t>
-  </si>
-  <si>
-    <t>please specify how many QC (AngioNeuro std) runs, min is 1, analysis time is 60 min per QC</t>
-  </si>
-  <si>
     <t>QC (quality control)</t>
   </si>
   <si>
-    <t>hrs minimum, see below how to calculate the time you need</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>Note there is a minimum 2 hr setup</t>
-  </si>
-  <si>
-    <t>on QE and Fusion 0.1-0.5 µg on column per injection</t>
-  </si>
-  <si>
     <t>Injection volume 1-5 µl is ideal, up to 8µl max</t>
   </si>
   <si>
-    <t>For complex mixtures 0.5µg up to 1- 2 µg on column  per injection on LTQ-Orbitraps</t>
-  </si>
-  <si>
     <t>Avoid Contaminations (pdf)</t>
   </si>
   <si>
+    <t>Number of blanks:</t>
+  </si>
+  <si>
+    <t>Number of QC (standards):</t>
+  </si>
+  <si>
+    <t>Modifications:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If desired, select modifications below </t>
+  </si>
+  <si>
+    <t>mass (monoisotopic)</t>
+  </si>
+  <si>
+    <t>describe labels (10 plex, Lys label… ):</t>
+  </si>
+  <si>
+    <t>Specify amino acid(s) and mass:</t>
+  </si>
+  <si>
+    <t>Avoid contaminations:</t>
+  </si>
+  <si>
+    <t>no salts!</t>
+  </si>
+  <si>
+    <t>no detergents!</t>
+  </si>
+  <si>
+    <t>Salt tolerances:</t>
+  </si>
+  <si>
+    <t>Detergent tolerances:</t>
+  </si>
+  <si>
+    <t>Other ources for contamination</t>
+  </si>
+  <si>
+    <t>Contaminations compete with your peptides of interest!</t>
+  </si>
+  <si>
+    <t>Contaminants bind to your column, preventing peptides to bind</t>
+  </si>
+  <si>
+    <t>Contaminants will be analyzed by the mass spec, the more MS2 scans are wasted on contaminants, the fewer MS2 scans are available to identify your peptides</t>
+  </si>
+  <si>
+    <t>Contaminants can clog columns costing you instrument time.</t>
+  </si>
+  <si>
+    <t>Contaminants can reduce instrument sensitivity, we will charge you for instrument cleaning minimum of 2 days or 48hrs.</t>
+  </si>
+  <si>
+    <t>Lipids:</t>
+  </si>
+  <si>
+    <t>no lipids!</t>
+  </si>
+  <si>
+    <t>Number of replicate LC-MS analyses per sample:</t>
+  </si>
+  <si>
+    <t>Analytical Gradients:</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>incl. 2 hrs minimum setup</t>
+  </si>
+  <si>
+    <t>Est. total hrs:</t>
+  </si>
+  <si>
+    <t>see below how to calculate the time you need</t>
+  </si>
+  <si>
+    <t>Sample label (as appears on vials) in the order you want them analyzed:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e.g. sample1, blank, cntrl, QC, …. </t>
+  </si>
+  <si>
+    <t>range 1-8 µl</t>
+  </si>
+  <si>
+    <t>QC (AngioNeuro std) runs, analysis time is 75 min per QC</t>
+  </si>
+  <si>
+    <t>min run time per blank is 40 min</t>
+  </si>
+  <si>
+    <t>Medium (default)</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">5 - 30% B in 60 mins; 80% B for 10min;  2% B for 30 mins, 10 min trapping </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
-      </rPr>
-      <t>à</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> total analysis time =</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5 - 30% B in 90 mins; 80% B for 10min;  2% B for 30 mins, 10 min trapping </t>
+      <t xml:space="preserve">Long:              5 - 30% B in 120 mins; 80% B for 10min;  2% B for 30 mins, 10 min trapping </t>
     </r>
     <r>
       <rPr>
@@ -1099,12 +972,35 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> total analysis time =</t>
+      <t xml:space="preserve"> total analysis time = 170 mins per LC-MS run</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">5 - 30% B in 120 mins; 80% B for 10min;  2% B for 30 mins, 10 min trapping </t>
+      <t xml:space="preserve">Short:            5 - 30% B in 60 mins; 80% B for 10min;  2% B for 30 mins, 10 min trapping </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>à</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> total analysis time = 110 mins per LC-MS run</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Medium:      5 - 30% B in 90 mins; 80% B for 10min;  2% B for 30 mins, 10 min trapping </t>
     </r>
     <r>
       <rPr>
@@ -1123,12 +1019,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> total analysis time =</t>
+      <t xml:space="preserve"> total analysis time = 140 mins per LC-MS run</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">5 - 30% B in 180 mins; 80% B for 10min;  2% B for 30 mins, 10 min trapping </t>
+      <t xml:space="preserve">Extra long:    5 - 30% B in 180 mins; 80% B for 10min;  2% B for 30 mins, 10 min trapping </t>
     </r>
     <r>
       <rPr>
@@ -1147,20 +1043,121 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> total analysis time =</t>
+      <t xml:space="preserve"> total analysis time = 230 mins per LC-MS run</t>
     </r>
   </si>
   <si>
-    <t>Number of blanks:</t>
-  </si>
-  <si>
-    <t>Number of QC (standards):</t>
-  </si>
-  <si>
-    <t>single peptide 0.1-0.5 pmol  on column for QE and Fusion and 0.5-2pmol on column for Orbitrap XL</t>
-  </si>
-  <si>
-    <t>complex peptide mixture: 0.1-0.5µg on column for QE or Fusion and 1-2 µg on column for Orbitrap XL</t>
+    <t>Enter the number of samples, replicate analyses per sample, blanks and QC's to calculate the time needed for the analysis:</t>
+  </si>
+  <si>
+    <t>Instrument</t>
+  </si>
+  <si>
+    <t>http://www.proteomicsresource.washington.edu/index.php</t>
+  </si>
+  <si>
+    <t>Then complete this form and upload it to your project online, email priska@uw.edu to coordinate a time to drop off your samples.</t>
+  </si>
+  <si>
+    <t>Radioactive samples are not allowed!</t>
+  </si>
+  <si>
+    <t>Please contact us to discuss your project.</t>
+  </si>
+  <si>
+    <t>Analytical column ID 75 µm, beads Dr. Maisch ReprosilPur C18AQ  5µm  120Å,    length 35 cm</t>
+  </si>
+  <si>
+    <t>Trap column ID 100 µm, beads Dr. Maisch ReprosilPur C18AQ  5µm  120Å,             length 3 cm</t>
+  </si>
+  <si>
+    <t>cm (specify custom length if desired)</t>
+  </si>
+  <si>
+    <t>Gradient default (Medium):      5 - 30% B in 90 mins; 80% B for 10min;  2% B for 30 mins, 10 min trapping à total analysis time = 140 mins per LC-MS run</t>
+  </si>
+  <si>
+    <t>Trapping default:     2% B / 98% A for 10 min at 2 µl/min</t>
+  </si>
+  <si>
+    <t>Custom specify your own:</t>
+  </si>
+  <si>
+    <t>Database search includes Comet search, and Peptide/Protein profit analysis, please discuss details with Jimmy engj@uw.edu</t>
+  </si>
+  <si>
+    <t>Once we receive your samples we schedule the instrument time needed for the analysis. Note: cancellation time is 48hrs, 10%  (of total cost) sign up fee is non-refundable.</t>
+  </si>
+  <si>
+    <t>Sample Composition (salts, buffers, pH etc.):</t>
+  </si>
+  <si>
+    <t>Modification detail (e.g. 10-plex etc.):</t>
+  </si>
+  <si>
+    <r>
+      <t>samples unclaimed within two weeks of analysis will be discarded, sample storage at -20</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <t>Reduction &amp; Alkylation:</t>
+  </si>
+  <si>
+    <t>Specify different gradient and check the checkbox below:</t>
+  </si>
+  <si>
+    <t>if left blank we use UWPR default method settings</t>
+  </si>
+  <si>
+    <t>Digestion Enzyme (other than Trypsin):</t>
+  </si>
+  <si>
+    <t>complex peptide mixture: 0.1-0.5µg on column for QE, Fusion/Lumos and 1-2 µg on column for Orbitrap XL</t>
+  </si>
+  <si>
+    <t>single peptide 0.1-0.5 pmol  on column for QE, Fusion/Lumos and 0.5-2pmol on column for Orbitrap XL</t>
+  </si>
+  <si>
+    <t>For complex mixtures up to 0.5µg (QE/Fusion/Lumos) or up to 1- 2 µg (OT-XL) on column  per injection</t>
+  </si>
+  <si>
+    <t>General Advice:</t>
+  </si>
+  <si>
+    <t>http://www.proteomicsresource.washington.edu/protocols03/</t>
+  </si>
+  <si>
+    <t>http://www.proteomicsresource.washington.edu/protocols03/ingeldigestion.php</t>
+  </si>
+  <si>
+    <t>https://tools.thermofisher.com/content/sfs/brochures/TR0050-Stained-gels-for-MS.pdf</t>
+  </si>
+  <si>
+    <t>Samples can be submitted in solution (min 10-20 µL volume). Avoid any detergents and unnecessary sample buffers. For a comprehensive list of buffers and salts compatible with mass spectrometry, please see the Salt Tolerance Table. A BCA or Bradford assay (or similar) should be done to estimate the amount of protein in solution before submission and the amount indicated on the form.  Ideally, we would like several hundred femtomoles to 1 pmol of protein for identification. If you need to clean up your sample, you can find some tips on our website:</t>
+  </si>
+  <si>
+    <t>e.g.</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1168,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1228,13 +1225,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -1243,14 +1233,6 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1334,12 +1316,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
@@ -1364,8 +1340,39 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1391,7 +1398,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1440,25 +1447,29 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color theme="0"/>
       </right>
       <top style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color theme="0"/>
@@ -1472,7 +1483,162 @@
       <right style="thin">
         <color theme="0"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCFF"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
@@ -1482,9 +1648,20 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1492,7 +1669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1503,9 +1680,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1528,15 +1702,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1548,17 +1715,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1573,22 +1737,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1602,88 +1766,194 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1696,27 +1966,19 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1726,9 +1988,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1736,7 +1998,56 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -1761,6 +2072,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF99"/>
       <color rgb="FFCCCCFF"/>
     </mruColors>
   </colors>
@@ -1877,6 +2189,26 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1"/>
 </file>
 
@@ -1928,7 +2260,7 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="2762250" y="6696075"/>
+              <a:off x="3238500" y="6600825"/>
               <a:ext cx="1371600" cy="209550"/>
               <a:chOff x="2266949" y="4686300"/>
               <a:chExt cx="1685926" cy="209550"/>
@@ -2024,7 +2356,7 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
@@ -2033,132 +2365,16 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1371600</xdr:colOff>
+          <xdr:colOff>638175</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="3" name="Group 2"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="2762250" y="6991350"/>
-              <a:ext cx="1371600" cy="209550"/>
-              <a:chOff x="4190994" y="5095875"/>
-              <a:chExt cx="1685929" cy="209550"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
-                <a:extLst>
-                  <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                    <a14:compatExt spid="_x0000_s1027"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="4190994" y="5095875"/>
-                <a:ext cx="781050" cy="209550"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l" rtl="0">
-                  <a:defRPr sz="1000"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Tahoma"/>
-                    <a:ea typeface="Tahoma"/>
-                    <a:cs typeface="Tahoma"/>
-                  </a:rPr>
-                  <a:t>Solid</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="1028" name="Check Box 4" hidden="1">
-                <a:extLst>
-                  <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                    <a14:compatExt spid="_x0000_s1028"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="5095873" y="5095875"/>
-                <a:ext cx="781050" cy="209550"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l" rtl="0">
-                  <a:defRPr sz="1000"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Tahoma"/>
-                    <a:ea typeface="Tahoma"/>
-                    <a:cs typeface="Tahoma"/>
-                  </a:rPr>
-                  <a:t>Liquid</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
-        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1031" name="Check Box 7" hidden="1">
+            <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1031"/>
+                  <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2189,7 +2405,7 @@
                   <a:ea typeface="Tahoma"/>
                   <a:cs typeface="Tahoma"/>
                 </a:rPr>
-                <a:t>yes</a:t>
+                <a:t>Dry/Solid</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2205,21 +2421,21 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>733425</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1371600</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1032" name="Check Box 8" hidden="1">
+            <xdr:cNvPr id="1028" name="Check Box 4" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1032"/>
+                  <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2250,7 +2466,7 @@
                   <a:ea typeface="Tahoma"/>
                   <a:cs typeface="Tahoma"/>
                 </a:rPr>
-                <a:t>no</a:t>
+                <a:t>Liquid</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2266,13 +2482,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>857250</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2326,14 +2542,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:colOff>1238250</xdr:colOff>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1038225</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2386,15 +2602,15 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>704850</xdr:colOff>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>876300</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2447,15 +2663,15 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>1381125</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>819150</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2510,13 +2726,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>69</xdr:row>
+          <xdr:row>67</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>990600</xdr:colOff>
-          <xdr:row>69</xdr:row>
+          <xdr:row>67</xdr:row>
           <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2571,13 +2787,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1066800</xdr:colOff>
-          <xdr:row>69</xdr:row>
+          <xdr:row>67</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>504825</xdr:colOff>
-          <xdr:row>69</xdr:row>
+          <xdr:row>67</xdr:row>
           <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2632,13 +2848,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>70</xdr:row>
+          <xdr:row>68</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>990600</xdr:colOff>
-          <xdr:row>71</xdr:row>
+          <xdr:row>69</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2693,13 +2909,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1066800</xdr:colOff>
-          <xdr:row>70</xdr:row>
+          <xdr:row>68</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>504825</xdr:colOff>
-          <xdr:row>71</xdr:row>
+          <xdr:row>69</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2754,13 +2970,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>70</xdr:row>
+          <xdr:row>68</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>295275</xdr:colOff>
-          <xdr:row>71</xdr:row>
+          <xdr:row>69</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2815,13 +3031,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>390525</xdr:colOff>
-          <xdr:row>70</xdr:row>
+          <xdr:row>68</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>847725</xdr:colOff>
-          <xdr:row>71</xdr:row>
+          <xdr:row>69</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2876,13 +3092,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>70</xdr:row>
+          <xdr:row>68</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>1400175</xdr:colOff>
-          <xdr:row>71</xdr:row>
+          <xdr:row>69</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2935,179 +3151,15 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>838200</xdr:colOff>
-          <xdr:row>57</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>57</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1053"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>838200</xdr:colOff>
-          <xdr:row>58</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>58</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1054"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>838200</xdr:colOff>
-          <xdr:row>59</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>59</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1055"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>838200</xdr:colOff>
-          <xdr:row>60</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>60</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1056"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>76</xdr:row>
+          <xdr:row>74</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>77</xdr:row>
+          <xdr:row>75</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3162,13 +3214,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>733425</xdr:colOff>
-          <xdr:row>76</xdr:row>
+          <xdr:row>74</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1371600</xdr:colOff>
-          <xdr:row>77</xdr:row>
+          <xdr:row>75</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3221,15 +3273,15 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>80</xdr:row>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>78</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>914400</xdr:colOff>
-          <xdr:row>81</xdr:row>
+          <xdr:colOff>895350</xdr:colOff>
+          <xdr:row>79</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3284,13 +3336,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1009650</xdr:colOff>
-          <xdr:row>80</xdr:row>
+          <xdr:row>78</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>723900</xdr:colOff>
-          <xdr:row>81</xdr:row>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>79</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3345,13 +3397,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>809625</xdr:colOff>
-          <xdr:row>80</xdr:row>
+          <xdr:row>78</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>1381125</xdr:colOff>
-          <xdr:row>81</xdr:row>
+          <xdr:row>79</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3405,131 +3457,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019175</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1062"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>peptide/protein identification</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>571500</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1063"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>peptide/protein quantification</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
           <xdr:colOff>1133475</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -3651,7 +3581,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>1266825</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
@@ -3712,11 +3642,11 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>923925</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>428625</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -3726,6 +3656,250 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1068"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>other (please specify below)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>276225</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>276225</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1071" name="Check Box 47" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1071"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>TSQ Access</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>161925</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>800100</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>266700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1072" name="Check Box 48" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1072"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>Lumos</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>79</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>981075</xdr:colOff>
+          <xdr:row>80</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1073" name="Check Box 49" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>phosphorylation</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>82</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>981075</xdr:colOff>
+          <xdr:row>82</xdr:row>
+          <xdr:rowOff>276225</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1074" name="Check Box 50" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1074"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3770,23 +3944,23 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>66</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>80</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>1076325</xdr:colOff>
-          <xdr:row>66</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>619125</xdr:colOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1071" name="Check Box 47" hidden="1">
+            <xdr:cNvPr id="1075" name="Check Box 51" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1071"/>
+                  <a14:compatExt spid="_x0000_s1075"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3817,7 +3991,456 @@
                   <a:ea typeface="Tahoma"/>
                   <a:cs typeface="Tahoma"/>
                 </a:rPr>
-                <a:t>TSQ Access</a:t>
+                <a:t>iTRAQ</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>80</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1171575</xdr:colOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1076" name="Check Box 52" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1076"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>TMT</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1257300</xdr:colOff>
+          <xdr:row>80</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1895475</xdr:colOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1077" name="Check Box 53" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1077"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>SILAC</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>304800</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>247650</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1078" name="Check Box 54" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1078"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>247650</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1079" name="Check Box 55" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1079"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>314325</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>247650</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1080" name="Check Box 56" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1080"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1419225</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>276225</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>247650</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1081" name="Check Box 57" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1081"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>247650</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1082" name="Check Box 58" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1082"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>638175</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1084" name="Check Box 60" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1084"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>yes</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>723900</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1362075</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1085" name="Check Box 61" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1085"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>no</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -4118,1003 +4741,1084 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M74" sqref="M74"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="4.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="9" width="15.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H1" s="60" t="s">
-        <v>211</v>
-      </c>
-      <c r="I1" s="61">
-        <v>41731</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H1" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="46">
+        <v>42418</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
-        <v>31</v>
+    <row r="3" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
-        <v>77</v>
+    <row r="4" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
+        <v>216</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:13" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
-        <v>209</v>
+    <row r="10" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="F13" s="1" t="s">
+    <row r="11" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="94" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="F14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+    </row>
+    <row r="15" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-    </row>
-    <row r="14" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+    </row>
+    <row r="16" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="F14" s="1" t="s">
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-    </row>
-    <row r="15" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="F15" s="1" t="s">
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="J16" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+    </row>
+    <row r="17" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="F17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+    </row>
+    <row r="18" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="K18" s="50"/>
+      <c r="L18" s="49"/>
+      <c r="N18" s="48"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="J15" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-    </row>
-    <row r="16" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="F16" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-    </row>
-    <row r="17" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="64">
-        <f>ROUNDUP(M65,0)</f>
-        <v>3</v>
-      </c>
-      <c r="L17" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="M17" s="63"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D18" s="1"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="50"/>
-      <c r="G22" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="66">
-        <f>D22*H22</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="68" t="s">
-        <v>221</v>
-      </c>
-      <c r="K22" s="67"/>
-    </row>
-    <row r="23" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="50"/>
-      <c r="G23" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="H23" s="48"/>
-      <c r="I23" s="66">
-        <f>D23+H23</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="68" t="s">
-        <v>221</v>
-      </c>
-      <c r="K23" s="67"/>
-    </row>
-    <row r="24" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="71" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="70">
-        <f>SUM(I22:I23)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="68" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-    </row>
-    <row r="26" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="11"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="106" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="106"/>
+      <c r="D24" s="104" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+    </row>
+    <row r="25" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+    </row>
+    <row r="26" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="13"/>
+      <c r="E26" s="95" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="53"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="K28" s="48"/>
+    </row>
+    <row r="29" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="K29" s="48"/>
+    </row>
+    <row r="30" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" s="63" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="J29" s="63" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+    </row>
+    <row r="31" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="112"/>
+    </row>
+    <row r="32" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+    </row>
+    <row r="33" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
+    </row>
+    <row r="35" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-    </row>
-    <row r="31" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-    </row>
-    <row r="32" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-    </row>
-    <row r="33" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-    </row>
-    <row r="34" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-    </row>
-    <row r="35" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+    </row>
+    <row r="36" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="108"/>
+    </row>
+    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-    </row>
-    <row r="36" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-    </row>
-    <row r="37" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-    </row>
-    <row r="38" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-    </row>
-    <row r="39" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>218</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="96"/>
+      <c r="H40" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>72</v>
+        <v>219</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-    </row>
-    <row r="42" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-    </row>
-    <row r="43" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="1"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
-    </row>
-    <row r="46" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>17</v>
+        <v>222</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="1"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="101"/>
+    </row>
+    <row r="47" spans="2:11" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D47" s="47"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+    </row>
+    <row r="48" spans="2:11" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="98" t="s">
+        <v>230</v>
+      </c>
+      <c r="D48" s="47"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
+    </row>
+    <row r="49" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+    </row>
+    <row r="50" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="59">
+        <v>1</v>
+      </c>
+      <c r="E50" s="44"/>
+      <c r="G50" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="H50" s="59">
+        <v>1</v>
+      </c>
+      <c r="I50" s="49"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+    </row>
+    <row r="51" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="59">
+        <v>0</v>
+      </c>
+      <c r="E51" s="44"/>
+      <c r="G51" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="H51" s="59">
+        <v>0</v>
+      </c>
+      <c r="I51" s="49"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+    </row>
+    <row r="52" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="1"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
+      <c r="H52" s="74"/>
+    </row>
+    <row r="53" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="93" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="90" t="s">
+        <v>167</v>
+      </c>
+      <c r="E53" s="91"/>
+      <c r="F53" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-    </row>
-    <row r="50" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+      <c r="I53" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" s="62" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="63">
+        <v>110</v>
+      </c>
+      <c r="D54" s="63">
+        <f>C$50*H$50</f>
+        <v>1</v>
+      </c>
+      <c r="E54" s="87"/>
+      <c r="F54" s="64">
+        <f>ROUNDUP(((C54*D54)/60),0)</f>
+        <v>2</v>
+      </c>
+      <c r="G54" s="84"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="66"/>
+      <c r="K54" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="79" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" s="63">
+        <v>140</v>
+      </c>
+      <c r="D55" s="63">
+        <f t="shared" ref="D55:D58" si="0">C$50*H$50</f>
+        <v>1</v>
+      </c>
+      <c r="E55" s="88"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="85">
+        <f>ROUNDUP(((C55*D55)/60),0)</f>
+        <v>3</v>
+      </c>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="66"/>
+      <c r="K55" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="63">
+        <v>170</v>
+      </c>
+      <c r="D56" s="63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E56" s="88"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="64">
+        <f>ROUNDUP(((C56*D56)/60),0)</f>
+        <v>3</v>
+      </c>
+      <c r="I56" s="65"/>
+      <c r="J56" s="66"/>
+      <c r="K56" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="63">
+        <v>230</v>
+      </c>
+      <c r="D57" s="63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E57" s="88"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="84"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="64">
+        <f>ROUNDUP(((C57*D57)/60),0)</f>
+        <v>4</v>
+      </c>
+      <c r="J57" s="66"/>
+      <c r="K57" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="76" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E58" s="88"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="84"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="67">
+        <f>ROUNDUP(((C58*D58)/60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="O58" s="101"/>
+      <c r="P58" s="101"/>
+      <c r="Q58" s="101"/>
+      <c r="R58" s="101"/>
+    </row>
+    <row r="59" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="76" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="63">
+        <v>75</v>
+      </c>
+      <c r="D59" s="63">
+        <f>H51</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="88"/>
+      <c r="F59" s="64">
+        <f t="shared" ref="F59:J60" si="1">ROUNDUP((($C59*$D59)/60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="68">
+        <v>40</v>
+      </c>
+      <c r="D60" s="68">
+        <f>C51</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="89"/>
+      <c r="F60" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="43" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="71"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="92" t="s">
+        <v>200</v>
+      </c>
+      <c r="E61" s="73"/>
+      <c r="F61" s="82">
+        <f>SUM(F54:F60)+2</f>
+        <v>4</v>
+      </c>
+      <c r="G61" s="73">
+        <f t="shared" ref="G61:J61" si="2">SUM(G54:G60)+2</f>
+        <v>5</v>
+      </c>
+      <c r="H61" s="82">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I61" s="82">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J61" s="83">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K61" s="48" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="39"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="81"/>
+      <c r="I62" s="81"/>
+      <c r="J62" s="81"/>
+      <c r="K62" s="48"/>
+    </row>
+    <row r="63" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="39"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="81"/>
+      <c r="I63" s="81"/>
+      <c r="J63" s="81"/>
+      <c r="K63" s="48"/>
+    </row>
+    <row r="64" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="1"/>
-      <c r="D56" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="80"/>
-      <c r="H56" s="80"/>
-    </row>
-    <row r="57" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="I57" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="J57" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="K57" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="L57" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="M57" s="51" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I58" s="54">
-        <v>110</v>
-      </c>
-      <c r="J58" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="K58" s="55"/>
-      <c r="L58" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="M58" s="58">
-        <f>(I58*K58)/60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="I59" s="54">
-        <v>140</v>
-      </c>
-      <c r="J59" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="K59" s="57"/>
-      <c r="L59" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="M59" s="58">
-        <f t="shared" ref="M59:M61" si="0">(I59*K59)/60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="I60" s="54">
-        <v>160</v>
-      </c>
-      <c r="J60" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="K60" s="57"/>
-      <c r="L60" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="M60" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I61" s="54">
-        <v>230</v>
-      </c>
-      <c r="J61" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="K61" s="57"/>
-      <c r="L61" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="M61" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62" s="79"/>
-      <c r="D62" s="79"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="79"/>
-      <c r="H62" s="79"/>
-      <c r="I62" s="57"/>
-      <c r="J62" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="K62" s="57"/>
-      <c r="L62" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="M62" s="58">
-        <f t="shared" ref="M62" si="1">(I62*K62)/60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C63" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="57">
-        <v>70</v>
-      </c>
-      <c r="J63" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="K63" s="57">
-        <v>1</v>
-      </c>
-      <c r="L63" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="M63" s="58">
-        <f t="shared" ref="M63:M64" si="2">(I63*K63)/60</f>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C64" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="57">
-        <v>40</v>
-      </c>
-      <c r="J64" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="K64" s="57"/>
-      <c r="L64" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="M64" s="58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="1"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="59">
-        <f>SUM(M58:M64)+1</f>
-        <v>2.166666666666667</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="16" t="s">
-        <v>80</v>
-      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
-        <v>24</v>
+    <row r="67" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G70" s="12"/>
-    </row>
-    <row r="71" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="102"/>
+      <c r="E68" s="102"/>
+      <c r="F68" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" s="11"/>
+      <c r="J68" s="75" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="20"/>
+      <c r="L69" s="75"/>
+    </row>
+    <row r="70" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+      <c r="C70" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="103"/>
+      <c r="E70" s="103"/>
+      <c r="F70" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="11"/>
+      <c r="L70" s="75"/>
+    </row>
+    <row r="71" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D71" s="24"/>
-    </row>
-    <row r="72" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="113"/>
+      <c r="E71" s="113"/>
+      <c r="F71" s="113"/>
+      <c r="G71" s="113"/>
+      <c r="H71" s="113"/>
+    </row>
+    <row r="72" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
-      <c r="C72" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" s="12"/>
-    </row>
-    <row r="73" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="79"/>
-      <c r="E73" s="79"/>
-      <c r="F73" s="79"/>
-      <c r="G73" s="79"/>
-      <c r="H73" s="79"/>
-    </row>
-    <row r="74" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="2:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="9"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+    </row>
+    <row r="74" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="10"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-    </row>
-    <row r="76" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="21"/>
-    </row>
-    <row r="77" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D74" s="18"/>
+    </row>
+    <row r="75" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="108"/>
+      <c r="E77" s="108"/>
+      <c r="F77" s="108"/>
+      <c r="G77" s="108"/>
+      <c r="H77" s="108"/>
+    </row>
+    <row r="78" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="73">
-        <f>D37</f>
-        <v>0</v>
-      </c>
-      <c r="E79" s="73"/>
-      <c r="F79" s="73"/>
-      <c r="G79" s="73"/>
-      <c r="H79" s="73"/>
-    </row>
-    <row r="80" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D82" s="7"/>
-      <c r="E82" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F82" s="7"/>
-      <c r="G82" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="10"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-    </row>
-    <row r="84" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" s="55"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F84" s="6"/>
+      <c r="G84" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="9"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+    </row>
     <row r="86" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="D79:H79"/>
-    <mergeCell ref="D41:H41"/>
+  <mergeCells count="25">
+    <mergeCell ref="D77:H77"/>
     <mergeCell ref="D35:H35"/>
     <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="O58:R58"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D24:I25"/>
+    <mergeCell ref="B24:C25"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="D31:H31"/>
     <mergeCell ref="D32:H32"/>
     <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D24:H25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
-  <conditionalFormatting sqref="M58:M65">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="F54 G55 H56 I57 J58 G61:J63 I51 F59:F63">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="I50">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="G59:J60">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:H46">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+      <formula>LEN(TRIM(E46))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48:H48">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(E48))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40:G41">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(G40))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O58:R58">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(O58))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(C58))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68:E68 D69 D70:E70 D71:H71 G68 G70">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(D68))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:H36">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(D34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -5123,10 +5827,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="51" max="16383" man="1"/>
+    <brk id="42" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="11" max="72" man="1"/>
+    <brk id="12" max="72" man="1"/>
   </colBreaks>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -5223,19 +5927,107 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId9" name="Check Box 7">
+            <control shapeId="1033" r:id="rId9" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>219075</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>857250</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>266700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId10" name="Check Box 11">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>46</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:colOff>1238250</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
-                    <xdr:row>46</xdr:row>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>257175</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>276225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1037" r:id="rId11" name="Check Box 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>704850</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>276225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1038" r:id="rId12" name="Check Box 14">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>666750</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>276225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1039" r:id="rId13" name="Check Box 15">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>123825</xdr:colOff>
+                    <xdr:row>67</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>990600</xdr:colOff>
+                    <xdr:row>67</xdr:row>
                     <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5245,19 +6037,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId10" name="Check Box 8">
+            <control shapeId="1040" r:id="rId14" name="Check Box 16">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>733425</xdr:colOff>
-                    <xdr:row>46</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1066800</xdr:colOff>
+                    <xdr:row>67</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1371600</xdr:colOff>
-                    <xdr:row>46</xdr:row>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>67</xdr:row>
                     <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5267,151 +6059,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1033" r:id="rId11" name="Check Box 9">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>219075</xdr:colOff>
-                    <xdr:row>66</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>857250</xdr:colOff>
-                    <xdr:row>66</xdr:row>
-                    <xdr:rowOff>266700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId12" name="Check Box 11">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>304800</xdr:colOff>
-                    <xdr:row>66</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1038225</xdr:colOff>
-                    <xdr:row>66</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1037" r:id="rId13" name="Check Box 13">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>66</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>876300</xdr:colOff>
-                    <xdr:row>66</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1038" r:id="rId14" name="Check Box 14">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>1381125</xdr:colOff>
-                    <xdr:row>66</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>819150</xdr:colOff>
-                    <xdr:row>66</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1039" r:id="rId15" name="Check Box 15">
+            <control shapeId="1043" r:id="rId15" name="Check Box 19">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>123825</xdr:colOff>
-                    <xdr:row>69</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:row>68</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>990600</xdr:colOff>
                     <xdr:row>69</xdr:row>
-                    <xdr:rowOff>257175</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1040" r:id="rId16" name="Check Box 16">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>1066800</xdr:colOff>
-                    <xdr:row>69</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>504825</xdr:colOff>
-                    <xdr:row>69</xdr:row>
-                    <xdr:rowOff>257175</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1043" r:id="rId17" name="Check Box 19">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>123825</xdr:colOff>
-                    <xdr:row>70</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>990600</xdr:colOff>
-                    <xdr:row>71</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5421,19 +6081,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1044" r:id="rId18" name="Check Box 20">
+            <control shapeId="1044" r:id="rId16" name="Check Box 20">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1066800</xdr:colOff>
-                    <xdr:row>70</xdr:row>
+                    <xdr:row>68</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>504825</xdr:colOff>
-                    <xdr:row>71</xdr:row>
+                    <xdr:row>69</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5443,19 +6103,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1047" r:id="rId19" name="Check Box 23">
+            <control shapeId="1047" r:id="rId17" name="Check Box 23">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>123825</xdr:colOff>
-                    <xdr:row>70</xdr:row>
+                    <xdr:row>68</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>295275</xdr:colOff>
-                    <xdr:row>71</xdr:row>
+                    <xdr:row>69</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5465,19 +6125,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1048" r:id="rId20" name="Check Box 24">
+            <control shapeId="1048" r:id="rId18" name="Check Box 24">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>390525</xdr:colOff>
-                    <xdr:row>70</xdr:row>
+                    <xdr:row>68</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>847725</xdr:colOff>
-                    <xdr:row>71</xdr:row>
+                    <xdr:row>69</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5487,19 +6147,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1049" r:id="rId21" name="Check Box 25">
+            <control shapeId="1049" r:id="rId19" name="Check Box 25">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>70</xdr:row>
+                    <xdr:row>68</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>1400175</xdr:colOff>
-                    <xdr:row>71</xdr:row>
+                    <xdr:row>69</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5509,107 +6169,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1053" r:id="rId22" name="Check Box 29">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>838200</xdr:colOff>
-                    <xdr:row>57</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>57</xdr:row>
-                    <xdr:rowOff>266700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1054" r:id="rId23" name="Check Box 30">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>838200</xdr:colOff>
-                    <xdr:row>58</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>58</xdr:row>
-                    <xdr:rowOff>257175</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1055" r:id="rId24" name="Check Box 31">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>838200</xdr:colOff>
-                    <xdr:row>59</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>59</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId25" name="Check Box 32">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>838200</xdr:colOff>
-                    <xdr:row>60</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>60</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId26" name="Check Box 33">
+            <control shapeId="1057" r:id="rId20" name="Check Box 33">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>76</xdr:row>
+                    <xdr:row>74</xdr:row>
                     <xdr:rowOff>85725</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>638175</xdr:colOff>
-                    <xdr:row>77</xdr:row>
+                    <xdr:row>75</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5619,19 +6191,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1058" r:id="rId27" name="Check Box 34">
+            <control shapeId="1058" r:id="rId21" name="Check Box 34">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>733425</xdr:colOff>
-                    <xdr:row>76</xdr:row>
+                    <xdr:row>74</xdr:row>
                     <xdr:rowOff>85725</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>1371600</xdr:colOff>
-                    <xdr:row>77</xdr:row>
+                    <xdr:row>75</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5641,19 +6213,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId28" name="Check Box 35">
+            <control shapeId="1059" r:id="rId22" name="Check Box 35">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>80</xdr:row>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>78</xdr:row>
                     <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>914400</xdr:colOff>
-                    <xdr:row>81</xdr:row>
+                    <xdr:colOff>895350</xdr:colOff>
+                    <xdr:row>79</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5663,19 +6235,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId29" name="Check Box 36">
+            <control shapeId="1060" r:id="rId23" name="Check Box 36">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1009650</xdr:colOff>
-                    <xdr:row>80</xdr:row>
+                    <xdr:row>78</xdr:row>
                     <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>723900</xdr:colOff>
-                    <xdr:row>81</xdr:row>
+                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:row>79</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5685,19 +6257,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1061" r:id="rId30" name="Check Box 37">
+            <control shapeId="1061" r:id="rId24" name="Check Box 37">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>809625</xdr:colOff>
-                    <xdr:row>80</xdr:row>
+                    <xdr:row>78</xdr:row>
                     <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>1381125</xdr:colOff>
-                    <xdr:row>81</xdr:row>
+                    <xdr:row>79</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5707,58 +6279,14 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId31" name="Check Box 38">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019175</xdr:colOff>
-                    <xdr:row>39</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>447675</xdr:colOff>
-                    <xdr:row>39</xdr:row>
-                    <xdr:rowOff>257175</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1063" r:id="rId32" name="Check Box 39">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>571500</xdr:colOff>
-                    <xdr:row>39</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>39</xdr:row>
-                    <xdr:rowOff>257175</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1064" r:id="rId33" name="Check Box 40">
+            <control shapeId="1064" r:id="rId25" name="Check Box 40">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>1133475</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
@@ -5773,7 +6301,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId34" name="Check Box 41">
+            <control shapeId="1065" r:id="rId26" name="Check Box 41">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5795,14 +6323,14 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1067" r:id="rId35" name="Check Box 43">
+            <control shapeId="1067" r:id="rId27" name="Check Box 43">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>1266825</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
@@ -5817,18 +6345,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId36" name="Check Box 44">
+            <control shapeId="1068" r:id="rId28" name="Check Box 44">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>923925</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>428625</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>276225</xdr:rowOff>
                   </to>
@@ -5839,20 +6367,306 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1071" r:id="rId37" name="Check Box 47">
+            <control shapeId="1071" r:id="rId29" name="Check Box 47">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>66</xdr:row>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>64</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>276225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1072" r:id="rId30" name="Check Box 48">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>161925</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>800100</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>266700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1073" r:id="rId31" name="Check Box 49">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>79</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>981075</xdr:colOff>
+                    <xdr:row>80</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1074" r:id="rId32" name="Check Box 50">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>82</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>981075</xdr:colOff>
+                    <xdr:row>82</xdr:row>
+                    <xdr:rowOff>276225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1075" r:id="rId33" name="Check Box 51">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>80</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>619125</xdr:colOff>
+                    <xdr:row>81</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1076" r:id="rId34" name="Check Box 52">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>714375</xdr:colOff>
+                    <xdr:row>80</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>1171575</xdr:colOff>
+                    <xdr:row>81</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1077" r:id="rId35" name="Check Box 53">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>1257300</xdr:colOff>
+                    <xdr:row>80</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>1895475</xdr:colOff>
+                    <xdr:row>81</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1078" r:id="rId36" name="Check Box 54">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>304800</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1079" r:id="rId37" name="Check Box 55">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>361950</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1080" r:id="rId38" name="Check Box 56">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>1076325</xdr:colOff>
-                    <xdr:row>66</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
+                    <xdr:colOff>314325</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1081" r:id="rId39" name="Check Box 57">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1419225</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1082" r:id="rId40" name="Check Box 58">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>247650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1084" r:id="rId41" name="Check Box 60">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>257175</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1085" r:id="rId42" name="Check Box 61">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>723900</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1362075</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5867,324 +6681,373 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="29.85546875" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="43" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:12" s="39" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42"/>
+      <c r="B3" s="17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+    <row r="4" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="100" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="100" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="114" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+    </row>
+    <row r="9" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="117" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="118" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="13" spans="1:12" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="115" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+    </row>
+    <row r="15" spans="1:12" s="25" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="116" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+    </row>
+    <row r="16" spans="1:12" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="116" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+    </row>
+    <row r="17" spans="1:12" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="38" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="36" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="116" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+    </row>
+    <row r="20" spans="1:12" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="38"/>
+    </row>
+    <row r="23" spans="1:12" s="56" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="56" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="56" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="56" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="56" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="56" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="81" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-    </row>
-    <row r="9" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="84" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="85" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-    </row>
-    <row r="13" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:12" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-    </row>
-    <row r="15" spans="1:12" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-    </row>
-    <row r="16" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="83" t="s">
-        <v>184</v>
-      </c>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-    </row>
-    <row r="17" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="42" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="40" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="83" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-    </row>
-    <row r="19" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
+      <c r="D34" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="6" t="s">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
-        <v>226</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D28" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D40" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D41" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D42" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D43" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D44" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D45" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D46" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D47" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -6192,59 +7055,25 @@
     <mergeCell ref="B8:L8"/>
     <mergeCell ref="B14:L14"/>
     <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="B19:L19"/>
     <mergeCell ref="B9:L9"/>
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="B16:L16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" display="http://proteomics.unc.edu/Silverquest_Protocol.pdf"/>
-    <hyperlink ref="B10:J10" r:id="rId2" display="http://www.proteomicsresource.washington.edu/docs/UWPR_Protocols_Peptide_Fractionation_and_Cleanup.pdf"/>
-    <hyperlink ref="A23" location="'Salt Tolerances'!A1" display="salt tolerances"/>
-    <hyperlink ref="A24" location="'Salt Tolerances'!A1" display="detergent tolerances"/>
-    <hyperlink ref="B19" r:id="rId3"/>
-    <hyperlink ref="B17" r:id="rId4"/>
-    <hyperlink ref="A27" r:id="rId5" display="http://www.proteomicsresource.washington.edu/docs/protocols05/Avoid Contaminations.pdf"/>
+    <hyperlink ref="B10:J10" r:id="rId1" display="http://www.proteomicsresource.washington.edu/protocols03/"/>
+    <hyperlink ref="C20" r:id="rId2"/>
+    <hyperlink ref="A34" r:id="rId3" display="http://www.proteomicsresource.washington.edu/docs/protocols05/Avoid Contaminations.pdf"/>
+    <hyperlink ref="D29" location="'Salt Tolerances'!A1" display="salt tolerances"/>
+    <hyperlink ref="D30" location="'Salt Tolerances'!A1" display="detergent tolerances"/>
+    <hyperlink ref="B10" r:id="rId4"/>
+    <hyperlink ref="B18" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
@@ -6260,1068 +7089,1068 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>168</v>
+      <c r="A1" s="23" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>76</v>
+      <c r="A2" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="86"/>
+      <c r="A5" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="119"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="30">
+        <v>163</v>
+      </c>
+      <c r="C8" s="31">
+        <v>50</v>
+      </c>
+      <c r="D8" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="32">
+        <v>615</v>
+      </c>
+      <c r="C10" s="33">
+        <v>0</v>
+      </c>
+      <c r="D10" s="33">
+        <v>0</v>
+      </c>
+      <c r="E10" s="32">
+        <v>1.6</v>
+      </c>
+      <c r="F10" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="32">
+        <v>284</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="32">
+        <v>154</v>
+      </c>
+      <c r="C12" s="33">
+        <v>500</v>
+      </c>
+      <c r="D12" s="33">
+        <v>7.7</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="32">
+        <v>92</v>
+      </c>
+      <c r="C13" s="33">
+        <v>130</v>
+      </c>
+      <c r="D13" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="30">
+        <v>96</v>
+      </c>
+      <c r="C14" s="31">
+        <v>250</v>
+      </c>
+      <c r="D14" s="31">
+        <v>2.4</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="30">
+        <v>238</v>
+      </c>
+      <c r="C15" s="31">
+        <v>100</v>
+      </c>
+      <c r="D15" s="31">
+        <v>2.4</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31">
+        <v>0</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="32">
+        <v>229</v>
+      </c>
+      <c r="C17" s="33">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D17" s="33">
+        <v>1</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="32">
+        <v>264</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="32">
+        <v>3.8</v>
+      </c>
+      <c r="F18" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="32">
+        <v>58</v>
+      </c>
+      <c r="C19" s="33">
+        <v>50</v>
+      </c>
+      <c r="D19" s="33">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="32">
+        <v>120</v>
+      </c>
+      <c r="C20" s="33">
+        <v>10</v>
+      </c>
+      <c r="D20" s="33">
+        <v>0.12</v>
+      </c>
+      <c r="E20" s="32">
+        <v>10</v>
+      </c>
+      <c r="F20" s="32">
+        <v>0.12</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="32">
+        <v>348</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="32">
+        <v>2.9</v>
+      </c>
+      <c r="F21" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="32">
+        <v>511</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="32">
+        <v>2</v>
+      </c>
+      <c r="F22" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="32">
+        <v>524</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="32">
+        <v>1.9</v>
+      </c>
+      <c r="F23" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="32">
+        <v>79</v>
+      </c>
+      <c r="C24" s="33">
+        <v>50</v>
+      </c>
+      <c r="D24" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="32">
+        <v>292</v>
+      </c>
+      <c r="C25" s="33">
+        <v>3.4</v>
+      </c>
+      <c r="D25" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="32">
+        <v>3.4</v>
+      </c>
+      <c r="F25" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="32">
+        <v>468</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="32">
+        <v>2.1</v>
+      </c>
+      <c r="F26" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="34">
-        <v>163</v>
-      </c>
-      <c r="C8" s="35">
+      <c r="B27" s="32">
+        <v>603</v>
+      </c>
+      <c r="C27" s="33">
+        <v>1.7</v>
+      </c>
+      <c r="D27" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="32">
+        <v>308</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="32">
+        <v>3.2</v>
+      </c>
+      <c r="F28" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="32">
+        <v>1000</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="32">
+        <v>2000</v>
+      </c>
+      <c r="C30" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="32">
+        <v>288</v>
+      </c>
+      <c r="C31" s="33">
+        <v>0.35</v>
+      </c>
+      <c r="D31" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="E31" s="32">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="F31" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="32">
+        <v>82</v>
+      </c>
+      <c r="C32" s="33">
         <v>50</v>
       </c>
-      <c r="D8" s="35">
-        <v>0.8</v>
-      </c>
-      <c r="E8" s="34" t="s">
+      <c r="D32" s="33">
+        <v>0.41</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="32">
+        <v>65</v>
+      </c>
+      <c r="C33" s="33">
+        <v>15</v>
+      </c>
+      <c r="D33" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="E33" s="32">
+        <v>3.1</v>
+      </c>
+      <c r="F33" s="32">
+        <v>0.02</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="32">
+        <v>431</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="32">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F34" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="32">
+        <v>538</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="32">
+        <v>114</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="32">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F36" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="32">
+        <v>583</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="30">
+        <v>121</v>
+      </c>
+      <c r="C38" s="31">
+        <v>100</v>
+      </c>
+      <c r="D38" s="31">
+        <v>1</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="32">
+        <v>628</v>
+      </c>
+      <c r="C39" s="33">
+        <v>1.6</v>
+      </c>
+      <c r="D39" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="32">
+        <v>1228</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="36">
-        <v>615</v>
-      </c>
-      <c r="C10" s="37">
-        <v>0</v>
-      </c>
-      <c r="D10" s="37">
-        <v>0</v>
-      </c>
-      <c r="E10" s="36">
-        <v>1.6</v>
-      </c>
-      <c r="F10" s="36">
+      <c r="B41" s="30">
+        <v>60</v>
+      </c>
+      <c r="C41" s="31">
+        <v>500</v>
+      </c>
+      <c r="D41" s="31">
+        <v>3</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="32">
+        <v>392</v>
+      </c>
+      <c r="C42" s="33">
+        <v>2.6</v>
+      </c>
+      <c r="D42" s="33">
         <v>0.1</v>
       </c>
-      <c r="G10" s="28" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="36">
-        <v>284</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="36">
-        <v>154</v>
-      </c>
-      <c r="C12" s="37">
-        <v>500</v>
-      </c>
-      <c r="D12" s="37">
-        <v>7.7</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="36">
-        <v>92</v>
-      </c>
-      <c r="C13" s="37">
-        <v>130</v>
-      </c>
-      <c r="D13" s="37">
-        <v>1.2</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="28" t="s">
+      <c r="E42" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="24" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" s="34">
-        <v>96</v>
-      </c>
-      <c r="C14" s="35">
-        <v>250</v>
-      </c>
-      <c r="D14" s="35">
-        <v>2.4</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="34">
-        <v>238</v>
-      </c>
-      <c r="C15" s="35">
-        <v>100</v>
-      </c>
-      <c r="D15" s="35">
-        <v>2.4</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35">
-        <v>0</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34">
-        <v>0.01</v>
-      </c>
-      <c r="G16" s="32"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="36">
-        <v>229</v>
-      </c>
-      <c r="C17" s="37">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D17" s="37">
-        <v>1</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="36">
-        <v>264</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="36">
-        <v>3.8</v>
-      </c>
-      <c r="F18" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19" s="36">
-        <v>58</v>
-      </c>
-      <c r="C19" s="37">
-        <v>50</v>
-      </c>
-      <c r="D19" s="37">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" s="36">
-        <v>120</v>
-      </c>
-      <c r="C20" s="37">
-        <v>10</v>
-      </c>
-      <c r="D20" s="37">
-        <v>0.12</v>
-      </c>
-      <c r="E20" s="36">
-        <v>10</v>
-      </c>
-      <c r="F20" s="36">
-        <v>0.12</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="36">
-        <v>348</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="36">
-        <v>2.9</v>
-      </c>
-      <c r="F21" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="36">
-        <v>511</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="36">
-        <v>2</v>
-      </c>
-      <c r="F22" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="36">
-        <v>524</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="36">
-        <v>1.9</v>
-      </c>
-      <c r="F23" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" s="36">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="24"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="24"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="24"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="24"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="24"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="24"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="24"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="24"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="24"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="24"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="37">
-        <v>50</v>
-      </c>
-      <c r="D24" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="36">
-        <v>292</v>
-      </c>
-      <c r="C25" s="37">
-        <v>3.4</v>
-      </c>
-      <c r="D25" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="E25" s="36">
-        <v>3.4</v>
-      </c>
-      <c r="F25" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="36">
-        <v>468</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="36">
-        <v>2.1</v>
-      </c>
-      <c r="F26" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" s="36">
-        <v>603</v>
-      </c>
-      <c r="C27" s="37">
-        <v>1.7</v>
-      </c>
-      <c r="D27" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="28"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="36">
-        <v>308</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="36">
-        <v>3.2</v>
-      </c>
-      <c r="F28" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" s="36">
-        <v>1000</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="F29" s="36">
-        <v>0.05</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="36">
-        <v>2000</v>
-      </c>
-      <c r="C30" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="D30" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="E30" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="B31" s="36">
-        <v>288</v>
-      </c>
-      <c r="C31" s="37">
-        <v>0.35</v>
-      </c>
-      <c r="D31" s="37">
-        <v>0.01</v>
-      </c>
-      <c r="E31" s="36">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="F31" s="36">
-        <v>0.01</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="B32" s="36">
-        <v>82</v>
-      </c>
-      <c r="C32" s="37">
-        <v>50</v>
-      </c>
-      <c r="D32" s="37">
-        <v>0.41</v>
-      </c>
-      <c r="E32" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" s="36">
-        <v>65</v>
-      </c>
-      <c r="C33" s="37">
-        <v>15</v>
-      </c>
-      <c r="D33" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="E33" s="36">
-        <v>3.1</v>
-      </c>
-      <c r="F33" s="36">
-        <v>0.02</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="B34" s="36">
-        <v>431</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="36">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F34" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B35" s="36">
-        <v>538</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="F35" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="G35" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="B36" s="36">
-        <v>114</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="36">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F36" s="36">
-        <v>0.05</v>
-      </c>
-      <c r="G36" s="28" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="B37" s="36">
-        <v>583</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="F37" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="34">
-        <v>121</v>
-      </c>
-      <c r="C38" s="35">
-        <v>100</v>
-      </c>
-      <c r="D38" s="35">
-        <v>1</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39" s="36">
-        <v>628</v>
-      </c>
-      <c r="C39" s="37">
-        <v>1.6</v>
-      </c>
-      <c r="D39" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="E39" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="F39" s="36">
-        <v>0.05</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" s="36">
-        <v>1228</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="37">
-        <v>0.6</v>
-      </c>
-      <c r="E40" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F40" s="36">
-        <v>0.05</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" s="34">
-        <v>60</v>
-      </c>
-      <c r="C41" s="35">
-        <v>500</v>
-      </c>
-      <c r="D41" s="35">
-        <v>3</v>
-      </c>
-      <c r="E41" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="G41" s="32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="B42" s="36">
-        <v>392</v>
-      </c>
-      <c r="C42" s="37">
-        <v>2.6</v>
-      </c>
-      <c r="D42" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="E42" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="F42" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" s="28"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="B55" s="28"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57" s="28"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="B58" s="28"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="B59" s="28"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="B60" s="28"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="B61" s="28"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
+      <c r="A61" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" s="24"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/WebRoot/costcenter_resources/UWPR sample submission form.xlsx
+++ b/WebRoot/costcenter_resources/UWPR sample submission form.xlsx
@@ -158,72 +158,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Priska von Haller</author>
-  </authors>
-  <commentList>
-    <comment ref="C23" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Non-refundable sign up fee of 10% is applied when instrument time is scheduled via the web portal:
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C24" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The remaining 90% of the total cost will be applied only if instrument time is used, i.e. not canceled by user:</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C41" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Non-refundable sign up fee of 10% is applied when instrument time is scheduled via the web portal:
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C42" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The remaining 90% of the total cost will be applied only if instrument time is used, i.e. not canceled by user:</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="297">
   <si>
     <t>Instrumentation:</t>
   </si>
@@ -240,9 +176,6 @@
     <t>TSQ Vantage</t>
   </si>
   <si>
-    <t>Exploris</t>
-  </si>
-  <si>
     <t>Orbitrap Exploris</t>
   </si>
   <si>
@@ -252,12 +185,6 @@
     <t>Q Exactive plus</t>
   </si>
   <si>
-    <t>Elite</t>
-  </si>
-  <si>
-    <t>Orbitrap Velos Elite</t>
-  </si>
-  <si>
     <t>Fusion</t>
   </si>
   <si>
@@ -292,12 +219,6 @@
   </si>
   <si>
     <t>Total Cost:</t>
-  </si>
-  <si>
-    <t>non refundable sign-up fee is 10% of the total cost</t>
-  </si>
-  <si>
-    <t>Used instrument time is 90% of the total cost</t>
   </si>
   <si>
     <t>UW Internal Rates With Additional Labor</t>
@@ -1429,12 +1350,6 @@
     </r>
   </si>
   <si>
-    <t>Rates effective 11/1/2021 subject to change without notice</t>
-  </si>
-  <si>
-    <t>Revised 10/28/2021</t>
-  </si>
-  <si>
     <t>Budget  #</t>
   </si>
   <si>
@@ -1600,6 +1515,21 @@
   </si>
   <si>
     <t>Sample information (all fields required)</t>
+  </si>
+  <si>
+    <t>Exploris 2</t>
+  </si>
+  <si>
+    <t>Revised 10/28/2022</t>
+  </si>
+  <si>
+    <t>Rates effective 11/1/2022 subject to change without notice</t>
+  </si>
+  <si>
+    <t>Exploris 1</t>
+  </si>
+  <si>
+    <t>Number of blanks</t>
   </si>
 </sst>
 </file>
@@ -2438,7 +2368,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2541,9 +2471,6 @@
     </xf>
     <xf numFmtId="42" fontId="14" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2926,72 +2853,12 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3000,22 +2867,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3127,11 +2982,18 @@
     <xf numFmtId="0" fontId="70" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="71" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3139,7 +3001,66 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3147,7 +3068,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="35">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -3541,10 +3469,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="3333750" y="7753350"/>
+              <a:off x="3333750" y="7791450"/>
               <a:ext cx="1371600" cy="209550"/>
-              <a:chOff x="2266950" y="4686300"/>
-              <a:chExt cx="1685925" cy="209550"/>
+              <a:chOff x="2266949" y="4686300"/>
+              <a:chExt cx="1685926" cy="209550"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -3563,7 +3491,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="2266950" y="4686300"/>
+                <a:off x="2266949" y="4686300"/>
                 <a:ext cx="781050" cy="209550"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -6405,8 +6333,8 @@
             <a:xfrm>
               <a:off x="3028950" y="3686175"/>
               <a:ext cx="1466850" cy="209550"/>
-              <a:chOff x="2266950" y="4686300"/>
-              <a:chExt cx="1685925" cy="209550"/>
+              <a:chOff x="2266949" y="4686300"/>
+              <a:chExt cx="1685926" cy="209550"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -6425,7 +6353,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="2266950" y="4686300"/>
+                <a:off x="2266949" y="4686300"/>
                 <a:ext cx="781050" cy="209550"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -15437,19 +15365,6 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>-  10% sign up fee is non-refundable</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
             <a:t>-  Cancellation time is 48hrs prior to start time</a:t>
           </a:r>
         </a:p>
@@ -16021,7 +15936,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16034,10 +15951,10 @@
     <col min="7" max="7" width="17.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="102" customWidth="1"/>
-    <col min="11" max="11" width="5" style="102" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="102" customWidth="1"/>
-    <col min="13" max="15" width="10.85546875" style="102" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="101" customWidth="1"/>
+    <col min="11" max="11" width="5" style="101" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="101" customWidth="1"/>
+    <col min="13" max="15" width="10.85546875" style="101" customWidth="1"/>
     <col min="16" max="21" width="10.85546875" style="2" customWidth="1"/>
     <col min="22" max="25" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -16056,18 +15973,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H1" s="100" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="101">
-        <v>44705</v>
-      </c>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
+      <c r="H1" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="100">
+        <v>44866</v>
+      </c>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
       <c r="AH1" s="4"/>
       <c r="AI1" s="4"/>
       <c r="AJ1" s="4"/>
@@ -16079,78 +15996,78 @@
       <c r="AP1" s="4"/>
     </row>
     <row r="2" spans="1:42" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
+      <c r="B2" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
       <c r="AI2" s="5"/>
     </row>
     <row r="3" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="103" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
+      <c r="B3" s="102" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
       <c r="AI3" s="5"/>
     </row>
     <row r="4" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="102"/>
-      <c r="S4" s="102"/>
-      <c r="T4" s="102"/>
-      <c r="U4" s="102"/>
+      <c r="B4" s="102" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
       <c r="AI4" s="5"/>
     </row>
     <row r="5" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="104" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="102"/>
-      <c r="T5" s="102"/>
-      <c r="U5" s="102"/>
+      <c r="B5" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="101"/>
+      <c r="U5" s="101"/>
       <c r="AI5" s="5"/>
     </row>
-    <row r="6" spans="1:42" s="72" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="105"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="106"/>
-      <c r="R6" s="106"/>
-      <c r="S6" s="106"/>
-      <c r="T6" s="106"/>
-      <c r="U6" s="106"/>
+    <row r="6" spans="1:42" s="71" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="104"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="105"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
       <c r="AH6" s="15"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="6"/>
@@ -16162,2728 +16079,2734 @@
       <c r="AP6" s="6"/>
     </row>
     <row r="7" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="101"/>
+      <c r="AI7" s="5"/>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="C8" s="104" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="71"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="101"/>
+    </row>
+    <row r="9" spans="1:42" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="101"/>
+      <c r="U9" s="101"/>
+      <c r="AI9" s="75"/>
+    </row>
+    <row r="10" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="101"/>
+      <c r="AI10" s="77"/>
+    </row>
+    <row r="11" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
+    </row>
+    <row r="12" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="101"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="101"/>
+      <c r="U12" s="101"/>
+      <c r="AI12" s="80"/>
+    </row>
+    <row r="13" spans="1:42" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="185" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" s="211" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="211"/>
+      <c r="D13" s="211"/>
+      <c r="E13" s="212"/>
+      <c r="F13" s="212"/>
+      <c r="G13" s="212"/>
+      <c r="H13" s="212"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="101"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="101"/>
+      <c r="U13" s="101"/>
+      <c r="AJ13" s="81"/>
+      <c r="AK13" s="81"/>
+      <c r="AL13" s="81"/>
+      <c r="AM13" s="81"/>
+      <c r="AN13" s="81"/>
+      <c r="AO13" s="81"/>
+    </row>
+    <row r="14" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="185"/>
+      <c r="B14" s="213" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="267"/>
+      <c r="D14" s="267"/>
+      <c r="E14" s="214"/>
+      <c r="F14" s="212"/>
+      <c r="G14" s="212"/>
+      <c r="H14" s="212"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="101"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="101"/>
+      <c r="U14" s="101"/>
+      <c r="AI14" s="15"/>
+    </row>
+    <row r="15" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="185"/>
+      <c r="B15" s="212" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="212"/>
+      <c r="D15" s="212"/>
+      <c r="E15" s="214"/>
+      <c r="F15" s="213" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="AI7" s="5"/>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="C8" s="105" t="s">
-        <v>276</v>
-      </c>
-      <c r="D8" s="72"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="102"/>
-    </row>
-    <row r="9" spans="1:42" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="102"/>
-      <c r="R9" s="102"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="102"/>
-      <c r="U9" s="102"/>
-      <c r="AI9" s="76"/>
-    </row>
-    <row r="10" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="102"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="102"/>
-      <c r="AI10" s="78"/>
-    </row>
-    <row r="11" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="107" t="s">
+      <c r="G15" s="267"/>
+      <c r="H15" s="267"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="101"/>
+      <c r="R15" s="101"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="101"/>
+      <c r="U15" s="101"/>
+      <c r="AI15" s="15"/>
+    </row>
+    <row r="16" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="185"/>
+      <c r="B16" s="213" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="267"/>
+      <c r="D16" s="267"/>
+      <c r="E16" s="214"/>
+      <c r="F16" s="213" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="102"/>
-    </row>
-    <row r="12" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="P12" s="102"/>
-      <c r="Q12" s="102"/>
-      <c r="R12" s="102"/>
-      <c r="S12" s="102"/>
-      <c r="T12" s="102"/>
-      <c r="U12" s="102"/>
-      <c r="AI12" s="81"/>
-    </row>
-    <row r="13" spans="1:42" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="186" t="s">
-        <v>271</v>
-      </c>
-      <c r="B13" s="231" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="231"/>
-      <c r="D13" s="231"/>
-      <c r="E13" s="232"/>
-      <c r="F13" s="232"/>
-      <c r="G13" s="232"/>
-      <c r="H13" s="232"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="102"/>
-      <c r="AJ13" s="82"/>
-      <c r="AK13" s="82"/>
-      <c r="AL13" s="82"/>
-      <c r="AM13" s="82"/>
-      <c r="AN13" s="82"/>
-      <c r="AO13" s="82"/>
-    </row>
-    <row r="14" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="186"/>
-      <c r="B14" s="233" t="s">
+      <c r="G16" s="216"/>
+      <c r="H16" s="216"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="101"/>
+      <c r="S16" s="101"/>
+      <c r="T16" s="101"/>
+      <c r="U16" s="101"/>
+      <c r="AI16" s="84"/>
+      <c r="AJ16" s="85"/>
+      <c r="AK16" s="85"/>
+      <c r="AL16" s="85"/>
+      <c r="AM16" s="85"/>
+      <c r="AN16" s="85"/>
+      <c r="AO16" s="85"/>
+    </row>
+    <row r="17" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="185"/>
+      <c r="B17" s="213" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="234"/>
-      <c r="D14" s="234"/>
-      <c r="E14" s="235"/>
-      <c r="F14" s="232"/>
-      <c r="G14" s="232"/>
-      <c r="H14" s="232"/>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="102"/>
-      <c r="R14" s="102"/>
-      <c r="S14" s="102"/>
-      <c r="T14" s="102"/>
-      <c r="U14" s="102"/>
-      <c r="AI14" s="15"/>
-    </row>
-    <row r="15" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="186"/>
-      <c r="B15" s="232" t="s">
+      <c r="C17" s="215"/>
+      <c r="D17" s="215"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="213" t="s">
+        <v>268</v>
+      </c>
+      <c r="G17" s="265"/>
+      <c r="H17" s="265"/>
+      <c r="I17" s="92" t="s">
+        <v>287</v>
+      </c>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="105"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="101"/>
+      <c r="R17" s="101"/>
+      <c r="S17" s="101"/>
+      <c r="T17" s="101"/>
+      <c r="U17" s="101"/>
+      <c r="AI17" s="86"/>
+      <c r="AJ17" s="86"/>
+      <c r="AK17" s="86"/>
+      <c r="AL17" s="86"/>
+      <c r="AM17" s="86"/>
+      <c r="AN17" s="86"/>
+      <c r="AO17" s="86"/>
+    </row>
+    <row r="18" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="185"/>
+      <c r="B18" s="213" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="215"/>
+      <c r="D18" s="215"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="213" t="s">
+        <v>286</v>
+      </c>
+      <c r="G18" s="288">
+        <v>1</v>
+      </c>
+      <c r="H18" s="289"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="185"/>
+      <c r="L18" s="109"/>
+      <c r="N18" s="105"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="101"/>
+      <c r="R18" s="101"/>
+      <c r="S18" s="101"/>
+      <c r="T18" s="101"/>
+      <c r="U18" s="101"/>
+      <c r="AI18" s="86"/>
+      <c r="AJ18" s="86"/>
+      <c r="AK18" s="86"/>
+      <c r="AL18" s="86"/>
+      <c r="AM18" s="86"/>
+      <c r="AN18" s="86"/>
+      <c r="AO18" s="86"/>
+    </row>
+    <row r="19" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="71"/>
+      <c r="F19" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G19" s="290">
+        <v>0</v>
+      </c>
+      <c r="H19" s="112"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="101"/>
+      <c r="R19" s="101"/>
+      <c r="S19" s="101"/>
+      <c r="T19" s="101"/>
+      <c r="U19" s="101"/>
+      <c r="AI19" s="86"/>
+      <c r="AJ19" s="87"/>
+      <c r="AK19" s="87"/>
+      <c r="AL19" s="87"/>
+      <c r="AM19" s="87"/>
+      <c r="AN19" s="87"/>
+      <c r="AO19" s="87"/>
+    </row>
+    <row r="20" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="101"/>
+      <c r="R20" s="101"/>
+      <c r="S20" s="101"/>
+      <c r="T20" s="101"/>
+      <c r="U20" s="101"/>
+      <c r="AI20" s="86"/>
+      <c r="AJ20" s="87"/>
+      <c r="AK20" s="87"/>
+      <c r="AL20" s="87"/>
+      <c r="AM20" s="87"/>
+      <c r="AN20" s="87"/>
+      <c r="AO20" s="87"/>
+    </row>
+    <row r="21" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="211" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21" s="211"/>
+      <c r="D21" s="211"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="212"/>
+      <c r="G21" s="212"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="212"/>
+      <c r="P21" s="101"/>
+      <c r="Q21" s="101"/>
+      <c r="R21" s="101"/>
+      <c r="S21" s="101"/>
+      <c r="T21" s="101"/>
+      <c r="U21" s="101"/>
+      <c r="AI21" s="86"/>
+      <c r="AJ21" s="87"/>
+      <c r="AK21" s="87"/>
+      <c r="AL21" s="87"/>
+      <c r="AM21" s="87"/>
+      <c r="AN21" s="87"/>
+      <c r="AO21" s="87"/>
+    </row>
+    <row r="22" spans="1:41" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="185" t="s">
+        <v>266</v>
+      </c>
+      <c r="B22" s="213" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="232"/>
-      <c r="D15" s="232"/>
-      <c r="E15" s="235"/>
-      <c r="F15" s="233" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="234"/>
-      <c r="H15" s="234"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="102"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="102"/>
-      <c r="U15" s="102"/>
-      <c r="AI15" s="15"/>
-    </row>
-    <row r="16" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="186"/>
-      <c r="B16" s="233" t="s">
+      <c r="C22" s="266"/>
+      <c r="D22" s="266"/>
+      <c r="E22" s="266"/>
+      <c r="F22" s="266"/>
+      <c r="G22" s="266"/>
+      <c r="H22" s="266"/>
+      <c r="I22" s="266"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="101"/>
+      <c r="R22" s="101"/>
+      <c r="S22" s="101"/>
+      <c r="T22" s="101"/>
+      <c r="U22" s="101"/>
+      <c r="AI22" s="86"/>
+      <c r="AJ22" s="87"/>
+      <c r="AK22" s="87"/>
+      <c r="AL22" s="87"/>
+      <c r="AM22" s="87"/>
+      <c r="AN22" s="87"/>
+      <c r="AO22" s="87"/>
+    </row>
+    <row r="23" spans="1:41" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="185" t="s">
+        <v>266</v>
+      </c>
+      <c r="B23" s="213" t="s">
+        <v>283</v>
+      </c>
+      <c r="C23" s="265"/>
+      <c r="D23" s="265"/>
+      <c r="E23" s="265"/>
+      <c r="F23" s="265"/>
+      <c r="G23" s="265"/>
+      <c r="H23" s="265"/>
+      <c r="I23" s="265"/>
+      <c r="J23" s="105"/>
+      <c r="N23" s="186"/>
+      <c r="O23" s="186"/>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="101"/>
+      <c r="R23" s="101"/>
+      <c r="S23" s="101"/>
+      <c r="T23" s="101"/>
+      <c r="U23" s="101"/>
+      <c r="AB23" s="125"/>
+      <c r="AC23" s="126"/>
+      <c r="AD23" s="126"/>
+      <c r="AE23" s="126"/>
+      <c r="AF23" s="126"/>
+      <c r="AG23" s="126"/>
+      <c r="AI23" s="86"/>
+      <c r="AJ23" s="96"/>
+      <c r="AK23" s="96"/>
+      <c r="AL23" s="96"/>
+      <c r="AM23" s="96"/>
+      <c r="AN23" s="96"/>
+      <c r="AO23" s="96"/>
+    </row>
+    <row r="24" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="185" t="s">
+        <v>266</v>
+      </c>
+      <c r="B24" s="269" t="s">
+        <v>267</v>
+      </c>
+      <c r="C24" s="269"/>
+      <c r="D24" s="271" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="271"/>
+      <c r="F24" s="271"/>
+      <c r="G24" s="271"/>
+      <c r="H24" s="271"/>
+      <c r="I24" s="271"/>
+      <c r="P24" s="101"/>
+      <c r="Q24" s="101"/>
+      <c r="R24" s="101"/>
+      <c r="S24" s="101"/>
+      <c r="T24" s="101"/>
+      <c r="U24" s="101"/>
+      <c r="AI24" s="86"/>
+      <c r="AJ24" s="87"/>
+      <c r="AK24" s="87"/>
+      <c r="AL24" s="87"/>
+      <c r="AM24" s="87"/>
+      <c r="AN24" s="87"/>
+      <c r="AO24" s="87"/>
+    </row>
+    <row r="25" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="270"/>
+      <c r="C25" s="270"/>
+      <c r="D25" s="272"/>
+      <c r="E25" s="272"/>
+      <c r="F25" s="272"/>
+      <c r="G25" s="272"/>
+      <c r="H25" s="272"/>
+      <c r="I25" s="272"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="101"/>
+      <c r="R25" s="101"/>
+      <c r="S25" s="264"/>
+      <c r="T25" s="101"/>
+      <c r="U25" s="101"/>
+      <c r="AI25" s="86"/>
+      <c r="AJ25" s="87"/>
+      <c r="AK25" s="87"/>
+      <c r="AL25" s="87"/>
+      <c r="AM25" s="87"/>
+      <c r="AN25" s="87"/>
+      <c r="AO25" s="87"/>
+    </row>
+    <row r="26" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="277" t="s">
+        <v>290</v>
+      </c>
+      <c r="C26" s="277"/>
+      <c r="D26" s="277"/>
+      <c r="E26" s="277"/>
+      <c r="F26" s="277"/>
+      <c r="G26" s="277"/>
+      <c r="H26" s="277"/>
+      <c r="I26" s="277"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="101"/>
+      <c r="R26" s="101"/>
+      <c r="S26" s="101"/>
+      <c r="T26" s="101"/>
+      <c r="U26" s="101"/>
+      <c r="AI26" s="86"/>
+      <c r="AJ26" s="87"/>
+      <c r="AK26" s="87"/>
+      <c r="AL26" s="87"/>
+      <c r="AM26" s="87"/>
+      <c r="AN26" s="87"/>
+      <c r="AO26" s="87"/>
+    </row>
+    <row r="27" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="234"/>
-      <c r="D16" s="234"/>
-      <c r="E16" s="235"/>
-      <c r="F16" s="233" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="238"/>
-      <c r="H16" s="238"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="102"/>
-      <c r="R16" s="102"/>
-      <c r="S16" s="102"/>
-      <c r="T16" s="102"/>
-      <c r="U16" s="102"/>
-      <c r="AI16" s="85"/>
-      <c r="AJ16" s="86"/>
-      <c r="AK16" s="86"/>
-      <c r="AL16" s="86"/>
-      <c r="AM16" s="86"/>
-      <c r="AN16" s="86"/>
-      <c r="AO16" s="86"/>
-    </row>
-    <row r="17" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="186"/>
-      <c r="B17" s="233" t="s">
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="236"/>
-      <c r="D17" s="236"/>
-      <c r="E17" s="235"/>
-      <c r="F17" s="233" t="s">
-        <v>275</v>
-      </c>
-      <c r="G17" s="239"/>
-      <c r="H17" s="239"/>
-      <c r="I17" s="93" t="s">
-        <v>294</v>
-      </c>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="102"/>
-      <c r="S17" s="102"/>
-      <c r="T17" s="102"/>
-      <c r="U17" s="102"/>
-      <c r="AI17" s="87"/>
-      <c r="AJ17" s="87"/>
-      <c r="AK17" s="87"/>
-      <c r="AL17" s="87"/>
-      <c r="AM17" s="87"/>
-      <c r="AN17" s="87"/>
-      <c r="AO17" s="87"/>
-    </row>
-    <row r="18" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="186"/>
-      <c r="B18" s="233" t="s">
+      <c r="P27" s="101"/>
+      <c r="Q27" s="101"/>
+      <c r="R27" s="101"/>
+      <c r="S27" s="101"/>
+      <c r="T27" s="101"/>
+      <c r="U27" s="101"/>
+      <c r="AI27" s="86"/>
+      <c r="AJ27" s="87"/>
+      <c r="AK27" s="87"/>
+      <c r="AL27" s="87"/>
+      <c r="AM27" s="87"/>
+      <c r="AN27" s="87"/>
+      <c r="AO27" s="87"/>
+    </row>
+    <row r="28" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="236"/>
-      <c r="D18" s="236"/>
-      <c r="E18" s="235"/>
-      <c r="F18" s="233" t="s">
-        <v>293</v>
-      </c>
-      <c r="G18" s="240">
-        <v>10</v>
-      </c>
-      <c r="H18" s="242"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="186"/>
-      <c r="L18" s="110"/>
-      <c r="N18" s="106"/>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="102"/>
-      <c r="R18" s="102"/>
-      <c r="S18" s="102"/>
-      <c r="T18" s="102"/>
-      <c r="U18" s="102"/>
-      <c r="AI18" s="87"/>
-      <c r="AJ18" s="87"/>
-      <c r="AK18" s="87"/>
-      <c r="AL18" s="87"/>
-      <c r="AM18" s="87"/>
-      <c r="AN18" s="87"/>
-      <c r="AO18" s="87"/>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="D19" s="72"/>
-      <c r="G19" s="109"/>
-      <c r="P19" s="102"/>
-      <c r="Q19" s="102"/>
-      <c r="R19" s="102"/>
-      <c r="S19" s="102"/>
-      <c r="T19" s="102"/>
-      <c r="U19" s="102"/>
-      <c r="AI19" s="87"/>
-      <c r="AJ19" s="88"/>
-      <c r="AK19" s="88"/>
-      <c r="AL19" s="88"/>
-      <c r="AM19" s="88"/>
-      <c r="AN19" s="88"/>
-      <c r="AO19" s="88"/>
-    </row>
-    <row r="20" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="102"/>
-      <c r="R20" s="102"/>
-      <c r="S20" s="102"/>
-      <c r="T20" s="102"/>
-      <c r="U20" s="102"/>
-      <c r="AI20" s="87"/>
-      <c r="AJ20" s="88"/>
-      <c r="AK20" s="88"/>
-      <c r="AL20" s="88"/>
-      <c r="AM20" s="88"/>
-      <c r="AN20" s="88"/>
-      <c r="AO20" s="88"/>
-    </row>
-    <row r="21" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="231" t="s">
-        <v>298</v>
-      </c>
-      <c r="C21" s="231"/>
-      <c r="D21" s="231"/>
-      <c r="E21" s="232"/>
-      <c r="F21" s="232"/>
-      <c r="G21" s="232"/>
-      <c r="H21" s="232"/>
-      <c r="I21" s="232"/>
-      <c r="P21" s="102"/>
-      <c r="Q21" s="102"/>
-      <c r="R21" s="102"/>
-      <c r="S21" s="102"/>
-      <c r="T21" s="102"/>
-      <c r="U21" s="102"/>
-      <c r="AI21" s="87"/>
-      <c r="AJ21" s="88"/>
-      <c r="AK21" s="88"/>
-      <c r="AL21" s="88"/>
-      <c r="AM21" s="88"/>
-      <c r="AN21" s="88"/>
-      <c r="AO21" s="88"/>
-    </row>
-    <row r="22" spans="1:41" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="186" t="s">
-        <v>271</v>
-      </c>
-      <c r="B22" s="233" t="s">
+      <c r="C28" s="74"/>
+      <c r="D28" s="209"/>
+      <c r="E28" s="208" t="s">
+        <v>278</v>
+      </c>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="101"/>
+      <c r="R28" s="101"/>
+      <c r="S28" s="101"/>
+      <c r="T28" s="101"/>
+      <c r="U28" s="101"/>
+      <c r="AI28" s="86"/>
+      <c r="AJ28" s="87"/>
+      <c r="AK28" s="87"/>
+      <c r="AL28" s="87"/>
+      <c r="AM28" s="87"/>
+      <c r="AN28" s="87"/>
+      <c r="AO28" s="87"/>
+    </row>
+    <row r="29" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="71"/>
+      <c r="D29" s="274"/>
+      <c r="E29" s="274"/>
+      <c r="F29" s="274"/>
+      <c r="G29" s="274"/>
+      <c r="H29" s="274"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="101"/>
+      <c r="U29" s="101"/>
+      <c r="AH29" s="30"/>
+      <c r="AI29" s="86"/>
+      <c r="AJ29" s="87"/>
+      <c r="AK29" s="87"/>
+      <c r="AL29" s="87"/>
+      <c r="AM29" s="87"/>
+      <c r="AN29" s="87"/>
+      <c r="AO29" s="87"/>
+    </row>
+    <row r="30" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="237"/>
-      <c r="D22" s="237"/>
-      <c r="E22" s="237"/>
-      <c r="F22" s="237"/>
-      <c r="G22" s="237"/>
-      <c r="H22" s="237"/>
-      <c r="I22" s="237"/>
-      <c r="P22" s="102"/>
-      <c r="Q22" s="102"/>
-      <c r="R22" s="102"/>
-      <c r="S22" s="102"/>
-      <c r="T22" s="102"/>
-      <c r="U22" s="102"/>
-      <c r="AI22" s="87"/>
-      <c r="AJ22" s="88"/>
-      <c r="AK22" s="88"/>
-      <c r="AL22" s="88"/>
-      <c r="AM22" s="88"/>
-      <c r="AN22" s="88"/>
-      <c r="AO22" s="88"/>
-    </row>
-    <row r="23" spans="1:41" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="186" t="s">
-        <v>271</v>
-      </c>
-      <c r="B23" s="233" t="s">
-        <v>290</v>
-      </c>
-      <c r="C23" s="239"/>
-      <c r="D23" s="239"/>
-      <c r="E23" s="239"/>
-      <c r="F23" s="239"/>
-      <c r="G23" s="239"/>
-      <c r="H23" s="239"/>
-      <c r="I23" s="239"/>
-      <c r="J23" s="106"/>
-      <c r="N23" s="187"/>
-      <c r="O23" s="187"/>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="102"/>
-      <c r="R23" s="102"/>
-      <c r="S23" s="102"/>
-      <c r="T23" s="102"/>
-      <c r="U23" s="102"/>
-      <c r="AB23" s="126"/>
-      <c r="AC23" s="127"/>
-      <c r="AD23" s="127"/>
-      <c r="AE23" s="127"/>
-      <c r="AF23" s="127"/>
-      <c r="AG23" s="127"/>
-      <c r="AI23" s="87"/>
-      <c r="AJ23" s="97"/>
-      <c r="AK23" s="97"/>
-      <c r="AL23" s="97"/>
-      <c r="AM23" s="97"/>
-      <c r="AN23" s="97"/>
-      <c r="AO23" s="97"/>
-    </row>
-    <row r="24" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="186" t="s">
-        <v>271</v>
-      </c>
-      <c r="B24" s="291" t="s">
-        <v>272</v>
-      </c>
-      <c r="C24" s="291"/>
-      <c r="D24" s="289" t="s">
+      <c r="C30" s="71"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="289"/>
-      <c r="F24" s="289"/>
-      <c r="G24" s="289"/>
-      <c r="H24" s="289"/>
-      <c r="I24" s="289"/>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="102"/>
-      <c r="R24" s="102"/>
-      <c r="S24" s="102"/>
-      <c r="T24" s="102"/>
-      <c r="U24" s="102"/>
-      <c r="AI24" s="87"/>
-      <c r="AJ24" s="88"/>
-      <c r="AK24" s="88"/>
-      <c r="AL24" s="88"/>
-      <c r="AM24" s="88"/>
-      <c r="AN24" s="88"/>
-      <c r="AO24" s="88"/>
-    </row>
-    <row r="25" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="292"/>
-      <c r="C25" s="292"/>
-      <c r="D25" s="290"/>
-      <c r="E25" s="290"/>
-      <c r="F25" s="290"/>
-      <c r="G25" s="290"/>
-      <c r="H25" s="290"/>
-      <c r="I25" s="290"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="102"/>
-      <c r="S25" s="293"/>
-      <c r="T25" s="102"/>
-      <c r="U25" s="102"/>
-      <c r="AI25" s="87"/>
-      <c r="AJ25" s="88"/>
-      <c r="AK25" s="88"/>
-      <c r="AL25" s="88"/>
-      <c r="AM25" s="88"/>
-      <c r="AN25" s="88"/>
-      <c r="AO25" s="88"/>
-    </row>
-    <row r="26" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="227" t="s">
-        <v>297</v>
-      </c>
-      <c r="C26" s="227"/>
-      <c r="D26" s="227"/>
-      <c r="E26" s="227"/>
-      <c r="F26" s="227"/>
-      <c r="G26" s="227"/>
-      <c r="H26" s="227"/>
-      <c r="I26" s="227"/>
-      <c r="P26" s="102"/>
-      <c r="Q26" s="102"/>
-      <c r="R26" s="102"/>
-      <c r="S26" s="102"/>
-      <c r="T26" s="102"/>
-      <c r="U26" s="102"/>
-      <c r="AI26" s="87"/>
-      <c r="AJ26" s="88"/>
-      <c r="AK26" s="88"/>
-      <c r="AL26" s="88"/>
-      <c r="AM26" s="88"/>
-      <c r="AN26" s="88"/>
-      <c r="AO26" s="88"/>
-    </row>
-    <row r="27" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="72" t="s">
+      <c r="F30" s="112"/>
+      <c r="G30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72" t="s">
+      <c r="H30" s="92" t="s">
+        <v>279</v>
+      </c>
+      <c r="K30" s="105"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="101"/>
+      <c r="R30" s="101"/>
+      <c r="S30" s="101"/>
+      <c r="T30" s="101"/>
+      <c r="U30" s="101"/>
+      <c r="AI30" s="86"/>
+      <c r="AJ30" s="87"/>
+      <c r="AK30" s="87"/>
+      <c r="AL30" s="87"/>
+      <c r="AM30" s="87"/>
+      <c r="AN30" s="87"/>
+      <c r="AO30" s="87"/>
+    </row>
+    <row r="31" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="P27" s="102"/>
-      <c r="Q27" s="102"/>
-      <c r="R27" s="102"/>
-      <c r="S27" s="102"/>
-      <c r="T27" s="102"/>
-      <c r="U27" s="102"/>
-      <c r="AI27" s="87"/>
-      <c r="AJ27" s="88"/>
-      <c r="AK27" s="88"/>
-      <c r="AL27" s="88"/>
-      <c r="AM27" s="88"/>
-      <c r="AN27" s="88"/>
-      <c r="AO27" s="88"/>
-    </row>
-    <row r="28" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="75" t="s">
+      <c r="C31" s="71"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="210"/>
-      <c r="E28" s="209" t="s">
-        <v>285</v>
-      </c>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="P28" s="102"/>
-      <c r="Q28" s="102"/>
-      <c r="R28" s="102"/>
-      <c r="S28" s="102"/>
-      <c r="T28" s="102"/>
-      <c r="U28" s="102"/>
-      <c r="AI28" s="87"/>
-      <c r="AJ28" s="88"/>
-      <c r="AK28" s="88"/>
-      <c r="AL28" s="88"/>
-      <c r="AM28" s="88"/>
-      <c r="AN28" s="88"/>
-      <c r="AO28" s="88"/>
-    </row>
-    <row r="29" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="219"/>
-      <c r="E29" s="219"/>
-      <c r="F29" s="219"/>
-      <c r="G29" s="219"/>
-      <c r="H29" s="219"/>
-      <c r="P29" s="102"/>
-      <c r="Q29" s="102"/>
-      <c r="R29" s="102"/>
-      <c r="S29" s="102"/>
-      <c r="T29" s="102"/>
-      <c r="U29" s="102"/>
-      <c r="AH29" s="30"/>
-      <c r="AI29" s="87"/>
-      <c r="AJ29" s="88"/>
-      <c r="AK29" s="88"/>
-      <c r="AL29" s="88"/>
-      <c r="AM29" s="88"/>
-      <c r="AN29" s="88"/>
-      <c r="AO29" s="88"/>
-    </row>
-    <row r="30" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="72" t="s">
+      <c r="F31" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="83" t="s">
+      <c r="G31" s="82"/>
+      <c r="H31" s="92" t="s">
+        <v>280</v>
+      </c>
+      <c r="K31" s="105"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="101"/>
+      <c r="R31" s="101"/>
+      <c r="S31" s="101"/>
+      <c r="T31" s="101"/>
+      <c r="U31" s="101"/>
+      <c r="AI31" s="86"/>
+      <c r="AJ31" s="87"/>
+      <c r="AK31" s="87"/>
+      <c r="AL31" s="87"/>
+      <c r="AM31" s="87"/>
+      <c r="AN31" s="87"/>
+      <c r="AO31" s="87"/>
+    </row>
+    <row r="32" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="113"/>
-      <c r="G30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" s="93" t="s">
-        <v>286</v>
-      </c>
-      <c r="K30" s="106"/>
-      <c r="P30" s="102"/>
-      <c r="Q30" s="102"/>
-      <c r="R30" s="102"/>
-      <c r="S30" s="102"/>
-      <c r="T30" s="102"/>
-      <c r="U30" s="102"/>
-      <c r="AI30" s="87"/>
-      <c r="AJ30" s="88"/>
-      <c r="AK30" s="88"/>
-      <c r="AL30" s="88"/>
-      <c r="AM30" s="88"/>
-      <c r="AN30" s="88"/>
-      <c r="AO30" s="88"/>
-    </row>
-    <row r="31" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="72" t="s">
+      <c r="C32" s="71"/>
+      <c r="D32" s="273"/>
+      <c r="E32" s="273"/>
+      <c r="F32" s="273"/>
+      <c r="G32" s="273"/>
+      <c r="H32" s="273"/>
+      <c r="P32" s="101"/>
+      <c r="Q32" s="101"/>
+      <c r="R32" s="101"/>
+      <c r="S32" s="101"/>
+      <c r="T32" s="101"/>
+      <c r="U32" s="101"/>
+      <c r="AH32" s="30"/>
+      <c r="AI32" s="86"/>
+      <c r="AJ32" s="87"/>
+      <c r="AK32" s="87"/>
+      <c r="AL32" s="87"/>
+      <c r="AM32" s="87"/>
+      <c r="AN32" s="87"/>
+      <c r="AO32" s="87"/>
+    </row>
+    <row r="33" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="72"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="2" t="s">
+      <c r="C33" s="71"/>
+      <c r="D33" s="273"/>
+      <c r="E33" s="273"/>
+      <c r="F33" s="273"/>
+      <c r="G33" s="273"/>
+      <c r="H33" s="273"/>
+      <c r="P33" s="101"/>
+      <c r="Q33" s="101"/>
+      <c r="R33" s="101"/>
+      <c r="S33" s="101"/>
+      <c r="T33" s="101"/>
+      <c r="U33" s="101"/>
+      <c r="AH33" s="30"/>
+      <c r="AI33" s="86"/>
+      <c r="AJ33" s="87"/>
+      <c r="AK33" s="87"/>
+      <c r="AL33" s="87"/>
+      <c r="AM33" s="87"/>
+      <c r="AN33" s="87"/>
+      <c r="AO33" s="87"/>
+    </row>
+    <row r="34" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="83"/>
-      <c r="H31" s="93" t="s">
-        <v>287</v>
-      </c>
-      <c r="K31" s="106"/>
-      <c r="P31" s="102"/>
-      <c r="Q31" s="102"/>
-      <c r="R31" s="102"/>
-      <c r="S31" s="102"/>
-      <c r="T31" s="102"/>
-      <c r="U31" s="102"/>
-      <c r="AI31" s="87"/>
-      <c r="AJ31" s="88"/>
-      <c r="AK31" s="88"/>
-      <c r="AL31" s="88"/>
-      <c r="AM31" s="88"/>
-      <c r="AN31" s="88"/>
-      <c r="AO31" s="88"/>
-    </row>
-    <row r="32" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="218"/>
-      <c r="F32" s="218"/>
-      <c r="G32" s="218"/>
-      <c r="H32" s="218"/>
-      <c r="P32" s="102"/>
-      <c r="Q32" s="102"/>
-      <c r="R32" s="102"/>
-      <c r="S32" s="102"/>
-      <c r="T32" s="102"/>
-      <c r="U32" s="102"/>
-      <c r="AH32" s="30"/>
-      <c r="AI32" s="87"/>
-      <c r="AJ32" s="88"/>
-      <c r="AK32" s="88"/>
-      <c r="AL32" s="88"/>
-      <c r="AM32" s="88"/>
-      <c r="AN32" s="88"/>
-      <c r="AO32" s="88"/>
-    </row>
-    <row r="33" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="218"/>
-      <c r="E33" s="218"/>
-      <c r="F33" s="218"/>
-      <c r="G33" s="218"/>
-      <c r="H33" s="218"/>
-      <c r="P33" s="102"/>
-      <c r="Q33" s="102"/>
-      <c r="R33" s="102"/>
-      <c r="S33" s="102"/>
-      <c r="T33" s="102"/>
-      <c r="U33" s="102"/>
-      <c r="AH33" s="30"/>
-      <c r="AI33" s="87"/>
-      <c r="AJ33" s="88"/>
-      <c r="AK33" s="88"/>
-      <c r="AL33" s="88"/>
-      <c r="AM33" s="88"/>
-      <c r="AN33" s="88"/>
-      <c r="AO33" s="88"/>
-    </row>
-    <row r="34" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="72"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="P34" s="102"/>
-      <c r="Q34" s="102"/>
-      <c r="R34" s="102"/>
-      <c r="S34" s="102"/>
-      <c r="T34" s="102"/>
-      <c r="U34" s="102"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="P34" s="101"/>
+      <c r="Q34" s="101"/>
+      <c r="R34" s="101"/>
+      <c r="S34" s="101"/>
+      <c r="T34" s="101"/>
+      <c r="U34" s="101"/>
       <c r="AH34" s="30"/>
-      <c r="AI34" s="87"/>
-      <c r="AJ34" s="88"/>
-      <c r="AK34" s="88"/>
-      <c r="AL34" s="88"/>
-      <c r="AM34" s="88"/>
-      <c r="AN34" s="88"/>
-      <c r="AO34" s="88"/>
+      <c r="AI34" s="86"/>
+      <c r="AJ34" s="87"/>
+      <c r="AK34" s="87"/>
+      <c r="AL34" s="87"/>
+      <c r="AM34" s="87"/>
+      <c r="AN34" s="87"/>
+      <c r="AO34" s="87"/>
     </row>
     <row r="35" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="71"/>
+      <c r="D35" s="275"/>
+      <c r="E35" s="275"/>
+      <c r="F35" s="275"/>
+      <c r="G35" s="275"/>
+      <c r="H35" s="275"/>
+      <c r="P35" s="101"/>
+      <c r="Q35" s="101"/>
+      <c r="R35" s="101"/>
+      <c r="S35" s="101"/>
+      <c r="T35" s="101"/>
+      <c r="U35" s="101"/>
+      <c r="AH35" s="30"/>
+      <c r="AI35" s="86"/>
+      <c r="AJ35" s="87"/>
+      <c r="AK35" s="87"/>
+      <c r="AL35" s="87"/>
+      <c r="AM35" s="87"/>
+      <c r="AN35" s="87"/>
+      <c r="AO35" s="87"/>
+    </row>
+    <row r="36" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="71"/>
+      <c r="D36" s="276"/>
+      <c r="E36" s="276"/>
+      <c r="F36" s="276"/>
+      <c r="G36" s="276"/>
+      <c r="H36" s="276"/>
+      <c r="P36" s="101"/>
+      <c r="Q36" s="101"/>
+      <c r="R36" s="101"/>
+      <c r="S36" s="101"/>
+      <c r="T36" s="101"/>
+      <c r="U36" s="101"/>
+      <c r="AH36" s="30"/>
+      <c r="AI36" s="86"/>
+      <c r="AJ36" s="87"/>
+      <c r="AK36" s="87"/>
+      <c r="AL36" s="87"/>
+      <c r="AM36" s="87"/>
+      <c r="AN36" s="87"/>
+      <c r="AO36" s="87"/>
+    </row>
+    <row r="37" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="71"/>
+      <c r="D37" s="275"/>
+      <c r="E37" s="275"/>
+      <c r="F37" s="275"/>
+      <c r="G37" s="275"/>
+      <c r="H37" s="275"/>
+      <c r="P37" s="101"/>
+      <c r="Q37" s="101"/>
+      <c r="R37" s="101"/>
+      <c r="S37" s="101"/>
+      <c r="T37" s="101"/>
+      <c r="U37" s="101"/>
+      <c r="AH37" s="30"/>
+      <c r="AI37" s="86"/>
+      <c r="AJ37" s="87"/>
+      <c r="AK37" s="87"/>
+      <c r="AL37" s="87"/>
+      <c r="AM37" s="87"/>
+      <c r="AN37" s="87"/>
+      <c r="AO37" s="87"/>
+    </row>
+    <row r="38" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="110"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="187"/>
+      <c r="P38" s="101"/>
+      <c r="Q38" s="101"/>
+      <c r="R38" s="101"/>
+      <c r="S38" s="101"/>
+      <c r="T38" s="101"/>
+      <c r="U38" s="101"/>
+      <c r="AH38" s="30"/>
+      <c r="AI38" s="86"/>
+      <c r="AJ38" s="87"/>
+      <c r="AK38" s="87"/>
+      <c r="AL38" s="87"/>
+      <c r="AM38" s="87"/>
+      <c r="AN38" s="87"/>
+      <c r="AO38" s="87"/>
+    </row>
+    <row r="39" spans="2:42" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="P39" s="101"/>
+      <c r="Q39" s="101"/>
+      <c r="R39" s="101"/>
+      <c r="S39" s="101"/>
+      <c r="T39" s="101"/>
+      <c r="U39" s="101"/>
+      <c r="AI39" s="86"/>
+      <c r="AJ39" s="87"/>
+      <c r="AK39" s="87"/>
+      <c r="AL39" s="87"/>
+      <c r="AM39" s="87"/>
+      <c r="AN39" s="87"/>
+      <c r="AO39" s="87"/>
+    </row>
+    <row r="40" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
+      <c r="P40" s="101"/>
+      <c r="Q40" s="101"/>
+      <c r="R40" s="101"/>
+      <c r="S40" s="101"/>
+      <c r="T40" s="101"/>
+      <c r="U40" s="101"/>
+      <c r="AI40" s="86"/>
+      <c r="AJ40" s="87"/>
+      <c r="AK40" s="87"/>
+      <c r="AL40" s="87"/>
+      <c r="AM40" s="87"/>
+      <c r="AN40" s="87"/>
+      <c r="AO40" s="87"/>
+    </row>
+    <row r="41" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="216"/>
-      <c r="E35" s="216"/>
-      <c r="F35" s="216"/>
-      <c r="G35" s="216"/>
-      <c r="H35" s="216"/>
-      <c r="P35" s="102"/>
-      <c r="Q35" s="102"/>
-      <c r="R35" s="102"/>
-      <c r="S35" s="102"/>
-      <c r="T35" s="102"/>
-      <c r="U35" s="102"/>
-      <c r="AH35" s="30"/>
-      <c r="AI35" s="87"/>
-      <c r="AJ35" s="88"/>
-      <c r="AK35" s="88"/>
-      <c r="AL35" s="88"/>
-      <c r="AM35" s="88"/>
-      <c r="AN35" s="88"/>
-      <c r="AO35" s="88"/>
-    </row>
-    <row r="36" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="72" t="s">
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="72"/>
-      <c r="D36" s="220"/>
-      <c r="E36" s="220"/>
-      <c r="F36" s="220"/>
-      <c r="G36" s="220"/>
-      <c r="H36" s="220"/>
-      <c r="P36" s="102"/>
-      <c r="Q36" s="102"/>
-      <c r="R36" s="102"/>
-      <c r="S36" s="102"/>
-      <c r="T36" s="102"/>
-      <c r="U36" s="102"/>
-      <c r="AH36" s="30"/>
-      <c r="AI36" s="87"/>
-      <c r="AJ36" s="88"/>
-      <c r="AK36" s="88"/>
-      <c r="AL36" s="88"/>
-      <c r="AM36" s="88"/>
-      <c r="AN36" s="88"/>
-      <c r="AO36" s="88"/>
-    </row>
-    <row r="37" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="72" t="s">
+      <c r="P41" s="101"/>
+      <c r="Q41" s="101"/>
+      <c r="R41" s="101"/>
+      <c r="S41" s="101"/>
+      <c r="T41" s="101"/>
+      <c r="U41" s="101"/>
+      <c r="AI41" s="86"/>
+      <c r="AJ41" s="87"/>
+      <c r="AK41" s="87"/>
+      <c r="AL41" s="87"/>
+      <c r="AM41" s="87"/>
+      <c r="AN41" s="87"/>
+      <c r="AO41" s="87"/>
+    </row>
+    <row r="42" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="72"/>
-      <c r="D37" s="216"/>
-      <c r="E37" s="216"/>
-      <c r="F37" s="216"/>
-      <c r="G37" s="216"/>
-      <c r="H37" s="216"/>
-      <c r="P37" s="102"/>
-      <c r="Q37" s="102"/>
-      <c r="R37" s="102"/>
-      <c r="S37" s="102"/>
-      <c r="T37" s="102"/>
-      <c r="U37" s="102"/>
-      <c r="AH37" s="30"/>
-      <c r="AI37" s="87"/>
-      <c r="AJ37" s="88"/>
-      <c r="AK37" s="88"/>
-      <c r="AL37" s="88"/>
-      <c r="AM37" s="88"/>
-      <c r="AN37" s="88"/>
-      <c r="AO37" s="88"/>
-    </row>
-    <row r="38" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="108"/>
-      <c r="G38" s="108"/>
-      <c r="H38" s="108"/>
-      <c r="I38" s="108"/>
-      <c r="J38" s="188"/>
-      <c r="P38" s="102"/>
-      <c r="Q38" s="102"/>
-      <c r="R38" s="102"/>
-      <c r="S38" s="102"/>
-      <c r="T38" s="102"/>
-      <c r="U38" s="102"/>
-      <c r="AH38" s="30"/>
-      <c r="AI38" s="87"/>
-      <c r="AJ38" s="88"/>
-      <c r="AK38" s="88"/>
-      <c r="AL38" s="88"/>
-      <c r="AM38" s="88"/>
-      <c r="AN38" s="88"/>
-      <c r="AO38" s="88"/>
-    </row>
-    <row r="39" spans="2:42" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="73" t="s">
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P42" s="101"/>
+      <c r="Q42" s="101"/>
+      <c r="R42" s="101"/>
+      <c r="S42" s="101"/>
+      <c r="T42" s="101"/>
+      <c r="U42" s="101"/>
+      <c r="AI42" s="86"/>
+      <c r="AJ42" s="87"/>
+      <c r="AK42" s="87"/>
+      <c r="AL42" s="87"/>
+      <c r="AM42" s="87"/>
+      <c r="AN42" s="87"/>
+      <c r="AO42" s="87"/>
+    </row>
+    <row r="43" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P43" s="101"/>
+      <c r="Q43" s="101"/>
+      <c r="R43" s="101"/>
+      <c r="S43" s="101"/>
+      <c r="T43" s="101"/>
+      <c r="U43" s="101"/>
+      <c r="AI43" s="86"/>
+      <c r="AJ43" s="87"/>
+      <c r="AK43" s="87"/>
+      <c r="AL43" s="87"/>
+      <c r="AM43" s="87"/>
+      <c r="AN43" s="87"/>
+      <c r="AO43" s="87"/>
+    </row>
+    <row r="44" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="P39" s="102"/>
-      <c r="Q39" s="102"/>
-      <c r="R39" s="102"/>
-      <c r="S39" s="102"/>
-      <c r="T39" s="102"/>
-      <c r="U39" s="102"/>
-      <c r="AI39" s="87"/>
-      <c r="AJ39" s="88"/>
-      <c r="AK39" s="88"/>
-      <c r="AL39" s="88"/>
-      <c r="AM39" s="88"/>
-      <c r="AN39" s="88"/>
-      <c r="AO39" s="88"/>
-    </row>
-    <row r="40" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="74" t="s">
+      <c r="P44" s="101"/>
+      <c r="Q44" s="101"/>
+      <c r="R44" s="101"/>
+      <c r="S44" s="101"/>
+      <c r="T44" s="101"/>
+      <c r="U44" s="101"/>
+      <c r="AK44" s="95"/>
+      <c r="AM44" s="95"/>
+      <c r="AO44" s="95"/>
+    </row>
+    <row r="45" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="P45" s="101"/>
+      <c r="Q45" s="101"/>
+      <c r="R45" s="101"/>
+      <c r="S45" s="101"/>
+      <c r="T45" s="101"/>
+      <c r="U45" s="101"/>
+      <c r="AI45" s="84"/>
+      <c r="AJ45" s="85"/>
+      <c r="AK45" s="85"/>
+      <c r="AL45" s="85"/>
+      <c r="AM45" s="85"/>
+      <c r="AN45" s="85"/>
+      <c r="AO45" s="85"/>
+    </row>
+    <row r="46" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="71" t="s">
+        <v>273</v>
+      </c>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="P46" s="101"/>
+      <c r="Q46" s="101"/>
+      <c r="R46" s="101"/>
+      <c r="S46" s="101"/>
+      <c r="T46" s="101"/>
+      <c r="U46" s="101"/>
+      <c r="AI46" s="86"/>
+      <c r="AJ46" s="86"/>
+      <c r="AK46" s="86"/>
+      <c r="AL46" s="86"/>
+      <c r="AM46" s="86"/>
+      <c r="AN46" s="86"/>
+      <c r="AO46" s="86"/>
+    </row>
+    <row r="47" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="71" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="268"/>
+      <c r="F47" s="268"/>
+      <c r="G47" s="268"/>
+      <c r="H47" s="268"/>
+      <c r="P47" s="101"/>
+      <c r="Q47" s="101"/>
+      <c r="R47" s="101"/>
+      <c r="S47" s="101"/>
+      <c r="T47" s="101"/>
+      <c r="U47" s="101"/>
+      <c r="AI47" s="86"/>
+      <c r="AJ47" s="86"/>
+      <c r="AK47" s="86"/>
+      <c r="AL47" s="86"/>
+      <c r="AM47" s="86"/>
+      <c r="AN47" s="86"/>
+      <c r="AO47" s="86"/>
+    </row>
+    <row r="48" spans="2:42" s="71" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="71" t="s">
+        <v>285</v>
+      </c>
+      <c r="D48" s="116"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="J48" s="105"/>
+      <c r="K48" s="105"/>
+      <c r="L48" s="105"/>
+      <c r="M48" s="105"/>
+      <c r="N48" s="105"/>
+      <c r="O48" s="105"/>
+      <c r="P48" s="105"/>
+      <c r="Q48" s="105"/>
+      <c r="R48" s="105"/>
+      <c r="S48" s="105"/>
+      <c r="T48" s="105"/>
+      <c r="U48" s="105"/>
+      <c r="AH48" s="15"/>
+      <c r="AI48" s="86"/>
+      <c r="AJ48" s="96"/>
+      <c r="AK48" s="96"/>
+      <c r="AL48" s="96"/>
+      <c r="AM48" s="96"/>
+      <c r="AN48" s="96"/>
+      <c r="AO48" s="96"/>
+      <c r="AP48" s="6"/>
+    </row>
+    <row r="49" spans="2:42" s="71" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="P40" s="102"/>
-      <c r="Q40" s="102"/>
-      <c r="R40" s="102"/>
-      <c r="S40" s="102"/>
-      <c r="T40" s="102"/>
-      <c r="U40" s="102"/>
-      <c r="AI40" s="87"/>
-      <c r="AJ40" s="88"/>
-      <c r="AK40" s="88"/>
-      <c r="AL40" s="88"/>
-      <c r="AM40" s="88"/>
-      <c r="AN40" s="88"/>
-      <c r="AO40" s="88"/>
-    </row>
-    <row r="41" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="72" t="s">
+      <c r="D49" s="116"/>
+      <c r="E49" s="268"/>
+      <c r="F49" s="268"/>
+      <c r="G49" s="268"/>
+      <c r="H49" s="268"/>
+      <c r="J49" s="105"/>
+      <c r="K49" s="105"/>
+      <c r="L49" s="105"/>
+      <c r="M49" s="105"/>
+      <c r="N49" s="105"/>
+      <c r="O49" s="105"/>
+      <c r="P49" s="105"/>
+      <c r="Q49" s="105"/>
+      <c r="R49" s="105"/>
+      <c r="S49" s="105"/>
+      <c r="T49" s="105"/>
+      <c r="U49" s="105"/>
+      <c r="AH49" s="15"/>
+      <c r="AI49" s="86"/>
+      <c r="AJ49" s="96"/>
+      <c r="AK49" s="96"/>
+      <c r="AL49" s="96"/>
+      <c r="AM49" s="96"/>
+      <c r="AN49" s="96"/>
+      <c r="AO49" s="96"/>
+      <c r="AP49" s="6"/>
+    </row>
+    <row r="50" spans="2:42" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="71"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="P50" s="101"/>
+      <c r="Q50" s="101"/>
+      <c r="R50" s="101"/>
+      <c r="S50" s="101"/>
+      <c r="T50" s="101"/>
+      <c r="U50" s="101"/>
+      <c r="AI50" s="86"/>
+      <c r="AJ50" s="96"/>
+      <c r="AK50" s="96"/>
+      <c r="AL50" s="96"/>
+      <c r="AM50" s="96"/>
+      <c r="AN50" s="96"/>
+      <c r="AO50" s="96"/>
+    </row>
+    <row r="51" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="217">
+        <f>G18</f>
+        <v>1</v>
+      </c>
+      <c r="E51" s="118"/>
+      <c r="G51" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="119">
+        <v>1</v>
+      </c>
+      <c r="I51" s="79"/>
+      <c r="J51" s="188"/>
+      <c r="K51" s="188"/>
+      <c r="P51" s="101"/>
+      <c r="Q51" s="101"/>
+      <c r="R51" s="101"/>
+      <c r="S51" s="101"/>
+      <c r="T51" s="101"/>
+      <c r="U51" s="101"/>
+      <c r="AI51" s="86"/>
+      <c r="AJ51" s="96"/>
+      <c r="AK51" s="96"/>
+      <c r="AL51" s="96"/>
+      <c r="AM51" s="96"/>
+      <c r="AN51" s="96"/>
+      <c r="AO51" s="96"/>
+    </row>
+    <row r="52" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="119">
+        <f>G19</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="118"/>
+      <c r="G52" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="G41" s="115"/>
-      <c r="H41" s="2" t="s">
+      <c r="H52" s="119">
+        <v>0</v>
+      </c>
+      <c r="I52" s="79"/>
+      <c r="J52" s="188"/>
+      <c r="K52" s="188"/>
+      <c r="P52" s="101"/>
+      <c r="Q52" s="101"/>
+      <c r="R52" s="101"/>
+      <c r="S52" s="101"/>
+      <c r="T52" s="101"/>
+      <c r="U52" s="101"/>
+      <c r="AI52" s="86"/>
+      <c r="AJ52" s="96"/>
+      <c r="AK52" s="96"/>
+      <c r="AL52" s="96"/>
+      <c r="AM52" s="96"/>
+      <c r="AN52" s="96"/>
+      <c r="AO52" s="96"/>
+    </row>
+    <row r="53" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="71"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="82"/>
+      <c r="P53" s="101"/>
+      <c r="Q53" s="101"/>
+      <c r="R53" s="101"/>
+      <c r="S53" s="101"/>
+      <c r="T53" s="101"/>
+      <c r="U53" s="101"/>
+      <c r="AI53" s="86"/>
+      <c r="AJ53" s="96"/>
+      <c r="AK53" s="96"/>
+      <c r="AL53" s="96"/>
+      <c r="AM53" s="96"/>
+      <c r="AN53" s="96"/>
+      <c r="AO53" s="96"/>
+    </row>
+    <row r="54" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="148" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="149" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="149" t="s">
         <v>84</v>
       </c>
-      <c r="P41" s="102"/>
-      <c r="Q41" s="102"/>
-      <c r="R41" s="102"/>
-      <c r="S41" s="102"/>
-      <c r="T41" s="102"/>
-      <c r="U41" s="102"/>
-      <c r="AI41" s="87"/>
-      <c r="AJ41" s="88"/>
-      <c r="AK41" s="88"/>
-      <c r="AL41" s="88"/>
-      <c r="AM41" s="88"/>
-      <c r="AN41" s="88"/>
-      <c r="AO41" s="88"/>
-    </row>
-    <row r="42" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P42" s="102"/>
-      <c r="Q42" s="102"/>
-      <c r="R42" s="102"/>
-      <c r="S42" s="102"/>
-      <c r="T42" s="102"/>
-      <c r="U42" s="102"/>
-      <c r="AI42" s="87"/>
-      <c r="AJ42" s="88"/>
-      <c r="AK42" s="88"/>
-      <c r="AL42" s="88"/>
-      <c r="AM42" s="88"/>
-      <c r="AN42" s="88"/>
-      <c r="AO42" s="88"/>
-    </row>
-    <row r="43" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P43" s="102"/>
-      <c r="Q43" s="102"/>
-      <c r="R43" s="102"/>
-      <c r="S43" s="102"/>
-      <c r="T43" s="102"/>
-      <c r="U43" s="102"/>
-      <c r="AI43" s="87"/>
-      <c r="AJ43" s="88"/>
-      <c r="AK43" s="88"/>
-      <c r="AL43" s="88"/>
-      <c r="AM43" s="88"/>
-      <c r="AN43" s="88"/>
-      <c r="AO43" s="88"/>
-    </row>
-    <row r="44" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="74" t="s">
-        <v>86</v>
-      </c>
-      <c r="P44" s="102"/>
-      <c r="Q44" s="102"/>
-      <c r="R44" s="102"/>
-      <c r="S44" s="102"/>
-      <c r="T44" s="102"/>
-      <c r="U44" s="102"/>
-      <c r="AK44" s="96"/>
-      <c r="AM44" s="96"/>
-      <c r="AO44" s="96"/>
-    </row>
-    <row r="45" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="P45" s="102"/>
-      <c r="Q45" s="102"/>
-      <c r="R45" s="102"/>
-      <c r="S45" s="102"/>
-      <c r="T45" s="102"/>
-      <c r="U45" s="102"/>
-      <c r="AI45" s="85"/>
-      <c r="AJ45" s="86"/>
-      <c r="AK45" s="86"/>
-      <c r="AL45" s="86"/>
-      <c r="AM45" s="86"/>
-      <c r="AN45" s="86"/>
-      <c r="AO45" s="86"/>
-    </row>
-    <row r="46" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="72" t="s">
-        <v>280</v>
-      </c>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="P46" s="102"/>
-      <c r="Q46" s="102"/>
-      <c r="R46" s="102"/>
-      <c r="S46" s="102"/>
-      <c r="T46" s="102"/>
-      <c r="U46" s="102"/>
-      <c r="AI46" s="87"/>
-      <c r="AJ46" s="87"/>
-      <c r="AK46" s="87"/>
-      <c r="AL46" s="87"/>
-      <c r="AM46" s="87"/>
-      <c r="AN46" s="87"/>
-      <c r="AO46" s="87"/>
-    </row>
-    <row r="47" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="72" t="s">
-        <v>291</v>
-      </c>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="212"/>
-      <c r="F47" s="212"/>
-      <c r="G47" s="212"/>
-      <c r="H47" s="212"/>
-      <c r="P47" s="102"/>
-      <c r="Q47" s="102"/>
-      <c r="R47" s="102"/>
-      <c r="S47" s="102"/>
-      <c r="T47" s="102"/>
-      <c r="U47" s="102"/>
-      <c r="AI47" s="87"/>
-      <c r="AJ47" s="87"/>
-      <c r="AK47" s="87"/>
-      <c r="AL47" s="87"/>
-      <c r="AM47" s="87"/>
-      <c r="AN47" s="87"/>
-      <c r="AO47" s="87"/>
-    </row>
-    <row r="48" spans="2:42" s="72" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="72" t="s">
-        <v>292</v>
-      </c>
-      <c r="D48" s="117"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="75"/>
-      <c r="J48" s="106"/>
-      <c r="K48" s="106"/>
-      <c r="L48" s="106"/>
-      <c r="M48" s="106"/>
-      <c r="N48" s="106"/>
-      <c r="O48" s="106"/>
-      <c r="P48" s="106"/>
-      <c r="Q48" s="106"/>
-      <c r="R48" s="106"/>
-      <c r="S48" s="106"/>
-      <c r="T48" s="106"/>
-      <c r="U48" s="106"/>
-      <c r="AH48" s="15"/>
-      <c r="AI48" s="87"/>
-      <c r="AJ48" s="97"/>
-      <c r="AK48" s="97"/>
-      <c r="AL48" s="97"/>
-      <c r="AM48" s="97"/>
-      <c r="AN48" s="97"/>
-      <c r="AO48" s="97"/>
-      <c r="AP48" s="6"/>
-    </row>
-    <row r="49" spans="2:42" s="72" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" s="117"/>
-      <c r="E49" s="212"/>
-      <c r="F49" s="212"/>
-      <c r="G49" s="212"/>
-      <c r="H49" s="212"/>
-      <c r="J49" s="106"/>
-      <c r="K49" s="106"/>
-      <c r="L49" s="106"/>
-      <c r="M49" s="106"/>
-      <c r="N49" s="106"/>
-      <c r="O49" s="106"/>
-      <c r="P49" s="106"/>
-      <c r="Q49" s="106"/>
-      <c r="R49" s="106"/>
-      <c r="S49" s="106"/>
-      <c r="T49" s="106"/>
-      <c r="U49" s="106"/>
-      <c r="AH49" s="15"/>
-      <c r="AI49" s="87"/>
-      <c r="AJ49" s="97"/>
-      <c r="AK49" s="97"/>
-      <c r="AL49" s="97"/>
-      <c r="AM49" s="97"/>
-      <c r="AN49" s="97"/>
-      <c r="AO49" s="97"/>
-      <c r="AP49" s="6"/>
-    </row>
-    <row r="50" spans="2:42" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="118" t="s">
+      <c r="E54" s="150"/>
+      <c r="F54" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="117"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="83"/>
-      <c r="P50" s="102"/>
-      <c r="Q50" s="102"/>
-      <c r="R50" s="102"/>
-      <c r="S50" s="102"/>
-      <c r="T50" s="102"/>
-      <c r="U50" s="102"/>
-      <c r="AI50" s="87"/>
-      <c r="AJ50" s="97"/>
-      <c r="AK50" s="97"/>
-      <c r="AL50" s="97"/>
-      <c r="AM50" s="97"/>
-      <c r="AN50" s="97"/>
-      <c r="AO50" s="97"/>
-    </row>
-    <row r="51" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="72" t="s">
+      <c r="G54" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="241">
-        <f>G18</f>
-        <v>10</v>
-      </c>
-      <c r="E51" s="119"/>
-      <c r="G51" s="79" t="s">
+      <c r="H54" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="H51" s="120">
+      <c r="I54" s="149" t="s">
+        <v>31</v>
+      </c>
+      <c r="J54" s="152" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI54" s="86"/>
+      <c r="AJ54" s="96"/>
+      <c r="AK54" s="96"/>
+      <c r="AL54" s="96"/>
+      <c r="AM54" s="96"/>
+      <c r="AN54" s="96"/>
+      <c r="AO54" s="96"/>
+    </row>
+    <row r="55" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="153">
+        <v>110</v>
+      </c>
+      <c r="D55" s="153">
+        <f>C$51*H$51</f>
         <v>1</v>
       </c>
-      <c r="I51" s="80"/>
-      <c r="J51" s="189"/>
-      <c r="K51" s="189"/>
-      <c r="P51" s="102"/>
-      <c r="Q51" s="102"/>
-      <c r="R51" s="102"/>
-      <c r="S51" s="102"/>
-      <c r="T51" s="102"/>
-      <c r="U51" s="102"/>
-      <c r="AI51" s="87"/>
-      <c r="AJ51" s="97"/>
-      <c r="AK51" s="97"/>
-      <c r="AL51" s="97"/>
-      <c r="AM51" s="97"/>
-      <c r="AN51" s="97"/>
-      <c r="AO51" s="97"/>
-    </row>
-    <row r="52" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="120">
-        <v>0</v>
-      </c>
-      <c r="E52" s="119"/>
-      <c r="G52" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="H52" s="120">
-        <v>0</v>
-      </c>
-      <c r="I52" s="80"/>
-      <c r="J52" s="189"/>
-      <c r="K52" s="189"/>
-      <c r="P52" s="102"/>
-      <c r="Q52" s="102"/>
-      <c r="R52" s="102"/>
-      <c r="S52" s="102"/>
-      <c r="T52" s="102"/>
-      <c r="U52" s="102"/>
-      <c r="AI52" s="87"/>
-      <c r="AJ52" s="97"/>
-      <c r="AK52" s="97"/>
-      <c r="AL52" s="97"/>
-      <c r="AM52" s="97"/>
-      <c r="AN52" s="97"/>
-      <c r="AO52" s="97"/>
-    </row>
-    <row r="53" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="72"/>
-      <c r="D53" s="117"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="83"/>
-      <c r="P53" s="102"/>
-      <c r="Q53" s="102"/>
-      <c r="R53" s="102"/>
-      <c r="S53" s="102"/>
-      <c r="T53" s="102"/>
-      <c r="U53" s="102"/>
-      <c r="AI53" s="87"/>
-      <c r="AJ53" s="97"/>
-      <c r="AK53" s="97"/>
-      <c r="AL53" s="97"/>
-      <c r="AM53" s="97"/>
-      <c r="AN53" s="97"/>
-      <c r="AO53" s="97"/>
-    </row>
-    <row r="54" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="149" t="s">
-        <v>32</v>
-      </c>
-      <c r="C54" s="150" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54" s="150" t="s">
-        <v>89</v>
-      </c>
-      <c r="E54" s="151"/>
-      <c r="F54" s="150" t="s">
-        <v>33</v>
-      </c>
-      <c r="G54" s="152" t="s">
+      <c r="E55" s="120"/>
+      <c r="F55" s="154">
+        <f>ROUNDUP(((C55*D55)/60),0)</f>
+        <v>2</v>
+      </c>
+      <c r="G55" s="155"/>
+      <c r="H55" s="156"/>
+      <c r="I55" s="156"/>
+      <c r="J55" s="203"/>
+      <c r="K55" s="200" t="s">
+        <v>277</v>
+      </c>
+      <c r="L55" s="201"/>
+      <c r="M55" s="201"/>
+      <c r="AI55" s="86"/>
+      <c r="AJ55" s="96"/>
+      <c r="AK55" s="96"/>
+      <c r="AL55" s="96"/>
+      <c r="AM55" s="96"/>
+      <c r="AN55" s="96"/>
+      <c r="AO55" s="96"/>
+    </row>
+    <row r="56" spans="2:42" s="50" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="H54" s="150" t="s">
+      <c r="C56" s="159">
+        <v>140</v>
+      </c>
+      <c r="D56" s="159">
+        <f t="shared" ref="D56:D59" si="0">C$51*H$51</f>
+        <v>1</v>
+      </c>
+      <c r="E56" s="160"/>
+      <c r="F56" s="161"/>
+      <c r="G56" s="157">
+        <f>ROUNDUP(((C56*D56)/60),0)</f>
+        <v>3</v>
+      </c>
+      <c r="H56" s="161"/>
+      <c r="I56" s="161"/>
+      <c r="J56" s="204"/>
+      <c r="K56" s="162" t="s">
+        <v>274</v>
+      </c>
+      <c r="N56" s="163"/>
+      <c r="O56" s="163"/>
+      <c r="AH56" s="46"/>
+      <c r="AI56" s="164"/>
+      <c r="AJ56" s="165"/>
+      <c r="AK56" s="165"/>
+      <c r="AL56" s="165"/>
+      <c r="AM56" s="165"/>
+      <c r="AN56" s="165"/>
+      <c r="AO56" s="165"/>
+      <c r="AP56" s="166"/>
+    </row>
+    <row r="57" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="I54" s="150" t="s">
+      <c r="C57" s="153">
+        <v>170</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E57" s="120"/>
+      <c r="F57" s="156"/>
+      <c r="G57" s="155"/>
+      <c r="H57" s="154">
+        <f>ROUNDUP(((C57*D57)/60),0)</f>
+        <v>3</v>
+      </c>
+      <c r="I57" s="156"/>
+      <c r="J57" s="203"/>
+      <c r="K57" s="200" t="s">
+        <v>275</v>
+      </c>
+      <c r="L57" s="201"/>
+      <c r="M57" s="201"/>
+      <c r="AI57" s="86"/>
+      <c r="AJ57" s="96"/>
+      <c r="AK57" s="96"/>
+      <c r="AL57" s="96"/>
+      <c r="AM57" s="96"/>
+      <c r="AN57" s="96"/>
+      <c r="AO57" s="96"/>
+    </row>
+    <row r="58" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="J54" s="153" t="s">
+      <c r="C58" s="153">
+        <v>230</v>
+      </c>
+      <c r="D58" s="153">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E58" s="120"/>
+      <c r="F58" s="156"/>
+      <c r="G58" s="155"/>
+      <c r="H58" s="156"/>
+      <c r="I58" s="154">
+        <f>ROUNDUP(((C58*D58)/60),0)</f>
+        <v>4</v>
+      </c>
+      <c r="J58" s="203"/>
+      <c r="K58" s="200" t="s">
+        <v>276</v>
+      </c>
+      <c r="L58" s="201"/>
+      <c r="M58" s="201"/>
+      <c r="AI58" s="86"/>
+      <c r="AJ58" s="96"/>
+      <c r="AK58" s="96"/>
+      <c r="AL58" s="96"/>
+      <c r="AM58" s="96"/>
+      <c r="AN58" s="96"/>
+      <c r="AO58" s="96"/>
+    </row>
+    <row r="59" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="AI54" s="87"/>
-      <c r="AJ54" s="97"/>
-      <c r="AK54" s="97"/>
-      <c r="AL54" s="97"/>
-      <c r="AM54" s="97"/>
-      <c r="AN54" s="97"/>
-      <c r="AO54" s="97"/>
-    </row>
-    <row r="55" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="154">
-        <v>110</v>
-      </c>
-      <c r="D55" s="154">
-        <f>C$51*H$51</f>
-        <v>10</v>
-      </c>
-      <c r="E55" s="121"/>
-      <c r="F55" s="155">
-        <f>ROUNDUP(((C55*D55)/60),0)</f>
-        <v>19</v>
-      </c>
-      <c r="G55" s="156"/>
-      <c r="H55" s="157"/>
-      <c r="I55" s="157"/>
-      <c r="J55" s="204"/>
-      <c r="K55" s="201" t="s">
-        <v>284</v>
-      </c>
-      <c r="L55" s="202"/>
-      <c r="M55" s="202"/>
-      <c r="AI55" s="87"/>
-      <c r="AJ55" s="97"/>
-      <c r="AK55" s="97"/>
-      <c r="AL55" s="97"/>
-      <c r="AM55" s="97"/>
-      <c r="AN55" s="97"/>
-      <c r="AO55" s="97"/>
-    </row>
-    <row r="56" spans="2:42" s="50" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56" s="160">
-        <v>140</v>
-      </c>
-      <c r="D56" s="160">
-        <f t="shared" ref="D56:D59" si="0">C$51*H$51</f>
-        <v>10</v>
-      </c>
-      <c r="E56" s="161"/>
-      <c r="F56" s="162"/>
-      <c r="G56" s="158">
-        <f>ROUNDUP(((C56*D56)/60),0)</f>
-        <v>24</v>
-      </c>
-      <c r="H56" s="162"/>
-      <c r="I56" s="162"/>
-      <c r="J56" s="205"/>
-      <c r="K56" s="163" t="s">
-        <v>281</v>
-      </c>
-      <c r="N56" s="164"/>
-      <c r="O56" s="164"/>
-      <c r="AH56" s="46"/>
-      <c r="AI56" s="165"/>
-      <c r="AJ56" s="166"/>
-      <c r="AK56" s="166"/>
-      <c r="AL56" s="166"/>
-      <c r="AM56" s="166"/>
-      <c r="AN56" s="166"/>
-      <c r="AO56" s="166"/>
-      <c r="AP56" s="167"/>
-    </row>
-    <row r="57" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" s="154">
-        <v>170</v>
-      </c>
-      <c r="D57" s="154">
+      <c r="C59" s="153"/>
+      <c r="D59" s="153">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E57" s="121"/>
-      <c r="F57" s="157"/>
-      <c r="G57" s="156"/>
-      <c r="H57" s="155">
-        <f>ROUNDUP(((C57*D57)/60),0)</f>
-        <v>29</v>
-      </c>
-      <c r="I57" s="157"/>
-      <c r="J57" s="204"/>
-      <c r="K57" s="201" t="s">
-        <v>282</v>
-      </c>
-      <c r="L57" s="202"/>
-      <c r="M57" s="202"/>
-      <c r="AI57" s="87"/>
-      <c r="AJ57" s="97"/>
-      <c r="AK57" s="97"/>
-      <c r="AL57" s="97"/>
-      <c r="AM57" s="97"/>
-      <c r="AN57" s="97"/>
-      <c r="AO57" s="97"/>
-    </row>
-    <row r="58" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" s="154">
-        <v>230</v>
-      </c>
-      <c r="D58" s="154">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E58" s="121"/>
-      <c r="F58" s="157"/>
-      <c r="G58" s="156"/>
-      <c r="H58" s="157"/>
-      <c r="I58" s="155">
-        <f>ROUNDUP(((C58*D58)/60),0)</f>
-        <v>39</v>
-      </c>
-      <c r="J58" s="204"/>
-      <c r="K58" s="201" t="s">
-        <v>283</v>
-      </c>
-      <c r="L58" s="202"/>
-      <c r="M58" s="202"/>
-      <c r="AI58" s="87"/>
-      <c r="AJ58" s="97"/>
-      <c r="AK58" s="97"/>
-      <c r="AL58" s="97"/>
-      <c r="AM58" s="97"/>
-      <c r="AN58" s="97"/>
-      <c r="AO58" s="97"/>
-    </row>
-    <row r="59" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="C59" s="154"/>
-      <c r="D59" s="154">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E59" s="121"/>
-      <c r="F59" s="157"/>
-      <c r="G59" s="156"/>
-      <c r="H59" s="157"/>
-      <c r="I59" s="157"/>
-      <c r="J59" s="206">
+        <v>1</v>
+      </c>
+      <c r="E59" s="120"/>
+      <c r="F59" s="156"/>
+      <c r="G59" s="155"/>
+      <c r="H59" s="156"/>
+      <c r="I59" s="156"/>
+      <c r="J59" s="205">
         <f>ROUNDUP(((C59*D59)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="K59" s="202" t="s">
-        <v>42</v>
-      </c>
-      <c r="L59" s="202"/>
-      <c r="M59" s="202"/>
-      <c r="O59" s="212"/>
-      <c r="P59" s="212"/>
-      <c r="Q59" s="212"/>
-      <c r="R59" s="212"/>
-      <c r="AI59" s="87"/>
-      <c r="AJ59" s="97"/>
-      <c r="AK59" s="97"/>
-      <c r="AL59" s="97"/>
-      <c r="AM59" s="97"/>
-      <c r="AN59" s="97"/>
-      <c r="AO59" s="97"/>
+      <c r="K59" s="201" t="s">
+        <v>37</v>
+      </c>
+      <c r="L59" s="201"/>
+      <c r="M59" s="201"/>
+      <c r="O59" s="268"/>
+      <c r="P59" s="268"/>
+      <c r="Q59" s="268"/>
+      <c r="R59" s="268"/>
+      <c r="AI59" s="86"/>
+      <c r="AJ59" s="96"/>
+      <c r="AK59" s="96"/>
+      <c r="AL59" s="96"/>
+      <c r="AM59" s="96"/>
+      <c r="AN59" s="96"/>
+      <c r="AO59" s="96"/>
     </row>
     <row r="60" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" s="154">
+      <c r="B60" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="153">
         <v>75</v>
       </c>
-      <c r="D60" s="154">
+      <c r="D60" s="153">
         <f>H52</f>
         <v>0</v>
       </c>
-      <c r="E60" s="121"/>
-      <c r="F60" s="155">
+      <c r="E60" s="120"/>
+      <c r="F60" s="154">
         <f t="shared" ref="F60:J61" si="1">ROUNDUP((($C60*$D60)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="G60" s="158">
+      <c r="G60" s="157">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H60" s="155">
+      <c r="H60" s="154">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I60" s="155">
+      <c r="I60" s="154">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J60" s="206">
+      <c r="J60" s="205">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K60" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="L60" s="202"/>
-      <c r="M60" s="202"/>
-      <c r="AI60" s="87"/>
-      <c r="AJ60" s="97"/>
-      <c r="AK60" s="97"/>
-      <c r="AL60" s="97"/>
-      <c r="AM60" s="97"/>
-      <c r="AN60" s="97"/>
-      <c r="AO60" s="97"/>
+      <c r="K60" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="L60" s="201"/>
+      <c r="M60" s="201"/>
+      <c r="AI60" s="86"/>
+      <c r="AJ60" s="96"/>
+      <c r="AK60" s="96"/>
+      <c r="AL60" s="96"/>
+      <c r="AM60" s="96"/>
+      <c r="AN60" s="96"/>
+      <c r="AO60" s="96"/>
     </row>
     <row r="61" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" s="91">
+      <c r="B61" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="D61" s="91">
+      <c r="C61" s="90">
+        <v>40</v>
+      </c>
+      <c r="D61" s="90">
         <f>C52</f>
         <v>0</v>
       </c>
-      <c r="E61" s="122"/>
-      <c r="F61" s="123">
+      <c r="E61" s="121"/>
+      <c r="F61" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G61" s="124">
+      <c r="G61" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H61" s="123">
+      <c r="H61" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I61" s="123">
+      <c r="I61" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J61" s="207">
+      <c r="J61" s="206">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K61" s="89" t="s">
-        <v>90</v>
-      </c>
-      <c r="L61" s="202"/>
-      <c r="M61" s="202"/>
-      <c r="AI61" s="87"/>
-      <c r="AJ61" s="97"/>
-      <c r="AK61" s="97"/>
-      <c r="AL61" s="97"/>
-      <c r="AM61" s="97"/>
-      <c r="AN61" s="97"/>
-      <c r="AO61" s="97"/>
+      <c r="K61" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="L61" s="201"/>
+      <c r="M61" s="201"/>
+      <c r="AI61" s="86"/>
+      <c r="AJ61" s="96"/>
+      <c r="AK61" s="96"/>
+      <c r="AL61" s="96"/>
+      <c r="AM61" s="96"/>
+      <c r="AN61" s="96"/>
+      <c r="AO61" s="96"/>
     </row>
     <row r="62" spans="2:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="143"/>
-      <c r="C62" s="144"/>
-      <c r="D62" s="145" t="s">
-        <v>91</v>
-      </c>
-      <c r="E62" s="146"/>
-      <c r="F62" s="147">
+      <c r="B62" s="142"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="144" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="145"/>
+      <c r="F62" s="146">
         <f>SUM(F55:F61)+2</f>
-        <v>21</v>
-      </c>
-      <c r="G62" s="148">
+        <v>4</v>
+      </c>
+      <c r="G62" s="147">
         <f t="shared" ref="G62:J62" si="2">SUM(G55:G61)+2</f>
-        <v>26</v>
-      </c>
-      <c r="H62" s="147">
+        <v>5</v>
+      </c>
+      <c r="H62" s="146">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="I62" s="147">
+        <v>5</v>
+      </c>
+      <c r="I62" s="146">
         <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="J62" s="208">
+        <v>6</v>
+      </c>
+      <c r="J62" s="207">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K62" s="203" t="s">
-        <v>92</v>
-      </c>
-      <c r="L62" s="202"/>
-      <c r="M62" s="202"/>
-      <c r="AI62" s="87"/>
-      <c r="AJ62" s="97"/>
-      <c r="AK62" s="97"/>
-      <c r="AL62" s="97"/>
-      <c r="AM62" s="97"/>
-      <c r="AN62" s="97"/>
-      <c r="AO62" s="97"/>
+      <c r="K62" s="202" t="s">
+        <v>87</v>
+      </c>
+      <c r="L62" s="201"/>
+      <c r="M62" s="201"/>
+      <c r="AI62" s="86"/>
+      <c r="AJ62" s="96"/>
+      <c r="AK62" s="96"/>
+      <c r="AL62" s="96"/>
+      <c r="AM62" s="96"/>
+      <c r="AN62" s="96"/>
+      <c r="AO62" s="96"/>
     </row>
     <row r="63" spans="2:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="72"/>
-      <c r="C63" s="92"/>
-      <c r="D63" s="145" t="s">
-        <v>94</v>
-      </c>
-      <c r="E63" s="146"/>
-      <c r="F63" s="265">
+      <c r="B63" s="71"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="144" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" s="145"/>
+      <c r="F63" s="240">
         <f>F$62*$Q$70+$Q$71</f>
-        <v>676</v>
-      </c>
-      <c r="G63" s="264">
+        <v>149</v>
+      </c>
+      <c r="G63" s="239">
         <f>G$62*$Q$70+$Q$71</f>
-        <v>831</v>
-      </c>
-      <c r="H63" s="266">
+        <v>180</v>
+      </c>
+      <c r="H63" s="241">
         <f>H$62*$Q$70+$Q$71</f>
-        <v>986</v>
-      </c>
-      <c r="I63" s="266">
+        <v>180</v>
+      </c>
+      <c r="I63" s="241">
         <f>I$62*$Q$70+$Q$71</f>
-        <v>1296</v>
-      </c>
-      <c r="J63" s="267">
+        <v>211</v>
+      </c>
+      <c r="J63" s="242">
         <f>J$62*$Q$70+$Q$71</f>
         <v>87</v>
       </c>
-      <c r="K63" s="106"/>
-      <c r="AI63" s="87"/>
-      <c r="AJ63" s="97"/>
-      <c r="AK63" s="97"/>
-      <c r="AL63" s="97"/>
-      <c r="AM63" s="97"/>
-      <c r="AN63" s="97"/>
-      <c r="AO63" s="97"/>
+      <c r="K63" s="105"/>
+      <c r="AI63" s="86"/>
+      <c r="AJ63" s="96"/>
+      <c r="AK63" s="96"/>
+      <c r="AL63" s="96"/>
+      <c r="AM63" s="96"/>
+      <c r="AN63" s="96"/>
+      <c r="AO63" s="96"/>
     </row>
     <row r="64" spans="2:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="72"/>
-      <c r="C64" s="92"/>
-      <c r="D64" s="271" t="s">
-        <v>296</v>
-      </c>
-      <c r="E64" s="272"/>
-      <c r="F64" s="273"/>
-      <c r="G64" s="274"/>
-      <c r="H64" s="274"/>
-      <c r="I64" s="274"/>
-      <c r="J64" s="275"/>
-      <c r="K64" s="106"/>
-      <c r="M64" s="282"/>
-      <c r="N64" s="283"/>
-      <c r="O64" s="284"/>
-      <c r="P64" s="140"/>
-      <c r="Q64" s="140"/>
-      <c r="R64" s="140"/>
-      <c r="S64" s="140"/>
-      <c r="T64" s="285"/>
-      <c r="U64" s="140"/>
-      <c r="AB64" s="126"/>
-      <c r="AC64" s="127"/>
-      <c r="AD64" s="127"/>
-      <c r="AE64" s="127"/>
-      <c r="AF64" s="127"/>
-      <c r="AG64" s="127"/>
-      <c r="AI64" s="87"/>
-      <c r="AJ64" s="97"/>
-      <c r="AK64" s="97"/>
-      <c r="AL64" s="97"/>
-      <c r="AM64" s="97"/>
-      <c r="AN64" s="97"/>
-      <c r="AO64" s="97"/>
+      <c r="B64" s="71"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="246" t="s">
+        <v>289</v>
+      </c>
+      <c r="E64" s="247"/>
+      <c r="F64" s="248"/>
+      <c r="G64" s="249"/>
+      <c r="H64" s="249"/>
+      <c r="I64" s="249"/>
+      <c r="J64" s="250"/>
+      <c r="K64" s="105"/>
+      <c r="M64" s="257"/>
+      <c r="N64" s="258"/>
+      <c r="O64" s="259"/>
+      <c r="P64" s="139"/>
+      <c r="Q64" s="139"/>
+      <c r="R64" s="139"/>
+      <c r="S64" s="139"/>
+      <c r="T64" s="260"/>
+      <c r="U64" s="139"/>
+      <c r="AB64" s="125"/>
+      <c r="AC64" s="126"/>
+      <c r="AD64" s="126"/>
+      <c r="AE64" s="126"/>
+      <c r="AF64" s="126"/>
+      <c r="AG64" s="126"/>
+      <c r="AI64" s="86"/>
+      <c r="AJ64" s="96"/>
+      <c r="AK64" s="96"/>
+      <c r="AL64" s="96"/>
+      <c r="AM64" s="96"/>
+      <c r="AN64" s="96"/>
+      <c r="AO64" s="96"/>
     </row>
     <row r="65" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="72"/>
-      <c r="C65" s="92"/>
-      <c r="D65" s="196" t="s">
-        <v>295</v>
-      </c>
-      <c r="E65" s="276"/>
-      <c r="F65" s="140"/>
-      <c r="G65" s="262"/>
-      <c r="H65" s="262"/>
-      <c r="I65" s="262"/>
-      <c r="J65" s="277"/>
-      <c r="K65" s="106"/>
-      <c r="M65" s="282"/>
-      <c r="N65" s="283"/>
-      <c r="O65" s="284"/>
-      <c r="P65" s="140"/>
-      <c r="Q65" s="140"/>
-      <c r="R65" s="140"/>
-      <c r="S65" s="140"/>
-      <c r="T65" s="285"/>
-      <c r="U65" s="140"/>
-      <c r="AB65" s="126"/>
-      <c r="AC65" s="127"/>
-      <c r="AD65" s="127"/>
-      <c r="AE65" s="127"/>
-      <c r="AF65" s="127"/>
-      <c r="AG65" s="127"/>
-      <c r="AI65" s="87"/>
-      <c r="AJ65" s="97"/>
-      <c r="AK65" s="97"/>
-      <c r="AL65" s="97"/>
-      <c r="AM65" s="97"/>
-      <c r="AN65" s="97"/>
-      <c r="AO65" s="97"/>
+      <c r="B65" s="71"/>
+      <c r="C65" s="91"/>
+      <c r="D65" s="195" t="s">
+        <v>288</v>
+      </c>
+      <c r="E65" s="251"/>
+      <c r="F65" s="139"/>
+      <c r="G65" s="237"/>
+      <c r="H65" s="237"/>
+      <c r="I65" s="237"/>
+      <c r="J65" s="252"/>
+      <c r="K65" s="105"/>
+      <c r="M65" s="257"/>
+      <c r="N65" s="258"/>
+      <c r="O65" s="259"/>
+      <c r="P65" s="139"/>
+      <c r="Q65" s="139"/>
+      <c r="R65" s="139"/>
+      <c r="S65" s="139"/>
+      <c r="T65" s="260"/>
+      <c r="U65" s="139"/>
+      <c r="AB65" s="125"/>
+      <c r="AC65" s="126"/>
+      <c r="AD65" s="126"/>
+      <c r="AE65" s="126"/>
+      <c r="AF65" s="126"/>
+      <c r="AG65" s="126"/>
+      <c r="AI65" s="86"/>
+      <c r="AJ65" s="96"/>
+      <c r="AK65" s="96"/>
+      <c r="AL65" s="96"/>
+      <c r="AM65" s="96"/>
+      <c r="AN65" s="96"/>
+      <c r="AO65" s="96"/>
     </row>
     <row r="66" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="72"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="196" t="s">
-        <v>110</v>
-      </c>
-      <c r="E66" s="276"/>
-      <c r="F66" s="140"/>
-      <c r="G66" s="262"/>
-      <c r="H66" s="262"/>
-      <c r="I66" s="262"/>
-      <c r="J66" s="277"/>
-      <c r="K66" s="106"/>
-      <c r="M66" s="282"/>
-      <c r="N66" s="283"/>
-      <c r="O66" s="284"/>
-      <c r="P66" s="140"/>
-      <c r="Q66" s="140"/>
-      <c r="R66" s="140"/>
-      <c r="S66" s="140"/>
-      <c r="T66" s="285"/>
-      <c r="U66" s="140"/>
-      <c r="AB66" s="126"/>
-      <c r="AC66" s="127"/>
-      <c r="AD66" s="127"/>
-      <c r="AE66" s="127"/>
-      <c r="AF66" s="127"/>
-      <c r="AG66" s="127"/>
-      <c r="AI66" s="87"/>
-      <c r="AJ66" s="97"/>
-      <c r="AK66" s="97"/>
-      <c r="AL66" s="97"/>
-      <c r="AM66" s="97"/>
-      <c r="AN66" s="97"/>
-      <c r="AO66" s="97"/>
+      <c r="B66" s="71"/>
+      <c r="C66" s="91"/>
+      <c r="D66" s="195" t="s">
+        <v>105</v>
+      </c>
+      <c r="E66" s="251"/>
+      <c r="F66" s="139"/>
+      <c r="G66" s="237"/>
+      <c r="H66" s="237"/>
+      <c r="I66" s="237"/>
+      <c r="J66" s="252"/>
+      <c r="K66" s="105"/>
+      <c r="M66" s="257"/>
+      <c r="N66" s="258"/>
+      <c r="O66" s="259"/>
+      <c r="P66" s="139"/>
+      <c r="Q66" s="139"/>
+      <c r="R66" s="139"/>
+      <c r="S66" s="139"/>
+      <c r="T66" s="260"/>
+      <c r="U66" s="139"/>
+      <c r="AB66" s="125"/>
+      <c r="AC66" s="126"/>
+      <c r="AD66" s="126"/>
+      <c r="AE66" s="126"/>
+      <c r="AF66" s="126"/>
+      <c r="AG66" s="126"/>
+      <c r="AI66" s="86"/>
+      <c r="AJ66" s="96"/>
+      <c r="AK66" s="96"/>
+      <c r="AL66" s="96"/>
+      <c r="AM66" s="96"/>
+      <c r="AN66" s="96"/>
+      <c r="AO66" s="96"/>
     </row>
     <row r="67" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="72"/>
-      <c r="C67" s="92"/>
-      <c r="D67" s="278" t="s">
-        <v>112</v>
-      </c>
-      <c r="E67" s="279"/>
-      <c r="F67" s="113"/>
-      <c r="G67" s="280"/>
-      <c r="H67" s="280"/>
-      <c r="I67" s="280"/>
-      <c r="J67" s="281"/>
-      <c r="K67" s="106"/>
-      <c r="M67" s="282"/>
-      <c r="N67" s="283"/>
-      <c r="O67" s="284"/>
-      <c r="P67" s="140"/>
-      <c r="Q67" s="140"/>
-      <c r="R67" s="140"/>
-      <c r="S67" s="140"/>
-      <c r="T67" s="285"/>
-      <c r="U67" s="140"/>
-      <c r="AB67" s="126"/>
-      <c r="AC67" s="127"/>
-      <c r="AD67" s="127"/>
-      <c r="AE67" s="127"/>
-      <c r="AF67" s="127"/>
-      <c r="AG67" s="127"/>
-      <c r="AI67" s="87"/>
-      <c r="AJ67" s="97"/>
-      <c r="AK67" s="97"/>
-      <c r="AL67" s="97"/>
-      <c r="AM67" s="97"/>
-      <c r="AN67" s="97"/>
-      <c r="AO67" s="97"/>
+      <c r="B67" s="71"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="253" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" s="254"/>
+      <c r="F67" s="112"/>
+      <c r="G67" s="255"/>
+      <c r="H67" s="255"/>
+      <c r="I67" s="255"/>
+      <c r="J67" s="256"/>
+      <c r="K67" s="105"/>
+      <c r="M67" s="257"/>
+      <c r="N67" s="258"/>
+      <c r="O67" s="259"/>
+      <c r="P67" s="139"/>
+      <c r="Q67" s="139"/>
+      <c r="R67" s="139"/>
+      <c r="S67" s="139"/>
+      <c r="T67" s="260"/>
+      <c r="U67" s="139"/>
+      <c r="AB67" s="125"/>
+      <c r="AC67" s="126"/>
+      <c r="AD67" s="126"/>
+      <c r="AE67" s="126"/>
+      <c r="AF67" s="126"/>
+      <c r="AG67" s="126"/>
+      <c r="AI67" s="86"/>
+      <c r="AJ67" s="96"/>
+      <c r="AK67" s="96"/>
+      <c r="AL67" s="96"/>
+      <c r="AM67" s="96"/>
+      <c r="AN67" s="96"/>
+      <c r="AO67" s="96"/>
     </row>
     <row r="68" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="72"/>
-      <c r="C68" s="92"/>
-      <c r="E68" s="125"/>
-      <c r="G68" s="262"/>
-      <c r="H68" s="262"/>
-      <c r="I68" s="262"/>
-      <c r="J68" s="262"/>
-      <c r="K68" s="106"/>
-      <c r="M68" s="286"/>
-      <c r="N68" s="268"/>
-      <c r="O68" s="288" t="str">
-        <f>Rates!C30</f>
+      <c r="B68" s="71"/>
+      <c r="C68" s="91"/>
+      <c r="E68" s="124"/>
+      <c r="G68" s="237"/>
+      <c r="H68" s="237"/>
+      <c r="I68" s="237"/>
+      <c r="J68" s="237"/>
+      <c r="K68" s="105"/>
+      <c r="M68" s="261"/>
+      <c r="N68" s="243"/>
+      <c r="O68" s="263" t="str">
+        <f>Rates!C28</f>
         <v>UW Internal Rates With Additional Labor</v>
       </c>
-      <c r="P68" s="269"/>
-      <c r="Q68" s="269"/>
-      <c r="R68" s="269"/>
-      <c r="S68" s="269"/>
-      <c r="T68" s="270"/>
-      <c r="U68" s="287"/>
-      <c r="AB68" s="126"/>
-      <c r="AC68" s="127"/>
-      <c r="AD68" s="127"/>
-      <c r="AE68" s="127"/>
-      <c r="AF68" s="127"/>
-      <c r="AG68" s="127"/>
-      <c r="AI68" s="87"/>
-      <c r="AJ68" s="97"/>
-      <c r="AK68" s="97"/>
-      <c r="AL68" s="97"/>
-      <c r="AM68" s="97"/>
-      <c r="AN68" s="97"/>
-      <c r="AO68" s="97"/>
-    </row>
-    <row r="69" spans="1:42" s="92" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="210" t="s">
-        <v>93</v>
-      </c>
-      <c r="C69" s="260"/>
-      <c r="D69" s="261"/>
-      <c r="E69" s="263"/>
-      <c r="K69" s="110"/>
-      <c r="L69" s="110"/>
-      <c r="M69" s="253"/>
-      <c r="N69" s="254"/>
-      <c r="O69" s="255" t="str">
+      <c r="P68" s="244"/>
+      <c r="Q68" s="244"/>
+      <c r="R68" s="244"/>
+      <c r="S68" s="244"/>
+      <c r="T68" s="245"/>
+      <c r="U68" s="262"/>
+      <c r="AB68" s="125"/>
+      <c r="AC68" s="126"/>
+      <c r="AD68" s="126"/>
+      <c r="AE68" s="126"/>
+      <c r="AF68" s="126"/>
+      <c r="AG68" s="126"/>
+      <c r="AI68" s="86"/>
+      <c r="AJ68" s="96"/>
+      <c r="AK68" s="96"/>
+      <c r="AL68" s="96"/>
+      <c r="AM68" s="96"/>
+      <c r="AN68" s="96"/>
+      <c r="AO68" s="96"/>
+    </row>
+    <row r="69" spans="1:42" s="91" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="209" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="235"/>
+      <c r="D69" s="236"/>
+      <c r="E69" s="238"/>
+      <c r="K69" s="109"/>
+      <c r="L69" s="109"/>
+      <c r="M69" s="228"/>
+      <c r="N69" s="229"/>
+      <c r="O69" s="230" t="str">
         <f>Rates!E14</f>
         <v>TSQA</v>
       </c>
-      <c r="P69" s="255" t="str">
+      <c r="P69" s="230" t="str">
         <f>Rates!F14</f>
         <v>TSQV</v>
       </c>
-      <c r="Q69" s="255" t="str">
+      <c r="Q69" s="230" t="str">
         <f>Rates!G14</f>
-        <v>Exploris</v>
-      </c>
-      <c r="R69" s="255" t="str">
+        <v>Exploris 1</v>
+      </c>
+      <c r="R69" s="230" t="str">
         <f>Rates!H14</f>
-        <v>Elite</v>
-      </c>
-      <c r="S69" s="255" t="str">
+        <v>Exploris 2</v>
+      </c>
+      <c r="S69" s="230" t="str">
         <f>Rates!I14</f>
         <v>QE +</v>
       </c>
-      <c r="T69" s="255" t="str">
+      <c r="T69" s="230" t="str">
         <f>Rates!J14</f>
         <v>Fusion</v>
       </c>
-      <c r="U69" s="256" t="str">
+      <c r="U69" s="231" t="str">
         <f>Rates!K14</f>
         <v>Lumos</v>
       </c>
-      <c r="AB69" s="247"/>
-      <c r="AC69" s="248"/>
-      <c r="AD69" s="248"/>
-      <c r="AE69" s="248"/>
-      <c r="AF69" s="248"/>
-      <c r="AG69" s="248"/>
-      <c r="AH69" s="257"/>
-      <c r="AI69" s="250"/>
-      <c r="AJ69" s="258"/>
-      <c r="AK69" s="258"/>
-      <c r="AL69" s="258"/>
-      <c r="AM69" s="258"/>
-      <c r="AN69" s="258"/>
-      <c r="AO69" s="258"/>
-      <c r="AP69" s="259"/>
-    </row>
-    <row r="70" spans="1:42" s="72" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB69" s="222"/>
+      <c r="AC69" s="223"/>
+      <c r="AD69" s="223"/>
+      <c r="AE69" s="223"/>
+      <c r="AF69" s="223"/>
+      <c r="AG69" s="223"/>
+      <c r="AH69" s="232"/>
+      <c r="AI69" s="225"/>
+      <c r="AJ69" s="233"/>
+      <c r="AK69" s="233"/>
+      <c r="AL69" s="233"/>
+      <c r="AM69" s="233"/>
+      <c r="AN69" s="233"/>
+      <c r="AO69" s="233"/>
+      <c r="AP69" s="234"/>
+    </row>
+    <row r="70" spans="1:42" s="71" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
-      <c r="C70" s="92"/>
-      <c r="D70" s="92"/>
+      <c r="C70" s="91"/>
+      <c r="D70" s="91"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
-      <c r="K70" s="106"/>
-      <c r="L70" s="106"/>
-      <c r="M70" s="243"/>
-      <c r="N70" s="244" t="s">
+      <c r="K70" s="105"/>
+      <c r="L70" s="105"/>
+      <c r="M70" s="218"/>
+      <c r="N70" s="219" t="s">
+        <v>90</v>
+      </c>
+      <c r="O70" s="220">
+        <f>Rates!E31</f>
+        <v>27</v>
+      </c>
+      <c r="P70" s="220">
+        <f>Rates!F31</f>
+        <v>18</v>
+      </c>
+      <c r="Q70" s="220">
+        <f>Rates!G31</f>
+        <v>31</v>
+      </c>
+      <c r="R70" s="220">
+        <f>Rates!H31</f>
+        <v>31</v>
+      </c>
+      <c r="S70" s="220">
+        <f>Rates!I31</f>
+        <v>31</v>
+      </c>
+      <c r="T70" s="220">
+        <f>Rates!J31</f>
+        <v>31</v>
+      </c>
+      <c r="U70" s="221">
+        <f>Rates!K31</f>
+        <v>31</v>
+      </c>
+      <c r="AB70" s="222"/>
+      <c r="AC70" s="223"/>
+      <c r="AD70" s="223"/>
+      <c r="AE70" s="223"/>
+      <c r="AF70" s="223"/>
+      <c r="AG70" s="223"/>
+      <c r="AH70" s="224"/>
+      <c r="AI70" s="225"/>
+      <c r="AJ70" s="226"/>
+      <c r="AK70" s="226"/>
+      <c r="AL70" s="226"/>
+      <c r="AM70" s="226"/>
+      <c r="AN70" s="226"/>
+      <c r="AO70" s="226"/>
+      <c r="AP70" s="227"/>
+    </row>
+    <row r="71" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" s="71"/>
+      <c r="K71" s="105"/>
+      <c r="M71" s="189"/>
+      <c r="N71" s="190" t="s">
+        <v>91</v>
+      </c>
+      <c r="O71" s="191">
+        <f>Rates!E36</f>
+        <v>25</v>
+      </c>
+      <c r="P71" s="191">
+        <f>Rates!F36</f>
+        <v>25</v>
+      </c>
+      <c r="Q71" s="191">
+        <f>Rates!G36</f>
+        <v>25</v>
+      </c>
+      <c r="R71" s="191">
+        <f>Rates!H36</f>
+        <v>25</v>
+      </c>
+      <c r="S71" s="191">
+        <f>Rates!I36</f>
+        <v>25</v>
+      </c>
+      <c r="T71" s="191">
+        <f>Rates!J36</f>
+        <v>25</v>
+      </c>
+      <c r="U71" s="210">
+        <f>Rates!K36</f>
+        <v>25</v>
+      </c>
+      <c r="AI71" s="86"/>
+      <c r="AJ71" s="86"/>
+      <c r="AK71" s="86"/>
+      <c r="AL71" s="86"/>
+      <c r="AM71" s="86"/>
+      <c r="AN71" s="86"/>
+      <c r="AO71" s="86"/>
+    </row>
+    <row r="72" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="O70" s="245">
-        <f>Rates!E33</f>
-        <v>27</v>
-      </c>
-      <c r="P70" s="245">
-        <f>Rates!F33</f>
-        <v>18</v>
-      </c>
-      <c r="Q70" s="245">
-        <f>Rates!G33</f>
+      <c r="C72" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="278"/>
+      <c r="E72" s="278"/>
+      <c r="F72" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="G72" s="111"/>
+      <c r="M72" s="130" t="s">
+        <v>94</v>
+      </c>
+      <c r="N72" s="192"/>
+      <c r="O72" s="193"/>
+      <c r="P72" s="193"/>
+      <c r="Q72" s="131"/>
+      <c r="R72" s="131"/>
+      <c r="S72" s="131"/>
+      <c r="T72" s="131"/>
+      <c r="U72" s="132"/>
+      <c r="AB72" s="125"/>
+      <c r="AC72" s="125"/>
+      <c r="AD72" s="125"/>
+      <c r="AE72" s="125"/>
+      <c r="AF72" s="125"/>
+      <c r="AG72" s="125"/>
+      <c r="AI72" s="86"/>
+      <c r="AJ72" s="96"/>
+      <c r="AK72" s="96"/>
+      <c r="AL72" s="96"/>
+      <c r="AM72" s="96"/>
+      <c r="AN72" s="96"/>
+      <c r="AO72" s="96"/>
+    </row>
+    <row r="73" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="D73" s="128"/>
+      <c r="M73" s="194" t="s">
+        <v>28</v>
+      </c>
+      <c r="N73" s="192"/>
+      <c r="O73" s="191">
+        <f t="shared" ref="O73:U73" si="3">$F$62*O$70+O$71</f>
+        <v>133</v>
+      </c>
+      <c r="P73" s="191">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="Q73" s="133">
+        <f t="shared" si="3"/>
+        <v>149</v>
+      </c>
+      <c r="R73" s="133">
+        <f t="shared" si="3"/>
+        <v>149</v>
+      </c>
+      <c r="S73" s="133">
+        <f t="shared" si="3"/>
+        <v>149</v>
+      </c>
+      <c r="T73" s="133">
+        <f t="shared" si="3"/>
+        <v>149</v>
+      </c>
+      <c r="U73" s="134">
+        <f t="shared" si="3"/>
+        <v>149</v>
+      </c>
+      <c r="AB73" s="125"/>
+      <c r="AC73" s="126"/>
+      <c r="AD73" s="126"/>
+      <c r="AE73" s="126"/>
+      <c r="AF73" s="126"/>
+      <c r="AG73" s="126"/>
+      <c r="AI73" s="86"/>
+      <c r="AJ73" s="96"/>
+      <c r="AK73" s="96"/>
+      <c r="AL73" s="96"/>
+      <c r="AM73" s="96"/>
+      <c r="AN73" s="96"/>
+      <c r="AO73" s="96"/>
+    </row>
+    <row r="74" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="71"/>
+      <c r="C74" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" s="279"/>
+      <c r="E74" s="279"/>
+      <c r="F74" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="G74" s="111"/>
+      <c r="M74" s="135" t="s">
+        <v>29</v>
+      </c>
+      <c r="N74" s="136"/>
+      <c r="O74" s="137">
+        <f t="shared" ref="O74:U74" si="4">$G$62*O$70+O$71</f>
+        <v>160</v>
+      </c>
+      <c r="P74" s="137">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+      <c r="Q74" s="137">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="R74" s="137">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="S74" s="137">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="T74" s="137">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="U74" s="138">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="AB74" s="127"/>
+      <c r="AC74" s="93"/>
+      <c r="AD74" s="93"/>
+      <c r="AE74" s="93"/>
+      <c r="AF74" s="93"/>
+      <c r="AG74" s="93"/>
+      <c r="AI74" s="86"/>
+      <c r="AJ74" s="96"/>
+      <c r="AK74" s="96"/>
+      <c r="AL74" s="96"/>
+      <c r="AM74" s="96"/>
+      <c r="AN74" s="96"/>
+      <c r="AO74" s="96"/>
+    </row>
+    <row r="75" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" s="71"/>
+      <c r="D75" s="280"/>
+      <c r="E75" s="280"/>
+      <c r="F75" s="280"/>
+      <c r="G75" s="280"/>
+      <c r="H75" s="280"/>
+      <c r="M75" s="194" t="s">
+        <v>30</v>
+      </c>
+      <c r="N75" s="192"/>
+      <c r="O75" s="191">
+        <f t="shared" ref="O75:U75" si="5">$H$62*O$70+O$71</f>
+        <v>160</v>
+      </c>
+      <c r="P75" s="191">
+        <f t="shared" si="5"/>
+        <v>115</v>
+      </c>
+      <c r="Q75" s="133">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="R75" s="133">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="S75" s="133">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="T75" s="133">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="U75" s="134">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="AB75" s="127"/>
+      <c r="AC75" s="93"/>
+      <c r="AD75" s="93"/>
+      <c r="AE75" s="93"/>
+      <c r="AF75" s="93"/>
+      <c r="AG75" s="93"/>
+      <c r="AI75" s="86"/>
+      <c r="AJ75" s="96"/>
+      <c r="AK75" s="96"/>
+      <c r="AL75" s="96"/>
+      <c r="AM75" s="96"/>
+      <c r="AN75" s="96"/>
+      <c r="AO75" s="96"/>
+    </row>
+    <row r="76" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="71"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="71"/>
+      <c r="M76" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="R70" s="245">
-        <f>Rates!H33</f>
-        <v>24</v>
-      </c>
-      <c r="S70" s="245">
-        <f>Rates!I33</f>
-        <v>31</v>
-      </c>
-      <c r="T70" s="245">
-        <f>Rates!J33</f>
-        <v>31</v>
-      </c>
-      <c r="U70" s="246">
-        <f>Rates!K33</f>
-        <v>31</v>
-      </c>
-      <c r="AB70" s="247"/>
-      <c r="AC70" s="248"/>
-      <c r="AD70" s="248"/>
-      <c r="AE70" s="248"/>
-      <c r="AF70" s="248"/>
-      <c r="AG70" s="248"/>
-      <c r="AH70" s="249"/>
-      <c r="AI70" s="250"/>
-      <c r="AJ70" s="251"/>
-      <c r="AK70" s="251"/>
-      <c r="AL70" s="251"/>
-      <c r="AM70" s="251"/>
-      <c r="AN70" s="251"/>
-      <c r="AO70" s="251"/>
-      <c r="AP70" s="252"/>
-    </row>
-    <row r="71" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="C71" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="D71" s="72"/>
-      <c r="K71" s="106"/>
-      <c r="M71" s="190"/>
-      <c r="N71" s="191" t="s">
-        <v>96</v>
-      </c>
-      <c r="O71" s="192">
-        <f>Rates!E38</f>
-        <v>25</v>
-      </c>
-      <c r="P71" s="192">
-        <f>Rates!F38</f>
-        <v>25</v>
-      </c>
-      <c r="Q71" s="192">
-        <f>Rates!G38</f>
-        <v>25</v>
-      </c>
-      <c r="R71" s="192">
-        <f>Rates!H38</f>
-        <v>25</v>
-      </c>
-      <c r="S71" s="192">
-        <f>Rates!I38</f>
-        <v>25</v>
-      </c>
-      <c r="T71" s="192">
-        <f>Rates!J38</f>
-        <v>25</v>
-      </c>
-      <c r="U71" s="211">
-        <f>Rates!K38</f>
-        <v>25</v>
-      </c>
-      <c r="AI71" s="87"/>
-      <c r="AJ71" s="87"/>
-      <c r="AK71" s="87"/>
-      <c r="AL71" s="87"/>
-      <c r="AM71" s="87"/>
-      <c r="AN71" s="87"/>
-      <c r="AO71" s="87"/>
-    </row>
-    <row r="72" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="C72" s="79" t="s">
+      <c r="N76" s="192"/>
+      <c r="O76" s="191">
+        <f t="shared" ref="O76:U76" si="6">$I$62*O$70+O$71</f>
+        <v>187</v>
+      </c>
+      <c r="P76" s="191">
+        <f t="shared" si="6"/>
+        <v>133</v>
+      </c>
+      <c r="Q76" s="133">
+        <f t="shared" si="6"/>
+        <v>211</v>
+      </c>
+      <c r="R76" s="133">
+        <f t="shared" si="6"/>
+        <v>211</v>
+      </c>
+      <c r="S76" s="133">
+        <f t="shared" si="6"/>
+        <v>211</v>
+      </c>
+      <c r="T76" s="133">
+        <f t="shared" si="6"/>
+        <v>211</v>
+      </c>
+      <c r="U76" s="134">
+        <f t="shared" si="6"/>
+        <v>211</v>
+      </c>
+      <c r="AB76" s="127"/>
+      <c r="AC76" s="93"/>
+      <c r="AD76" s="93"/>
+      <c r="AE76" s="93"/>
+      <c r="AF76" s="93"/>
+      <c r="AG76" s="93"/>
+      <c r="AI76" s="86"/>
+      <c r="AJ76" s="96"/>
+      <c r="AK76" s="96"/>
+      <c r="AL76" s="96"/>
+      <c r="AM76" s="96"/>
+      <c r="AN76" s="96"/>
+      <c r="AO76" s="96"/>
+    </row>
+    <row r="77" spans="1:42" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="107"/>
+      <c r="C77" s="110"/>
+      <c r="D77" s="110"/>
+      <c r="E77" s="107"/>
+      <c r="F77" s="107"/>
+      <c r="G77" s="107"/>
+      <c r="H77" s="107"/>
+      <c r="I77" s="107"/>
+      <c r="M77" s="194" t="s">
+        <v>32</v>
+      </c>
+      <c r="N77" s="192"/>
+      <c r="O77" s="191">
+        <f t="shared" ref="O77:U77" si="7">$J$62*O$70+O$71</f>
+        <v>79</v>
+      </c>
+      <c r="P77" s="191">
+        <f t="shared" si="7"/>
+        <v>61</v>
+      </c>
+      <c r="Q77" s="133">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+      <c r="R77" s="133">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+      <c r="S77" s="133">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+      <c r="T77" s="133">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+      <c r="U77" s="134">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+      <c r="AB77" s="127"/>
+      <c r="AC77" s="93"/>
+      <c r="AD77" s="93"/>
+      <c r="AE77" s="93"/>
+      <c r="AF77" s="93"/>
+      <c r="AG77" s="93"/>
+      <c r="AI77" s="86"/>
+      <c r="AJ77" s="96"/>
+      <c r="AK77" s="96"/>
+      <c r="AL77" s="96"/>
+      <c r="AM77" s="96"/>
+      <c r="AN77" s="96"/>
+      <c r="AO77" s="96"/>
+    </row>
+    <row r="78" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78" s="71"/>
+      <c r="D78" s="105"/>
+      <c r="M78" s="246" t="s">
         <v>101</v>
       </c>
-      <c r="D72" s="213"/>
-      <c r="E72" s="213"/>
-      <c r="F72" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="G72" s="112"/>
-      <c r="M72" s="131" t="s">
-        <v>99</v>
-      </c>
-      <c r="N72" s="193"/>
-      <c r="O72" s="194"/>
-      <c r="P72" s="194"/>
-      <c r="Q72" s="132"/>
-      <c r="R72" s="132"/>
-      <c r="S72" s="132"/>
-      <c r="T72" s="132"/>
-      <c r="U72" s="133"/>
-      <c r="AB72" s="126"/>
-      <c r="AC72" s="126"/>
-      <c r="AD72" s="126"/>
-      <c r="AE72" s="126"/>
-      <c r="AF72" s="126"/>
-      <c r="AG72" s="126"/>
-      <c r="AI72" s="87"/>
-      <c r="AJ72" s="97"/>
-      <c r="AK72" s="97"/>
-      <c r="AL72" s="97"/>
-      <c r="AM72" s="97"/>
-      <c r="AN72" s="97"/>
-      <c r="AO72" s="97"/>
-    </row>
-    <row r="73" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="72" t="s">
+      <c r="N78" s="196"/>
+      <c r="O78" s="196"/>
+      <c r="P78" s="196"/>
+      <c r="Q78" s="139"/>
+      <c r="R78" s="139"/>
+      <c r="S78" s="139"/>
+      <c r="T78" s="139"/>
+      <c r="U78" s="140"/>
+      <c r="AB78" s="127"/>
+      <c r="AC78" s="93"/>
+      <c r="AD78" s="93"/>
+      <c r="AE78" s="93"/>
+      <c r="AF78" s="93"/>
+      <c r="AG78" s="93"/>
+      <c r="AI78" s="86"/>
+      <c r="AJ78" s="96"/>
+      <c r="AK78" s="96"/>
+      <c r="AL78" s="96"/>
+      <c r="AM78" s="96"/>
+      <c r="AN78" s="96"/>
+      <c r="AO78" s="96"/>
+    </row>
+    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B79" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="M79" s="195" t="s">
         <v>103</v>
       </c>
-      <c r="C73" s="79" t="s">
-        <v>104</v>
-      </c>
-      <c r="D73" s="129"/>
-      <c r="M73" s="195" t="s">
-        <v>33</v>
-      </c>
-      <c r="N73" s="193"/>
-      <c r="O73" s="192">
-        <f>$F$62*O$70+O$71</f>
-        <v>592</v>
-      </c>
-      <c r="P73" s="192">
-        <f>$F$62*P$70+P$71</f>
-        <v>403</v>
-      </c>
-      <c r="Q73" s="134">
-        <f>$F$62*Q$70+Q$71</f>
-        <v>676</v>
-      </c>
-      <c r="R73" s="134">
-        <f>$F$62*R$70+R$71</f>
-        <v>529</v>
-      </c>
-      <c r="S73" s="134">
-        <f>$F$62*S$70+S$71</f>
-        <v>676</v>
-      </c>
-      <c r="T73" s="134">
-        <f>$F$62*T$70+T$71</f>
-        <v>676</v>
-      </c>
-      <c r="U73" s="135">
-        <f>$F$62*U$70+U$71</f>
-        <v>676</v>
-      </c>
-      <c r="AB73" s="126"/>
-      <c r="AC73" s="127"/>
-      <c r="AD73" s="127"/>
-      <c r="AE73" s="127"/>
-      <c r="AF73" s="127"/>
-      <c r="AG73" s="127"/>
-      <c r="AI73" s="87"/>
-      <c r="AJ73" s="97"/>
-      <c r="AK73" s="97"/>
-      <c r="AL73" s="97"/>
-      <c r="AM73" s="97"/>
-      <c r="AN73" s="97"/>
-      <c r="AO73" s="97"/>
-    </row>
-    <row r="74" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="72"/>
-      <c r="C74" s="79" t="s">
-        <v>101</v>
-      </c>
-      <c r="D74" s="214"/>
-      <c r="E74" s="214"/>
-      <c r="F74" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="G74" s="112"/>
-      <c r="M74" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="N74" s="137"/>
-      <c r="O74" s="138">
-        <f>$G$62*O$70+O$71</f>
-        <v>727</v>
-      </c>
-      <c r="P74" s="138">
-        <f>$G$62*P$70+P$71</f>
-        <v>493</v>
-      </c>
-      <c r="Q74" s="138">
-        <f>$G$62*Q$70+Q$71</f>
-        <v>831</v>
-      </c>
-      <c r="R74" s="138">
-        <f>$G$62*R$70+R$71</f>
-        <v>649</v>
-      </c>
-      <c r="S74" s="138">
-        <f>$G$62*S$70+S$71</f>
-        <v>831</v>
-      </c>
-      <c r="T74" s="138">
-        <f>$G$62*T$70+T$71</f>
-        <v>831</v>
-      </c>
-      <c r="U74" s="139">
-        <f>$G$62*U$70+U$71</f>
-        <v>831</v>
-      </c>
-      <c r="AB74" s="128"/>
-      <c r="AC74" s="94"/>
-      <c r="AD74" s="94"/>
-      <c r="AE74" s="94"/>
-      <c r="AF74" s="94"/>
-      <c r="AG74" s="94"/>
-      <c r="AI74" s="87"/>
-      <c r="AJ74" s="97"/>
-      <c r="AK74" s="97"/>
-      <c r="AL74" s="97"/>
-      <c r="AM74" s="97"/>
-      <c r="AN74" s="97"/>
-      <c r="AO74" s="97"/>
-    </row>
-    <row r="75" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="72" t="s">
+      <c r="N79" s="196"/>
+      <c r="O79" s="196"/>
+      <c r="P79" s="196"/>
+      <c r="Q79" s="139"/>
+      <c r="R79" s="139"/>
+      <c r="S79" s="139"/>
+      <c r="T79" s="139"/>
+      <c r="U79" s="140"/>
+      <c r="AB79" s="127"/>
+      <c r="AC79" s="93"/>
+      <c r="AD79" s="93"/>
+      <c r="AE79" s="93"/>
+      <c r="AF79" s="93"/>
+      <c r="AG79" s="93"/>
+      <c r="AI79" s="86"/>
+      <c r="AJ79" s="96"/>
+      <c r="AK79" s="96"/>
+      <c r="AL79" s="96"/>
+      <c r="AM79" s="96"/>
+      <c r="AN79" s="96"/>
+      <c r="AO79" s="96"/>
+    </row>
+    <row r="80" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="M80" s="195" t="s">
         <v>105</v>
       </c>
-      <c r="C75" s="72"/>
-      <c r="D75" s="215"/>
-      <c r="E75" s="215"/>
-      <c r="F75" s="215"/>
-      <c r="G75" s="215"/>
-      <c r="H75" s="215"/>
-      <c r="M75" s="195" t="s">
-        <v>35</v>
-      </c>
-      <c r="N75" s="193"/>
-      <c r="O75" s="192">
-        <f>$H$62*O$70+O$71</f>
-        <v>862</v>
-      </c>
-      <c r="P75" s="192">
-        <f>$H$62*P$70+P$71</f>
-        <v>583</v>
-      </c>
-      <c r="Q75" s="134">
-        <f>$H$62*Q$70+Q$71</f>
-        <v>986</v>
-      </c>
-      <c r="R75" s="134">
-        <f>$H$62*R$70+R$71</f>
-        <v>769</v>
-      </c>
-      <c r="S75" s="134">
-        <f>$H$62*S$70+S$71</f>
-        <v>986</v>
-      </c>
-      <c r="T75" s="134">
-        <f>$H$62*T$70+T$71</f>
-        <v>986</v>
-      </c>
-      <c r="U75" s="135">
-        <f>$H$62*U$70+U$71</f>
-        <v>986</v>
-      </c>
-      <c r="AB75" s="128"/>
-      <c r="AC75" s="94"/>
-      <c r="AD75" s="94"/>
-      <c r="AE75" s="94"/>
-      <c r="AF75" s="94"/>
-      <c r="AG75" s="94"/>
-      <c r="AI75" s="87"/>
-      <c r="AJ75" s="97"/>
-      <c r="AK75" s="97"/>
-      <c r="AL75" s="97"/>
-      <c r="AM75" s="97"/>
-      <c r="AN75" s="97"/>
-      <c r="AO75" s="97"/>
-    </row>
-    <row r="76" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="72"/>
-      <c r="C76" s="72"/>
-      <c r="D76" s="72"/>
-      <c r="M76" s="195" t="s">
-        <v>36</v>
-      </c>
-      <c r="N76" s="193"/>
-      <c r="O76" s="192">
-        <f>$I$62*O$70+O$71</f>
-        <v>1132</v>
-      </c>
-      <c r="P76" s="192">
-        <f>$I$62*P$70+P$71</f>
-        <v>763</v>
-      </c>
-      <c r="Q76" s="134">
-        <f>$I$62*Q$70+Q$71</f>
-        <v>1296</v>
-      </c>
-      <c r="R76" s="134">
-        <f>$I$62*R$70+R$71</f>
-        <v>1009</v>
-      </c>
-      <c r="S76" s="134">
-        <f>$I$62*S$70+S$71</f>
-        <v>1296</v>
-      </c>
-      <c r="T76" s="134">
-        <f>$I$62*T$70+T$71</f>
-        <v>1296</v>
-      </c>
-      <c r="U76" s="135">
-        <f>$I$62*U$70+U$71</f>
-        <v>1296</v>
-      </c>
-      <c r="AB76" s="128"/>
-      <c r="AC76" s="94"/>
-      <c r="AD76" s="94"/>
-      <c r="AE76" s="94"/>
-      <c r="AF76" s="94"/>
-      <c r="AG76" s="94"/>
-      <c r="AI76" s="87"/>
-      <c r="AJ76" s="97"/>
-      <c r="AK76" s="97"/>
-      <c r="AL76" s="97"/>
-      <c r="AM76" s="97"/>
-      <c r="AN76" s="97"/>
-      <c r="AO76" s="97"/>
-    </row>
-    <row r="77" spans="1:42" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="108"/>
-      <c r="C77" s="111"/>
-      <c r="D77" s="111"/>
-      <c r="E77" s="108"/>
-      <c r="F77" s="108"/>
-      <c r="G77" s="108"/>
-      <c r="H77" s="108"/>
-      <c r="I77" s="108"/>
-      <c r="M77" s="195" t="s">
-        <v>37</v>
-      </c>
-      <c r="N77" s="193"/>
-      <c r="O77" s="192">
-        <f>$J$62*O$70+O$71</f>
-        <v>79</v>
-      </c>
-      <c r="P77" s="192">
-        <f>$J$62*P$70+P$71</f>
-        <v>61</v>
-      </c>
-      <c r="Q77" s="134">
-        <f>$J$62*Q$70+Q$71</f>
-        <v>87</v>
-      </c>
-      <c r="R77" s="134">
-        <f>$J$62*R$70+R$71</f>
-        <v>73</v>
-      </c>
-      <c r="S77" s="134">
-        <f>$J$62*S$70+S$71</f>
-        <v>87</v>
-      </c>
-      <c r="T77" s="134">
-        <f>$J$62*T$70+T$71</f>
-        <v>87</v>
-      </c>
-      <c r="U77" s="135">
-        <f>$J$62*U$70+U$71</f>
-        <v>87</v>
-      </c>
-      <c r="AB77" s="128"/>
-      <c r="AC77" s="94"/>
-      <c r="AD77" s="94"/>
-      <c r="AE77" s="94"/>
-      <c r="AF77" s="94"/>
-      <c r="AG77" s="94"/>
-      <c r="AI77" s="87"/>
-      <c r="AJ77" s="97"/>
-      <c r="AK77" s="97"/>
-      <c r="AL77" s="97"/>
-      <c r="AM77" s="97"/>
-      <c r="AN77" s="97"/>
-      <c r="AO77" s="97"/>
-    </row>
-    <row r="78" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="C78" s="72"/>
-      <c r="D78" s="106"/>
-      <c r="M78" s="271" t="s">
-        <v>106</v>
-      </c>
-      <c r="N78" s="197"/>
-      <c r="O78" s="197"/>
-      <c r="P78" s="197"/>
-      <c r="Q78" s="140"/>
-      <c r="R78" s="140"/>
-      <c r="S78" s="140"/>
-      <c r="T78" s="140"/>
-      <c r="U78" s="141"/>
-      <c r="AB78" s="128"/>
-      <c r="AC78" s="94"/>
-      <c r="AD78" s="94"/>
-      <c r="AE78" s="94"/>
-      <c r="AF78" s="94"/>
-      <c r="AG78" s="94"/>
-      <c r="AI78" s="87"/>
-      <c r="AJ78" s="97"/>
-      <c r="AK78" s="97"/>
-      <c r="AL78" s="97"/>
-      <c r="AM78" s="97"/>
-      <c r="AN78" s="97"/>
-      <c r="AO78" s="97"/>
-    </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B79" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="M79" s="196" t="s">
-        <v>108</v>
-      </c>
-      <c r="N79" s="197"/>
-      <c r="O79" s="197"/>
-      <c r="P79" s="197"/>
-      <c r="Q79" s="140"/>
-      <c r="R79" s="140"/>
-      <c r="S79" s="140"/>
-      <c r="T79" s="140"/>
-      <c r="U79" s="141"/>
-      <c r="AB79" s="128"/>
-      <c r="AC79" s="94"/>
-      <c r="AD79" s="94"/>
-      <c r="AE79" s="94"/>
-      <c r="AF79" s="94"/>
-      <c r="AG79" s="94"/>
-      <c r="AI79" s="87"/>
-      <c r="AJ79" s="97"/>
-      <c r="AK79" s="97"/>
-      <c r="AL79" s="97"/>
-      <c r="AM79" s="97"/>
-      <c r="AN79" s="97"/>
-      <c r="AO79" s="97"/>
-    </row>
-    <row r="80" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="M80" s="196" t="s">
-        <v>110</v>
-      </c>
-      <c r="N80" s="198"/>
-      <c r="O80" s="198"/>
-      <c r="P80" s="197"/>
-      <c r="Q80" s="140"/>
-      <c r="R80" s="140"/>
-      <c r="S80" s="140"/>
-      <c r="T80" s="140"/>
-      <c r="U80" s="141"/>
-      <c r="AI80" s="87"/>
-      <c r="AJ80" s="97"/>
-      <c r="AK80" s="97"/>
-      <c r="AL80" s="97"/>
-      <c r="AM80" s="97"/>
-      <c r="AN80" s="97"/>
-      <c r="AO80" s="97"/>
+      <c r="N80" s="197"/>
+      <c r="O80" s="197"/>
+      <c r="P80" s="196"/>
+      <c r="Q80" s="139"/>
+      <c r="R80" s="139"/>
+      <c r="S80" s="139"/>
+      <c r="T80" s="139"/>
+      <c r="U80" s="140"/>
+      <c r="AI80" s="86"/>
+      <c r="AJ80" s="96"/>
+      <c r="AK80" s="96"/>
+      <c r="AL80" s="96"/>
+      <c r="AM80" s="96"/>
+      <c r="AN80" s="96"/>
+      <c r="AO80" s="96"/>
     </row>
     <row r="81" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="72" t="str">
+      <c r="B81" s="71" t="str">
         <f>B23</f>
         <v>Species to use for data analysis:</v>
       </c>
-      <c r="C81" s="72"/>
-      <c r="D81" s="216">
+      <c r="C81" s="71"/>
+      <c r="D81" s="275">
         <f>C23</f>
         <v>0</v>
       </c>
-      <c r="E81" s="216"/>
-      <c r="F81" s="216"/>
-      <c r="G81" s="216"/>
-      <c r="H81" s="216"/>
-      <c r="M81" s="278" t="s">
-        <v>112</v>
-      </c>
-      <c r="N81" s="199"/>
-      <c r="O81" s="199"/>
-      <c r="P81" s="200"/>
-      <c r="Q81" s="113"/>
-      <c r="R81" s="113"/>
-      <c r="S81" s="113"/>
-      <c r="T81" s="113"/>
-      <c r="U81" s="142"/>
-      <c r="AB81" s="126"/>
-      <c r="AC81" s="126"/>
-      <c r="AD81" s="126"/>
-      <c r="AE81" s="126"/>
-      <c r="AF81" s="126"/>
-      <c r="AG81" s="126"/>
-      <c r="AI81" s="87"/>
-      <c r="AJ81" s="97"/>
-      <c r="AK81" s="97"/>
-      <c r="AL81" s="97"/>
-      <c r="AM81" s="97"/>
-      <c r="AN81" s="97"/>
-      <c r="AO81" s="97"/>
+      <c r="E81" s="275"/>
+      <c r="F81" s="275"/>
+      <c r="G81" s="275"/>
+      <c r="H81" s="275"/>
+      <c r="M81" s="253" t="s">
+        <v>107</v>
+      </c>
+      <c r="N81" s="198"/>
+      <c r="O81" s="198"/>
+      <c r="P81" s="199"/>
+      <c r="Q81" s="112"/>
+      <c r="R81" s="112"/>
+      <c r="S81" s="112"/>
+      <c r="T81" s="112"/>
+      <c r="U81" s="141"/>
+      <c r="AB81" s="125"/>
+      <c r="AC81" s="125"/>
+      <c r="AD81" s="125"/>
+      <c r="AE81" s="125"/>
+      <c r="AF81" s="125"/>
+      <c r="AG81" s="125"/>
+      <c r="AI81" s="86"/>
+      <c r="AJ81" s="96"/>
+      <c r="AK81" s="96"/>
+      <c r="AL81" s="96"/>
+      <c r="AM81" s="96"/>
+      <c r="AN81" s="96"/>
+      <c r="AO81" s="96"/>
     </row>
     <row r="82" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="N82" s="187"/>
-      <c r="O82" s="187"/>
-      <c r="AB82" s="126"/>
-      <c r="AC82" s="127"/>
-      <c r="AD82" s="127"/>
-      <c r="AE82" s="127"/>
-      <c r="AF82" s="127"/>
-      <c r="AG82" s="127"/>
-      <c r="AI82" s="87"/>
-      <c r="AJ82" s="97"/>
-      <c r="AK82" s="97"/>
-      <c r="AL82" s="97"/>
-      <c r="AM82" s="97"/>
-      <c r="AN82" s="97"/>
-      <c r="AO82" s="97"/>
+      <c r="B82" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="N82" s="186"/>
+      <c r="O82" s="186"/>
+      <c r="AB82" s="125"/>
+      <c r="AC82" s="126"/>
+      <c r="AD82" s="126"/>
+      <c r="AE82" s="126"/>
+      <c r="AF82" s="126"/>
+      <c r="AG82" s="126"/>
+      <c r="AI82" s="86"/>
+      <c r="AJ82" s="96"/>
+      <c r="AK82" s="96"/>
+      <c r="AL82" s="96"/>
+      <c r="AM82" s="96"/>
+      <c r="AN82" s="96"/>
+      <c r="AO82" s="96"/>
     </row>
     <row r="83" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M83" s="187"/>
-      <c r="N83" s="187"/>
-      <c r="O83" s="187"/>
-      <c r="AB83" s="128"/>
-      <c r="AC83" s="94"/>
-      <c r="AD83" s="94"/>
-      <c r="AE83" s="94"/>
-      <c r="AF83" s="94"/>
-      <c r="AG83" s="94"/>
-      <c r="AI83" s="87"/>
-      <c r="AJ83" s="97"/>
-      <c r="AK83" s="97"/>
-      <c r="AL83" s="97"/>
-      <c r="AM83" s="97"/>
-      <c r="AN83" s="97"/>
-      <c r="AO83" s="97"/>
+      <c r="M83" s="186"/>
+      <c r="N83" s="186"/>
+      <c r="O83" s="186"/>
+      <c r="AB83" s="127"/>
+      <c r="AC83" s="93"/>
+      <c r="AD83" s="93"/>
+      <c r="AE83" s="93"/>
+      <c r="AF83" s="93"/>
+      <c r="AG83" s="93"/>
+      <c r="AI83" s="86"/>
+      <c r="AJ83" s="96"/>
+      <c r="AK83" s="96"/>
+      <c r="AL83" s="96"/>
+      <c r="AM83" s="96"/>
+      <c r="AN83" s="96"/>
+      <c r="AO83" s="96"/>
     </row>
     <row r="84" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AB84" s="128"/>
-      <c r="AC84" s="94"/>
-      <c r="AD84" s="94"/>
-      <c r="AE84" s="94"/>
-      <c r="AF84" s="94"/>
-      <c r="AG84" s="94"/>
-      <c r="AI84" s="87"/>
-      <c r="AJ84" s="97"/>
-      <c r="AK84" s="97"/>
-      <c r="AL84" s="97"/>
-      <c r="AM84" s="97"/>
-      <c r="AN84" s="97"/>
-      <c r="AO84" s="97"/>
+      <c r="AB84" s="127"/>
+      <c r="AC84" s="93"/>
+      <c r="AD84" s="93"/>
+      <c r="AE84" s="93"/>
+      <c r="AF84" s="93"/>
+      <c r="AG84" s="93"/>
+      <c r="AI84" s="86"/>
+      <c r="AJ84" s="96"/>
+      <c r="AK84" s="96"/>
+      <c r="AL84" s="96"/>
+      <c r="AM84" s="96"/>
+      <c r="AN84" s="96"/>
+      <c r="AO84" s="96"/>
     </row>
     <row r="85" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C85" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E85" s="113"/>
-      <c r="F85" s="113"/>
-      <c r="G85" s="113"/>
-      <c r="H85" s="113"/>
-      <c r="I85" s="113"/>
-      <c r="AB85" s="128"/>
-      <c r="AC85" s="94"/>
-      <c r="AD85" s="94"/>
-      <c r="AE85" s="94"/>
-      <c r="AF85" s="94"/>
-      <c r="AG85" s="94"/>
-      <c r="AI85" s="87"/>
-      <c r="AJ85" s="97"/>
-      <c r="AK85" s="97"/>
-      <c r="AL85" s="97"/>
-      <c r="AM85" s="97"/>
-      <c r="AN85" s="97"/>
-      <c r="AO85" s="97"/>
+        <v>109</v>
+      </c>
+      <c r="E85" s="112"/>
+      <c r="F85" s="112"/>
+      <c r="G85" s="112"/>
+      <c r="H85" s="112"/>
+      <c r="I85" s="112"/>
+      <c r="AB85" s="127"/>
+      <c r="AC85" s="93"/>
+      <c r="AD85" s="93"/>
+      <c r="AE85" s="93"/>
+      <c r="AF85" s="93"/>
+      <c r="AG85" s="93"/>
+      <c r="AI85" s="86"/>
+      <c r="AJ85" s="96"/>
+      <c r="AK85" s="96"/>
+      <c r="AL85" s="96"/>
+      <c r="AM85" s="96"/>
+      <c r="AN85" s="96"/>
+      <c r="AO85" s="96"/>
     </row>
     <row r="86" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AB86" s="128"/>
-      <c r="AC86" s="94"/>
-      <c r="AD86" s="94"/>
-      <c r="AE86" s="94"/>
-      <c r="AF86" s="94"/>
-      <c r="AG86" s="94"/>
-      <c r="AI86" s="87"/>
-      <c r="AJ86" s="97"/>
-      <c r="AK86" s="97"/>
-      <c r="AL86" s="97"/>
-      <c r="AM86" s="97"/>
-      <c r="AN86" s="97"/>
-      <c r="AO86" s="97"/>
+      <c r="AB86" s="127"/>
+      <c r="AC86" s="93"/>
+      <c r="AD86" s="93"/>
+      <c r="AE86" s="93"/>
+      <c r="AF86" s="93"/>
+      <c r="AG86" s="93"/>
+      <c r="AI86" s="86"/>
+      <c r="AJ86" s="96"/>
+      <c r="AK86" s="96"/>
+      <c r="AL86" s="96"/>
+      <c r="AM86" s="96"/>
+      <c r="AN86" s="96"/>
+      <c r="AO86" s="96"/>
     </row>
     <row r="87" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="113"/>
-      <c r="D87" s="113"/>
-      <c r="E87" s="113"/>
-      <c r="F87" s="113"/>
-      <c r="G87" s="113"/>
-      <c r="H87" s="113"/>
-      <c r="I87" s="113"/>
-      <c r="AB87" s="128"/>
-      <c r="AC87" s="94"/>
-      <c r="AD87" s="94"/>
-      <c r="AE87" s="94"/>
-      <c r="AF87" s="94"/>
-      <c r="AG87" s="94"/>
-      <c r="AI87" s="87"/>
-      <c r="AJ87" s="97"/>
-      <c r="AK87" s="97"/>
-      <c r="AL87" s="97"/>
-      <c r="AM87" s="97"/>
-      <c r="AN87" s="97"/>
-      <c r="AO87" s="97"/>
+      <c r="C87" s="112"/>
+      <c r="D87" s="112"/>
+      <c r="E87" s="112"/>
+      <c r="F87" s="112"/>
+      <c r="G87" s="112"/>
+      <c r="H87" s="112"/>
+      <c r="I87" s="112"/>
+      <c r="AB87" s="127"/>
+      <c r="AC87" s="93"/>
+      <c r="AD87" s="93"/>
+      <c r="AE87" s="93"/>
+      <c r="AF87" s="93"/>
+      <c r="AG87" s="93"/>
+      <c r="AI87" s="86"/>
+      <c r="AJ87" s="96"/>
+      <c r="AK87" s="96"/>
+      <c r="AL87" s="96"/>
+      <c r="AM87" s="96"/>
+      <c r="AN87" s="96"/>
+      <c r="AO87" s="96"/>
     </row>
     <row r="88" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C88" s="130"/>
-      <c r="D88" s="113"/>
+        <v>110</v>
+      </c>
+      <c r="C88" s="129"/>
+      <c r="D88" s="112"/>
       <c r="E88" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F88" s="113"/>
+        <v>111</v>
+      </c>
+      <c r="F88" s="112"/>
       <c r="G88" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB88" s="128"/>
-      <c r="AC88" s="94"/>
-      <c r="AD88" s="94"/>
-      <c r="AE88" s="94"/>
-      <c r="AF88" s="94"/>
-      <c r="AG88" s="94"/>
-      <c r="AI88" s="87"/>
-      <c r="AJ88" s="97"/>
-      <c r="AK88" s="97"/>
-      <c r="AL88" s="97"/>
-      <c r="AM88" s="97"/>
-      <c r="AN88" s="97"/>
-      <c r="AO88" s="97"/>
+        <v>112</v>
+      </c>
+      <c r="AB88" s="127"/>
+      <c r="AC88" s="93"/>
+      <c r="AD88" s="93"/>
+      <c r="AE88" s="93"/>
+      <c r="AF88" s="93"/>
+      <c r="AG88" s="93"/>
+      <c r="AI88" s="86"/>
+      <c r="AJ88" s="96"/>
+      <c r="AK88" s="96"/>
+      <c r="AL88" s="96"/>
+      <c r="AM88" s="96"/>
+      <c r="AN88" s="96"/>
+      <c r="AO88" s="96"/>
     </row>
     <row r="89" spans="2:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="108"/>
-      <c r="C89" s="111"/>
-      <c r="D89" s="111"/>
-      <c r="E89" s="108"/>
-      <c r="F89" s="108"/>
-      <c r="G89" s="108"/>
-      <c r="H89" s="108"/>
-      <c r="I89" s="108"/>
-      <c r="AI89" s="87"/>
-      <c r="AJ89" s="97"/>
-      <c r="AK89" s="97"/>
-      <c r="AL89" s="97"/>
-      <c r="AM89" s="97"/>
-      <c r="AN89" s="97"/>
-      <c r="AO89" s="97"/>
+      <c r="B89" s="107"/>
+      <c r="C89" s="110"/>
+      <c r="D89" s="110"/>
+      <c r="E89" s="107"/>
+      <c r="F89" s="107"/>
+      <c r="G89" s="107"/>
+      <c r="H89" s="107"/>
+      <c r="I89" s="107"/>
+      <c r="AI89" s="86"/>
+      <c r="AJ89" s="96"/>
+      <c r="AK89" s="96"/>
+      <c r="AL89" s="96"/>
+      <c r="AM89" s="96"/>
+      <c r="AN89" s="96"/>
+      <c r="AO89" s="96"/>
     </row>
     <row r="90" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AI90" s="87"/>
-      <c r="AJ90" s="97"/>
-      <c r="AK90" s="97"/>
-      <c r="AL90" s="97"/>
-      <c r="AM90" s="97"/>
-      <c r="AN90" s="97"/>
-      <c r="AO90" s="97"/>
+      <c r="AI90" s="86"/>
+      <c r="AJ90" s="96"/>
+      <c r="AK90" s="96"/>
+      <c r="AL90" s="96"/>
+      <c r="AM90" s="96"/>
+      <c r="AN90" s="96"/>
+      <c r="AO90" s="96"/>
     </row>
     <row r="91" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AI91" s="87"/>
-      <c r="AJ91" s="97"/>
-      <c r="AK91" s="97"/>
-      <c r="AL91" s="97"/>
-      <c r="AM91" s="97"/>
-      <c r="AN91" s="97"/>
-      <c r="AO91" s="97"/>
+      <c r="AI91" s="86"/>
+      <c r="AJ91" s="96"/>
+      <c r="AK91" s="96"/>
+      <c r="AL91" s="96"/>
+      <c r="AM91" s="96"/>
+      <c r="AN91" s="96"/>
+      <c r="AO91" s="96"/>
     </row>
     <row r="92" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AI92" s="87"/>
-      <c r="AJ92" s="97"/>
-      <c r="AK92" s="97"/>
-      <c r="AL92" s="97"/>
-      <c r="AM92" s="97"/>
-      <c r="AN92" s="97"/>
-      <c r="AO92" s="97"/>
+      <c r="AI92" s="86"/>
+      <c r="AJ92" s="96"/>
+      <c r="AK92" s="96"/>
+      <c r="AL92" s="96"/>
+      <c r="AM92" s="96"/>
+      <c r="AN92" s="96"/>
+      <c r="AO92" s="96"/>
     </row>
     <row r="93" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AI93" s="87"/>
-      <c r="AJ93" s="97"/>
-      <c r="AK93" s="97"/>
-      <c r="AL93" s="97"/>
-      <c r="AM93" s="97"/>
-      <c r="AN93" s="97"/>
-      <c r="AO93" s="97"/>
+      <c r="AI93" s="86"/>
+      <c r="AJ93" s="96"/>
+      <c r="AK93" s="96"/>
+      <c r="AL93" s="96"/>
+      <c r="AM93" s="96"/>
+      <c r="AN93" s="96"/>
+      <c r="AO93" s="96"/>
     </row>
     <row r="94" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AI94" s="87"/>
-      <c r="AJ94" s="97"/>
-      <c r="AK94" s="97"/>
-      <c r="AL94" s="97"/>
-      <c r="AM94" s="97"/>
-      <c r="AN94" s="97"/>
-      <c r="AO94" s="97"/>
+      <c r="AI94" s="86"/>
+      <c r="AJ94" s="96"/>
+      <c r="AK94" s="96"/>
+      <c r="AL94" s="96"/>
+      <c r="AM94" s="96"/>
+      <c r="AN94" s="96"/>
+      <c r="AO94" s="96"/>
     </row>
     <row r="95" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AI95" s="87"/>
-      <c r="AJ95" s="97"/>
-      <c r="AK95" s="97"/>
-      <c r="AL95" s="97"/>
-      <c r="AM95" s="97"/>
-      <c r="AN95" s="97"/>
-      <c r="AO95" s="97"/>
+      <c r="AI95" s="86"/>
+      <c r="AJ95" s="96"/>
+      <c r="AK95" s="96"/>
+      <c r="AL95" s="96"/>
+      <c r="AM95" s="96"/>
+      <c r="AN95" s="96"/>
+      <c r="AO95" s="96"/>
     </row>
     <row r="96" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="97" spans="35:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AI97" s="85"/>
-      <c r="AJ97" s="86"/>
-      <c r="AK97" s="86"/>
-      <c r="AL97" s="86"/>
-      <c r="AM97" s="86"/>
-      <c r="AN97" s="86"/>
-      <c r="AO97" s="86"/>
+      <c r="AI97" s="84"/>
+      <c r="AJ97" s="85"/>
+      <c r="AK97" s="85"/>
+      <c r="AL97" s="85"/>
+      <c r="AM97" s="85"/>
+      <c r="AN97" s="85"/>
+      <c r="AO97" s="85"/>
     </row>
     <row r="98" spans="35:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AI98" s="87"/>
-      <c r="AJ98" s="87"/>
-      <c r="AK98" s="87"/>
-      <c r="AL98" s="87"/>
-      <c r="AM98" s="87"/>
-      <c r="AN98" s="87"/>
-      <c r="AO98" s="87"/>
+      <c r="AI98" s="86"/>
+      <c r="AJ98" s="86"/>
+      <c r="AK98" s="86"/>
+      <c r="AL98" s="86"/>
+      <c r="AM98" s="86"/>
+      <c r="AN98" s="86"/>
+      <c r="AO98" s="86"/>
     </row>
     <row r="99" spans="35:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AI99" s="87"/>
-      <c r="AJ99" s="87"/>
-      <c r="AK99" s="87"/>
-      <c r="AL99" s="87"/>
-      <c r="AM99" s="87"/>
-      <c r="AN99" s="87"/>
-      <c r="AO99" s="87"/>
+      <c r="AI99" s="86"/>
+      <c r="AJ99" s="86"/>
+      <c r="AK99" s="86"/>
+      <c r="AL99" s="86"/>
+      <c r="AM99" s="86"/>
+      <c r="AN99" s="86"/>
+      <c r="AO99" s="86"/>
     </row>
     <row r="100" spans="35:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AI100" s="87"/>
-      <c r="AJ100" s="97"/>
-      <c r="AK100" s="97"/>
-      <c r="AL100" s="97"/>
-      <c r="AM100" s="97"/>
-      <c r="AN100" s="97"/>
-      <c r="AO100" s="97"/>
+      <c r="AI100" s="86"/>
+      <c r="AJ100" s="96"/>
+      <c r="AK100" s="96"/>
+      <c r="AL100" s="96"/>
+      <c r="AM100" s="96"/>
+      <c r="AN100" s="96"/>
+      <c r="AO100" s="96"/>
     </row>
     <row r="101" spans="35:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AI101" s="87"/>
-      <c r="AJ101" s="97"/>
-      <c r="AK101" s="97"/>
-      <c r="AL101" s="97"/>
-      <c r="AM101" s="97"/>
-      <c r="AN101" s="97"/>
-      <c r="AO101" s="97"/>
+      <c r="AI101" s="86"/>
+      <c r="AJ101" s="96"/>
+      <c r="AK101" s="96"/>
+      <c r="AL101" s="96"/>
+      <c r="AM101" s="96"/>
+      <c r="AN101" s="96"/>
+      <c r="AO101" s="96"/>
     </row>
     <row r="102" spans="35:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AI102" s="87"/>
-      <c r="AJ102" s="97"/>
-      <c r="AK102" s="97"/>
-      <c r="AL102" s="97"/>
-      <c r="AM102" s="97"/>
-      <c r="AN102" s="97"/>
-      <c r="AO102" s="97"/>
+      <c r="AI102" s="86"/>
+      <c r="AJ102" s="96"/>
+      <c r="AK102" s="96"/>
+      <c r="AL102" s="96"/>
+      <c r="AM102" s="96"/>
+      <c r="AN102" s="96"/>
+      <c r="AO102" s="96"/>
     </row>
     <row r="103" spans="35:41" x14ac:dyDescent="0.25">
-      <c r="AI103" s="87"/>
-      <c r="AJ103" s="97"/>
-      <c r="AK103" s="97"/>
-      <c r="AL103" s="97"/>
-      <c r="AM103" s="97"/>
-      <c r="AN103" s="97"/>
-      <c r="AO103" s="97"/>
+      <c r="AI103" s="86"/>
+      <c r="AJ103" s="96"/>
+      <c r="AK103" s="96"/>
+      <c r="AL103" s="96"/>
+      <c r="AM103" s="96"/>
+      <c r="AN103" s="96"/>
+      <c r="AO103" s="96"/>
     </row>
     <row r="104" spans="35:41" x14ac:dyDescent="0.25">
-      <c r="AI104" s="87"/>
-      <c r="AJ104" s="97"/>
-      <c r="AK104" s="97"/>
-      <c r="AL104" s="97"/>
-      <c r="AM104" s="97"/>
-      <c r="AN104" s="97"/>
-      <c r="AO104" s="97"/>
+      <c r="AI104" s="86"/>
+      <c r="AJ104" s="96"/>
+      <c r="AK104" s="96"/>
+      <c r="AL104" s="96"/>
+      <c r="AM104" s="96"/>
+      <c r="AN104" s="96"/>
+      <c r="AO104" s="96"/>
     </row>
     <row r="105" spans="35:41" x14ac:dyDescent="0.25">
-      <c r="AI105" s="87"/>
-      <c r="AJ105" s="97"/>
-      <c r="AK105" s="97"/>
-      <c r="AL105" s="97"/>
-      <c r="AM105" s="97"/>
-      <c r="AN105" s="97"/>
-      <c r="AO105" s="97"/>
+      <c r="AI105" s="86"/>
+      <c r="AJ105" s="96"/>
+      <c r="AK105" s="96"/>
+      <c r="AL105" s="96"/>
+      <c r="AM105" s="96"/>
+      <c r="AN105" s="96"/>
+      <c r="AO105" s="96"/>
     </row>
     <row r="106" spans="35:41" x14ac:dyDescent="0.25">
-      <c r="AI106" s="87"/>
-      <c r="AJ106" s="97"/>
-      <c r="AK106" s="97"/>
-      <c r="AL106" s="97"/>
-      <c r="AM106" s="97"/>
-      <c r="AN106" s="97"/>
-      <c r="AO106" s="97"/>
+      <c r="AI106" s="86"/>
+      <c r="AJ106" s="96"/>
+      <c r="AK106" s="96"/>
+      <c r="AL106" s="96"/>
+      <c r="AM106" s="96"/>
+      <c r="AN106" s="96"/>
+      <c r="AO106" s="96"/>
     </row>
     <row r="107" spans="35:41" x14ac:dyDescent="0.25">
-      <c r="AI107" s="87"/>
-      <c r="AJ107" s="97"/>
-      <c r="AK107" s="97"/>
-      <c r="AL107" s="97"/>
-      <c r="AM107" s="97"/>
-      <c r="AN107" s="97"/>
-      <c r="AO107" s="97"/>
+      <c r="AI107" s="86"/>
+      <c r="AJ107" s="96"/>
+      <c r="AK107" s="96"/>
+      <c r="AL107" s="96"/>
+      <c r="AM107" s="96"/>
+      <c r="AN107" s="96"/>
+      <c r="AO107" s="96"/>
     </row>
     <row r="108" spans="35:41" x14ac:dyDescent="0.25">
-      <c r="AI108" s="87"/>
-      <c r="AJ108" s="97"/>
-      <c r="AK108" s="97"/>
-      <c r="AL108" s="97"/>
-      <c r="AM108" s="97"/>
-      <c r="AN108" s="97"/>
-      <c r="AO108" s="97"/>
+      <c r="AI108" s="86"/>
+      <c r="AJ108" s="96"/>
+      <c r="AK108" s="96"/>
+      <c r="AL108" s="96"/>
+      <c r="AM108" s="96"/>
+      <c r="AN108" s="96"/>
+      <c r="AO108" s="96"/>
     </row>
     <row r="109" spans="35:41" x14ac:dyDescent="0.25">
-      <c r="AI109" s="87"/>
-      <c r="AJ109" s="97"/>
-      <c r="AK109" s="97"/>
-      <c r="AL109" s="97"/>
-      <c r="AM109" s="97"/>
-      <c r="AN109" s="97"/>
-      <c r="AO109" s="97"/>
+      <c r="AI109" s="86"/>
+      <c r="AJ109" s="96"/>
+      <c r="AK109" s="96"/>
+      <c r="AL109" s="96"/>
+      <c r="AM109" s="96"/>
+      <c r="AN109" s="96"/>
+      <c r="AO109" s="96"/>
     </row>
     <row r="110" spans="35:41" x14ac:dyDescent="0.25">
-      <c r="AI110" s="87"/>
-      <c r="AJ110" s="97"/>
-      <c r="AK110" s="97"/>
-      <c r="AL110" s="97"/>
-      <c r="AM110" s="97"/>
-      <c r="AN110" s="97"/>
-      <c r="AO110" s="97"/>
+      <c r="AI110" s="86"/>
+      <c r="AJ110" s="96"/>
+      <c r="AK110" s="96"/>
+      <c r="AL110" s="96"/>
+      <c r="AM110" s="96"/>
+      <c r="AN110" s="96"/>
+      <c r="AO110" s="96"/>
     </row>
     <row r="111" spans="35:41" x14ac:dyDescent="0.25">
-      <c r="AI111" s="87"/>
-      <c r="AJ111" s="97"/>
-      <c r="AK111" s="97"/>
-      <c r="AL111" s="97"/>
-      <c r="AM111" s="97"/>
-      <c r="AN111" s="97"/>
-      <c r="AO111" s="97"/>
+      <c r="AI111" s="86"/>
+      <c r="AJ111" s="96"/>
+      <c r="AK111" s="96"/>
+      <c r="AL111" s="96"/>
+      <c r="AM111" s="96"/>
+      <c r="AN111" s="96"/>
+      <c r="AO111" s="96"/>
     </row>
     <row r="112" spans="35:41" x14ac:dyDescent="0.25">
-      <c r="AI112" s="87"/>
-      <c r="AJ112" s="97"/>
-      <c r="AK112" s="97"/>
-      <c r="AL112" s="97"/>
-      <c r="AM112" s="97"/>
-      <c r="AN112" s="97"/>
-      <c r="AO112" s="97"/>
+      <c r="AI112" s="86"/>
+      <c r="AJ112" s="96"/>
+      <c r="AK112" s="96"/>
+      <c r="AL112" s="96"/>
+      <c r="AM112" s="96"/>
+      <c r="AN112" s="96"/>
+      <c r="AO112" s="96"/>
     </row>
     <row r="113" spans="35:42" x14ac:dyDescent="0.25">
-      <c r="AI113" s="87"/>
-      <c r="AJ113" s="97"/>
-      <c r="AK113" s="97"/>
-      <c r="AL113" s="97"/>
-      <c r="AM113" s="97"/>
-      <c r="AN113" s="97"/>
-      <c r="AO113" s="97"/>
+      <c r="AI113" s="86"/>
+      <c r="AJ113" s="96"/>
+      <c r="AK113" s="96"/>
+      <c r="AL113" s="96"/>
+      <c r="AM113" s="96"/>
+      <c r="AN113" s="96"/>
+      <c r="AO113" s="96"/>
     </row>
     <row r="114" spans="35:42" x14ac:dyDescent="0.25">
-      <c r="AI114" s="87"/>
-      <c r="AJ114" s="97"/>
-      <c r="AK114" s="97"/>
-      <c r="AL114" s="97"/>
-      <c r="AM114" s="97"/>
-      <c r="AN114" s="97"/>
-      <c r="AO114" s="97"/>
+      <c r="AI114" s="86"/>
+      <c r="AJ114" s="96"/>
+      <c r="AK114" s="96"/>
+      <c r="AL114" s="96"/>
+      <c r="AM114" s="96"/>
+      <c r="AN114" s="96"/>
+      <c r="AO114" s="96"/>
     </row>
     <row r="115" spans="35:42" x14ac:dyDescent="0.25">
-      <c r="AI115" s="87"/>
-      <c r="AJ115" s="97"/>
-      <c r="AK115" s="97"/>
-      <c r="AL115" s="97"/>
-      <c r="AM115" s="97"/>
-      <c r="AN115" s="97"/>
-      <c r="AO115" s="97"/>
+      <c r="AI115" s="86"/>
+      <c r="AJ115" s="96"/>
+      <c r="AK115" s="96"/>
+      <c r="AL115" s="96"/>
+      <c r="AM115" s="96"/>
+      <c r="AN115" s="96"/>
+      <c r="AO115" s="96"/>
     </row>
     <row r="116" spans="35:42" x14ac:dyDescent="0.25">
-      <c r="AI116" s="87"/>
-      <c r="AJ116" s="97"/>
-      <c r="AK116" s="97"/>
-      <c r="AL116" s="97"/>
-      <c r="AM116" s="97"/>
-      <c r="AN116" s="97"/>
-      <c r="AO116" s="97"/>
+      <c r="AI116" s="86"/>
+      <c r="AJ116" s="96"/>
+      <c r="AK116" s="96"/>
+      <c r="AL116" s="96"/>
+      <c r="AM116" s="96"/>
+      <c r="AN116" s="96"/>
+      <c r="AO116" s="96"/>
     </row>
     <row r="117" spans="35:42" x14ac:dyDescent="0.25">
-      <c r="AI117" s="87"/>
-      <c r="AJ117" s="97"/>
-      <c r="AK117" s="97"/>
-      <c r="AL117" s="97"/>
-      <c r="AM117" s="97"/>
-      <c r="AN117" s="97"/>
-      <c r="AO117" s="97"/>
+      <c r="AI117" s="86"/>
+      <c r="AJ117" s="96"/>
+      <c r="AK117" s="96"/>
+      <c r="AL117" s="96"/>
+      <c r="AM117" s="96"/>
+      <c r="AN117" s="96"/>
+      <c r="AO117" s="96"/>
     </row>
     <row r="118" spans="35:42" x14ac:dyDescent="0.25">
-      <c r="AI118" s="87"/>
-      <c r="AJ118" s="97"/>
-      <c r="AK118" s="97"/>
-      <c r="AL118" s="97"/>
-      <c r="AM118" s="97"/>
-      <c r="AN118" s="97"/>
-      <c r="AO118" s="97"/>
-      <c r="AP118" s="96"/>
+      <c r="AI118" s="86"/>
+      <c r="AJ118" s="96"/>
+      <c r="AK118" s="96"/>
+      <c r="AL118" s="96"/>
+      <c r="AM118" s="96"/>
+      <c r="AN118" s="96"/>
+      <c r="AO118" s="96"/>
+      <c r="AP118" s="95"/>
     </row>
     <row r="119" spans="35:42" x14ac:dyDescent="0.25">
-      <c r="AI119" s="87"/>
-      <c r="AJ119" s="97"/>
-      <c r="AK119" s="97"/>
-      <c r="AL119" s="97"/>
-      <c r="AM119" s="97"/>
-      <c r="AN119" s="97"/>
-      <c r="AO119" s="97"/>
+      <c r="AI119" s="86"/>
+      <c r="AJ119" s="96"/>
+      <c r="AK119" s="96"/>
+      <c r="AL119" s="96"/>
+      <c r="AM119" s="96"/>
+      <c r="AN119" s="96"/>
+      <c r="AO119" s="96"/>
     </row>
     <row r="120" spans="35:42" x14ac:dyDescent="0.25">
-      <c r="AI120" s="87"/>
-      <c r="AJ120" s="97"/>
-      <c r="AK120" s="97"/>
-      <c r="AL120" s="97"/>
-      <c r="AM120" s="97"/>
-      <c r="AN120" s="97"/>
-      <c r="AO120" s="97"/>
+      <c r="AI120" s="86"/>
+      <c r="AJ120" s="96"/>
+      <c r="AK120" s="96"/>
+      <c r="AL120" s="96"/>
+      <c r="AM120" s="96"/>
+      <c r="AN120" s="96"/>
+      <c r="AO120" s="96"/>
     </row>
     <row r="121" spans="35:42" x14ac:dyDescent="0.25">
-      <c r="AI121" s="87"/>
-      <c r="AJ121" s="97"/>
-      <c r="AK121" s="97"/>
-      <c r="AL121" s="97"/>
-      <c r="AM121" s="97"/>
-      <c r="AN121" s="97"/>
-      <c r="AO121" s="97"/>
+      <c r="AI121" s="86"/>
+      <c r="AJ121" s="96"/>
+      <c r="AK121" s="96"/>
+      <c r="AL121" s="96"/>
+      <c r="AM121" s="96"/>
+      <c r="AN121" s="96"/>
+      <c r="AO121" s="96"/>
     </row>
     <row r="122" spans="35:42" x14ac:dyDescent="0.25">
-      <c r="AI122" s="87"/>
-      <c r="AJ122" s="97"/>
-      <c r="AK122" s="97"/>
-      <c r="AL122" s="97"/>
-      <c r="AM122" s="97"/>
-      <c r="AN122" s="97"/>
-      <c r="AO122" s="97"/>
+      <c r="AI122" s="86"/>
+      <c r="AJ122" s="96"/>
+      <c r="AK122" s="96"/>
+      <c r="AL122" s="96"/>
+      <c r="AM122" s="96"/>
+      <c r="AN122" s="96"/>
+      <c r="AO122" s="96"/>
     </row>
     <row r="123" spans="35:42" x14ac:dyDescent="0.25">
-      <c r="AI123" s="87"/>
-      <c r="AJ123" s="97"/>
-      <c r="AK123" s="97"/>
-      <c r="AL123" s="97"/>
-      <c r="AM123" s="97"/>
-      <c r="AN123" s="97"/>
-      <c r="AO123" s="97"/>
+      <c r="AI123" s="86"/>
+      <c r="AJ123" s="96"/>
+      <c r="AK123" s="96"/>
+      <c r="AL123" s="96"/>
+      <c r="AM123" s="96"/>
+      <c r="AN123" s="96"/>
+      <c r="AO123" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="O59:R59"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="D81:H81"/>
     <mergeCell ref="E49:H49"/>
     <mergeCell ref="B24:C25"/>
     <mergeCell ref="D24:I25"/>
@@ -18895,163 +18818,169 @@
     <mergeCell ref="D37:H37"/>
     <mergeCell ref="E47:H47"/>
     <mergeCell ref="B26:I26"/>
-    <mergeCell ref="O59:R59"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:H75"/>
-    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <conditionalFormatting sqref="F55 G56 H57 I58 J59 G62:J62 I52 F60:F62 AB64:AG68 AC75:AG79 D69:E69 AC69:AG70 E64:E68">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51">
     <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
+  <conditionalFormatting sqref="G60:J61">
     <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G60:J61">
+  <conditionalFormatting sqref="E62">
     <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E47:H47">
-    <cfRule type="notContainsBlanks" dxfId="29" priority="30">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="31">
       <formula>LEN(TRIM(E47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:H49">
-    <cfRule type="notContainsBlanks" dxfId="28" priority="29">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="30">
       <formula>LEN(TRIM(E49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G42">
-    <cfRule type="notContainsBlanks" dxfId="27" priority="28">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="29">
       <formula>LEN(TRIM(G41))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O59:R59">
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="greaterThan">
       <formula>"&gt;0"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="25" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="28">
       <formula>LEN(TRIM(O59))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:E72 D73 D74:E74 D75:H75 G72 G74">
-    <cfRule type="notContainsBlanks" dxfId="24" priority="26">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="27">
       <formula>LEN(TRIM(D72))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:H37">
-    <cfRule type="notContainsBlanks" dxfId="23" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="26">
       <formula>LEN(TRIM(D35))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB69:AB70">
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB74:AB76 AB78:AB79">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC74:AG74">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB73:AG73">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB72:AG73">
     <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB72:AG73">
+  <conditionalFormatting sqref="AG72">
     <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG72">
+  <conditionalFormatting sqref="AB74:AB76 AB78:AB79">
     <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB74:AB76 AB78:AB79">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+  <conditionalFormatting sqref="AB83:AB85 AB87:AB88">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB82:AG82">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB81:AG82 AC83:AG88">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG81">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB83:AB85 AB87:AB88">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB82:AG82">
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB81:AG82 AC83:AG88">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG81">
     <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB83:AB85 AB87:AB88">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+  <conditionalFormatting sqref="AB86">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB77">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB77">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB86">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB77">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB77">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB86">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="9">
       <formula>LEN(TRIM(C59))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
+  <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
-      <formula>0</formula>
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
-      <formula>1</formula>
+  <conditionalFormatting sqref="AB23:AG23">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB23:AG23">
@@ -19059,13 +18988,13 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB23:AG23">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="G19">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19941,25 +19870,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" s="102" t="s">
-        <v>259</v>
-      </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
+      <c r="A1" s="101" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="101" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="K2" s="102" t="s">
-        <v>261</v>
+      <c r="A2" s="101" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="K2" s="101" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -19984,42 +19913,42 @@
     <col min="3" max="3" width="13.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" style="2" customWidth="1"/>
     <col min="5" max="6" width="9.140625" style="2"/>
-    <col min="7" max="8" width="11" style="99" customWidth="1"/>
+    <col min="7" max="8" width="11" style="98" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="101" t="s">
+        <v>257</v>
+      </c>
+      <c r="G1" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="H1" s="98" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="101"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="171" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" s="171" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="171" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="171" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" s="171" t="s">
         <v>262</v>
       </c>
-      <c r="G1" s="99" t="s">
-        <v>269</v>
-      </c>
-      <c r="H1" s="99" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="102"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="172" t="s">
+      <c r="F3" s="171" t="s">
         <v>263</v>
-      </c>
-      <c r="B3" s="172" t="s">
-        <v>264</v>
-      </c>
-      <c r="C3" s="172" t="s">
-        <v>265</v>
-      </c>
-      <c r="D3" s="172" t="s">
-        <v>266</v>
-      </c>
-      <c r="E3" s="172" t="s">
-        <v>267</v>
-      </c>
-      <c r="F3" s="172" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -20033,7 +19962,7 @@
   <dimension ref="B3:AH49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AH49" activeCellId="2" sqref="B3 AH3 AH49"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20041,17 +19970,17 @@
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B3" s="172" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH3" s="172" t="s">
-        <v>278</v>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B3" s="171" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA3" s="171" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="49" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH49" s="172" t="s">
-        <v>279</v>
+      <c r="AH49" s="171" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -20060,12 +19989,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:V45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P31" sqref="P31"/>
+      <pane ySplit="10" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20084,10 +20013,10 @@
   <sheetData>
     <row r="1" spans="2:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>0</v>
@@ -20095,119 +20024,119 @@
     </row>
     <row r="2" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K2" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="K3" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="K4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="K5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="K6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="K7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="K3" s="5" t="s">
+    <row r="8" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="K8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="K4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="K5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="K6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="K7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="2" t="s">
+    <row r="9" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="K9" s="7" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="K8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="K9" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20216,7 +20145,7 @@
     <row r="11" spans="2:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:22" ht="18" x14ac:dyDescent="0.25">
       <c r="C12" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
@@ -20269,19 +20198,19 @@
         <v>3</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>5</v>
+        <v>295</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>9</v>
+        <v>292</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M14" s="20"/>
       <c r="N14" s="25"/>
@@ -20296,10 +20225,10 @@
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
-      <c r="C15" s="221" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="222"/>
+      <c r="C15" s="281" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="282"/>
       <c r="E15" s="28">
         <v>13.5</v>
       </c>
@@ -20310,7 +20239,7 @@
         <v>15.5</v>
       </c>
       <c r="H15" s="28">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="I15" s="28">
         <v>15.5</v>
@@ -20322,8 +20251,8 @@
         <v>15.5</v>
       </c>
       <c r="M15" s="27"/>
-      <c r="N15" s="223"/>
-      <c r="O15" s="223"/>
+      <c r="N15" s="283"/>
+      <c r="O15" s="283"/>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
       <c r="R15" s="29"/>
@@ -20357,7 +20286,7 @@
     <row r="17" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="C17" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D17" s="32">
         <v>1</v>
@@ -20405,7 +20334,7 @@
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="40" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="42">
@@ -20422,7 +20351,7 @@
       </c>
       <c r="H19" s="42">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="I19" s="42">
         <f t="shared" si="0"/>
@@ -20450,7 +20379,7 @@
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
       <c r="C20" s="43" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D20" s="44"/>
       <c r="E20" s="45">
@@ -20488,7 +20417,7 @@
     <row r="21" spans="2:22" s="50" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="46"/>
       <c r="C21" s="47" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D21" s="48"/>
       <c r="E21" s="49">
@@ -20505,7 +20434,7 @@
       </c>
       <c r="H21" s="49">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>40.5</v>
       </c>
       <c r="I21" s="49">
         <f t="shared" si="1"/>
@@ -20553,682 +20482,500 @@
       <c r="V22" s="54"/>
     </row>
     <row r="23" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="224" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="225"/>
-      <c r="E23" s="55">
-        <f t="shared" ref="E23:K23" si="2">(E21/100)*10</f>
-        <v>3.85</v>
-      </c>
-      <c r="F23" s="55">
-        <f t="shared" si="2"/>
-        <v>3.4000000000000004</v>
-      </c>
-      <c r="G23" s="55">
-        <f t="shared" si="2"/>
-        <v>4.0500000000000007</v>
-      </c>
-      <c r="H23" s="55">
-        <f t="shared" si="2"/>
-        <v>3.7</v>
-      </c>
-      <c r="I23" s="55">
-        <f t="shared" si="2"/>
-        <v>4.0500000000000007</v>
-      </c>
-      <c r="J23" s="55">
-        <f t="shared" si="2"/>
-        <v>4.0500000000000007</v>
-      </c>
-      <c r="K23" s="55">
-        <f t="shared" si="2"/>
-        <v>4.0500000000000007</v>
-      </c>
-      <c r="N23" s="226"/>
-      <c r="O23" s="226"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
     </row>
     <row r="24" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="224" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="225"/>
-      <c r="E24" s="55">
-        <f t="shared" ref="E24:K24" si="3">(E21/100)*90</f>
-        <v>34.65</v>
-      </c>
-      <c r="F24" s="55">
-        <f t="shared" si="3"/>
-        <v>30.6</v>
-      </c>
-      <c r="G24" s="55">
-        <f t="shared" si="3"/>
-        <v>36.450000000000003</v>
-      </c>
-      <c r="H24" s="55">
-        <f t="shared" si="3"/>
-        <v>33.299999999999997</v>
-      </c>
-      <c r="I24" s="55">
-        <f t="shared" si="3"/>
-        <v>36.450000000000003</v>
-      </c>
-      <c r="J24" s="55">
-        <f t="shared" si="3"/>
-        <v>36.450000000000003</v>
-      </c>
-      <c r="K24" s="55">
-        <f t="shared" si="3"/>
-        <v>36.450000000000003</v>
-      </c>
-      <c r="N24" s="226"/>
-      <c r="O24" s="226"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
     </row>
     <row r="25" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-    </row>
-    <row r="26" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-    </row>
-    <row r="27" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56"/>
-      <c r="V27" s="56"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+    </row>
+    <row r="28" spans="2:22" ht="18" x14ac:dyDescent="0.25">
+      <c r="C28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="60"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-    </row>
-    <row r="30" spans="2:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="C30" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="61"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="58"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="64"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="66"/>
+      <c r="V29" s="66"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="30"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="65"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="67"/>
-      <c r="R31" s="67"/>
-      <c r="S31" s="67"/>
-      <c r="T31" s="67"/>
-      <c r="U31" s="67"/>
-      <c r="V31" s="67"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="30"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="N32" s="25"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B33" s="27"/>
-      <c r="C33" s="221" t="str">
+      <c r="B31" s="27"/>
+      <c r="C31" s="281" t="str">
         <f>C15</f>
         <v>Hourly Rate</v>
       </c>
-      <c r="D33" s="222"/>
-      <c r="E33" s="68">
+      <c r="D31" s="282"/>
+      <c r="E31" s="67">
         <v>27</v>
       </c>
-      <c r="F33" s="68">
+      <c r="F31" s="67">
         <v>18</v>
       </c>
-      <c r="G33" s="68">
+      <c r="G31" s="67">
         <v>31</v>
       </c>
-      <c r="H33" s="68">
-        <v>24</v>
-      </c>
-      <c r="I33" s="68">
+      <c r="H31" s="67">
         <v>31</v>
       </c>
-      <c r="J33" s="68">
+      <c r="I31" s="67">
         <v>31</v>
       </c>
-      <c r="K33" s="68">
+      <c r="J31" s="67">
         <v>31</v>
       </c>
-      <c r="N33" s="223"/>
-      <c r="O33" s="223"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
+      <c r="K31" s="67">
+        <v>31</v>
+      </c>
+      <c r="N31" s="283"/>
+      <c r="O31" s="283"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="27"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+    </row>
+    <row r="33" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="27"/>
+      <c r="C33" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="32">
+        <v>1</v>
+      </c>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="27"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-    </row>
-    <row r="35" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C34" s="35"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="33"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="27"/>
-      <c r="C35" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="32">
-        <v>1</v>
-      </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
+      <c r="C35" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="41"/>
+      <c r="E35" s="42">
+        <f t="shared" ref="E35:K35" si="2">$D$33*E31</f>
+        <v>27</v>
+      </c>
+      <c r="F35" s="42">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="G35" s="42">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="H35" s="42">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="I35" s="42">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="J35" s="42">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="K35" s="42">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="N35" s="30"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="27"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B37" s="27"/>
-      <c r="C37" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="42">
-        <f t="shared" ref="E37:K37" si="4">$D$35*E33</f>
-        <v>27</v>
-      </c>
-      <c r="F37" s="42">
-        <f t="shared" si="4"/>
+      <c r="C36" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="42">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="H37" s="42">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="I37" s="42">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="J37" s="42">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="K37" s="42">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="N37" s="30"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B38" s="27"/>
-      <c r="C38" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="44"/>
-      <c r="E38" s="45">
+      <c r="D36" s="44"/>
+      <c r="E36" s="45">
         <v>25</v>
       </c>
-      <c r="F38" s="45">
+      <c r="F36" s="45">
         <v>25</v>
       </c>
-      <c r="G38" s="45">
+      <c r="G36" s="45">
         <v>25</v>
       </c>
-      <c r="H38" s="45">
+      <c r="H36" s="45">
         <v>25</v>
       </c>
-      <c r="I38" s="45">
+      <c r="I36" s="45">
         <v>25</v>
       </c>
-      <c r="J38" s="45">
+      <c r="J36" s="45">
         <v>25</v>
       </c>
-      <c r="K38" s="45">
+      <c r="K36" s="45">
         <v>25</v>
       </c>
-      <c r="N38" s="30"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-    </row>
-    <row r="39" spans="2:22" s="50" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="69"/>
-      <c r="C39" s="47" t="str">
+      <c r="N36" s="30"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+    </row>
+    <row r="37" spans="2:22" s="50" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="68"/>
+      <c r="C37" s="47" t="str">
         <f>C21</f>
         <v>Total Cost:</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="49">
-        <f>E38+E37</f>
+      <c r="D37" s="48"/>
+      <c r="E37" s="49">
+        <f>E36+E35</f>
         <v>52</v>
       </c>
-      <c r="F39" s="49">
-        <f t="shared" ref="F39:K39" si="5">F38+F37</f>
+      <c r="F37" s="49">
+        <f t="shared" ref="F37:K37" si="3">F36+F35</f>
         <v>43</v>
       </c>
-      <c r="G39" s="49">
-        <f t="shared" si="5"/>
+      <c r="G37" s="49">
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="H39" s="49">
-        <f t="shared" si="5"/>
-        <v>49</v>
-      </c>
-      <c r="I39" s="49">
-        <f t="shared" si="5"/>
+      <c r="H37" s="49">
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="J39" s="49">
-        <f t="shared" si="5"/>
+      <c r="I37" s="49">
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="K39" s="49">
-        <f t="shared" si="5"/>
+      <c r="J37" s="49">
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="N39" s="51"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="53"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="53"/>
-      <c r="V39" s="53"/>
-    </row>
-    <row r="40" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="49">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="N37" s="51"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="53"/>
+    </row>
+    <row r="38" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="27"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="69"/>
+      <c r="Q38" s="69"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="69"/>
+      <c r="U38" s="69"/>
+      <c r="V38" s="69"/>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B39" s="27"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="27"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="70"/>
-      <c r="Q40" s="70"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="70"/>
-      <c r="U40" s="70"/>
-      <c r="V40" s="70"/>
-    </row>
-    <row r="41" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="224" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="225"/>
-      <c r="E41" s="55">
-        <f>(E39/100)*10</f>
-        <v>5.2</v>
-      </c>
-      <c r="F41" s="55">
-        <f t="shared" ref="F41:K41" si="6">(F39/100)*10</f>
-        <v>4.3</v>
-      </c>
-      <c r="G41" s="55">
-        <f t="shared" si="6"/>
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="H41" s="55">
-        <f t="shared" si="6"/>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I41" s="55">
-        <f t="shared" si="6"/>
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="J41" s="55">
-        <f t="shared" si="6"/>
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="K41" s="55">
-        <f t="shared" si="6"/>
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="N41" s="226"/>
-      <c r="O41" s="226"/>
-      <c r="P41" s="56"/>
-      <c r="Q41" s="56"/>
-      <c r="R41" s="56"/>
-      <c r="S41" s="56"/>
-      <c r="T41" s="56"/>
-      <c r="U41" s="56"/>
-      <c r="V41" s="56"/>
-    </row>
-    <row r="42" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="224" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="225"/>
-      <c r="E42" s="55">
-        <f t="shared" ref="E42:K42" si="7">(E39/100)*90</f>
-        <v>46.800000000000004</v>
-      </c>
-      <c r="F42" s="55">
-        <f t="shared" si="7"/>
-        <v>38.700000000000003</v>
-      </c>
-      <c r="G42" s="55">
-        <f t="shared" si="7"/>
-        <v>50.400000000000006</v>
-      </c>
-      <c r="H42" s="55">
-        <f t="shared" si="7"/>
-        <v>44.1</v>
-      </c>
-      <c r="I42" s="55">
-        <f t="shared" si="7"/>
-        <v>50.400000000000006</v>
-      </c>
-      <c r="J42" s="55">
-        <f t="shared" si="7"/>
-        <v>50.400000000000006</v>
-      </c>
-      <c r="K42" s="55">
-        <f t="shared" si="7"/>
-        <v>50.400000000000006</v>
-      </c>
-      <c r="N42" s="226"/>
-      <c r="O42" s="226"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="56"/>
-      <c r="T42" s="56"/>
-      <c r="U42" s="56"/>
-      <c r="V42" s="56"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B41" s="27"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B42" s="27"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="27"/>
       <c r="C43" s="30"/>
       <c r="D43" s="27"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="27"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="70"/>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="27"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="70"/>
-      <c r="J45" s="70"/>
-      <c r="K45" s="70"/>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B46" s="27"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="70"/>
-      <c r="J46" s="70"/>
-      <c r="K46" s="70"/>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B47" s="27"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70"/>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B48" s="27"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="27"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
-    <protectedRange sqref="D17 D35 O17 O35" name="Range1"/>
+    <protectedRange sqref="D17 D33 O17 O33" name="Range1"/>
   </protectedRanges>
-  <mergeCells count="12">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="N42:O42"/>
+  <mergeCells count="4">
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="N31:O31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K9" r:id="rId1" display="for a detailed description check out our website resources page"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -21246,351 +20993,351 @@
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="72" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="168" t="s">
+    <row r="1" spans="1:12" s="71" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="167" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="168" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="168"/>
+      <c r="B3" s="113" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="169" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="169" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="277" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="169" t="s">
+      <c r="C8" s="277"/>
+      <c r="D8" s="277"/>
+      <c r="E8" s="277"/>
+      <c r="F8" s="277"/>
+      <c r="G8" s="277"/>
+      <c r="H8" s="277"/>
+      <c r="I8" s="277"/>
+      <c r="J8" s="277"/>
+      <c r="K8" s="277"/>
+      <c r="L8" s="277"/>
+    </row>
+    <row r="9" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="284" t="s">
+        <v>282</v>
+      </c>
+      <c r="C9" s="284"/>
+      <c r="D9" s="284"/>
+      <c r="E9" s="284"/>
+      <c r="F9" s="284"/>
+      <c r="G9" s="284"/>
+      <c r="H9" s="284"/>
+      <c r="I9" s="284"/>
+      <c r="J9" s="284"/>
+      <c r="K9" s="284"/>
+      <c r="L9" s="284"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="285" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="C10" s="285"/>
+      <c r="D10" s="285"/>
+      <c r="E10" s="285"/>
+      <c r="F10" s="285"/>
+      <c r="G10" s="285"/>
+      <c r="H10" s="285"/>
+      <c r="I10" s="285"/>
+      <c r="J10" s="285"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="170"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="171" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="169"/>
-      <c r="B3" s="114" t="s">
+      <c r="B13" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="170" t="s">
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="286" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" s="170" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="227" t="s">
+      <c r="C14" s="286"/>
+      <c r="D14" s="286"/>
+      <c r="E14" s="286"/>
+      <c r="F14" s="286"/>
+      <c r="G14" s="286"/>
+      <c r="H14" s="286"/>
+      <c r="I14" s="286"/>
+      <c r="J14" s="286"/>
+      <c r="K14" s="286"/>
+      <c r="L14" s="286"/>
+    </row>
+    <row r="15" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="284" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="227"/>
-      <c r="D8" s="227"/>
-      <c r="E8" s="227"/>
-      <c r="F8" s="227"/>
-      <c r="G8" s="227"/>
-      <c r="H8" s="227"/>
-      <c r="I8" s="227"/>
-      <c r="J8" s="227"/>
-      <c r="K8" s="227"/>
-      <c r="L8" s="227"/>
-    </row>
-    <row r="9" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="217" t="s">
-        <v>289</v>
-      </c>
-      <c r="C9" s="217"/>
-      <c r="D9" s="217"/>
-      <c r="E9" s="217"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="217"/>
-      <c r="H9" s="217"/>
-      <c r="I9" s="217"/>
-      <c r="J9" s="217"/>
-      <c r="K9" s="217"/>
-      <c r="L9" s="217"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="228" t="s">
+      <c r="C15" s="284"/>
+      <c r="D15" s="284"/>
+      <c r="E15" s="284"/>
+      <c r="F15" s="284"/>
+      <c r="G15" s="284"/>
+      <c r="H15" s="284"/>
+      <c r="I15" s="284"/>
+      <c r="J15" s="284"/>
+      <c r="K15" s="284"/>
+      <c r="L15" s="284"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="284" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="228"/>
-      <c r="D10" s="228"/>
-      <c r="E10" s="228"/>
-      <c r="F10" s="228"/>
-      <c r="G10" s="228"/>
-      <c r="H10" s="228"/>
-      <c r="I10" s="228"/>
-      <c r="J10" s="228"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="171"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="171"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="172" t="s">
+      <c r="C16" s="284"/>
+      <c r="D16" s="284"/>
+      <c r="E16" s="284"/>
+      <c r="F16" s="284"/>
+      <c r="G16" s="284"/>
+      <c r="H16" s="284"/>
+      <c r="I16" s="284"/>
+      <c r="J16" s="284"/>
+      <c r="K16" s="284"/>
+      <c r="L16" s="284"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="172" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="172" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="229" t="s">
+    <row r="19" spans="1:12" s="71" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="284" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="229"/>
-      <c r="D14" s="229"/>
-      <c r="E14" s="229"/>
-      <c r="F14" s="229"/>
-      <c r="G14" s="229"/>
-      <c r="H14" s="229"/>
-      <c r="I14" s="229"/>
-      <c r="J14" s="229"/>
-      <c r="K14" s="229"/>
-      <c r="L14" s="229"/>
-    </row>
-    <row r="15" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="217" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="217"/>
-      <c r="D15" s="217"/>
-      <c r="E15" s="217"/>
-      <c r="F15" s="217"/>
-      <c r="G15" s="217"/>
-      <c r="H15" s="217"/>
-      <c r="I15" s="217"/>
-      <c r="J15" s="217"/>
-      <c r="K15" s="217"/>
-      <c r="L15" s="217"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="217" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="217"/>
-      <c r="D16" s="217"/>
-      <c r="E16" s="217"/>
-      <c r="F16" s="217"/>
-      <c r="G16" s="217"/>
-      <c r="H16" s="217"/>
-      <c r="I16" s="217"/>
-      <c r="J16" s="217"/>
-      <c r="K16" s="217"/>
-      <c r="L16" s="217"/>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="173" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="173" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="72" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="217" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="217"/>
-      <c r="D19" s="217"/>
-      <c r="E19" s="217"/>
-      <c r="F19" s="217"/>
-      <c r="G19" s="217"/>
-      <c r="H19" s="217"/>
-      <c r="I19" s="217"/>
-      <c r="J19" s="217"/>
-      <c r="K19" s="217"/>
-      <c r="L19" s="217"/>
+      <c r="C19" s="284"/>
+      <c r="D19" s="284"/>
+      <c r="E19" s="284"/>
+      <c r="F19" s="284"/>
+      <c r="G19" s="284"/>
+      <c r="H19" s="284"/>
+      <c r="I19" s="284"/>
+      <c r="J19" s="284"/>
+      <c r="K19" s="284"/>
+      <c r="L19" s="284"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="173"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="173"/>
+      <c r="K20" s="173"/>
+      <c r="L20" s="173"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="172"/>
+    </row>
+    <row r="23" spans="1:12" s="117" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="117" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="117" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="117" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="117" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="7" t="s">
+    </row>
+    <row r="26" spans="1:12" s="117" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="174"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="174"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="174"/>
-      <c r="K20" s="174"/>
-      <c r="L20" s="174"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="173"/>
-    </row>
-    <row r="23" spans="1:12" s="118" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="118" t="s">
+    </row>
+    <row r="27" spans="1:12" s="117" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="118" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="118" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="118" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="118" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="118" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="118" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:12" s="117" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" s="175" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="173" t="s">
-        <v>143</v>
+        <v>136</v>
+      </c>
+      <c r="B29" s="174" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="172" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B30" s="175" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="173" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="B30" s="174" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="172" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B31" s="175" t="s">
-        <v>148</v>
+        <v>142</v>
+      </c>
+      <c r="B31" s="174" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="176" t="s">
-        <v>151</v>
+      <c r="A34" s="175" t="s">
+        <v>146</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D40" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D41" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D43" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D44" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D45" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D46" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D47" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D48" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -21635,968 +21382,968 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="177" t="s">
-        <v>172</v>
+      <c r="A2" s="176" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="178" t="s">
+      <c r="A5" s="177" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="178" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="179" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="179" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="178" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="178" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="179" t="s">
+      <c r="G5" s="287" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="180" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="180" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="179" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="179" t="s">
-        <v>178</v>
-      </c>
-      <c r="G5" s="230" t="s">
-        <v>179</v>
-      </c>
-      <c r="H5" s="230"/>
+      <c r="H5" s="287"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="107" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" s="181">
+      <c r="A8" s="106" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="180">
         <v>163</v>
       </c>
-      <c r="C8" s="182">
+      <c r="C8" s="181">
         <v>50</v>
       </c>
-      <c r="D8" s="182">
+      <c r="D8" s="181">
         <v>0.8</v>
       </c>
-      <c r="E8" s="181" t="s">
-        <v>181</v>
-      </c>
-      <c r="F8" s="181" t="s">
-        <v>181</v>
-      </c>
-      <c r="G8" s="107" t="s">
-        <v>182</v>
+      <c r="E8" s="180" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="180" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="106" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="107" t="s">
-        <v>183</v>
-      </c>
-      <c r="B9" s="181"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="181">
+      <c r="A9" s="106" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="180"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180">
         <v>0.03</v>
       </c>
-      <c r="G9" s="107" t="s">
-        <v>184</v>
+      <c r="G9" s="106" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B10" s="99">
+        <v>180</v>
+      </c>
+      <c r="B10" s="98">
         <v>615</v>
       </c>
-      <c r="C10" s="183">
+      <c r="C10" s="182">
         <v>0</v>
       </c>
-      <c r="D10" s="183">
+      <c r="D10" s="182">
         <v>0</v>
       </c>
-      <c r="E10" s="99">
+      <c r="E10" s="98">
         <v>1.6</v>
       </c>
-      <c r="F10" s="99">
+      <c r="F10" s="98">
         <v>0.1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" s="99">
+        <v>182</v>
+      </c>
+      <c r="B11" s="98">
         <v>284</v>
       </c>
-      <c r="C11" s="183" t="s">
-        <v>181</v>
-      </c>
-      <c r="D11" s="183" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="F11" s="99" t="s">
-        <v>189</v>
+      <c r="C11" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="98" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="98" t="s">
+        <v>184</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B12" s="99">
+        <v>186</v>
+      </c>
+      <c r="B12" s="98">
         <v>154</v>
       </c>
-      <c r="C12" s="183">
+      <c r="C12" s="182">
         <v>500</v>
       </c>
-      <c r="D12" s="183">
+      <c r="D12" s="182">
         <v>7.7</v>
       </c>
-      <c r="E12" s="99" t="s">
-        <v>181</v>
-      </c>
-      <c r="F12" s="99" t="s">
-        <v>181</v>
+      <c r="E12" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="98" t="s">
+        <v>176</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="98">
+        <v>92</v>
+      </c>
+      <c r="C13" s="182">
+        <v>130</v>
+      </c>
+      <c r="D13" s="182">
+        <v>1.2</v>
+      </c>
+      <c r="E13" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="106" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="180">
+        <v>96</v>
+      </c>
+      <c r="C14" s="181">
+        <v>250</v>
+      </c>
+      <c r="D14" s="181">
+        <v>2.4</v>
+      </c>
+      <c r="E14" s="180" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="180" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" s="106" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="106" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" s="180">
+        <v>238</v>
+      </c>
+      <c r="C15" s="181">
+        <v>100</v>
+      </c>
+      <c r="D15" s="181">
+        <v>2.4</v>
+      </c>
+      <c r="E15" s="180" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="180" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15" s="106" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="106" t="s">
         <v>193</v>
       </c>
-      <c r="B13" s="99">
-        <v>92</v>
-      </c>
-      <c r="C13" s="183">
-        <v>130</v>
-      </c>
-      <c r="D13" s="183">
-        <v>1.2</v>
-      </c>
-      <c r="E13" s="99" t="s">
-        <v>181</v>
-      </c>
-      <c r="F13" s="99" t="s">
-        <v>181</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="107" t="s">
-        <v>195</v>
-      </c>
-      <c r="B14" s="181">
-        <v>96</v>
-      </c>
-      <c r="C14" s="182">
-        <v>250</v>
-      </c>
-      <c r="D14" s="182">
-        <v>2.4</v>
-      </c>
-      <c r="E14" s="181" t="s">
-        <v>181</v>
-      </c>
-      <c r="F14" s="181" t="s">
-        <v>181</v>
-      </c>
-      <c r="G14" s="107" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="107" t="s">
-        <v>196</v>
-      </c>
-      <c r="B15" s="181">
-        <v>238</v>
-      </c>
-      <c r="C15" s="182">
-        <v>100</v>
-      </c>
-      <c r="D15" s="182">
-        <v>2.4</v>
-      </c>
-      <c r="E15" s="181" t="s">
-        <v>181</v>
-      </c>
-      <c r="F15" s="181" t="s">
-        <v>181</v>
-      </c>
-      <c r="G15" s="107" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="107" t="s">
-        <v>198</v>
-      </c>
-      <c r="B16" s="181"/>
-      <c r="C16" s="182"/>
-      <c r="D16" s="182">
+      <c r="B16" s="180"/>
+      <c r="C16" s="181"/>
+      <c r="D16" s="181">
         <v>0</v>
       </c>
-      <c r="E16" s="181"/>
-      <c r="F16" s="181">
+      <c r="E16" s="180"/>
+      <c r="F16" s="180">
         <v>0.01</v>
       </c>
-      <c r="G16" s="107"/>
+      <c r="G16" s="106"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B17" s="99">
+        <v>194</v>
+      </c>
+      <c r="B17" s="98">
         <v>229</v>
       </c>
-      <c r="C17" s="183">
+      <c r="C17" s="182">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D17" s="183">
+      <c r="D17" s="182">
         <v>1</v>
       </c>
-      <c r="E17" s="99" t="s">
-        <v>200</v>
-      </c>
-      <c r="F17" s="99" t="s">
-        <v>189</v>
+      <c r="E17" s="98" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="98" t="s">
+        <v>184</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B18" s="99">
+        <v>197</v>
+      </c>
+      <c r="B18" s="98">
         <v>264</v>
       </c>
-      <c r="C18" s="183" t="s">
-        <v>181</v>
-      </c>
-      <c r="D18" s="183" t="s">
-        <v>181</v>
-      </c>
-      <c r="E18" s="99">
+      <c r="C18" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="98">
         <v>3.8</v>
       </c>
-      <c r="F18" s="99">
+      <c r="F18" s="98">
         <v>0.1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B19" s="99">
+        <v>199</v>
+      </c>
+      <c r="B19" s="98">
         <v>58</v>
       </c>
-      <c r="C19" s="183">
+      <c r="C19" s="182">
         <v>50</v>
       </c>
-      <c r="D19" s="183">
+      <c r="D19" s="182">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E19" s="99" t="s">
-        <v>181</v>
-      </c>
-      <c r="F19" s="99" t="s">
-        <v>181</v>
+      <c r="E19" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="98" t="s">
+        <v>176</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B20" s="99">
+        <v>200</v>
+      </c>
+      <c r="B20" s="98">
         <v>120</v>
       </c>
-      <c r="C20" s="183">
+      <c r="C20" s="182">
         <v>10</v>
       </c>
-      <c r="D20" s="183">
+      <c r="D20" s="182">
         <v>0.12</v>
       </c>
-      <c r="E20" s="99">
+      <c r="E20" s="98">
         <v>10</v>
       </c>
-      <c r="F20" s="99">
+      <c r="F20" s="98">
         <v>0.12</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" s="99">
+        <v>202</v>
+      </c>
+      <c r="B21" s="98">
         <v>348</v>
       </c>
-      <c r="C21" s="183" t="s">
-        <v>181</v>
-      </c>
-      <c r="D21" s="183" t="s">
-        <v>181</v>
-      </c>
-      <c r="E21" s="99">
+      <c r="C21" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="98">
         <v>2.9</v>
       </c>
-      <c r="F21" s="99">
+      <c r="F21" s="98">
         <v>0.1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B22" s="99">
+        <v>203</v>
+      </c>
+      <c r="B22" s="98">
         <v>511</v>
       </c>
-      <c r="C22" s="183" t="s">
-        <v>181</v>
-      </c>
-      <c r="D22" s="183" t="s">
-        <v>181</v>
-      </c>
-      <c r="E22" s="99">
+      <c r="C22" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="98">
         <v>2</v>
       </c>
-      <c r="F22" s="99">
+      <c r="F22" s="98">
         <v>0.1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B23" s="99">
+        <v>204</v>
+      </c>
+      <c r="B23" s="98">
         <v>524</v>
       </c>
-      <c r="C23" s="183" t="s">
-        <v>181</v>
-      </c>
-      <c r="D23" s="183" t="s">
-        <v>181</v>
-      </c>
-      <c r="E23" s="99">
+      <c r="C23" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="98">
         <v>1.9</v>
       </c>
-      <c r="F23" s="99">
+      <c r="F23" s="98">
         <v>0.1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B24" s="99">
+        <v>205</v>
+      </c>
+      <c r="B24" s="98">
         <v>79</v>
       </c>
-      <c r="C24" s="183">
+      <c r="C24" s="182">
         <v>50</v>
       </c>
-      <c r="D24" s="183">
+      <c r="D24" s="182">
         <v>0.4</v>
       </c>
-      <c r="E24" s="99" t="s">
-        <v>181</v>
-      </c>
-      <c r="F24" s="99" t="s">
-        <v>181</v>
+      <c r="E24" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="98" t="s">
+        <v>176</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B25" s="99">
+        <v>206</v>
+      </c>
+      <c r="B25" s="98">
         <v>292</v>
       </c>
-      <c r="C25" s="183">
+      <c r="C25" s="182">
         <v>3.4</v>
       </c>
-      <c r="D25" s="183">
+      <c r="D25" s="182">
         <v>0.1</v>
       </c>
-      <c r="E25" s="99">
+      <c r="E25" s="98">
         <v>3.4</v>
       </c>
-      <c r="F25" s="99">
+      <c r="F25" s="98">
         <v>0.1</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B26" s="99">
+        <v>208</v>
+      </c>
+      <c r="B26" s="98">
         <v>468</v>
       </c>
-      <c r="C26" s="183" t="s">
-        <v>181</v>
-      </c>
-      <c r="D26" s="183" t="s">
-        <v>181</v>
-      </c>
-      <c r="E26" s="99">
+      <c r="C26" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26" s="98">
         <v>2.1</v>
       </c>
-      <c r="F26" s="99">
+      <c r="F26" s="98">
         <v>0.1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B27" s="99">
+        <v>209</v>
+      </c>
+      <c r="B27" s="98">
         <v>603</v>
       </c>
-      <c r="C27" s="183">
+      <c r="C27" s="182">
         <v>1.7</v>
       </c>
-      <c r="D27" s="183">
+      <c r="D27" s="182">
         <v>0.1</v>
       </c>
-      <c r="E27" s="99" t="s">
-        <v>215</v>
-      </c>
-      <c r="F27" s="99" t="s">
-        <v>181</v>
+      <c r="E27" s="98" t="s">
+        <v>210</v>
+      </c>
+      <c r="F27" s="98" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B28" s="99">
+        <v>211</v>
+      </c>
+      <c r="B28" s="98">
         <v>308</v>
       </c>
-      <c r="C28" s="183" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="183" t="s">
-        <v>181</v>
-      </c>
-      <c r="E28" s="99">
+      <c r="C28" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="98">
         <v>3.2</v>
       </c>
-      <c r="F28" s="99">
+      <c r="F28" s="98">
         <v>0.1</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B29" s="99">
+        <v>212</v>
+      </c>
+      <c r="B29" s="98">
         <v>1000</v>
       </c>
-      <c r="C29" s="183" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="183" t="s">
-        <v>181</v>
-      </c>
-      <c r="E29" s="99">
+      <c r="C29" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" s="98">
         <v>0.5</v>
       </c>
-      <c r="F29" s="99">
+      <c r="F29" s="98">
         <v>0.05</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B30" s="99">
+        <v>213</v>
+      </c>
+      <c r="B30" s="98">
         <v>2000</v>
       </c>
-      <c r="C30" s="183">
+      <c r="C30" s="182">
         <v>0.5</v>
       </c>
-      <c r="D30" s="183">
+      <c r="D30" s="182">
         <v>0.1</v>
       </c>
-      <c r="E30" s="99" t="s">
-        <v>181</v>
-      </c>
-      <c r="F30" s="99" t="s">
-        <v>181</v>
+      <c r="E30" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="98" t="s">
+        <v>176</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B31" s="99">
+        <v>215</v>
+      </c>
+      <c r="B31" s="98">
         <v>288</v>
       </c>
-      <c r="C31" s="183">
+      <c r="C31" s="182">
         <v>0.35</v>
       </c>
-      <c r="D31" s="183">
+      <c r="D31" s="182">
         <v>0.01</v>
       </c>
-      <c r="E31" s="99">
+      <c r="E31" s="98">
         <v>0.33500000000000002</v>
       </c>
-      <c r="F31" s="99">
+      <c r="F31" s="98">
         <v>0.01</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B32" s="99">
+        <v>217</v>
+      </c>
+      <c r="B32" s="98">
         <v>82</v>
       </c>
-      <c r="C32" s="183">
+      <c r="C32" s="182">
         <v>50</v>
       </c>
-      <c r="D32" s="183">
+      <c r="D32" s="182">
         <v>0.41</v>
       </c>
-      <c r="E32" s="99" t="s">
-        <v>181</v>
-      </c>
-      <c r="F32" s="99" t="s">
-        <v>181</v>
+      <c r="E32" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" s="98" t="s">
+        <v>176</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B33" s="99">
+        <v>219</v>
+      </c>
+      <c r="B33" s="98">
         <v>65</v>
       </c>
-      <c r="C33" s="183">
+      <c r="C33" s="182">
         <v>15</v>
       </c>
-      <c r="D33" s="183">
+      <c r="D33" s="182">
         <v>0.1</v>
       </c>
-      <c r="E33" s="99">
+      <c r="E33" s="98">
         <v>3.1</v>
       </c>
-      <c r="F33" s="99">
+      <c r="F33" s="98">
         <v>0.02</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B34" s="99">
+        <v>220</v>
+      </c>
+      <c r="B34" s="98">
         <v>431</v>
       </c>
-      <c r="C34" s="183" t="s">
-        <v>181</v>
-      </c>
-      <c r="D34" s="183" t="s">
-        <v>181</v>
-      </c>
-      <c r="E34" s="99">
+      <c r="C34" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" s="98">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F34" s="99">
+      <c r="F34" s="98">
         <v>0.1</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B35" s="99">
+        <v>221</v>
+      </c>
+      <c r="B35" s="98">
         <v>538</v>
       </c>
-      <c r="C35" s="183" t="s">
-        <v>181</v>
-      </c>
-      <c r="D35" s="183" t="s">
-        <v>181</v>
-      </c>
-      <c r="E35" s="99" t="s">
-        <v>227</v>
-      </c>
-      <c r="F35" s="99" t="s">
-        <v>189</v>
+      <c r="C35" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35" s="98" t="s">
+        <v>222</v>
+      </c>
+      <c r="F35" s="98" t="s">
+        <v>184</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B36" s="99">
+        <v>223</v>
+      </c>
+      <c r="B36" s="98">
         <v>114</v>
       </c>
-      <c r="C36" s="183" t="s">
-        <v>181</v>
-      </c>
-      <c r="D36" s="183" t="s">
-        <v>181</v>
-      </c>
-      <c r="E36" s="99">
+      <c r="C36" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" s="98">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F36" s="99">
+      <c r="F36" s="98">
         <v>0.05</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B37" s="99">
+        <v>225</v>
+      </c>
+      <c r="B37" s="98">
         <v>583</v>
       </c>
-      <c r="C37" s="183" t="s">
-        <v>181</v>
-      </c>
-      <c r="D37" s="183" t="s">
-        <v>181</v>
-      </c>
-      <c r="E37" s="99" t="s">
-        <v>231</v>
-      </c>
-      <c r="F37" s="99" t="s">
-        <v>189</v>
+      <c r="C37" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="98" t="s">
+        <v>226</v>
+      </c>
+      <c r="F37" s="98" t="s">
+        <v>184</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="107" t="s">
-        <v>232</v>
-      </c>
-      <c r="B38" s="181">
+      <c r="A38" s="106" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" s="180">
         <v>121</v>
       </c>
-      <c r="C38" s="182">
+      <c r="C38" s="181">
         <v>100</v>
       </c>
-      <c r="D38" s="182">
+      <c r="D38" s="181">
         <v>1</v>
       </c>
-      <c r="E38" s="181" t="s">
-        <v>181</v>
-      </c>
-      <c r="F38" s="181" t="s">
-        <v>181</v>
-      </c>
-      <c r="G38" s="107" t="s">
-        <v>197</v>
+      <c r="E38" s="180" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" s="180" t="s">
+        <v>176</v>
+      </c>
+      <c r="G38" s="106" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B39" s="99">
+        <v>228</v>
+      </c>
+      <c r="B39" s="98">
         <v>628</v>
       </c>
-      <c r="C39" s="183">
+      <c r="C39" s="182">
         <v>1.6</v>
       </c>
-      <c r="D39" s="183">
+      <c r="D39" s="182">
         <v>0.1</v>
       </c>
-      <c r="E39" s="99" t="s">
-        <v>234</v>
-      </c>
-      <c r="F39" s="99">
+      <c r="E39" s="98" t="s">
+        <v>229</v>
+      </c>
+      <c r="F39" s="98">
         <v>0.05</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B40" s="99">
+        <v>231</v>
+      </c>
+      <c r="B40" s="98">
         <v>1228</v>
       </c>
-      <c r="C40" s="183" t="s">
-        <v>181</v>
-      </c>
-      <c r="D40" s="183">
+      <c r="C40" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="182">
         <v>0.6</v>
       </c>
-      <c r="E40" s="99" t="s">
-        <v>215</v>
-      </c>
-      <c r="F40" s="99">
+      <c r="E40" s="98" t="s">
+        <v>210</v>
+      </c>
+      <c r="F40" s="98">
         <v>0.05</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="107" t="s">
-        <v>238</v>
-      </c>
-      <c r="B41" s="181">
+      <c r="A41" s="106" t="s">
+        <v>233</v>
+      </c>
+      <c r="B41" s="180">
         <v>60</v>
       </c>
-      <c r="C41" s="182">
+      <c r="C41" s="181">
         <v>500</v>
       </c>
-      <c r="D41" s="182">
+      <c r="D41" s="181">
         <v>3</v>
       </c>
-      <c r="E41" s="181" t="s">
-        <v>181</v>
-      </c>
-      <c r="F41" s="181" t="s">
-        <v>181</v>
-      </c>
-      <c r="G41" s="107" t="s">
-        <v>194</v>
+      <c r="E41" s="180" t="s">
+        <v>176</v>
+      </c>
+      <c r="F41" s="180" t="s">
+        <v>176</v>
+      </c>
+      <c r="G41" s="106" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B42" s="98">
+        <v>392</v>
+      </c>
+      <c r="C42" s="182">
+        <v>2.6</v>
+      </c>
+      <c r="D42" s="182">
+        <v>0.1</v>
+      </c>
+      <c r="E42" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="183"/>
+      <c r="D43" s="183"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="183"/>
+      <c r="D44" s="183"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="106" t="s">
+        <v>236</v>
+      </c>
+      <c r="C45" s="183"/>
+      <c r="D45" s="183"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="106" t="s">
+        <v>237</v>
+      </c>
+      <c r="C46" s="183"/>
+      <c r="D46" s="183"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="106" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" s="183"/>
+      <c r="D47" s="183"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="106" t="s">
         <v>239</v>
       </c>
-      <c r="B42" s="99">
-        <v>392</v>
-      </c>
-      <c r="C42" s="183">
-        <v>2.6</v>
-      </c>
-      <c r="D42" s="183">
-        <v>0.1</v>
-      </c>
-      <c r="E42" s="99" t="s">
-        <v>181</v>
-      </c>
-      <c r="F42" s="99" t="s">
-        <v>181</v>
-      </c>
-      <c r="G42" s="2" t="s">
+      <c r="C48" s="183"/>
+      <c r="D48" s="183"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="106" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="184"/>
-      <c r="D43" s="184"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="184"/>
-      <c r="D44" s="184"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="107" t="s">
+      <c r="C49" s="183"/>
+      <c r="D49" s="183"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="106" t="s">
         <v>241</v>
       </c>
-      <c r="C45" s="184"/>
-      <c r="D45" s="184"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="107" t="s">
+      <c r="C50" s="183"/>
+      <c r="D50" s="183"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="106" t="s">
         <v>242</v>
       </c>
-      <c r="C46" s="184"/>
-      <c r="D46" s="184"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="107" t="s">
+      <c r="C51" s="183"/>
+      <c r="D51" s="183"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="106" t="s">
         <v>243</v>
       </c>
-      <c r="C47" s="184"/>
-      <c r="D47" s="184"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="107" t="s">
+      <c r="C52" s="183"/>
+      <c r="D52" s="183"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="106" t="s">
         <v>244</v>
       </c>
-      <c r="C48" s="184"/>
-      <c r="D48" s="184"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="107" t="s">
+      <c r="C53" s="183"/>
+      <c r="D53" s="183"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="106" t="s">
         <v>245</v>
       </c>
-      <c r="C49" s="184"/>
-      <c r="D49" s="184"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="107" t="s">
+      <c r="C54" s="183"/>
+      <c r="D54" s="183"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="184" t="s">
         <v>246</v>
       </c>
-      <c r="C50" s="184"/>
-      <c r="D50" s="184"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="107" t="s">
+      <c r="C55" s="183"/>
+      <c r="D55" s="183"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="184" t="s">
         <v>247</v>
       </c>
-      <c r="C51" s="184"/>
-      <c r="D51" s="184"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="107" t="s">
+      <c r="C56" s="183"/>
+      <c r="D56" s="183"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="106" t="s">
         <v>248</v>
       </c>
-      <c r="C52" s="184"/>
-      <c r="D52" s="184"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="107" t="s">
+      <c r="C57" s="183"/>
+      <c r="D57" s="183"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="184" t="s">
         <v>249</v>
       </c>
-      <c r="C53" s="184"/>
-      <c r="D53" s="184"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="107" t="s">
+      <c r="C58" s="183"/>
+      <c r="D58" s="183"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="184" t="s">
         <v>250</v>
       </c>
-      <c r="C54" s="184"/>
-      <c r="D54" s="184"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="185" t="s">
+      <c r="C59" s="183"/>
+      <c r="D59" s="183"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="184" t="s">
         <v>251</v>
       </c>
-      <c r="C55" s="184"/>
-      <c r="D55" s="184"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="185" t="s">
+      <c r="C60" s="183"/>
+      <c r="D60" s="183"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="106" t="s">
         <v>252</v>
       </c>
-      <c r="C56" s="184"/>
-      <c r="D56" s="184"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="107" t="s">
-        <v>253</v>
-      </c>
-      <c r="C57" s="184"/>
-      <c r="D57" s="184"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="185" t="s">
-        <v>254</v>
-      </c>
-      <c r="C58" s="184"/>
-      <c r="D58" s="184"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="185" t="s">
-        <v>255</v>
-      </c>
-      <c r="C59" s="184"/>
-      <c r="D59" s="184"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="185" t="s">
-        <v>256</v>
-      </c>
-      <c r="C60" s="184"/>
-      <c r="D60" s="184"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="107" t="s">
-        <v>257</v>
-      </c>
-      <c r="C61" s="184"/>
-      <c r="D61" s="184"/>
+      <c r="C61" s="183"/>
+      <c r="D61" s="183"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C62" s="184"/>
-      <c r="D62" s="184"/>
+      <c r="C62" s="183"/>
+      <c r="D62" s="183"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C63" s="184"/>
-      <c r="D63" s="184"/>
+      <c r="C63" s="183"/>
+      <c r="D63" s="183"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C64" s="184"/>
-      <c r="D64" s="184"/>
+      <c r="C64" s="183"/>
+      <c r="D64" s="183"/>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C65" s="184"/>
-      <c r="D65" s="184"/>
+      <c r="C65" s="183"/>
+      <c r="D65" s="183"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/WebRoot/costcenter_resources/UWPR sample submission form.xlsx
+++ b/WebRoot/costcenter_resources/UWPR sample submission form.xlsx
@@ -56,25 +56,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Priska von Haller</author>
     <author>Priska</author>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>required</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B15" authorId="1" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,60 +82,92 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="1" shapeId="0">
+    <comment ref="G17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
+            <sz val="12"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>enter budget number for your project online
-and make sure the budget number online is current</t>
+          <t xml:space="preserve">Enter work tags for your project online under payment methods and make sure the work tags online are current.
+Worktags start with GR, GF, PG, CC, SAG, GR followed by a six digit number.
+If needed include Resource, Activity and Assignee tags as well
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0" shapeId="0">
+    <comment ref="G18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
+            <sz val="11"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>required</t>
+          <t>Optional, but if a Resource tag is needed for your Work tag make sure you enter it online under the payment information</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0" shapeId="0">
+    <comment ref="G19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
+            <sz val="11"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>required</t>
+          <t>Optional, but if an Activity tag is needed for your Work tag make sure you enter it online under the payment information</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0" shapeId="0">
+    <comment ref="G20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
+            <sz val="11"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>required</t>
+          <t>Optional, but if an Assignee tag is needed for your Work tag make sure you enter it online under the payment information</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -159,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="303">
   <si>
     <t>Instrumentation:</t>
   </si>
@@ -365,22 +382,6 @@
     <t>Once we receive this form and your samples we schedule the instrument time needed for the analysis. Note: cancellation time is 48hrs, 10%  (of total cost) sign up fee is non-refundable.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Customer Information </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(all fields required)</t>
-    </r>
-  </si>
-  <si>
     <t>Principal Investigator (PI):</t>
   </si>
   <si>
@@ -388,9 +389,6 @@
   </si>
   <si>
     <t>PI is aware of and approved this order?</t>
-  </si>
-  <si>
-    <t>Project #</t>
   </si>
   <si>
     <t>Submitted by</t>
@@ -485,13 +483,7 @@
     <t>Column information:</t>
   </si>
   <si>
-    <t>Analytical column ID 75 µm, beads Dr. Maisch ReprosilPur C18AQ  5µm  120Å,    length 35 cm</t>
-  </si>
-  <si>
     <t>cm (specify custom length if desired)</t>
-  </si>
-  <si>
-    <t>Trap column ID 100 µm, beads Dr. Maisch ReprosilPur C18AQ  5µm  120Å,             length 3 cm</t>
   </si>
   <si>
     <t>Gradient information:</t>
@@ -1322,9 +1314,6 @@
     <t>end</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <r>
       <t>Sample label (</t>
     </r>
@@ -1350,9 +1339,6 @@
     </r>
   </si>
   <si>
-    <t>Budget  #</t>
-  </si>
-  <si>
     <t>https://proteomicsresource.washington.edu/</t>
   </si>
   <si>
@@ -1502,9 +1488,6 @@
     <t>Number of samples</t>
   </si>
   <si>
-    <t>Make sure the budget number(s) are entered online under your project and that they are current. You can use up to two budget numbers to split the cost, please specify the percentage for each number.</t>
-  </si>
-  <si>
     <t>The remaining 90% of the total cost will be applied only if instrument time is used, i.e. not canceled 48 hrs prior to start time.</t>
   </si>
   <si>
@@ -1514,9 +1497,6 @@
     <t>fill in as much information belwo as you know or any special instructions for the analysis:</t>
   </si>
   <si>
-    <t>Sample information (all fields required)</t>
-  </si>
-  <si>
     <t>Exploris 2</t>
   </si>
   <si>
@@ -1530,6 +1510,74 @@
   </si>
   <si>
     <t>Number of blanks</t>
+  </si>
+  <si>
+    <t>Work tag #</t>
+  </si>
+  <si>
+    <t>Resource tag #</t>
+  </si>
+  <si>
+    <t>Activity tag #</t>
+  </si>
+  <si>
+    <t>Assignee tag #</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Customer Information </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(all fields highlighted in yellow are required)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sample information</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  (all fields highlighted in yellow are required)</t>
+    </r>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>Enter work tags for your project online under payment methods and make sure the work tags online are current. Worktags start with GR, GF, PG, CC, SAG, GR followed by a six digit number. If needed include Resource, Activity and Assignee tags as well. You can use up to two work tags to split the cost, please specify the percentage for each number.</t>
+  </si>
+  <si>
+    <t>Project ID #</t>
+  </si>
+  <si>
+    <t>Analytical column ID 75 µm, beads Dr. Maisch ReprosilPur C18AQ  5µm  120Å, default length is 35 cm</t>
+  </si>
+  <si>
+    <t>Trap column ID 100 µm, beads Dr. Maisch ReprosilPur C18AQ  5µm  120Å, default length is 3 cm</t>
+  </si>
+  <si>
+    <t>Number of replicate analyses per sample</t>
   </si>
 </sst>
 </file>
@@ -1543,7 +1591,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="72" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2054,6 +2102,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -2368,7 +2436,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2947,9 +3015,6 @@
     <xf numFmtId="166" fontId="36" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="49" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2979,21 +3044,33 @@
     <xf numFmtId="0" fontId="44" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="71" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3013,23 +3090,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3052,15 +3126,24 @@
     <xf numFmtId="0" fontId="30" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="70" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="71" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3447,13 +3530,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:row>29</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1371600</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:row>29</xdr:row>
           <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:grpSp>
@@ -3469,10 +3552,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="3333750" y="7791450"/>
+              <a:off x="3333750" y="8648700"/>
               <a:ext cx="1371600" cy="209550"/>
-              <a:chOff x="2266949" y="4686300"/>
-              <a:chExt cx="1685926" cy="209550"/>
+              <a:chOff x="2266950" y="4686300"/>
+              <a:chExt cx="1685925" cy="209550"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -3491,7 +3574,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="2266949" y="4686300"/>
+                <a:off x="2266950" y="4686300"/>
                 <a:ext cx="781050" cy="209550"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -3611,13 +3694,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>30</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>30</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3693,13 +3776,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>733425</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>30</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1371600</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>30</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3775,13 +3858,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
-          <xdr:row>68</xdr:row>
+          <xdr:row>71</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>781050</xdr:colOff>
-          <xdr:row>68</xdr:row>
+          <xdr:row>71</xdr:row>
           <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3857,13 +3940,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>628650</xdr:colOff>
-          <xdr:row>68</xdr:row>
+          <xdr:row>71</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>68</xdr:row>
+          <xdr:row>71</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3939,13 +4022,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1019175</xdr:colOff>
-          <xdr:row>68</xdr:row>
+          <xdr:row>71</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>495300</xdr:colOff>
-          <xdr:row>68</xdr:row>
+          <xdr:row>71</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4021,13 +4104,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>71</xdr:row>
+          <xdr:row>74</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>990600</xdr:colOff>
-          <xdr:row>71</xdr:row>
+          <xdr:row>74</xdr:row>
           <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4103,13 +4186,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1066800</xdr:colOff>
-          <xdr:row>71</xdr:row>
+          <xdr:row>74</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>504825</xdr:colOff>
-          <xdr:row>71</xdr:row>
+          <xdr:row>74</xdr:row>
           <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4185,13 +4268,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>72</xdr:row>
+          <xdr:row>75</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>990600</xdr:colOff>
-          <xdr:row>73</xdr:row>
+          <xdr:row>76</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4267,13 +4350,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1066800</xdr:colOff>
-          <xdr:row>72</xdr:row>
+          <xdr:row>75</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>504825</xdr:colOff>
-          <xdr:row>73</xdr:row>
+          <xdr:row>76</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4349,13 +4432,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>72</xdr:row>
+          <xdr:row>75</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
-          <xdr:row>73</xdr:row>
+          <xdr:row>76</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4431,13 +4514,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>390525</xdr:colOff>
-          <xdr:row>72</xdr:row>
+          <xdr:row>75</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>847725</xdr:colOff>
-          <xdr:row>73</xdr:row>
+          <xdr:row>76</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4513,13 +4596,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>72</xdr:row>
+          <xdr:row>75</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>1400175</xdr:colOff>
-          <xdr:row>73</xdr:row>
+          <xdr:row>76</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4595,13 +4678,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>78</xdr:row>
+          <xdr:row>81</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>79</xdr:row>
+          <xdr:row>82</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4677,13 +4760,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>733425</xdr:colOff>
-          <xdr:row>78</xdr:row>
+          <xdr:row>81</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1371600</xdr:colOff>
-          <xdr:row>79</xdr:row>
+          <xdr:row>82</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4759,13 +4842,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>82</xdr:row>
+          <xdr:row>85</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>895350</xdr:colOff>
-          <xdr:row>83</xdr:row>
+          <xdr:row>86</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4841,13 +4924,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1009650</xdr:colOff>
-          <xdr:row>82</xdr:row>
+          <xdr:row>85</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>83</xdr:row>
+          <xdr:row>86</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4923,13 +5006,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>809625</xdr:colOff>
-          <xdr:row>82</xdr:row>
+          <xdr:row>85</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>1285875</xdr:colOff>
-          <xdr:row>83</xdr:row>
+          <xdr:row>86</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5005,13 +5088,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>33</xdr:row>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>33</xdr:row>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5087,13 +5170,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>723900</xdr:colOff>
-          <xdr:row>33</xdr:row>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1181100</xdr:colOff>
-          <xdr:row>33</xdr:row>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5169,13 +5252,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1276350</xdr:colOff>
-          <xdr:row>33</xdr:row>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>104775</xdr:colOff>
-          <xdr:row>33</xdr:row>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5251,13 +5334,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>33</xdr:row>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>333375</xdr:colOff>
-          <xdr:row>33</xdr:row>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5333,13 +5416,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1247775</xdr:colOff>
-          <xdr:row>68</xdr:row>
+          <xdr:row>71</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1895475</xdr:colOff>
-          <xdr:row>68</xdr:row>
+          <xdr:row>71</xdr:row>
           <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5415,13 +5498,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>83</xdr:row>
+          <xdr:row>86</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>981075</xdr:colOff>
-          <xdr:row>84</xdr:row>
+          <xdr:row>87</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5497,13 +5580,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>86</xdr:row>
+          <xdr:row>89</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>981075</xdr:colOff>
-          <xdr:row>86</xdr:row>
+          <xdr:row>89</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5579,13 +5662,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>84</xdr:row>
+          <xdr:row>87</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>619125</xdr:colOff>
-          <xdr:row>85</xdr:row>
+          <xdr:row>88</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5661,13 +5744,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>84</xdr:row>
+          <xdr:row>87</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1171575</xdr:colOff>
-          <xdr:row>85</xdr:row>
+          <xdr:row>88</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5743,13 +5826,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1257300</xdr:colOff>
-          <xdr:row>84</xdr:row>
+          <xdr:row>87</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1895475</xdr:colOff>
-          <xdr:row>85</xdr:row>
+          <xdr:row>88</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5825,13 +5908,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>56</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>590550</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>56</xdr:row>
           <xdr:rowOff>247650</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5889,13 +5972,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>56</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>361950</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>56</xdr:row>
           <xdr:rowOff>247650</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5953,13 +6036,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>314325</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>56</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>600075</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>56</xdr:row>
           <xdr:rowOff>247650</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6017,13 +6100,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1419225</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>56</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>56</xdr:row>
           <xdr:rowOff>247650</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6081,13 +6164,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>56</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>56</xdr:row>
           <xdr:rowOff>247650</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6145,13 +6228,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>32</xdr:row>
+          <xdr:row>35</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>32</xdr:row>
+          <xdr:row>35</xdr:row>
           <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6227,13 +6310,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>723900</xdr:colOff>
-          <xdr:row>32</xdr:row>
+          <xdr:row>35</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1362075</xdr:colOff>
-          <xdr:row>32</xdr:row>
+          <xdr:row>35</xdr:row>
           <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6333,8 +6416,8 @@
             <a:xfrm>
               <a:off x="3028950" y="3686175"/>
               <a:ext cx="1466850" cy="209550"/>
-              <a:chOff x="2266949" y="4686300"/>
-              <a:chExt cx="1685926" cy="209550"/>
+              <a:chOff x="2266950" y="4686300"/>
+              <a:chExt cx="1685925" cy="209550"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -6353,7 +6436,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="2266949" y="4686300"/>
+                <a:off x="2266950" y="4686300"/>
                 <a:ext cx="781050" cy="209550"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -15934,11 +16017,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP123"/>
+  <dimension ref="A1:AP126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15977,7 +16058,7 @@
         <v>21</v>
       </c>
       <c r="I1" s="100">
-        <v>44866</v>
+        <v>45128</v>
       </c>
       <c r="P1" s="101"/>
       <c r="Q1" s="101"/>
@@ -16094,7 +16175,7 @@
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C8" s="104" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D8" s="71"/>
       <c r="P8" s="101"/>
@@ -16160,11 +16241,9 @@
       <c r="AI12" s="80"/>
     </row>
     <row r="13" spans="1:42" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="185" t="s">
-        <v>266</v>
-      </c>
+      <c r="A13" s="185"/>
       <c r="B13" s="211" t="s">
-        <v>50</v>
+        <v>293</v>
       </c>
       <c r="C13" s="211"/>
       <c r="D13" s="211"/>
@@ -16172,6 +16251,7 @@
       <c r="F13" s="212"/>
       <c r="G13" s="212"/>
       <c r="H13" s="212"/>
+      <c r="I13" s="212"/>
       <c r="P13" s="101"/>
       <c r="Q13" s="101"/>
       <c r="R13" s="101"/>
@@ -16188,14 +16268,15 @@
     <row r="14" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="185"/>
       <c r="B14" s="213" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="267"/>
-      <c r="D14" s="267"/>
+        <v>50</v>
+      </c>
+      <c r="C14" s="278"/>
+      <c r="D14" s="278"/>
       <c r="E14" s="214"/>
       <c r="F14" s="212"/>
       <c r="G14" s="212"/>
       <c r="H14" s="212"/>
+      <c r="I14" s="212"/>
       <c r="P14" s="101"/>
       <c r="Q14" s="101"/>
       <c r="R14" s="101"/>
@@ -16207,16 +16288,17 @@
     <row r="15" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="185"/>
       <c r="B15" s="212" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="212"/>
       <c r="D15" s="212"/>
       <c r="E15" s="214"/>
       <c r="F15" s="213" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="267"/>
-      <c r="H15" s="267"/>
+        <v>51</v>
+      </c>
+      <c r="G15" s="278"/>
+      <c r="H15" s="278"/>
+      <c r="I15" s="212"/>
       <c r="P15" s="101"/>
       <c r="Q15" s="101"/>
       <c r="R15" s="101"/>
@@ -16228,16 +16310,17 @@
     <row r="16" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="185"/>
       <c r="B16" s="213" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="267"/>
-      <c r="D16" s="267"/>
+        <v>53</v>
+      </c>
+      <c r="C16" s="278"/>
+      <c r="D16" s="278"/>
       <c r="E16" s="214"/>
       <c r="F16" s="213" t="s">
-        <v>54</v>
+        <v>299</v>
       </c>
       <c r="G16" s="216"/>
       <c r="H16" s="216"/>
+      <c r="I16" s="288"/>
       <c r="K16" s="105"/>
       <c r="L16" s="105"/>
       <c r="M16" s="105"/>
@@ -16259,18 +16342,19 @@
     <row r="17" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="185"/>
       <c r="B17" s="213" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="215"/>
       <c r="D17" s="215"/>
       <c r="E17" s="214"/>
       <c r="F17" s="213" t="s">
-        <v>268</v>
-      </c>
-      <c r="G17" s="265"/>
-      <c r="H17" s="265"/>
-      <c r="I17" s="92" t="s">
-        <v>287</v>
+        <v>289</v>
+      </c>
+      <c r="G17" s="259"/>
+      <c r="H17" s="259"/>
+      <c r="I17" s="288"/>
+      <c r="J17" s="92" t="s">
+        <v>298</v>
       </c>
       <c r="K17" s="105"/>
       <c r="L17" s="105"/>
@@ -16293,22 +16377,23 @@
     <row r="18" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="185"/>
       <c r="B18" s="213" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="215"/>
       <c r="D18" s="215"/>
-      <c r="E18" s="214"/>
-      <c r="F18" s="213" t="s">
-        <v>286</v>
-      </c>
-      <c r="G18" s="288">
-        <v>1</v>
-      </c>
-      <c r="H18" s="289"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="185"/>
-      <c r="L18" s="109"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="71" t="s">
+        <v>290</v>
+      </c>
+      <c r="G18" s="289" t="s">
+        <v>295</v>
+      </c>
+      <c r="H18" s="286"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
       <c r="N18" s="105"/>
       <c r="P18" s="101"/>
       <c r="Q18" s="101"/>
@@ -16324,15 +16409,29 @@
       <c r="AN18" s="86"/>
       <c r="AO18" s="86"/>
     </row>
-    <row r="19" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="71"/>
-      <c r="F19" s="2" t="s">
+    <row r="19" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="185"/>
+      <c r="B19" s="213" t="s">
+        <v>280</v>
+      </c>
+      <c r="C19" s="288"/>
+      <c r="D19" s="261">
+        <v>1</v>
+      </c>
+      <c r="E19" s="185"/>
+      <c r="F19" s="71" t="s">
+        <v>291</v>
+      </c>
+      <c r="G19" s="289" t="s">
         <v>296</v>
       </c>
-      <c r="G19" s="290">
-        <v>0</v>
-      </c>
-      <c r="H19" s="112"/>
+      <c r="H19" s="286"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="105"/>
       <c r="P19" s="101"/>
       <c r="Q19" s="101"/>
       <c r="R19" s="101"/>
@@ -16340,22 +16439,36 @@
       <c r="T19" s="101"/>
       <c r="U19" s="101"/>
       <c r="AI19" s="86"/>
-      <c r="AJ19" s="87"/>
-      <c r="AK19" s="87"/>
-      <c r="AL19" s="87"/>
-      <c r="AM19" s="87"/>
-      <c r="AN19" s="87"/>
-      <c r="AO19" s="87"/>
-    </row>
-    <row r="20" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
+      <c r="AJ19" s="86"/>
+      <c r="AK19" s="86"/>
+      <c r="AL19" s="86"/>
+      <c r="AM19" s="86"/>
+      <c r="AN19" s="86"/>
+      <c r="AO19" s="86"/>
+    </row>
+    <row r="20" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="185"/>
+      <c r="B20" s="213" t="s">
+        <v>302</v>
+      </c>
+      <c r="C20" s="288"/>
+      <c r="D20" s="290">
+        <v>1</v>
+      </c>
+      <c r="E20" s="185"/>
+      <c r="F20" s="71" t="s">
+        <v>292</v>
+      </c>
+      <c r="G20" s="260" t="s">
+        <v>297</v>
+      </c>
+      <c r="H20" s="287"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="105"/>
       <c r="P20" s="101"/>
       <c r="Q20" s="101"/>
       <c r="R20" s="101"/>
@@ -16363,24 +16476,28 @@
       <c r="T20" s="101"/>
       <c r="U20" s="101"/>
       <c r="AI20" s="86"/>
-      <c r="AJ20" s="87"/>
-      <c r="AK20" s="87"/>
-      <c r="AL20" s="87"/>
-      <c r="AM20" s="87"/>
-      <c r="AN20" s="87"/>
-      <c r="AO20" s="87"/>
-    </row>
-    <row r="21" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="211" t="s">
-        <v>291</v>
-      </c>
-      <c r="C21" s="211"/>
-      <c r="D21" s="211"/>
-      <c r="E21" s="212"/>
-      <c r="F21" s="212"/>
-      <c r="G21" s="212"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="212"/>
+      <c r="AJ20" s="86"/>
+      <c r="AK20" s="86"/>
+      <c r="AL20" s="86"/>
+      <c r="AM20" s="86"/>
+      <c r="AN20" s="86"/>
+      <c r="AO20" s="86"/>
+    </row>
+    <row r="21" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="185"/>
+      <c r="B21" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21" s="112"/>
+      <c r="D21" s="262">
+        <v>0</v>
+      </c>
+      <c r="E21" s="185"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="185"/>
+      <c r="L21" s="109"/>
+      <c r="N21" s="105"/>
       <c r="P21" s="101"/>
       <c r="Q21" s="101"/>
       <c r="R21" s="101"/>
@@ -16388,27 +16505,15 @@
       <c r="T21" s="101"/>
       <c r="U21" s="101"/>
       <c r="AI21" s="86"/>
-      <c r="AJ21" s="87"/>
-      <c r="AK21" s="87"/>
-      <c r="AL21" s="87"/>
-      <c r="AM21" s="87"/>
-      <c r="AN21" s="87"/>
-      <c r="AO21" s="87"/>
-    </row>
-    <row r="22" spans="1:41" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="185" t="s">
-        <v>266</v>
-      </c>
-      <c r="B22" s="213" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="266"/>
-      <c r="D22" s="266"/>
-      <c r="E22" s="266"/>
-      <c r="F22" s="266"/>
-      <c r="G22" s="266"/>
-      <c r="H22" s="266"/>
-      <c r="I22" s="266"/>
+      <c r="AJ21" s="86"/>
+      <c r="AK21" s="86"/>
+      <c r="AL21" s="86"/>
+      <c r="AM21" s="86"/>
+      <c r="AN21" s="86"/>
+      <c r="AO21" s="86"/>
+    </row>
+    <row r="22" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="71"/>
       <c r="P22" s="101"/>
       <c r="Q22" s="101"/>
       <c r="R22" s="101"/>
@@ -16423,59 +16528,40 @@
       <c r="AN22" s="87"/>
       <c r="AO22" s="87"/>
     </row>
-    <row r="23" spans="1:41" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="185" t="s">
-        <v>266</v>
-      </c>
-      <c r="B23" s="213" t="s">
-        <v>283</v>
-      </c>
-      <c r="C23" s="265"/>
-      <c r="D23" s="265"/>
-      <c r="E23" s="265"/>
-      <c r="F23" s="265"/>
-      <c r="G23" s="265"/>
-      <c r="H23" s="265"/>
-      <c r="I23" s="265"/>
-      <c r="J23" s="105"/>
-      <c r="N23" s="186"/>
-      <c r="O23" s="186"/>
+    <row r="23" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="107"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
       <c r="P23" s="101"/>
       <c r="Q23" s="101"/>
       <c r="R23" s="101"/>
       <c r="S23" s="101"/>
       <c r="T23" s="101"/>
       <c r="U23" s="101"/>
-      <c r="AB23" s="125"/>
-      <c r="AC23" s="126"/>
-      <c r="AD23" s="126"/>
-      <c r="AE23" s="126"/>
-      <c r="AF23" s="126"/>
-      <c r="AG23" s="126"/>
       <c r="AI23" s="86"/>
-      <c r="AJ23" s="96"/>
-      <c r="AK23" s="96"/>
-      <c r="AL23" s="96"/>
-      <c r="AM23" s="96"/>
-      <c r="AN23" s="96"/>
-      <c r="AO23" s="96"/>
-    </row>
-    <row r="24" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="185" t="s">
-        <v>266</v>
-      </c>
-      <c r="B24" s="269" t="s">
-        <v>267</v>
-      </c>
-      <c r="C24" s="269"/>
-      <c r="D24" s="271" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="271"/>
-      <c r="F24" s="271"/>
-      <c r="G24" s="271"/>
-      <c r="H24" s="271"/>
-      <c r="I24" s="271"/>
+      <c r="AJ23" s="87"/>
+      <c r="AK23" s="87"/>
+      <c r="AL23" s="87"/>
+      <c r="AM23" s="87"/>
+      <c r="AN23" s="87"/>
+      <c r="AO23" s="87"/>
+    </row>
+    <row r="24" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="211" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" s="211"/>
+      <c r="D24" s="211"/>
+      <c r="E24" s="212"/>
+      <c r="F24" s="212"/>
+      <c r="G24" s="212"/>
+      <c r="H24" s="212"/>
+      <c r="I24" s="212"/>
       <c r="P24" s="101"/>
       <c r="Q24" s="101"/>
       <c r="R24" s="101"/>
@@ -16490,19 +16576,22 @@
       <c r="AN24" s="87"/>
       <c r="AO24" s="87"/>
     </row>
-    <row r="25" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="270"/>
-      <c r="C25" s="270"/>
-      <c r="D25" s="272"/>
-      <c r="E25" s="272"/>
-      <c r="F25" s="272"/>
-      <c r="G25" s="272"/>
-      <c r="H25" s="272"/>
-      <c r="I25" s="272"/>
+    <row r="25" spans="1:41" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="185"/>
+      <c r="B25" s="213" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="277"/>
+      <c r="D25" s="277"/>
+      <c r="E25" s="277"/>
+      <c r="F25" s="277"/>
+      <c r="G25" s="277"/>
+      <c r="H25" s="277"/>
+      <c r="I25" s="277"/>
       <c r="P25" s="101"/>
       <c r="Q25" s="101"/>
       <c r="R25" s="101"/>
-      <c r="S25" s="264"/>
+      <c r="S25" s="101"/>
       <c r="T25" s="101"/>
       <c r="U25" s="101"/>
       <c r="AI25" s="86"/>
@@ -16513,40 +16602,55 @@
       <c r="AN25" s="87"/>
       <c r="AO25" s="87"/>
     </row>
-    <row r="26" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="277" t="s">
-        <v>290</v>
-      </c>
-      <c r="C26" s="277"/>
-      <c r="D26" s="277"/>
-      <c r="E26" s="277"/>
-      <c r="F26" s="277"/>
-      <c r="G26" s="277"/>
-      <c r="H26" s="277"/>
-      <c r="I26" s="277"/>
+    <row r="26" spans="1:41" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="185"/>
+      <c r="B26" s="213" t="s">
+        <v>277</v>
+      </c>
+      <c r="C26" s="276"/>
+      <c r="D26" s="276"/>
+      <c r="E26" s="276"/>
+      <c r="F26" s="276"/>
+      <c r="G26" s="276"/>
+      <c r="H26" s="276"/>
+      <c r="I26" s="276"/>
+      <c r="J26" s="105"/>
+      <c r="N26" s="186"/>
+      <c r="O26" s="186"/>
       <c r="P26" s="101"/>
       <c r="Q26" s="101"/>
       <c r="R26" s="101"/>
       <c r="S26" s="101"/>
       <c r="T26" s="101"/>
       <c r="U26" s="101"/>
+      <c r="AB26" s="125"/>
+      <c r="AC26" s="126"/>
+      <c r="AD26" s="126"/>
+      <c r="AE26" s="126"/>
+      <c r="AF26" s="126"/>
+      <c r="AG26" s="126"/>
       <c r="AI26" s="86"/>
-      <c r="AJ26" s="87"/>
-      <c r="AK26" s="87"/>
-      <c r="AL26" s="87"/>
-      <c r="AM26" s="87"/>
-      <c r="AN26" s="87"/>
-      <c r="AO26" s="87"/>
-    </row>
-    <row r="27" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71" t="s">
-        <v>61</v>
-      </c>
+      <c r="AJ26" s="96"/>
+      <c r="AK26" s="96"/>
+      <c r="AL26" s="96"/>
+      <c r="AM26" s="96"/>
+      <c r="AN26" s="96"/>
+      <c r="AO26" s="96"/>
+    </row>
+    <row r="27" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="185"/>
+      <c r="B27" s="268" t="s">
+        <v>262</v>
+      </c>
+      <c r="C27" s="268"/>
+      <c r="D27" s="270" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="270"/>
+      <c r="F27" s="270"/>
+      <c r="G27" s="270"/>
+      <c r="H27" s="270"/>
+      <c r="I27" s="270"/>
       <c r="P27" s="101"/>
       <c r="Q27" s="101"/>
       <c r="R27" s="101"/>
@@ -16561,22 +16665,19 @@
       <c r="AN27" s="87"/>
       <c r="AO27" s="87"/>
     </row>
-    <row r="28" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="209"/>
-      <c r="E28" s="208" t="s">
-        <v>278</v>
-      </c>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
+    <row r="28" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="269"/>
+      <c r="C28" s="269"/>
+      <c r="D28" s="271"/>
+      <c r="E28" s="271"/>
+      <c r="F28" s="271"/>
+      <c r="G28" s="271"/>
+      <c r="H28" s="271"/>
+      <c r="I28" s="271"/>
       <c r="P28" s="101"/>
       <c r="Q28" s="101"/>
       <c r="R28" s="101"/>
-      <c r="S28" s="101"/>
+      <c r="S28" s="258"/>
       <c r="T28" s="101"/>
       <c r="U28" s="101"/>
       <c r="AI28" s="86"/>
@@ -16587,23 +16688,23 @@
       <c r="AN28" s="87"/>
       <c r="AO28" s="87"/>
     </row>
-    <row r="29" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="274"/>
-      <c r="E29" s="274"/>
-      <c r="F29" s="274"/>
-      <c r="G29" s="274"/>
-      <c r="H29" s="274"/>
+    <row r="29" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="275" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" s="275"/>
+      <c r="D29" s="275"/>
+      <c r="E29" s="275"/>
+      <c r="F29" s="275"/>
+      <c r="G29" s="275"/>
+      <c r="H29" s="275"/>
+      <c r="I29" s="275"/>
       <c r="P29" s="101"/>
       <c r="Q29" s="101"/>
       <c r="R29" s="101"/>
       <c r="S29" s="101"/>
       <c r="T29" s="101"/>
       <c r="U29" s="101"/>
-      <c r="AH29" s="30"/>
       <c r="AI29" s="86"/>
       <c r="AJ29" s="87"/>
       <c r="AK29" s="87"/>
@@ -16614,21 +16715,13 @@
     </row>
     <row r="30" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="71" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C30" s="71"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H30" s="92" t="s">
-        <v>279</v>
-      </c>
-      <c r="K30" s="105"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71" t="s">
+        <v>59</v>
+      </c>
       <c r="P30" s="101"/>
       <c r="Q30" s="101"/>
       <c r="R30" s="101"/>
@@ -16644,22 +16737,17 @@
       <c r="AO30" s="87"/>
     </row>
     <row r="31" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" s="82"/>
-      <c r="H31" s="92" t="s">
-        <v>280</v>
-      </c>
-      <c r="K31" s="105"/>
+      <c r="B31" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="74"/>
+      <c r="D31" s="209"/>
+      <c r="E31" s="208" t="s">
+        <v>272</v>
+      </c>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
       <c r="P31" s="101"/>
       <c r="Q31" s="101"/>
       <c r="R31" s="101"/>
@@ -16676,7 +16764,7 @@
     </row>
     <row r="32" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="71"/>
       <c r="D32" s="273"/>
@@ -16699,23 +16787,29 @@
       <c r="AN32" s="87"/>
       <c r="AO32" s="87"/>
     </row>
-    <row r="33" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="71" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C33" s="71"/>
-      <c r="D33" s="273"/>
-      <c r="E33" s="273"/>
-      <c r="F33" s="273"/>
-      <c r="G33" s="273"/>
-      <c r="H33" s="273"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="112"/>
+      <c r="G33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="K33" s="105"/>
       <c r="P33" s="101"/>
       <c r="Q33" s="101"/>
       <c r="R33" s="101"/>
       <c r="S33" s="101"/>
       <c r="T33" s="101"/>
       <c r="U33" s="101"/>
-      <c r="AH33" s="30"/>
       <c r="AI33" s="86"/>
       <c r="AJ33" s="87"/>
       <c r="AK33" s="87"/>
@@ -16724,23 +16818,29 @@
       <c r="AN33" s="87"/>
       <c r="AO33" s="87"/>
     </row>
-    <row r="34" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="71" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C34" s="71"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="82"/>
+      <c r="H34" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="K34" s="105"/>
       <c r="P34" s="101"/>
       <c r="Q34" s="101"/>
       <c r="R34" s="101"/>
       <c r="S34" s="101"/>
       <c r="T34" s="101"/>
       <c r="U34" s="101"/>
-      <c r="AH34" s="30"/>
       <c r="AI34" s="86"/>
       <c r="AJ34" s="87"/>
       <c r="AK34" s="87"/>
@@ -16749,16 +16849,16 @@
       <c r="AN34" s="87"/>
       <c r="AO34" s="87"/>
     </row>
-    <row r="35" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>73</v>
+    <row r="35" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="71" t="s">
+        <v>67</v>
       </c>
       <c r="C35" s="71"/>
-      <c r="D35" s="275"/>
-      <c r="E35" s="275"/>
-      <c r="F35" s="275"/>
-      <c r="G35" s="275"/>
-      <c r="H35" s="275"/>
+      <c r="D35" s="272"/>
+      <c r="E35" s="272"/>
+      <c r="F35" s="272"/>
+      <c r="G35" s="272"/>
+      <c r="H35" s="272"/>
       <c r="P35" s="101"/>
       <c r="Q35" s="101"/>
       <c r="R35" s="101"/>
@@ -16774,16 +16874,16 @@
       <c r="AN35" s="87"/>
       <c r="AO35" s="87"/>
     </row>
-    <row r="36" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="71" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C36" s="71"/>
-      <c r="D36" s="276"/>
-      <c r="E36" s="276"/>
-      <c r="F36" s="276"/>
-      <c r="G36" s="276"/>
-      <c r="H36" s="276"/>
+      <c r="D36" s="272"/>
+      <c r="E36" s="272"/>
+      <c r="F36" s="272"/>
+      <c r="G36" s="272"/>
+      <c r="H36" s="272"/>
       <c r="P36" s="101"/>
       <c r="Q36" s="101"/>
       <c r="R36" s="101"/>
@@ -16799,16 +16899,16 @@
       <c r="AN36" s="87"/>
       <c r="AO36" s="87"/>
     </row>
-    <row r="37" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="71" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C37" s="71"/>
-      <c r="D37" s="275"/>
-      <c r="E37" s="275"/>
-      <c r="F37" s="275"/>
-      <c r="G37" s="275"/>
-      <c r="H37" s="275"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
       <c r="P37" s="101"/>
       <c r="Q37" s="101"/>
       <c r="R37" s="101"/>
@@ -16824,16 +16924,16 @@
       <c r="AN37" s="87"/>
       <c r="AO37" s="87"/>
     </row>
-    <row r="38" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="110"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="187"/>
+    <row r="38" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="71"/>
+      <c r="D38" s="267"/>
+      <c r="E38" s="267"/>
+      <c r="F38" s="267"/>
+      <c r="G38" s="267"/>
+      <c r="H38" s="267"/>
       <c r="P38" s="101"/>
       <c r="Q38" s="101"/>
       <c r="R38" s="101"/>
@@ -16849,18 +16949,23 @@
       <c r="AN38" s="87"/>
       <c r="AO38" s="87"/>
     </row>
-    <row r="39" spans="2:42" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
+    <row r="39" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="71"/>
+      <c r="D39" s="274"/>
+      <c r="E39" s="274"/>
+      <c r="F39" s="274"/>
+      <c r="G39" s="274"/>
+      <c r="H39" s="274"/>
       <c r="P39" s="101"/>
       <c r="Q39" s="101"/>
       <c r="R39" s="101"/>
       <c r="S39" s="101"/>
       <c r="T39" s="101"/>
       <c r="U39" s="101"/>
+      <c r="AH39" s="30"/>
       <c r="AI39" s="86"/>
       <c r="AJ39" s="87"/>
       <c r="AK39" s="87"/>
@@ -16869,18 +16974,23 @@
       <c r="AN39" s="87"/>
       <c r="AO39" s="87"/>
     </row>
-    <row r="40" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="73" t="s">
-        <v>77</v>
+    <row r="40" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="71" t="s">
+        <v>73</v>
       </c>
       <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
+      <c r="D40" s="267"/>
+      <c r="E40" s="267"/>
+      <c r="F40" s="267"/>
+      <c r="G40" s="267"/>
+      <c r="H40" s="267"/>
       <c r="P40" s="101"/>
       <c r="Q40" s="101"/>
       <c r="R40" s="101"/>
       <c r="S40" s="101"/>
       <c r="T40" s="101"/>
       <c r="U40" s="101"/>
+      <c r="AH40" s="30"/>
       <c r="AI40" s="86"/>
       <c r="AJ40" s="87"/>
       <c r="AK40" s="87"/>
@@ -16889,22 +16999,23 @@
       <c r="AN40" s="87"/>
       <c r="AO40" s="87"/>
     </row>
-    <row r="41" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="2" t="s">
-        <v>79</v>
-      </c>
+    <row r="41" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="110"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="187"/>
       <c r="P41" s="101"/>
       <c r="Q41" s="101"/>
       <c r="R41" s="101"/>
       <c r="S41" s="101"/>
       <c r="T41" s="101"/>
       <c r="U41" s="101"/>
+      <c r="AH41" s="30"/>
       <c r="AI41" s="86"/>
       <c r="AJ41" s="87"/>
       <c r="AK41" s="87"/>
@@ -16913,16 +17024,12 @@
       <c r="AN41" s="87"/>
       <c r="AO41" s="87"/>
     </row>
-    <row r="42" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="2" t="s">
-        <v>79</v>
-      </c>
+    <row r="42" spans="2:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
       <c r="P42" s="101"/>
       <c r="Q42" s="101"/>
       <c r="R42" s="101"/>
@@ -16937,7 +17044,12 @@
       <c r="AN42" s="87"/>
       <c r="AO42" s="87"/>
     </row>
-    <row r="43" spans="2:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
       <c r="P43" s="101"/>
       <c r="Q43" s="101"/>
       <c r="R43" s="101"/>
@@ -16952,9 +17064,15 @@
       <c r="AN43" s="87"/>
       <c r="AO43" s="87"/>
     </row>
-    <row r="44" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="73" t="s">
-        <v>81</v>
+    <row r="44" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="71" t="s">
+        <v>300</v>
+      </c>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="P44" s="101"/>
       <c r="Q44" s="101"/>
@@ -16962,36 +17080,39 @@
       <c r="S44" s="101"/>
       <c r="T44" s="101"/>
       <c r="U44" s="101"/>
-      <c r="AK44" s="95"/>
-      <c r="AM44" s="95"/>
-      <c r="AO44" s="95"/>
-    </row>
-    <row r="45" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI44" s="86"/>
+      <c r="AJ44" s="87"/>
+      <c r="AK44" s="87"/>
+      <c r="AL44" s="87"/>
+      <c r="AM44" s="87"/>
+      <c r="AN44" s="87"/>
+      <c r="AO44" s="87"/>
+    </row>
+    <row r="45" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="71" t="s">
-        <v>22</v>
+        <v>301</v>
       </c>
       <c r="C45" s="71"/>
       <c r="D45" s="71"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="P45" s="101"/>
       <c r="Q45" s="101"/>
       <c r="R45" s="101"/>
       <c r="S45" s="101"/>
       <c r="T45" s="101"/>
       <c r="U45" s="101"/>
-      <c r="AI45" s="84"/>
-      <c r="AJ45" s="85"/>
-      <c r="AK45" s="85"/>
-      <c r="AL45" s="85"/>
-      <c r="AM45" s="85"/>
-      <c r="AN45" s="85"/>
-      <c r="AO45" s="85"/>
-    </row>
-    <row r="46" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
+      <c r="AI45" s="86"/>
+      <c r="AJ45" s="87"/>
+      <c r="AK45" s="87"/>
+      <c r="AL45" s="87"/>
+      <c r="AM45" s="87"/>
+      <c r="AN45" s="87"/>
+      <c r="AO45" s="87"/>
+    </row>
+    <row r="46" spans="2:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P46" s="101"/>
       <c r="Q46" s="101"/>
       <c r="R46" s="101"/>
@@ -16999,109 +17120,77 @@
       <c r="T46" s="101"/>
       <c r="U46" s="101"/>
       <c r="AI46" s="86"/>
-      <c r="AJ46" s="86"/>
-      <c r="AK46" s="86"/>
-      <c r="AL46" s="86"/>
-      <c r="AM46" s="86"/>
-      <c r="AN46" s="86"/>
-      <c r="AO46" s="86"/>
-    </row>
-    <row r="47" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="71" t="s">
-        <v>284</v>
-      </c>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="268"/>
-      <c r="F47" s="268"/>
-      <c r="G47" s="268"/>
-      <c r="H47" s="268"/>
+      <c r="AJ46" s="87"/>
+      <c r="AK46" s="87"/>
+      <c r="AL46" s="87"/>
+      <c r="AM46" s="87"/>
+      <c r="AN46" s="87"/>
+      <c r="AO46" s="87"/>
+    </row>
+    <row r="47" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="73" t="s">
+        <v>77</v>
+      </c>
       <c r="P47" s="101"/>
       <c r="Q47" s="101"/>
       <c r="R47" s="101"/>
       <c r="S47" s="101"/>
       <c r="T47" s="101"/>
       <c r="U47" s="101"/>
-      <c r="AI47" s="86"/>
-      <c r="AJ47" s="86"/>
-      <c r="AK47" s="86"/>
-      <c r="AL47" s="86"/>
-      <c r="AM47" s="86"/>
-      <c r="AN47" s="86"/>
-      <c r="AO47" s="86"/>
-    </row>
-    <row r="48" spans="2:42" s="71" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK47" s="95"/>
+      <c r="AM47" s="95"/>
+      <c r="AO47" s="95"/>
+    </row>
+    <row r="48" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="71" t="s">
-        <v>285</v>
-      </c>
-      <c r="D48" s="116"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="74"/>
-      <c r="J48" s="105"/>
-      <c r="K48" s="105"/>
-      <c r="L48" s="105"/>
-      <c r="M48" s="105"/>
-      <c r="N48" s="105"/>
-      <c r="O48" s="105"/>
-      <c r="P48" s="105"/>
-      <c r="Q48" s="105"/>
-      <c r="R48" s="105"/>
-      <c r="S48" s="105"/>
-      <c r="T48" s="105"/>
-      <c r="U48" s="105"/>
-      <c r="AH48" s="15"/>
-      <c r="AI48" s="86"/>
-      <c r="AJ48" s="96"/>
-      <c r="AK48" s="96"/>
-      <c r="AL48" s="96"/>
-      <c r="AM48" s="96"/>
-      <c r="AN48" s="96"/>
-      <c r="AO48" s="96"/>
-      <c r="AP48" s="6"/>
-    </row>
-    <row r="49" spans="2:42" s="71" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="116"/>
-      <c r="E49" s="268"/>
-      <c r="F49" s="268"/>
-      <c r="G49" s="268"/>
-      <c r="H49" s="268"/>
-      <c r="J49" s="105"/>
-      <c r="K49" s="105"/>
-      <c r="L49" s="105"/>
-      <c r="M49" s="105"/>
-      <c r="N49" s="105"/>
-      <c r="O49" s="105"/>
-      <c r="P49" s="105"/>
-      <c r="Q49" s="105"/>
-      <c r="R49" s="105"/>
-      <c r="S49" s="105"/>
-      <c r="T49" s="105"/>
-      <c r="U49" s="105"/>
-      <c r="AH49" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="P48" s="101"/>
+      <c r="Q48" s="101"/>
+      <c r="R48" s="101"/>
+      <c r="S48" s="101"/>
+      <c r="T48" s="101"/>
+      <c r="U48" s="101"/>
+      <c r="AI48" s="84"/>
+      <c r="AJ48" s="85"/>
+      <c r="AK48" s="85"/>
+      <c r="AL48" s="85"/>
+      <c r="AM48" s="85"/>
+      <c r="AN48" s="85"/>
+      <c r="AO48" s="85"/>
+    </row>
+    <row r="49" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="P49" s="101"/>
+      <c r="Q49" s="101"/>
+      <c r="R49" s="101"/>
+      <c r="S49" s="101"/>
+      <c r="T49" s="101"/>
+      <c r="U49" s="101"/>
       <c r="AI49" s="86"/>
-      <c r="AJ49" s="96"/>
-      <c r="AK49" s="96"/>
-      <c r="AL49" s="96"/>
-      <c r="AM49" s="96"/>
-      <c r="AN49" s="96"/>
-      <c r="AO49" s="96"/>
-      <c r="AP49" s="6"/>
-    </row>
-    <row r="50" spans="2:42" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="117" t="s">
-        <v>23</v>
+      <c r="AJ49" s="86"/>
+      <c r="AK49" s="86"/>
+      <c r="AL49" s="86"/>
+      <c r="AM49" s="86"/>
+      <c r="AN49" s="86"/>
+      <c r="AO49" s="86"/>
+    </row>
+    <row r="50" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="71" t="s">
+        <v>278</v>
       </c>
       <c r="C50" s="71"/>
-      <c r="D50" s="116"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="263"/>
+      <c r="F50" s="263"/>
+      <c r="G50" s="263"/>
+      <c r="H50" s="263"/>
       <c r="P50" s="101"/>
       <c r="Q50" s="101"/>
       <c r="R50" s="101"/>
@@ -17109,37 +17198,35 @@
       <c r="T50" s="101"/>
       <c r="U50" s="101"/>
       <c r="AI50" s="86"/>
-      <c r="AJ50" s="96"/>
-      <c r="AK50" s="96"/>
-      <c r="AL50" s="96"/>
-      <c r="AM50" s="96"/>
-      <c r="AN50" s="96"/>
-      <c r="AO50" s="96"/>
-    </row>
-    <row r="51" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ50" s="86"/>
+      <c r="AK50" s="86"/>
+      <c r="AL50" s="86"/>
+      <c r="AM50" s="86"/>
+      <c r="AN50" s="86"/>
+      <c r="AO50" s="86"/>
+    </row>
+    <row r="51" spans="2:42" s="71" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="217">
-        <f>G18</f>
-        <v>1</v>
-      </c>
-      <c r="E51" s="118"/>
-      <c r="G51" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" s="119">
-        <v>1</v>
-      </c>
-      <c r="I51" s="79"/>
-      <c r="J51" s="188"/>
-      <c r="K51" s="188"/>
-      <c r="P51" s="101"/>
-      <c r="Q51" s="101"/>
-      <c r="R51" s="101"/>
-      <c r="S51" s="101"/>
-      <c r="T51" s="101"/>
-      <c r="U51" s="101"/>
+        <v>279</v>
+      </c>
+      <c r="D51" s="116"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="74"/>
+      <c r="J51" s="105"/>
+      <c r="K51" s="105"/>
+      <c r="L51" s="105"/>
+      <c r="M51" s="105"/>
+      <c r="N51" s="105"/>
+      <c r="O51" s="105"/>
+      <c r="P51" s="105"/>
+      <c r="Q51" s="105"/>
+      <c r="R51" s="105"/>
+      <c r="S51" s="105"/>
+      <c r="T51" s="105"/>
+      <c r="U51" s="105"/>
+      <c r="AH51" s="15"/>
       <c r="AI51" s="86"/>
       <c r="AJ51" s="96"/>
       <c r="AK51" s="96"/>
@@ -17147,31 +17234,30 @@
       <c r="AM51" s="96"/>
       <c r="AN51" s="96"/>
       <c r="AO51" s="96"/>
-    </row>
-    <row r="52" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" s="119">
-        <f>G19</f>
-        <v>0</v>
-      </c>
-      <c r="E52" s="118"/>
-      <c r="G52" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="H52" s="119">
-        <v>0</v>
-      </c>
-      <c r="I52" s="79"/>
-      <c r="J52" s="188"/>
-      <c r="K52" s="188"/>
-      <c r="P52" s="101"/>
-      <c r="Q52" s="101"/>
-      <c r="R52" s="101"/>
-      <c r="S52" s="101"/>
-      <c r="T52" s="101"/>
-      <c r="U52" s="101"/>
+      <c r="AP51" s="6"/>
+    </row>
+    <row r="52" spans="2:42" s="71" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="116"/>
+      <c r="E52" s="263"/>
+      <c r="F52" s="263"/>
+      <c r="G52" s="263"/>
+      <c r="H52" s="263"/>
+      <c r="J52" s="105"/>
+      <c r="K52" s="105"/>
+      <c r="L52" s="105"/>
+      <c r="M52" s="105"/>
+      <c r="N52" s="105"/>
+      <c r="O52" s="105"/>
+      <c r="P52" s="105"/>
+      <c r="Q52" s="105"/>
+      <c r="R52" s="105"/>
+      <c r="S52" s="105"/>
+      <c r="T52" s="105"/>
+      <c r="U52" s="105"/>
+      <c r="AH52" s="15"/>
       <c r="AI52" s="86"/>
       <c r="AJ52" s="96"/>
       <c r="AK52" s="96"/>
@@ -17179,8 +17265,12 @@
       <c r="AM52" s="96"/>
       <c r="AN52" s="96"/>
       <c r="AO52" s="96"/>
-    </row>
-    <row r="53" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP52" s="6"/>
+    </row>
+    <row r="53" spans="2:42" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="117" t="s">
+        <v>23</v>
+      </c>
       <c r="C53" s="71"/>
       <c r="D53" s="116"/>
       <c r="E53" s="82"/>
@@ -17202,31 +17292,30 @@
       <c r="AO53" s="96"/>
     </row>
     <row r="54" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="148" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" s="149" t="s">
-        <v>41</v>
-      </c>
-      <c r="D54" s="149" t="s">
-        <v>84</v>
-      </c>
-      <c r="E54" s="150"/>
-      <c r="F54" s="149" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" s="151" t="s">
-        <v>29</v>
-      </c>
-      <c r="H54" s="149" t="s">
-        <v>30</v>
-      </c>
-      <c r="I54" s="149" t="s">
-        <v>31</v>
-      </c>
-      <c r="J54" s="152" t="s">
-        <v>32</v>
-      </c>
+      <c r="B54" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="217">
+        <f>D19</f>
+        <v>1</v>
+      </c>
+      <c r="E54" s="118"/>
+      <c r="G54" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" s="119">
+        <f>D20</f>
+        <v>1</v>
+      </c>
+      <c r="I54" s="79"/>
+      <c r="J54" s="188"/>
+      <c r="K54" s="188"/>
+      <c r="P54" s="101"/>
+      <c r="Q54" s="101"/>
+      <c r="R54" s="101"/>
+      <c r="S54" s="101"/>
+      <c r="T54" s="101"/>
+      <c r="U54" s="101"/>
       <c r="AI54" s="86"/>
       <c r="AJ54" s="96"/>
       <c r="AK54" s="96"/>
@@ -17236,30 +17325,29 @@
       <c r="AO54" s="96"/>
     </row>
     <row r="55" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55" s="153">
-        <v>110</v>
-      </c>
-      <c r="D55" s="153">
-        <f>C$51*H$51</f>
-        <v>1</v>
-      </c>
-      <c r="E55" s="120"/>
-      <c r="F55" s="154">
-        <f>ROUNDUP(((C55*D55)/60),0)</f>
-        <v>2</v>
-      </c>
-      <c r="G55" s="155"/>
-      <c r="H55" s="156"/>
-      <c r="I55" s="156"/>
-      <c r="J55" s="203"/>
-      <c r="K55" s="200" t="s">
-        <v>277</v>
-      </c>
-      <c r="L55" s="201"/>
-      <c r="M55" s="201"/>
+      <c r="B55" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="119">
+        <f>D21</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="118"/>
+      <c r="G55" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="H55" s="119">
+        <v>0</v>
+      </c>
+      <c r="I55" s="79"/>
+      <c r="J55" s="188"/>
+      <c r="K55" s="188"/>
+      <c r="P55" s="101"/>
+      <c r="Q55" s="101"/>
+      <c r="R55" s="101"/>
+      <c r="S55" s="101"/>
+      <c r="T55" s="101"/>
+      <c r="U55" s="101"/>
       <c r="AI55" s="86"/>
       <c r="AJ55" s="96"/>
       <c r="AK55" s="96"/>
@@ -17268,66 +17356,53 @@
       <c r="AN55" s="96"/>
       <c r="AO55" s="96"/>
     </row>
-    <row r="56" spans="2:42" s="50" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="158" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="159">
-        <v>140</v>
-      </c>
-      <c r="D56" s="159">
-        <f t="shared" ref="D56:D59" si="0">C$51*H$51</f>
-        <v>1</v>
-      </c>
-      <c r="E56" s="160"/>
-      <c r="F56" s="161"/>
-      <c r="G56" s="157">
-        <f>ROUNDUP(((C56*D56)/60),0)</f>
-        <v>3</v>
-      </c>
-      <c r="H56" s="161"/>
-      <c r="I56" s="161"/>
-      <c r="J56" s="204"/>
-      <c r="K56" s="162" t="s">
-        <v>274</v>
-      </c>
-      <c r="N56" s="163"/>
-      <c r="O56" s="163"/>
-      <c r="AH56" s="46"/>
-      <c r="AI56" s="164"/>
-      <c r="AJ56" s="165"/>
-      <c r="AK56" s="165"/>
-      <c r="AL56" s="165"/>
-      <c r="AM56" s="165"/>
-      <c r="AN56" s="165"/>
-      <c r="AO56" s="165"/>
-      <c r="AP56" s="166"/>
+    <row r="56" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="71"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="82"/>
+      <c r="P56" s="101"/>
+      <c r="Q56" s="101"/>
+      <c r="R56" s="101"/>
+      <c r="S56" s="101"/>
+      <c r="T56" s="101"/>
+      <c r="U56" s="101"/>
+      <c r="AI56" s="86"/>
+      <c r="AJ56" s="96"/>
+      <c r="AK56" s="96"/>
+      <c r="AL56" s="96"/>
+      <c r="AM56" s="96"/>
+      <c r="AN56" s="96"/>
+      <c r="AO56" s="96"/>
     </row>
     <row r="57" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="83" t="s">
-        <v>35</v>
-      </c>
-      <c r="C57" s="153">
-        <v>170</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E57" s="120"/>
-      <c r="F57" s="156"/>
-      <c r="G57" s="155"/>
-      <c r="H57" s="154">
-        <f>ROUNDUP(((C57*D57)/60),0)</f>
-        <v>3</v>
-      </c>
-      <c r="I57" s="156"/>
-      <c r="J57" s="203"/>
-      <c r="K57" s="200" t="s">
-        <v>275</v>
-      </c>
-      <c r="L57" s="201"/>
-      <c r="M57" s="201"/>
+      <c r="B57" s="148" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="149" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="149" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" s="150"/>
+      <c r="F57" s="149" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" s="151" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="149" t="s">
+        <v>30</v>
+      </c>
+      <c r="I57" s="149" t="s">
+        <v>31</v>
+      </c>
+      <c r="J57" s="152" t="s">
+        <v>32</v>
+      </c>
       <c r="AI57" s="86"/>
       <c r="AJ57" s="96"/>
       <c r="AK57" s="96"/>
@@ -17338,26 +17413,26 @@
     </row>
     <row r="58" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="83" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C58" s="153">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="D58" s="153">
-        <f t="shared" si="0"/>
+        <f>C$54*H$54</f>
         <v>1</v>
       </c>
       <c r="E58" s="120"/>
-      <c r="F58" s="156"/>
+      <c r="F58" s="154">
+        <f>ROUNDUP(((C58*D58)/60),0)</f>
+        <v>2</v>
+      </c>
       <c r="G58" s="155"/>
       <c r="H58" s="156"/>
-      <c r="I58" s="154">
-        <f>ROUNDUP(((C58*D58)/60),0)</f>
-        <v>4</v>
-      </c>
+      <c r="I58" s="156"/>
       <c r="J58" s="203"/>
       <c r="K58" s="200" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L58" s="201"/>
       <c r="M58" s="201"/>
@@ -17369,75 +17444,63 @@
       <c r="AN58" s="96"/>
       <c r="AO58" s="96"/>
     </row>
-    <row r="59" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="C59" s="153"/>
-      <c r="D59" s="153">
+    <row r="59" spans="2:42" s="50" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="158" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="159">
+        <v>140</v>
+      </c>
+      <c r="D59" s="159">
+        <f t="shared" ref="D59:D62" si="0">C$54*H$54</f>
+        <v>1</v>
+      </c>
+      <c r="E59" s="160"/>
+      <c r="F59" s="161"/>
+      <c r="G59" s="157">
+        <f>ROUNDUP(((C59*D59)/60),0)</f>
+        <v>3</v>
+      </c>
+      <c r="H59" s="161"/>
+      <c r="I59" s="161"/>
+      <c r="J59" s="204"/>
+      <c r="K59" s="162" t="s">
+        <v>268</v>
+      </c>
+      <c r="N59" s="163"/>
+      <c r="O59" s="163"/>
+      <c r="AH59" s="46"/>
+      <c r="AI59" s="164"/>
+      <c r="AJ59" s="165"/>
+      <c r="AK59" s="165"/>
+      <c r="AL59" s="165"/>
+      <c r="AM59" s="165"/>
+      <c r="AN59" s="165"/>
+      <c r="AO59" s="165"/>
+      <c r="AP59" s="166"/>
+    </row>
+    <row r="60" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" s="153">
+        <v>170</v>
+      </c>
+      <c r="D60" s="153">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E59" s="120"/>
-      <c r="F59" s="156"/>
-      <c r="G59" s="155"/>
-      <c r="H59" s="156"/>
-      <c r="I59" s="156"/>
-      <c r="J59" s="205">
-        <f>ROUNDUP(((C59*D59)/60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K59" s="201" t="s">
-        <v>37</v>
-      </c>
-      <c r="L59" s="201"/>
-      <c r="M59" s="201"/>
-      <c r="O59" s="268"/>
-      <c r="P59" s="268"/>
-      <c r="Q59" s="268"/>
-      <c r="R59" s="268"/>
-      <c r="AI59" s="86"/>
-      <c r="AJ59" s="96"/>
-      <c r="AK59" s="96"/>
-      <c r="AL59" s="96"/>
-      <c r="AM59" s="96"/>
-      <c r="AN59" s="96"/>
-      <c r="AO59" s="96"/>
-    </row>
-    <row r="60" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" s="153">
-        <v>75</v>
-      </c>
-      <c r="D60" s="153">
-        <f>H52</f>
-        <v>0</v>
-      </c>
       <c r="E60" s="120"/>
-      <c r="F60" s="154">
-        <f t="shared" ref="F60:J61" si="1">ROUNDUP((($C60*$D60)/60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="157">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="F60" s="156"/>
+      <c r="G60" s="155"/>
       <c r="H60" s="154">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="154">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="205">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="88" t="s">
-        <v>39</v>
+        <f>ROUNDUP(((C60*D60)/60),0)</f>
+        <v>3</v>
+      </c>
+      <c r="I60" s="156"/>
+      <c r="J60" s="203"/>
+      <c r="K60" s="200" t="s">
+        <v>269</v>
       </c>
       <c r="L60" s="201"/>
       <c r="M60" s="201"/>
@@ -17450,39 +17513,27 @@
       <c r="AO60" s="96"/>
     </row>
     <row r="61" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="C61" s="90">
-        <v>40</v>
-      </c>
-      <c r="D61" s="90">
-        <f>C52</f>
-        <v>0</v>
-      </c>
-      <c r="E61" s="121"/>
-      <c r="F61" s="122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="123">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I61" s="122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="206">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="88" t="s">
-        <v>85</v>
+      <c r="B61" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="153">
+        <v>230</v>
+      </c>
+      <c r="D61" s="153">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E61" s="120"/>
+      <c r="F61" s="156"/>
+      <c r="G61" s="155"/>
+      <c r="H61" s="156"/>
+      <c r="I61" s="154">
+        <f>ROUNDUP(((C61*D61)/60),0)</f>
+        <v>4</v>
+      </c>
+      <c r="J61" s="203"/>
+      <c r="K61" s="200" t="s">
+        <v>270</v>
       </c>
       <c r="L61" s="201"/>
       <c r="M61" s="201"/>
@@ -17494,38 +17545,33 @@
       <c r="AN61" s="96"/>
       <c r="AO61" s="96"/>
     </row>
-    <row r="62" spans="2:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="142"/>
-      <c r="C62" s="143"/>
-      <c r="D62" s="144" t="s">
-        <v>86</v>
-      </c>
-      <c r="E62" s="145"/>
-      <c r="F62" s="146">
-        <f>SUM(F55:F61)+2</f>
-        <v>4</v>
-      </c>
-      <c r="G62" s="147">
-        <f t="shared" ref="G62:J62" si="2">SUM(G55:G61)+2</f>
-        <v>5</v>
-      </c>
-      <c r="H62" s="146">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I62" s="146">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="J62" s="207">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K62" s="202" t="s">
-        <v>87</v>
+    <row r="62" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="153"/>
+      <c r="D62" s="153">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E62" s="120"/>
+      <c r="F62" s="156"/>
+      <c r="G62" s="155"/>
+      <c r="H62" s="156"/>
+      <c r="I62" s="156"/>
+      <c r="J62" s="205">
+        <f>ROUNDUP(((C62*D62)/60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K62" s="201" t="s">
+        <v>37</v>
       </c>
       <c r="L62" s="201"/>
       <c r="M62" s="201"/>
+      <c r="O62" s="263"/>
+      <c r="P62" s="263"/>
+      <c r="Q62" s="263"/>
+      <c r="R62" s="263"/>
       <c r="AI62" s="86"/>
       <c r="AJ62" s="96"/>
       <c r="AK62" s="96"/>
@@ -17534,34 +17580,43 @@
       <c r="AN62" s="96"/>
       <c r="AO62" s="96"/>
     </row>
-    <row r="63" spans="2:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="71"/>
-      <c r="C63" s="91"/>
-      <c r="D63" s="144" t="s">
-        <v>89</v>
-      </c>
-      <c r="E63" s="145"/>
-      <c r="F63" s="240">
-        <f>F$62*$Q$70+$Q$71</f>
-        <v>149</v>
-      </c>
-      <c r="G63" s="239">
-        <f>G$62*$Q$70+$Q$71</f>
-        <v>180</v>
-      </c>
-      <c r="H63" s="241">
-        <f>H$62*$Q$70+$Q$71</f>
-        <v>180</v>
-      </c>
-      <c r="I63" s="241">
-        <f>I$62*$Q$70+$Q$71</f>
-        <v>211</v>
-      </c>
-      <c r="J63" s="242">
-        <f>J$62*$Q$70+$Q$71</f>
-        <v>87</v>
-      </c>
-      <c r="K63" s="105"/>
+    <row r="63" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="153">
+        <v>75</v>
+      </c>
+      <c r="D63" s="153">
+        <f>H55</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="120"/>
+      <c r="F63" s="154">
+        <f t="shared" ref="F63:J64" si="1">ROUNDUP((($C63*$D63)/60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="157">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="154">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="154">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="205">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="L63" s="201"/>
+      <c r="M63" s="201"/>
       <c r="AI63" s="86"/>
       <c r="AJ63" s="96"/>
       <c r="AK63" s="96"/>
@@ -17570,34 +17625,43 @@
       <c r="AN63" s="96"/>
       <c r="AO63" s="96"/>
     </row>
-    <row r="64" spans="2:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="71"/>
-      <c r="C64" s="91"/>
-      <c r="D64" s="246" t="s">
-        <v>289</v>
-      </c>
-      <c r="E64" s="247"/>
-      <c r="F64" s="248"/>
-      <c r="G64" s="249"/>
-      <c r="H64" s="249"/>
-      <c r="I64" s="249"/>
-      <c r="J64" s="250"/>
-      <c r="K64" s="105"/>
-      <c r="M64" s="257"/>
-      <c r="N64" s="258"/>
-      <c r="O64" s="259"/>
-      <c r="P64" s="139"/>
-      <c r="Q64" s="139"/>
-      <c r="R64" s="139"/>
-      <c r="S64" s="139"/>
-      <c r="T64" s="260"/>
-      <c r="U64" s="139"/>
-      <c r="AB64" s="125"/>
-      <c r="AC64" s="126"/>
-      <c r="AD64" s="126"/>
-      <c r="AE64" s="126"/>
-      <c r="AF64" s="126"/>
-      <c r="AG64" s="126"/>
+    <row r="64" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="90">
+        <v>40</v>
+      </c>
+      <c r="D64" s="90">
+        <f>C55</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="121"/>
+      <c r="F64" s="122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="206">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="L64" s="201"/>
+      <c r="M64" s="201"/>
       <c r="AI64" s="86"/>
       <c r="AJ64" s="96"/>
       <c r="AK64" s="96"/>
@@ -17606,34 +17670,38 @@
       <c r="AN64" s="96"/>
       <c r="AO64" s="96"/>
     </row>
-    <row r="65" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="71"/>
-      <c r="C65" s="91"/>
-      <c r="D65" s="195" t="s">
-        <v>288</v>
-      </c>
-      <c r="E65" s="251"/>
-      <c r="F65" s="139"/>
-      <c r="G65" s="237"/>
-      <c r="H65" s="237"/>
-      <c r="I65" s="237"/>
-      <c r="J65" s="252"/>
-      <c r="K65" s="105"/>
-      <c r="M65" s="257"/>
-      <c r="N65" s="258"/>
-      <c r="O65" s="259"/>
-      <c r="P65" s="139"/>
-      <c r="Q65" s="139"/>
-      <c r="R65" s="139"/>
-      <c r="S65" s="139"/>
-      <c r="T65" s="260"/>
-      <c r="U65" s="139"/>
-      <c r="AB65" s="125"/>
-      <c r="AC65" s="126"/>
-      <c r="AD65" s="126"/>
-      <c r="AE65" s="126"/>
-      <c r="AF65" s="126"/>
-      <c r="AG65" s="126"/>
+    <row r="65" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="142"/>
+      <c r="C65" s="143"/>
+      <c r="D65" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65" s="145"/>
+      <c r="F65" s="146">
+        <f>SUM(F58:F64)+2</f>
+        <v>4</v>
+      </c>
+      <c r="G65" s="147">
+        <f t="shared" ref="G65:J65" si="2">SUM(G58:G64)+2</f>
+        <v>5</v>
+      </c>
+      <c r="H65" s="146">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I65" s="146">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J65" s="207">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K65" s="202" t="s">
+        <v>83</v>
+      </c>
+      <c r="L65" s="201"/>
+      <c r="M65" s="201"/>
       <c r="AI65" s="86"/>
       <c r="AJ65" s="96"/>
       <c r="AK65" s="96"/>
@@ -17642,34 +17710,34 @@
       <c r="AN65" s="96"/>
       <c r="AO65" s="96"/>
     </row>
-    <row r="66" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="71"/>
       <c r="C66" s="91"/>
-      <c r="D66" s="195" t="s">
-        <v>105</v>
-      </c>
-      <c r="E66" s="251"/>
-      <c r="F66" s="139"/>
-      <c r="G66" s="237"/>
-      <c r="H66" s="237"/>
-      <c r="I66" s="237"/>
-      <c r="J66" s="252"/>
+      <c r="D66" s="144" t="s">
+        <v>85</v>
+      </c>
+      <c r="E66" s="145"/>
+      <c r="F66" s="240">
+        <f>F$65*$P$73+$P$74</f>
+        <v>149</v>
+      </c>
+      <c r="G66" s="239">
+        <f>G$65*$P$73+$P$74</f>
+        <v>180</v>
+      </c>
+      <c r="H66" s="241">
+        <f>H$65*$P$73+$P$74</f>
+        <v>180</v>
+      </c>
+      <c r="I66" s="241">
+        <f>I$65*$P$73+$P$74</f>
+        <v>211</v>
+      </c>
+      <c r="J66" s="242">
+        <f>J$65*$P$73+$P$74</f>
+        <v>87</v>
+      </c>
       <c r="K66" s="105"/>
-      <c r="M66" s="257"/>
-      <c r="N66" s="258"/>
-      <c r="O66" s="259"/>
-      <c r="P66" s="139"/>
-      <c r="Q66" s="139"/>
-      <c r="R66" s="139"/>
-      <c r="S66" s="139"/>
-      <c r="T66" s="260"/>
-      <c r="U66" s="139"/>
-      <c r="AB66" s="125"/>
-      <c r="AC66" s="126"/>
-      <c r="AD66" s="126"/>
-      <c r="AE66" s="126"/>
-      <c r="AF66" s="126"/>
-      <c r="AG66" s="126"/>
       <c r="AI66" s="86"/>
       <c r="AJ66" s="96"/>
       <c r="AK66" s="96"/>
@@ -17681,24 +17749,24 @@
     <row r="67" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="71"/>
       <c r="C67" s="91"/>
-      <c r="D67" s="253" t="s">
-        <v>107</v>
-      </c>
-      <c r="E67" s="254"/>
-      <c r="F67" s="112"/>
-      <c r="G67" s="255"/>
-      <c r="H67" s="255"/>
-      <c r="I67" s="255"/>
-      <c r="J67" s="256"/>
+      <c r="D67" s="243" t="s">
+        <v>282</v>
+      </c>
+      <c r="E67" s="244"/>
+      <c r="F67" s="245"/>
+      <c r="G67" s="246"/>
+      <c r="H67" s="246"/>
+      <c r="I67" s="246"/>
+      <c r="J67" s="247"/>
       <c r="K67" s="105"/>
-      <c r="M67" s="257"/>
-      <c r="N67" s="258"/>
-      <c r="O67" s="259"/>
+      <c r="M67" s="254"/>
+      <c r="N67" s="255"/>
+      <c r="O67" s="256"/>
       <c r="P67" s="139"/>
       <c r="Q67" s="139"/>
       <c r="R67" s="139"/>
       <c r="S67" s="139"/>
-      <c r="T67" s="260"/>
+      <c r="T67" s="257"/>
       <c r="U67" s="139"/>
       <c r="AB67" s="125"/>
       <c r="AC67" s="126"/>
@@ -17714,27 +17782,28 @@
       <c r="AN67" s="96"/>
       <c r="AO67" s="96"/>
     </row>
-    <row r="68" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="71"/>
       <c r="C68" s="91"/>
-      <c r="E68" s="124"/>
+      <c r="D68" s="195" t="s">
+        <v>281</v>
+      </c>
+      <c r="E68" s="248"/>
+      <c r="F68" s="139"/>
       <c r="G68" s="237"/>
       <c r="H68" s="237"/>
       <c r="I68" s="237"/>
-      <c r="J68" s="237"/>
+      <c r="J68" s="249"/>
       <c r="K68" s="105"/>
-      <c r="M68" s="261"/>
-      <c r="N68" s="243"/>
-      <c r="O68" s="263" t="str">
-        <f>Rates!C28</f>
-        <v>UW Internal Rates With Additional Labor</v>
-      </c>
-      <c r="P68" s="244"/>
-      <c r="Q68" s="244"/>
-      <c r="R68" s="244"/>
-      <c r="S68" s="244"/>
-      <c r="T68" s="245"/>
-      <c r="U68" s="262"/>
+      <c r="M68" s="254"/>
+      <c r="N68" s="255"/>
+      <c r="O68" s="256"/>
+      <c r="P68" s="139"/>
+      <c r="Q68" s="139"/>
+      <c r="R68" s="139"/>
+      <c r="S68" s="139"/>
+      <c r="T68" s="257"/>
+      <c r="U68" s="139"/>
       <c r="AB68" s="125"/>
       <c r="AC68" s="126"/>
       <c r="AD68" s="126"/>
@@ -17749,366 +17818,297 @@
       <c r="AN68" s="96"/>
       <c r="AO68" s="96"/>
     </row>
-    <row r="69" spans="1:42" s="91" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="209" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="235"/>
-      <c r="D69" s="236"/>
-      <c r="E69" s="238"/>
-      <c r="K69" s="109"/>
-      <c r="L69" s="109"/>
-      <c r="M69" s="228"/>
-      <c r="N69" s="229"/>
-      <c r="O69" s="230" t="str">
+    <row r="69" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="71"/>
+      <c r="C69" s="91"/>
+      <c r="D69" s="195" t="s">
+        <v>101</v>
+      </c>
+      <c r="E69" s="248"/>
+      <c r="F69" s="139"/>
+      <c r="G69" s="237"/>
+      <c r="H69" s="237"/>
+      <c r="I69" s="237"/>
+      <c r="J69" s="249"/>
+      <c r="K69" s="105"/>
+      <c r="M69" s="254"/>
+      <c r="N69" s="255"/>
+      <c r="O69" s="256"/>
+      <c r="P69" s="139"/>
+      <c r="Q69" s="139"/>
+      <c r="R69" s="139"/>
+      <c r="S69" s="139"/>
+      <c r="T69" s="257"/>
+      <c r="U69" s="139"/>
+      <c r="AB69" s="125"/>
+      <c r="AC69" s="126"/>
+      <c r="AD69" s="126"/>
+      <c r="AE69" s="126"/>
+      <c r="AF69" s="126"/>
+      <c r="AG69" s="126"/>
+      <c r="AI69" s="86"/>
+      <c r="AJ69" s="96"/>
+      <c r="AK69" s="96"/>
+      <c r="AL69" s="96"/>
+      <c r="AM69" s="96"/>
+      <c r="AN69" s="96"/>
+      <c r="AO69" s="96"/>
+    </row>
+    <row r="70" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="71"/>
+      <c r="C70" s="91"/>
+      <c r="D70" s="250" t="s">
+        <v>103</v>
+      </c>
+      <c r="E70" s="251"/>
+      <c r="F70" s="112"/>
+      <c r="G70" s="252"/>
+      <c r="H70" s="252"/>
+      <c r="I70" s="252"/>
+      <c r="J70" s="253"/>
+      <c r="K70" s="105"/>
+      <c r="M70" s="254"/>
+      <c r="N70" s="255"/>
+      <c r="O70" s="256"/>
+      <c r="P70" s="139"/>
+      <c r="Q70" s="139"/>
+      <c r="R70" s="139"/>
+      <c r="S70" s="139"/>
+      <c r="T70" s="257"/>
+      <c r="U70" s="139"/>
+      <c r="AB70" s="125"/>
+      <c r="AC70" s="126"/>
+      <c r="AD70" s="126"/>
+      <c r="AE70" s="126"/>
+      <c r="AF70" s="126"/>
+      <c r="AG70" s="126"/>
+      <c r="AI70" s="86"/>
+      <c r="AJ70" s="96"/>
+      <c r="AK70" s="96"/>
+      <c r="AL70" s="96"/>
+      <c r="AM70" s="96"/>
+      <c r="AN70" s="96"/>
+      <c r="AO70" s="96"/>
+    </row>
+    <row r="71" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="71"/>
+      <c r="C71" s="91"/>
+      <c r="E71" s="124"/>
+      <c r="G71" s="237"/>
+      <c r="H71" s="237"/>
+      <c r="I71" s="237"/>
+      <c r="J71" s="237"/>
+      <c r="K71" s="105"/>
+      <c r="M71" s="291"/>
+      <c r="N71" s="292"/>
+      <c r="O71" s="293" t="str">
+        <f>Rates!C28</f>
+        <v>UW Internal Rates With Additional Labor</v>
+      </c>
+      <c r="P71" s="294"/>
+      <c r="Q71" s="294"/>
+      <c r="R71" s="294"/>
+      <c r="S71" s="294"/>
+      <c r="T71" s="295"/>
+      <c r="U71" s="139"/>
+      <c r="AB71" s="125"/>
+      <c r="AC71" s="126"/>
+      <c r="AD71" s="126"/>
+      <c r="AE71" s="126"/>
+      <c r="AF71" s="126"/>
+      <c r="AG71" s="126"/>
+      <c r="AI71" s="86"/>
+      <c r="AJ71" s="96"/>
+      <c r="AK71" s="96"/>
+      <c r="AL71" s="96"/>
+      <c r="AM71" s="96"/>
+      <c r="AN71" s="96"/>
+      <c r="AO71" s="96"/>
+    </row>
+    <row r="72" spans="1:42" s="91" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="209" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="235"/>
+      <c r="D72" s="236"/>
+      <c r="E72" s="238"/>
+      <c r="K72" s="109"/>
+      <c r="L72" s="109"/>
+      <c r="M72" s="228"/>
+      <c r="N72" s="229"/>
+      <c r="O72" s="230" t="str">
         <f>Rates!E14</f>
         <v>TSQA</v>
       </c>
-      <c r="P69" s="230" t="str">
-        <f>Rates!F14</f>
-        <v>TSQV</v>
-      </c>
-      <c r="Q69" s="230" t="str">
+      <c r="P72" s="230" t="str">
         <f>Rates!G14</f>
         <v>Exploris 1</v>
       </c>
-      <c r="R69" s="230" t="str">
+      <c r="Q72" s="230" t="str">
         <f>Rates!H14</f>
         <v>Exploris 2</v>
       </c>
-      <c r="S69" s="230" t="str">
+      <c r="R72" s="230" t="str">
         <f>Rates!I14</f>
         <v>QE +</v>
       </c>
-      <c r="T69" s="230" t="str">
+      <c r="S72" s="230" t="str">
         <f>Rates!J14</f>
         <v>Fusion</v>
       </c>
-      <c r="U69" s="231" t="str">
+      <c r="T72" s="231" t="str">
         <f>Rates!K14</f>
         <v>Lumos</v>
       </c>
-      <c r="AB69" s="222"/>
-      <c r="AC69" s="223"/>
-      <c r="AD69" s="223"/>
-      <c r="AE69" s="223"/>
-      <c r="AF69" s="223"/>
-      <c r="AG69" s="223"/>
-      <c r="AH69" s="232"/>
-      <c r="AI69" s="225"/>
-      <c r="AJ69" s="233"/>
-      <c r="AK69" s="233"/>
-      <c r="AL69" s="233"/>
-      <c r="AM69" s="233"/>
-      <c r="AN69" s="233"/>
-      <c r="AO69" s="233"/>
-      <c r="AP69" s="234"/>
-    </row>
-    <row r="70" spans="1:42" s="71" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="C70" s="91"/>
-      <c r="D70" s="91"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="105"/>
-      <c r="L70" s="105"/>
-      <c r="M70" s="218"/>
-      <c r="N70" s="219" t="s">
-        <v>90</v>
-      </c>
-      <c r="O70" s="220">
+      <c r="U72" s="235"/>
+      <c r="AB72" s="222"/>
+      <c r="AC72" s="223"/>
+      <c r="AD72" s="223"/>
+      <c r="AE72" s="223"/>
+      <c r="AF72" s="223"/>
+      <c r="AG72" s="223"/>
+      <c r="AH72" s="232"/>
+      <c r="AI72" s="225"/>
+      <c r="AJ72" s="233"/>
+      <c r="AK72" s="233"/>
+      <c r="AL72" s="233"/>
+      <c r="AM72" s="233"/>
+      <c r="AN72" s="233"/>
+      <c r="AO72" s="233"/>
+      <c r="AP72" s="234"/>
+    </row>
+    <row r="73" spans="1:42" s="71" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="C73" s="91"/>
+      <c r="D73" s="91"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="105"/>
+      <c r="L73" s="105"/>
+      <c r="M73" s="218"/>
+      <c r="N73" s="219" t="s">
+        <v>86</v>
+      </c>
+      <c r="O73" s="220">
         <f>Rates!E31</f>
         <v>27</v>
       </c>
-      <c r="P70" s="220">
+      <c r="P73" s="220">
         <f>Rates!F31</f>
-        <v>18</v>
-      </c>
-      <c r="Q70" s="220">
+        <v>31</v>
+      </c>
+      <c r="Q73" s="220">
         <f>Rates!G31</f>
         <v>31</v>
       </c>
-      <c r="R70" s="220">
+      <c r="R73" s="220">
         <f>Rates!H31</f>
         <v>31</v>
       </c>
-      <c r="S70" s="220">
+      <c r="S73" s="220">
         <f>Rates!I31</f>
         <v>31</v>
       </c>
-      <c r="T70" s="220">
+      <c r="T73" s="221">
         <f>Rates!J31</f>
         <v>31</v>
       </c>
-      <c r="U70" s="221">
-        <f>Rates!K31</f>
-        <v>31</v>
-      </c>
-      <c r="AB70" s="222"/>
-      <c r="AC70" s="223"/>
-      <c r="AD70" s="223"/>
-      <c r="AE70" s="223"/>
-      <c r="AF70" s="223"/>
-      <c r="AG70" s="223"/>
-      <c r="AH70" s="224"/>
-      <c r="AI70" s="225"/>
-      <c r="AJ70" s="226"/>
-      <c r="AK70" s="226"/>
-      <c r="AL70" s="226"/>
-      <c r="AM70" s="226"/>
-      <c r="AN70" s="226"/>
-      <c r="AO70" s="226"/>
-      <c r="AP70" s="227"/>
-    </row>
-    <row r="71" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="C71" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="D71" s="71"/>
-      <c r="K71" s="105"/>
-      <c r="M71" s="189"/>
-      <c r="N71" s="190" t="s">
-        <v>91</v>
-      </c>
-      <c r="O71" s="191">
+      <c r="U73" s="208"/>
+      <c r="AB73" s="222"/>
+      <c r="AC73" s="223"/>
+      <c r="AD73" s="223"/>
+      <c r="AE73" s="223"/>
+      <c r="AF73" s="223"/>
+      <c r="AG73" s="223"/>
+      <c r="AH73" s="224"/>
+      <c r="AI73" s="225"/>
+      <c r="AJ73" s="226"/>
+      <c r="AK73" s="226"/>
+      <c r="AL73" s="226"/>
+      <c r="AM73" s="226"/>
+      <c r="AN73" s="226"/>
+      <c r="AO73" s="226"/>
+      <c r="AP73" s="227"/>
+    </row>
+    <row r="74" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" s="71"/>
+      <c r="K74" s="105"/>
+      <c r="M74" s="189"/>
+      <c r="N74" s="190" t="s">
+        <v>87</v>
+      </c>
+      <c r="O74" s="191">
         <f>Rates!E36</f>
         <v>25</v>
       </c>
-      <c r="P71" s="191">
+      <c r="P74" s="191">
         <f>Rates!F36</f>
         <v>25</v>
       </c>
-      <c r="Q71" s="191">
+      <c r="Q74" s="191">
         <f>Rates!G36</f>
         <v>25</v>
       </c>
-      <c r="R71" s="191">
+      <c r="R74" s="191">
         <f>Rates!H36</f>
         <v>25</v>
       </c>
-      <c r="S71" s="191">
+      <c r="S74" s="191">
         <f>Rates!I36</f>
         <v>25</v>
       </c>
-      <c r="T71" s="191">
+      <c r="T74" s="210">
         <f>Rates!J36</f>
         <v>25</v>
       </c>
-      <c r="U71" s="210">
-        <f>Rates!K36</f>
-        <v>25</v>
-      </c>
-      <c r="AI71" s="86"/>
-      <c r="AJ71" s="86"/>
-      <c r="AK71" s="86"/>
-      <c r="AL71" s="86"/>
-      <c r="AM71" s="86"/>
-      <c r="AN71" s="86"/>
-      <c r="AO71" s="86"/>
-    </row>
-    <row r="72" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="C72" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="D72" s="278"/>
-      <c r="E72" s="278"/>
-      <c r="F72" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="G72" s="111"/>
-      <c r="M72" s="130" t="s">
-        <v>94</v>
-      </c>
-      <c r="N72" s="192"/>
-      <c r="O72" s="193"/>
-      <c r="P72" s="193"/>
-      <c r="Q72" s="131"/>
-      <c r="R72" s="131"/>
-      <c r="S72" s="131"/>
-      <c r="T72" s="131"/>
-      <c r="U72" s="132"/>
-      <c r="AB72" s="125"/>
-      <c r="AC72" s="125"/>
-      <c r="AD72" s="125"/>
-      <c r="AE72" s="125"/>
-      <c r="AF72" s="125"/>
-      <c r="AG72" s="125"/>
-      <c r="AI72" s="86"/>
-      <c r="AJ72" s="96"/>
-      <c r="AK72" s="96"/>
-      <c r="AL72" s="96"/>
-      <c r="AM72" s="96"/>
-      <c r="AN72" s="96"/>
-      <c r="AO72" s="96"/>
-    </row>
-    <row r="73" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="C73" s="78" t="s">
-        <v>99</v>
-      </c>
-      <c r="D73" s="128"/>
-      <c r="M73" s="194" t="s">
-        <v>28</v>
-      </c>
-      <c r="N73" s="192"/>
-      <c r="O73" s="191">
-        <f t="shared" ref="O73:U73" si="3">$F$62*O$70+O$71</f>
-        <v>133</v>
-      </c>
-      <c r="P73" s="191">
-        <f t="shared" si="3"/>
-        <v>97</v>
-      </c>
-      <c r="Q73" s="133">
-        <f t="shared" si="3"/>
-        <v>149</v>
-      </c>
-      <c r="R73" s="133">
-        <f t="shared" si="3"/>
-        <v>149</v>
-      </c>
-      <c r="S73" s="133">
-        <f t="shared" si="3"/>
-        <v>149</v>
-      </c>
-      <c r="T73" s="133">
-        <f t="shared" si="3"/>
-        <v>149</v>
-      </c>
-      <c r="U73" s="134">
-        <f t="shared" si="3"/>
-        <v>149</v>
-      </c>
-      <c r="AB73" s="125"/>
-      <c r="AC73" s="126"/>
-      <c r="AD73" s="126"/>
-      <c r="AE73" s="126"/>
-      <c r="AF73" s="126"/>
-      <c r="AG73" s="126"/>
-      <c r="AI73" s="86"/>
-      <c r="AJ73" s="96"/>
-      <c r="AK73" s="96"/>
-      <c r="AL73" s="96"/>
-      <c r="AM73" s="96"/>
-      <c r="AN73" s="96"/>
-      <c r="AO73" s="96"/>
-    </row>
-    <row r="74" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="71"/>
-      <c r="C74" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="D74" s="279"/>
-      <c r="E74" s="279"/>
-      <c r="F74" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="G74" s="111"/>
-      <c r="M74" s="135" t="s">
-        <v>29</v>
-      </c>
-      <c r="N74" s="136"/>
-      <c r="O74" s="137">
-        <f t="shared" ref="O74:U74" si="4">$G$62*O$70+O$71</f>
-        <v>160</v>
-      </c>
-      <c r="P74" s="137">
-        <f t="shared" si="4"/>
-        <v>115</v>
-      </c>
-      <c r="Q74" s="137">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="R74" s="137">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="S74" s="137">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="T74" s="137">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="U74" s="138">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="AB74" s="127"/>
-      <c r="AC74" s="93"/>
-      <c r="AD74" s="93"/>
-      <c r="AE74" s="93"/>
-      <c r="AF74" s="93"/>
-      <c r="AG74" s="93"/>
+      <c r="U74" s="139"/>
       <c r="AI74" s="86"/>
-      <c r="AJ74" s="96"/>
-      <c r="AK74" s="96"/>
-      <c r="AL74" s="96"/>
-      <c r="AM74" s="96"/>
-      <c r="AN74" s="96"/>
-      <c r="AO74" s="96"/>
-    </row>
-    <row r="75" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ74" s="86"/>
+      <c r="AK74" s="86"/>
+      <c r="AL74" s="86"/>
+      <c r="AM74" s="86"/>
+      <c r="AN74" s="86"/>
+      <c r="AO74" s="86"/>
+    </row>
+    <row r="75" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="C75" s="71"/>
-      <c r="D75" s="280"/>
-      <c r="E75" s="280"/>
-      <c r="F75" s="280"/>
-      <c r="G75" s="280"/>
-      <c r="H75" s="280"/>
-      <c r="M75" s="194" t="s">
-        <v>30</v>
+        <v>91</v>
+      </c>
+      <c r="C75" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" s="264"/>
+      <c r="E75" s="264"/>
+      <c r="F75" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G75" s="111"/>
+      <c r="M75" s="130" t="s">
+        <v>90</v>
       </c>
       <c r="N75" s="192"/>
-      <c r="O75" s="191">
-        <f t="shared" ref="O75:U75" si="5">$H$62*O$70+O$71</f>
-        <v>160</v>
-      </c>
-      <c r="P75" s="191">
-        <f t="shared" si="5"/>
-        <v>115</v>
-      </c>
-      <c r="Q75" s="133">
-        <f t="shared" si="5"/>
-        <v>180</v>
-      </c>
-      <c r="R75" s="133">
-        <f t="shared" si="5"/>
-        <v>180</v>
-      </c>
-      <c r="S75" s="133">
-        <f t="shared" si="5"/>
-        <v>180</v>
-      </c>
-      <c r="T75" s="133">
-        <f t="shared" si="5"/>
-        <v>180</v>
-      </c>
-      <c r="U75" s="134">
-        <f t="shared" si="5"/>
-        <v>180</v>
-      </c>
-      <c r="AB75" s="127"/>
-      <c r="AC75" s="93"/>
-      <c r="AD75" s="93"/>
-      <c r="AE75" s="93"/>
-      <c r="AF75" s="93"/>
-      <c r="AG75" s="93"/>
+      <c r="O75" s="193"/>
+      <c r="P75" s="131"/>
+      <c r="Q75" s="131"/>
+      <c r="R75" s="131"/>
+      <c r="S75" s="131"/>
+      <c r="T75" s="132"/>
+      <c r="U75" s="139"/>
+      <c r="AB75" s="125"/>
+      <c r="AC75" s="125"/>
+      <c r="AD75" s="125"/>
+      <c r="AE75" s="125"/>
+      <c r="AF75" s="125"/>
+      <c r="AG75" s="125"/>
       <c r="AI75" s="86"/>
       <c r="AJ75" s="96"/>
       <c r="AK75" s="96"/>
@@ -18118,47 +18118,48 @@
       <c r="AO75" s="96"/>
     </row>
     <row r="76" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="71"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="71"/>
+      <c r="B76" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" s="128"/>
       <c r="M76" s="194" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N76" s="192"/>
       <c r="O76" s="191">
-        <f t="shared" ref="O76:U76" si="6">$I$62*O$70+O$71</f>
-        <v>187</v>
-      </c>
-      <c r="P76" s="191">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="O76:U76" si="3">$F$65*O$73+O$74</f>
         <v>133</v>
       </c>
+      <c r="P76" s="133">
+        <f>$F$65*P$73+P$74</f>
+        <v>149</v>
+      </c>
       <c r="Q76" s="133">
-        <f t="shared" si="6"/>
-        <v>211</v>
+        <f>$F$65*Q$73+Q$74</f>
+        <v>149</v>
       </c>
       <c r="R76" s="133">
-        <f t="shared" si="6"/>
-        <v>211</v>
+        <f>$F$65*R$73+R$74</f>
+        <v>149</v>
       </c>
       <c r="S76" s="133">
-        <f t="shared" si="6"/>
-        <v>211</v>
-      </c>
-      <c r="T76" s="133">
-        <f t="shared" si="6"/>
-        <v>211</v>
-      </c>
-      <c r="U76" s="134">
-        <f t="shared" si="6"/>
-        <v>211</v>
-      </c>
-      <c r="AB76" s="127"/>
-      <c r="AC76" s="93"/>
-      <c r="AD76" s="93"/>
-      <c r="AE76" s="93"/>
-      <c r="AF76" s="93"/>
-      <c r="AG76" s="93"/>
+        <f>$F$65*S$73+S$74</f>
+        <v>149</v>
+      </c>
+      <c r="T76" s="134">
+        <f>$F$65*T$73+T$74</f>
+        <v>149</v>
+      </c>
+      <c r="U76" s="139"/>
+      <c r="AB76" s="125"/>
+      <c r="AC76" s="126"/>
+      <c r="AD76" s="126"/>
+      <c r="AE76" s="126"/>
+      <c r="AF76" s="126"/>
+      <c r="AG76" s="126"/>
       <c r="AI76" s="86"/>
       <c r="AJ76" s="96"/>
       <c r="AK76" s="96"/>
@@ -18167,47 +18168,46 @@
       <c r="AN76" s="96"/>
       <c r="AO76" s="96"/>
     </row>
-    <row r="77" spans="1:42" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="107"/>
-      <c r="C77" s="110"/>
-      <c r="D77" s="110"/>
-      <c r="E77" s="107"/>
-      <c r="F77" s="107"/>
-      <c r="G77" s="107"/>
-      <c r="H77" s="107"/>
-      <c r="I77" s="107"/>
-      <c r="M77" s="194" t="s">
-        <v>32</v>
-      </c>
-      <c r="N77" s="192"/>
-      <c r="O77" s="191">
-        <f t="shared" ref="O77:U77" si="7">$J$62*O$70+O$71</f>
-        <v>79</v>
-      </c>
-      <c r="P77" s="191">
-        <f t="shared" si="7"/>
-        <v>61</v>
-      </c>
-      <c r="Q77" s="133">
-        <f t="shared" si="7"/>
-        <v>87</v>
-      </c>
-      <c r="R77" s="133">
-        <f t="shared" si="7"/>
-        <v>87</v>
-      </c>
-      <c r="S77" s="133">
-        <f t="shared" si="7"/>
-        <v>87</v>
-      </c>
-      <c r="T77" s="133">
-        <f t="shared" si="7"/>
-        <v>87</v>
-      </c>
-      <c r="U77" s="134">
-        <f t="shared" si="7"/>
-        <v>87</v>
-      </c>
+    <row r="77" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="71"/>
+      <c r="C77" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D77" s="265"/>
+      <c r="E77" s="265"/>
+      <c r="F77" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G77" s="111"/>
+      <c r="M77" s="135" t="s">
+        <v>29</v>
+      </c>
+      <c r="N77" s="136"/>
+      <c r="O77" s="137">
+        <f t="shared" ref="O77:U77" si="4">$G$65*O$73+O$74</f>
+        <v>160</v>
+      </c>
+      <c r="P77" s="137">
+        <f>$G$65*P$73+P$74</f>
+        <v>180</v>
+      </c>
+      <c r="Q77" s="137">
+        <f>$G$65*Q$73+Q$74</f>
+        <v>180</v>
+      </c>
+      <c r="R77" s="137">
+        <f>$G$65*R$73+R$74</f>
+        <v>180</v>
+      </c>
+      <c r="S77" s="137">
+        <f>$G$65*S$73+S$74</f>
+        <v>180</v>
+      </c>
+      <c r="T77" s="138">
+        <f>$G$65*T$73+T$74</f>
+        <v>180</v>
+      </c>
+      <c r="U77" s="139"/>
       <c r="AB77" s="127"/>
       <c r="AC77" s="93"/>
       <c r="AD77" s="93"/>
@@ -18223,22 +18223,44 @@
       <c r="AO77" s="96"/>
     </row>
     <row r="78" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="73" t="s">
-        <v>102</v>
+      <c r="B78" s="71" t="s">
+        <v>96</v>
       </c>
       <c r="C78" s="71"/>
-      <c r="D78" s="105"/>
-      <c r="M78" s="246" t="s">
-        <v>101</v>
-      </c>
-      <c r="N78" s="196"/>
-      <c r="O78" s="196"/>
-      <c r="P78" s="196"/>
-      <c r="Q78" s="139"/>
-      <c r="R78" s="139"/>
-      <c r="S78" s="139"/>
-      <c r="T78" s="139"/>
-      <c r="U78" s="140"/>
+      <c r="D78" s="266"/>
+      <c r="E78" s="266"/>
+      <c r="F78" s="266"/>
+      <c r="G78" s="266"/>
+      <c r="H78" s="266"/>
+      <c r="M78" s="194" t="s">
+        <v>30</v>
+      </c>
+      <c r="N78" s="192"/>
+      <c r="O78" s="191">
+        <f t="shared" ref="O78:U78" si="5">$H$65*O$73+O$74</f>
+        <v>160</v>
+      </c>
+      <c r="P78" s="133">
+        <f>$H$65*P$73+P$74</f>
+        <v>180</v>
+      </c>
+      <c r="Q78" s="133">
+        <f>$H$65*Q$73+Q$74</f>
+        <v>180</v>
+      </c>
+      <c r="R78" s="133">
+        <f>$H$65*R$73+R$74</f>
+        <v>180</v>
+      </c>
+      <c r="S78" s="133">
+        <f>$H$65*S$73+S$74</f>
+        <v>180</v>
+      </c>
+      <c r="T78" s="134">
+        <f>$H$65*T$73+T$74</f>
+        <v>180</v>
+      </c>
+      <c r="U78" s="139"/>
       <c r="AB78" s="127"/>
       <c r="AC78" s="93"/>
       <c r="AD78" s="93"/>
@@ -18253,21 +18275,39 @@
       <c r="AN78" s="96"/>
       <c r="AO78" s="96"/>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B79" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="M79" s="195" t="s">
-        <v>103</v>
-      </c>
-      <c r="N79" s="196"/>
-      <c r="O79" s="196"/>
-      <c r="P79" s="196"/>
-      <c r="Q79" s="139"/>
-      <c r="R79" s="139"/>
-      <c r="S79" s="139"/>
-      <c r="T79" s="139"/>
-      <c r="U79" s="140"/>
+    <row r="79" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="71"/>
+      <c r="C79" s="71"/>
+      <c r="D79" s="71"/>
+      <c r="M79" s="194" t="s">
+        <v>31</v>
+      </c>
+      <c r="N79" s="192"/>
+      <c r="O79" s="191">
+        <f t="shared" ref="O79:U79" si="6">$I$65*O$73+O$74</f>
+        <v>187</v>
+      </c>
+      <c r="P79" s="133">
+        <f>$I$65*P$73+P$74</f>
+        <v>211</v>
+      </c>
+      <c r="Q79" s="133">
+        <f>$I$65*Q$73+Q$74</f>
+        <v>211</v>
+      </c>
+      <c r="R79" s="133">
+        <f>$I$65*R$73+R$74</f>
+        <v>211</v>
+      </c>
+      <c r="S79" s="133">
+        <f>$I$65*S$73+S$74</f>
+        <v>211</v>
+      </c>
+      <c r="T79" s="134">
+        <f>$I$65*T$73+T$74</f>
+        <v>211</v>
+      </c>
+      <c r="U79" s="139"/>
       <c r="AB79" s="127"/>
       <c r="AC79" s="93"/>
       <c r="AD79" s="93"/>
@@ -18282,21 +18322,50 @@
       <c r="AN79" s="96"/>
       <c r="AO79" s="96"/>
     </row>
-    <row r="80" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="M80" s="195" t="s">
-        <v>105</v>
-      </c>
-      <c r="N80" s="197"/>
-      <c r="O80" s="197"/>
-      <c r="P80" s="196"/>
-      <c r="Q80" s="139"/>
-      <c r="R80" s="139"/>
-      <c r="S80" s="139"/>
-      <c r="T80" s="139"/>
-      <c r="U80" s="140"/>
+    <row r="80" spans="1:42" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="107"/>
+      <c r="C80" s="110"/>
+      <c r="D80" s="110"/>
+      <c r="E80" s="107"/>
+      <c r="F80" s="107"/>
+      <c r="G80" s="107"/>
+      <c r="H80" s="107"/>
+      <c r="I80" s="107"/>
+      <c r="M80" s="194" t="s">
+        <v>32</v>
+      </c>
+      <c r="N80" s="192"/>
+      <c r="O80" s="191">
+        <f t="shared" ref="O80:U80" si="7">$J$65*O$73+O$74</f>
+        <v>79</v>
+      </c>
+      <c r="P80" s="133">
+        <f>$J$65*P$73+P$74</f>
+        <v>87</v>
+      </c>
+      <c r="Q80" s="133">
+        <f>$J$65*Q$73+Q$74</f>
+        <v>87</v>
+      </c>
+      <c r="R80" s="133">
+        <f>$J$65*R$73+R$74</f>
+        <v>87</v>
+      </c>
+      <c r="S80" s="133">
+        <f>$J$65*S$73+S$74</f>
+        <v>87</v>
+      </c>
+      <c r="T80" s="134">
+        <f>$J$65*T$73+T$74</f>
+        <v>87</v>
+      </c>
+      <c r="U80" s="139"/>
+      <c r="AB80" s="127"/>
+      <c r="AC80" s="93"/>
+      <c r="AD80" s="93"/>
+      <c r="AE80" s="93"/>
+      <c r="AF80" s="93"/>
+      <c r="AG80" s="93"/>
       <c r="AI80" s="86"/>
       <c r="AJ80" s="96"/>
       <c r="AK80" s="96"/>
@@ -18306,36 +18375,28 @@
       <c r="AO80" s="96"/>
     </row>
     <row r="81" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="71" t="str">
-        <f>B23</f>
-        <v>Species to use for data analysis:</v>
+      <c r="B81" s="73" t="s">
+        <v>98</v>
       </c>
       <c r="C81" s="71"/>
-      <c r="D81" s="275">
-        <f>C23</f>
-        <v>0</v>
-      </c>
-      <c r="E81" s="275"/>
-      <c r="F81" s="275"/>
-      <c r="G81" s="275"/>
-      <c r="H81" s="275"/>
-      <c r="M81" s="253" t="s">
-        <v>107</v>
-      </c>
-      <c r="N81" s="198"/>
-      <c r="O81" s="198"/>
-      <c r="P81" s="199"/>
-      <c r="Q81" s="112"/>
-      <c r="R81" s="112"/>
-      <c r="S81" s="112"/>
-      <c r="T81" s="112"/>
-      <c r="U81" s="141"/>
-      <c r="AB81" s="125"/>
-      <c r="AC81" s="125"/>
-      <c r="AD81" s="125"/>
-      <c r="AE81" s="125"/>
-      <c r="AF81" s="125"/>
-      <c r="AG81" s="125"/>
+      <c r="D81" s="105"/>
+      <c r="M81" s="243" t="s">
+        <v>97</v>
+      </c>
+      <c r="N81" s="196"/>
+      <c r="O81" s="196"/>
+      <c r="P81" s="196"/>
+      <c r="Q81" s="139"/>
+      <c r="R81" s="139"/>
+      <c r="S81" s="139"/>
+      <c r="T81" s="140"/>
+      <c r="U81" s="139"/>
+      <c r="AB81" s="127"/>
+      <c r="AC81" s="93"/>
+      <c r="AD81" s="93"/>
+      <c r="AE81" s="93"/>
+      <c r="AF81" s="93"/>
+      <c r="AG81" s="93"/>
       <c r="AI81" s="86"/>
       <c r="AJ81" s="96"/>
       <c r="AK81" s="96"/>
@@ -18344,18 +18405,27 @@
       <c r="AN81" s="96"/>
       <c r="AO81" s="96"/>
     </row>
-    <row r="82" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B82" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="N82" s="186"/>
-      <c r="O82" s="186"/>
-      <c r="AB82" s="125"/>
-      <c r="AC82" s="126"/>
-      <c r="AD82" s="126"/>
-      <c r="AE82" s="126"/>
-      <c r="AF82" s="126"/>
-      <c r="AG82" s="126"/>
+        <v>100</v>
+      </c>
+      <c r="M82" s="195" t="s">
+        <v>99</v>
+      </c>
+      <c r="N82" s="196"/>
+      <c r="O82" s="196"/>
+      <c r="P82" s="196"/>
+      <c r="Q82" s="139"/>
+      <c r="R82" s="139"/>
+      <c r="S82" s="139"/>
+      <c r="T82" s="140"/>
+      <c r="U82" s="139"/>
+      <c r="AB82" s="127"/>
+      <c r="AC82" s="93"/>
+      <c r="AD82" s="93"/>
+      <c r="AE82" s="93"/>
+      <c r="AF82" s="93"/>
+      <c r="AG82" s="93"/>
       <c r="AI82" s="86"/>
       <c r="AJ82" s="96"/>
       <c r="AK82" s="96"/>
@@ -18365,15 +18435,20 @@
       <c r="AO82" s="96"/>
     </row>
     <row r="83" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M83" s="186"/>
-      <c r="N83" s="186"/>
-      <c r="O83" s="186"/>
-      <c r="AB83" s="127"/>
-      <c r="AC83" s="93"/>
-      <c r="AD83" s="93"/>
-      <c r="AE83" s="93"/>
-      <c r="AF83" s="93"/>
-      <c r="AG83" s="93"/>
+      <c r="B83" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="M83" s="195" t="s">
+        <v>101</v>
+      </c>
+      <c r="N83" s="197"/>
+      <c r="O83" s="197"/>
+      <c r="P83" s="196"/>
+      <c r="Q83" s="139"/>
+      <c r="R83" s="139"/>
+      <c r="S83" s="139"/>
+      <c r="T83" s="140"/>
+      <c r="U83" s="139"/>
       <c r="AI83" s="86"/>
       <c r="AJ83" s="96"/>
       <c r="AK83" s="96"/>
@@ -18383,12 +18458,36 @@
       <c r="AO83" s="96"/>
     </row>
     <row r="84" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AB84" s="127"/>
-      <c r="AC84" s="93"/>
-      <c r="AD84" s="93"/>
-      <c r="AE84" s="93"/>
-      <c r="AF84" s="93"/>
-      <c r="AG84" s="93"/>
+      <c r="B84" s="71" t="str">
+        <f>B26</f>
+        <v>Species to use for data analysis:</v>
+      </c>
+      <c r="C84" s="71"/>
+      <c r="D84" s="267">
+        <f>C26</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="267"/>
+      <c r="F84" s="267"/>
+      <c r="G84" s="267"/>
+      <c r="H84" s="267"/>
+      <c r="M84" s="250" t="s">
+        <v>103</v>
+      </c>
+      <c r="N84" s="198"/>
+      <c r="O84" s="198"/>
+      <c r="P84" s="199"/>
+      <c r="Q84" s="112"/>
+      <c r="R84" s="112"/>
+      <c r="S84" s="112"/>
+      <c r="T84" s="141"/>
+      <c r="U84" s="139"/>
+      <c r="AB84" s="125"/>
+      <c r="AC84" s="125"/>
+      <c r="AD84" s="125"/>
+      <c r="AE84" s="125"/>
+      <c r="AF84" s="125"/>
+      <c r="AG84" s="125"/>
       <c r="AI84" s="86"/>
       <c r="AJ84" s="96"/>
       <c r="AK84" s="96"/>
@@ -18398,20 +18497,18 @@
       <c r="AO84" s="96"/>
     </row>
     <row r="85" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E85" s="112"/>
-      <c r="F85" s="112"/>
-      <c r="G85" s="112"/>
-      <c r="H85" s="112"/>
-      <c r="I85" s="112"/>
-      <c r="AB85" s="127"/>
-      <c r="AC85" s="93"/>
-      <c r="AD85" s="93"/>
-      <c r="AE85" s="93"/>
-      <c r="AF85" s="93"/>
-      <c r="AG85" s="93"/>
+      <c r="B85" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="N85" s="186"/>
+      <c r="O85" s="186"/>
+      <c r="U85" s="139"/>
+      <c r="AB85" s="125"/>
+      <c r="AC85" s="126"/>
+      <c r="AD85" s="126"/>
+      <c r="AE85" s="126"/>
+      <c r="AF85" s="126"/>
+      <c r="AG85" s="126"/>
       <c r="AI85" s="86"/>
       <c r="AJ85" s="96"/>
       <c r="AK85" s="96"/>
@@ -18421,6 +18518,10 @@
       <c r="AO85" s="96"/>
     </row>
     <row r="86" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M86" s="186"/>
+      <c r="N86" s="186"/>
+      <c r="O86" s="186"/>
+      <c r="U86" s="139"/>
       <c r="AB86" s="127"/>
       <c r="AC86" s="93"/>
       <c r="AD86" s="93"/>
@@ -18436,13 +18537,6 @@
       <c r="AO86" s="96"/>
     </row>
     <row r="87" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="112"/>
-      <c r="D87" s="112"/>
-      <c r="E87" s="112"/>
-      <c r="F87" s="112"/>
-      <c r="G87" s="112"/>
-      <c r="H87" s="112"/>
-      <c r="I87" s="112"/>
       <c r="AB87" s="127"/>
       <c r="AC87" s="93"/>
       <c r="AD87" s="93"/>
@@ -18458,18 +18552,14 @@
       <c r="AO87" s="96"/>
     </row>
     <row r="88" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C88" s="129"/>
-      <c r="D88" s="112"/>
-      <c r="E88" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="C88" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E88" s="112"/>
       <c r="F88" s="112"/>
-      <c r="G88" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="G88" s="112"/>
+      <c r="H88" s="112"/>
+      <c r="I88" s="112"/>
       <c r="AB88" s="127"/>
       <c r="AC88" s="93"/>
       <c r="AD88" s="93"/>
@@ -18484,15 +18574,13 @@
       <c r="AN88" s="96"/>
       <c r="AO88" s="96"/>
     </row>
-    <row r="89" spans="2:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="107"/>
-      <c r="C89" s="110"/>
-      <c r="D89" s="110"/>
-      <c r="E89" s="107"/>
-      <c r="F89" s="107"/>
-      <c r="G89" s="107"/>
-      <c r="H89" s="107"/>
-      <c r="I89" s="107"/>
+    <row r="89" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB89" s="127"/>
+      <c r="AC89" s="93"/>
+      <c r="AD89" s="93"/>
+      <c r="AE89" s="93"/>
+      <c r="AF89" s="93"/>
+      <c r="AG89" s="93"/>
       <c r="AI89" s="86"/>
       <c r="AJ89" s="96"/>
       <c r="AK89" s="96"/>
@@ -18502,6 +18590,19 @@
       <c r="AO89" s="96"/>
     </row>
     <row r="90" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C90" s="112"/>
+      <c r="D90" s="112"/>
+      <c r="E90" s="112"/>
+      <c r="F90" s="112"/>
+      <c r="G90" s="112"/>
+      <c r="H90" s="112"/>
+      <c r="I90" s="112"/>
+      <c r="AB90" s="127"/>
+      <c r="AC90" s="93"/>
+      <c r="AD90" s="93"/>
+      <c r="AE90" s="93"/>
+      <c r="AF90" s="93"/>
+      <c r="AG90" s="93"/>
       <c r="AI90" s="86"/>
       <c r="AJ90" s="96"/>
       <c r="AK90" s="96"/>
@@ -18511,6 +18612,24 @@
       <c r="AO90" s="96"/>
     </row>
     <row r="91" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C91" s="129"/>
+      <c r="D91" s="112"/>
+      <c r="E91" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F91" s="112"/>
+      <c r="G91" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB91" s="127"/>
+      <c r="AC91" s="93"/>
+      <c r="AD91" s="93"/>
+      <c r="AE91" s="93"/>
+      <c r="AF91" s="93"/>
+      <c r="AG91" s="93"/>
       <c r="AI91" s="86"/>
       <c r="AJ91" s="96"/>
       <c r="AK91" s="96"/>
@@ -18519,7 +18638,15 @@
       <c r="AN91" s="96"/>
       <c r="AO91" s="96"/>
     </row>
-    <row r="92" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="107"/>
+      <c r="C92" s="110"/>
+      <c r="D92" s="110"/>
+      <c r="E92" s="107"/>
+      <c r="F92" s="107"/>
+      <c r="G92" s="107"/>
+      <c r="H92" s="107"/>
+      <c r="I92" s="107"/>
       <c r="AI92" s="86"/>
       <c r="AJ92" s="96"/>
       <c r="AK92" s="96"/>
@@ -18555,62 +18682,62 @@
       <c r="AN95" s="96"/>
       <c r="AO95" s="96"/>
     </row>
-    <row r="96" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI96" s="86"/>
+      <c r="AJ96" s="96"/>
+      <c r="AK96" s="96"/>
+      <c r="AL96" s="96"/>
+      <c r="AM96" s="96"/>
+      <c r="AN96" s="96"/>
+      <c r="AO96" s="96"/>
+    </row>
     <row r="97" spans="35:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AI97" s="84"/>
-      <c r="AJ97" s="85"/>
-      <c r="AK97" s="85"/>
-      <c r="AL97" s="85"/>
-      <c r="AM97" s="85"/>
-      <c r="AN97" s="85"/>
-      <c r="AO97" s="85"/>
+      <c r="AI97" s="86"/>
+      <c r="AJ97" s="96"/>
+      <c r="AK97" s="96"/>
+      <c r="AL97" s="96"/>
+      <c r="AM97" s="96"/>
+      <c r="AN97" s="96"/>
+      <c r="AO97" s="96"/>
     </row>
     <row r="98" spans="35:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AI98" s="86"/>
-      <c r="AJ98" s="86"/>
-      <c r="AK98" s="86"/>
-      <c r="AL98" s="86"/>
-      <c r="AM98" s="86"/>
-      <c r="AN98" s="86"/>
-      <c r="AO98" s="86"/>
-    </row>
-    <row r="99" spans="35:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AI99" s="86"/>
-      <c r="AJ99" s="86"/>
-      <c r="AK99" s="86"/>
-      <c r="AL99" s="86"/>
-      <c r="AM99" s="86"/>
-      <c r="AN99" s="86"/>
-      <c r="AO99" s="86"/>
-    </row>
-    <row r="100" spans="35:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AI100" s="86"/>
-      <c r="AJ100" s="96"/>
-      <c r="AK100" s="96"/>
-      <c r="AL100" s="96"/>
-      <c r="AM100" s="96"/>
-      <c r="AN100" s="96"/>
-      <c r="AO100" s="96"/>
-    </row>
-    <row r="101" spans="35:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ98" s="96"/>
+      <c r="AK98" s="96"/>
+      <c r="AL98" s="96"/>
+      <c r="AM98" s="96"/>
+      <c r="AN98" s="96"/>
+      <c r="AO98" s="96"/>
+    </row>
+    <row r="99" spans="35:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="35:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI100" s="84"/>
+      <c r="AJ100" s="85"/>
+      <c r="AK100" s="85"/>
+      <c r="AL100" s="85"/>
+      <c r="AM100" s="85"/>
+      <c r="AN100" s="85"/>
+      <c r="AO100" s="85"/>
+    </row>
+    <row r="101" spans="35:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AI101" s="86"/>
-      <c r="AJ101" s="96"/>
-      <c r="AK101" s="96"/>
-      <c r="AL101" s="96"/>
-      <c r="AM101" s="96"/>
-      <c r="AN101" s="96"/>
-      <c r="AO101" s="96"/>
+      <c r="AJ101" s="86"/>
+      <c r="AK101" s="86"/>
+      <c r="AL101" s="86"/>
+      <c r="AM101" s="86"/>
+      <c r="AN101" s="86"/>
+      <c r="AO101" s="86"/>
     </row>
     <row r="102" spans="35:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AI102" s="86"/>
-      <c r="AJ102" s="96"/>
-      <c r="AK102" s="96"/>
-      <c r="AL102" s="96"/>
-      <c r="AM102" s="96"/>
-      <c r="AN102" s="96"/>
-      <c r="AO102" s="96"/>
-    </row>
-    <row r="103" spans="35:41" x14ac:dyDescent="0.25">
+      <c r="AJ102" s="86"/>
+      <c r="AK102" s="86"/>
+      <c r="AL102" s="86"/>
+      <c r="AM102" s="86"/>
+      <c r="AN102" s="86"/>
+      <c r="AO102" s="86"/>
+    </row>
+    <row r="103" spans="35:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AI103" s="86"/>
       <c r="AJ103" s="96"/>
       <c r="AK103" s="96"/>
@@ -18619,7 +18746,7 @@
       <c r="AN103" s="96"/>
       <c r="AO103" s="96"/>
     </row>
-    <row r="104" spans="35:41" x14ac:dyDescent="0.25">
+    <row r="104" spans="35:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AI104" s="86"/>
       <c r="AJ104" s="96"/>
       <c r="AK104" s="96"/>
@@ -18628,7 +18755,7 @@
       <c r="AN104" s="96"/>
       <c r="AO104" s="96"/>
     </row>
-    <row r="105" spans="35:41" x14ac:dyDescent="0.25">
+    <row r="105" spans="35:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AI105" s="86"/>
       <c r="AJ105" s="96"/>
       <c r="AK105" s="96"/>
@@ -18753,7 +18880,6 @@
       <c r="AM118" s="96"/>
       <c r="AN118" s="96"/>
       <c r="AO118" s="96"/>
-      <c r="AP118" s="95"/>
     </row>
     <row r="119" spans="35:42" x14ac:dyDescent="0.25">
       <c r="AI119" s="86"/>
@@ -18781,6 +18907,7 @@
       <c r="AM121" s="96"/>
       <c r="AN121" s="96"/>
       <c r="AO121" s="96"/>
+      <c r="AP121" s="95"/>
     </row>
     <row r="122" spans="35:42" x14ac:dyDescent="0.25">
       <c r="AI122" s="86"/>
@@ -18800,200 +18927,226 @@
       <c r="AN123" s="96"/>
       <c r="AO123" s="96"/>
     </row>
+    <row r="124" spans="35:42" x14ac:dyDescent="0.25">
+      <c r="AI124" s="86"/>
+      <c r="AJ124" s="96"/>
+      <c r="AK124" s="96"/>
+      <c r="AL124" s="96"/>
+      <c r="AM124" s="96"/>
+      <c r="AN124" s="96"/>
+      <c r="AO124" s="96"/>
+    </row>
+    <row r="125" spans="35:42" x14ac:dyDescent="0.25">
+      <c r="AI125" s="86"/>
+      <c r="AJ125" s="96"/>
+      <c r="AK125" s="96"/>
+      <c r="AL125" s="96"/>
+      <c r="AM125" s="96"/>
+      <c r="AN125" s="96"/>
+      <c r="AO125" s="96"/>
+    </row>
+    <row r="126" spans="35:42" x14ac:dyDescent="0.25">
+      <c r="AI126" s="86"/>
+      <c r="AJ126" s="96"/>
+      <c r="AK126" s="96"/>
+      <c r="AL126" s="96"/>
+      <c r="AM126" s="96"/>
+      <c r="AN126" s="96"/>
+      <c r="AO126" s="96"/>
+    </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="O59:R59"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:H75"/>
-    <mergeCell ref="D81:H81"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:I25"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
+  <mergeCells count="21">
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D27:I28"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="O62:R62"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="D84:H84"/>
   </mergeCells>
-  <conditionalFormatting sqref="F55 G56 H57 I58 J59 G62:J62 I52 F60:F62 AB64:AG68 AC75:AG79 D69:E69 AC69:AG70 E64:E68">
+  <conditionalFormatting sqref="F58 G59 H60 I61 J62 G65:J65 I55 F63:F65 AB67:AG71 AC78:AG82 D72:E72 AC72:AG73 E67:E71">
     <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
+  <conditionalFormatting sqref="I54">
     <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G60:J61">
+  <conditionalFormatting sqref="G63:J64">
     <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
+  <conditionalFormatting sqref="E65">
     <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47:H47">
+  <conditionalFormatting sqref="E50:H50">
     <cfRule type="notContainsBlanks" dxfId="30" priority="31">
-      <formula>LEN(TRIM(E47))&gt;0</formula>
+      <formula>LEN(TRIM(E50))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:H49">
+  <conditionalFormatting sqref="E52:H52">
     <cfRule type="notContainsBlanks" dxfId="29" priority="30">
-      <formula>LEN(TRIM(E49))&gt;0</formula>
+      <formula>LEN(TRIM(E52))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:G42">
+  <conditionalFormatting sqref="G44:G45">
     <cfRule type="notContainsBlanks" dxfId="28" priority="29">
-      <formula>LEN(TRIM(G41))&gt;0</formula>
+      <formula>LEN(TRIM(G44))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O59:R59">
+  <conditionalFormatting sqref="O62:R62">
     <cfRule type="cellIs" dxfId="27" priority="3" operator="greaterThan">
       <formula>"&gt;0"</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="26" priority="28">
-      <formula>LEN(TRIM(O59))&gt;0</formula>
+      <formula>LEN(TRIM(O62))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D72:E72 D73 D74:E74 D75:H75 G72 G74">
+  <conditionalFormatting sqref="D75:E75 D76 D77:E77 D78:H78 G75 G77">
     <cfRule type="notContainsBlanks" dxfId="25" priority="27">
-      <formula>LEN(TRIM(D72))&gt;0</formula>
+      <formula>LEN(TRIM(D75))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35:H37">
+  <conditionalFormatting sqref="D38:H40">
     <cfRule type="notContainsBlanks" dxfId="24" priority="26">
-      <formula>LEN(TRIM(D35))&gt;0</formula>
+      <formula>LEN(TRIM(D38))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB69:AB70">
+  <conditionalFormatting sqref="AB72:AB73">
     <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB74:AB76 AB78:AB79">
+  <conditionalFormatting sqref="AB77:AB79 AB81:AB82">
     <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC74:AG74">
+  <conditionalFormatting sqref="AC77:AG77">
     <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB73:AG73">
+  <conditionalFormatting sqref="AB76:AG76">
     <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB72:AG73">
+  <conditionalFormatting sqref="AB75:AG76">
     <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG72">
+  <conditionalFormatting sqref="AG75">
     <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB74:AB76 AB78:AB79">
+  <conditionalFormatting sqref="AB77:AB79 AB81:AB82">
     <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB83:AB85 AB87:AB88">
+  <conditionalFormatting sqref="AB86:AB88 AB90:AB91">
     <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB82:AG82">
+  <conditionalFormatting sqref="AB85:AG85">
     <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB81:AG82 AC83:AG88">
+  <conditionalFormatting sqref="AB84:AG85 AC86:AG91">
     <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG81">
+  <conditionalFormatting sqref="AG84">
     <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB83:AB85 AB87:AB88">
+  <conditionalFormatting sqref="AB86:AB88 AB90:AB91">
     <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB86">
+  <conditionalFormatting sqref="AB89">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB77">
+  <conditionalFormatting sqref="AB80">
     <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB77">
+  <conditionalFormatting sqref="AB80">
     <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB86">
+  <conditionalFormatting sqref="AB89">
     <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
+  <conditionalFormatting sqref="C62">
     <cfRule type="notContainsBlanks" dxfId="7" priority="9">
-      <formula>LEN(TRIM(C59))&gt;0</formula>
+      <formula>LEN(TRIM(C62))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
+  <conditionalFormatting sqref="C55">
     <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
+  <conditionalFormatting sqref="H55">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
+  <conditionalFormatting sqref="H54">
     <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB23:AG23">
+  <conditionalFormatting sqref="AB26:AG26">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB23:AG23">
+  <conditionalFormatting sqref="AB26:AG26">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
+  <conditionalFormatting sqref="E66">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
+  <conditionalFormatting sqref="D21">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19004,7 +19157,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="43" max="16383" man="1"/>
+    <brk id="46" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="12" max="72" man="1"/>
@@ -19022,13 +19175,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>26</xdr:row>
+                    <xdr:row>29</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>638175</xdr:colOff>
-                    <xdr:row>26</xdr:row>
+                    <xdr:row>29</xdr:row>
                     <xdr:rowOff>266700</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19044,13 +19197,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>733425</xdr:colOff>
-                    <xdr:row>26</xdr:row>
+                    <xdr:row>29</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>1371600</xdr:colOff>
-                    <xdr:row>26</xdr:row>
+                    <xdr:row>29</xdr:row>
                     <xdr:rowOff>266700</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19066,13 +19219,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>27</xdr:row>
+                    <xdr:row>30</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>638175</xdr:colOff>
-                    <xdr:row>27</xdr:row>
+                    <xdr:row>30</xdr:row>
                     <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19088,13 +19241,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>733425</xdr:colOff>
-                    <xdr:row>27</xdr:row>
+                    <xdr:row>30</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>1371600</xdr:colOff>
-                    <xdr:row>27</xdr:row>
+                    <xdr:row>30</xdr:row>
                     <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19110,13 +19263,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
-                    <xdr:row>68</xdr:row>
+                    <xdr:row>71</xdr:row>
                     <xdr:rowOff>85725</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>781050</xdr:colOff>
-                    <xdr:row>68</xdr:row>
+                    <xdr:row>71</xdr:row>
                     <xdr:rowOff>390525</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19132,13 +19285,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>628650</xdr:colOff>
-                    <xdr:row>68</xdr:row>
+                    <xdr:row>71</xdr:row>
                     <xdr:rowOff>85725</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>68</xdr:row>
+                    <xdr:row>71</xdr:row>
                     <xdr:rowOff>400050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19154,13 +19307,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>1019175</xdr:colOff>
-                    <xdr:row>68</xdr:row>
+                    <xdr:row>71</xdr:row>
                     <xdr:rowOff>85725</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>495300</xdr:colOff>
-                    <xdr:row>68</xdr:row>
+                    <xdr:row>71</xdr:row>
                     <xdr:rowOff>400050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19176,13 +19329,13 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>123825</xdr:colOff>
-                    <xdr:row>71</xdr:row>
+                    <xdr:row>74</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>990600</xdr:colOff>
-                    <xdr:row>71</xdr:row>
+                    <xdr:row>74</xdr:row>
                     <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19198,13 +19351,13 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1066800</xdr:colOff>
-                    <xdr:row>71</xdr:row>
+                    <xdr:row>74</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>504825</xdr:colOff>
-                    <xdr:row>71</xdr:row>
+                    <xdr:row>74</xdr:row>
                     <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19220,13 +19373,13 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>123825</xdr:colOff>
-                    <xdr:row>72</xdr:row>
+                    <xdr:row>75</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>990600</xdr:colOff>
-                    <xdr:row>73</xdr:row>
+                    <xdr:row>76</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19242,13 +19395,13 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1066800</xdr:colOff>
-                    <xdr:row>72</xdr:row>
+                    <xdr:row>75</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>504825</xdr:colOff>
-                    <xdr:row>73</xdr:row>
+                    <xdr:row>76</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19264,13 +19417,13 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>123825</xdr:colOff>
-                    <xdr:row>72</xdr:row>
+                    <xdr:row>75</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>200025</xdr:colOff>
-                    <xdr:row>73</xdr:row>
+                    <xdr:row>76</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19286,13 +19439,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>390525</xdr:colOff>
-                    <xdr:row>72</xdr:row>
+                    <xdr:row>75</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>847725</xdr:colOff>
-                    <xdr:row>73</xdr:row>
+                    <xdr:row>76</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19308,13 +19461,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>72</xdr:row>
+                    <xdr:row>75</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>1400175</xdr:colOff>
-                    <xdr:row>73</xdr:row>
+                    <xdr:row>76</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19330,13 +19483,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>78</xdr:row>
+                    <xdr:row>81</xdr:row>
                     <xdr:rowOff>85725</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>638175</xdr:colOff>
-                    <xdr:row>79</xdr:row>
+                    <xdr:row>82</xdr:row>
                     <xdr:rowOff>104775</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19352,13 +19505,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>733425</xdr:colOff>
-                    <xdr:row>78</xdr:row>
+                    <xdr:row>81</xdr:row>
                     <xdr:rowOff>85725</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>1371600</xdr:colOff>
-                    <xdr:row>79</xdr:row>
+                    <xdr:row>82</xdr:row>
                     <xdr:rowOff>104775</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19374,13 +19527,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>82</xdr:row>
+                    <xdr:row>85</xdr:row>
                     <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>895350</xdr:colOff>
-                    <xdr:row>83</xdr:row>
+                    <xdr:row>86</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19396,13 +19549,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1009650</xdr:colOff>
-                    <xdr:row>82</xdr:row>
+                    <xdr:row>85</xdr:row>
                     <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>152400</xdr:colOff>
-                    <xdr:row>83</xdr:row>
+                    <xdr:row>86</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19418,13 +19571,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>809625</xdr:colOff>
-                    <xdr:row>82</xdr:row>
+                    <xdr:row>85</xdr:row>
                     <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>1285875</xdr:colOff>
-                    <xdr:row>83</xdr:row>
+                    <xdr:row>86</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19440,13 +19593,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>33</xdr:row>
+                    <xdr:row>36</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>638175</xdr:colOff>
-                    <xdr:row>33</xdr:row>
+                    <xdr:row>36</xdr:row>
                     <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19462,13 +19615,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>723900</xdr:colOff>
-                    <xdr:row>33</xdr:row>
+                    <xdr:row>36</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>1181100</xdr:colOff>
-                    <xdr:row>33</xdr:row>
+                    <xdr:row>36</xdr:row>
                     <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19484,13 +19637,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>1276350</xdr:colOff>
-                    <xdr:row>33</xdr:row>
+                    <xdr:row>36</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>104775</xdr:colOff>
-                    <xdr:row>33</xdr:row>
+                    <xdr:row>36</xdr:row>
                     <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19506,13 +19659,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>190500</xdr:colOff>
-                    <xdr:row>33</xdr:row>
+                    <xdr:row>36</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>333375</xdr:colOff>
-                    <xdr:row>33</xdr:row>
+                    <xdr:row>36</xdr:row>
                     <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19528,13 +19681,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1247775</xdr:colOff>
-                    <xdr:row>68</xdr:row>
+                    <xdr:row>71</xdr:row>
                     <xdr:rowOff>85725</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1895475</xdr:colOff>
-                    <xdr:row>68</xdr:row>
+                    <xdr:row>71</xdr:row>
                     <xdr:rowOff>390525</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19550,13 +19703,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>83</xdr:row>
+                    <xdr:row>86</xdr:row>
                     <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>981075</xdr:colOff>
-                    <xdr:row>84</xdr:row>
+                    <xdr:row>87</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19572,13 +19725,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>86</xdr:row>
+                    <xdr:row>89</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>981075</xdr:colOff>
-                    <xdr:row>86</xdr:row>
+                    <xdr:row>89</xdr:row>
                     <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19594,13 +19747,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>84</xdr:row>
+                    <xdr:row>87</xdr:row>
                     <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>619125</xdr:colOff>
-                    <xdr:row>85</xdr:row>
+                    <xdr:row>88</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19616,13 +19769,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>714375</xdr:colOff>
-                    <xdr:row>84</xdr:row>
+                    <xdr:row>87</xdr:row>
                     <xdr:rowOff>85725</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1171575</xdr:colOff>
-                    <xdr:row>85</xdr:row>
+                    <xdr:row>88</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19638,13 +19791,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1257300</xdr:colOff>
-                    <xdr:row>84</xdr:row>
+                    <xdr:row>87</xdr:row>
                     <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1895475</xdr:colOff>
-                    <xdr:row>85</xdr:row>
+                    <xdr:row>88</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19660,13 +19813,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
-                    <xdr:row>53</xdr:row>
+                    <xdr:row>56</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>590550</xdr:colOff>
-                    <xdr:row>53</xdr:row>
+                    <xdr:row>56</xdr:row>
                     <xdr:rowOff>247650</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19682,13 +19835,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>53</xdr:row>
+                    <xdr:row>56</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>361950</xdr:colOff>
-                    <xdr:row>53</xdr:row>
+                    <xdr:row>56</xdr:row>
                     <xdr:rowOff>247650</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19704,13 +19857,13 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>314325</xdr:colOff>
-                    <xdr:row>53</xdr:row>
+                    <xdr:row>56</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>600075</xdr:colOff>
-                    <xdr:row>53</xdr:row>
+                    <xdr:row>56</xdr:row>
                     <xdr:rowOff>247650</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19726,13 +19879,13 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1419225</xdr:colOff>
-                    <xdr:row>53</xdr:row>
+                    <xdr:row>56</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>53</xdr:row>
+                    <xdr:row>56</xdr:row>
                     <xdr:rowOff>247650</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19748,13 +19901,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>53</xdr:row>
+                    <xdr:row>56</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>53</xdr:row>
+                    <xdr:row>56</xdr:row>
                     <xdr:rowOff>247650</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19770,13 +19923,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>32</xdr:row>
+                    <xdr:row>35</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>638175</xdr:colOff>
-                    <xdr:row>32</xdr:row>
+                    <xdr:row>35</xdr:row>
                     <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19792,13 +19945,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>723900</xdr:colOff>
-                    <xdr:row>32</xdr:row>
+                    <xdr:row>35</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>1362075</xdr:colOff>
-                    <xdr:row>32</xdr:row>
+                    <xdr:row>35</xdr:row>
                     <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19871,10 +20024,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B1" s="101" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C1" s="101"/>
       <c r="D1" s="101"/>
@@ -19882,13 +20035,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="101" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B2" s="101"/>
       <c r="C2" s="101"/>
       <c r="E2" s="101"/>
       <c r="K2" s="101" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -19919,13 +20072,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G1" s="98" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H1" s="98" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -19933,22 +20086,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="171" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="171" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="171" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" s="171" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" s="171" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="171" t="s">
+      <c r="F3" s="171" t="s">
         <v>259</v>
-      </c>
-      <c r="C3" s="171" t="s">
-        <v>260</v>
-      </c>
-      <c r="D3" s="171" t="s">
-        <v>261</v>
-      </c>
-      <c r="E3" s="171" t="s">
-        <v>262</v>
-      </c>
-      <c r="F3" s="171" t="s">
-        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -19972,15 +20125,15 @@
   <sheetData>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="171" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AA3" s="171" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="34:34" x14ac:dyDescent="0.25">
       <c r="AH49" s="171" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -19994,7 +20147,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20013,10 +20166,10 @@
   <sheetData>
     <row r="1" spans="2:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>0</v>
@@ -20024,7 +20177,7 @@
     </row>
     <row r="2" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K2" s="5" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>5</v>
@@ -20040,7 +20193,7 @@
       <c r="H3" s="97"/>
       <c r="I3" s="97"/>
       <c r="K3" s="5" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>5</v>
@@ -20198,10 +20351,10 @@
         <v>3</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I14" s="24" t="s">
         <v>14</v>
@@ -20225,10 +20378,10 @@
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
-      <c r="C15" s="281" t="s">
+      <c r="C15" s="279" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="282"/>
+      <c r="D15" s="280"/>
       <c r="E15" s="28">
         <v>13.5</v>
       </c>
@@ -20251,8 +20404,8 @@
         <v>15.5</v>
       </c>
       <c r="M15" s="27"/>
-      <c r="N15" s="283"/>
-      <c r="O15" s="283"/>
+      <c r="N15" s="281"/>
+      <c r="O15" s="281"/>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
       <c r="R15" s="29"/>
@@ -20575,8 +20728,7 @@
       <c r="G28" s="59"/>
       <c r="H28" s="59"/>
       <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="60"/>
+      <c r="J28" s="60"/>
       <c r="N28" s="14"/>
       <c r="O28" s="61"/>
       <c r="P28" s="57"/>
@@ -20596,8 +20748,7 @@
       <c r="G29" s="63"/>
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="64"/>
+      <c r="J29" s="64"/>
       <c r="N29" s="65"/>
       <c r="O29" s="21"/>
       <c r="P29" s="20"/>
@@ -20616,21 +20767,18 @@
         <v>1</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>3</v>
+        <v>287</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>292</v>
+        <v>14</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="K30" s="24" t="s">
         <v>10</v>
       </c>
       <c r="N30" s="25"/>
@@ -20645,16 +20793,16 @@
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
-      <c r="C31" s="281" t="str">
+      <c r="C31" s="279" t="str">
         <f>C15</f>
         <v>Hourly Rate</v>
       </c>
-      <c r="D31" s="282"/>
+      <c r="D31" s="280"/>
       <c r="E31" s="67">
         <v>27</v>
       </c>
       <c r="F31" s="67">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G31" s="67">
         <v>31</v>
@@ -20668,11 +20816,8 @@
       <c r="J31" s="67">
         <v>31</v>
       </c>
-      <c r="K31" s="67">
-        <v>31</v>
-      </c>
-      <c r="N31" s="283"/>
-      <c r="O31" s="283"/>
+      <c r="N31" s="281"/>
+      <c r="O31" s="281"/>
       <c r="P31" s="29"/>
       <c r="Q31" s="29"/>
       <c r="R31" s="29"/>
@@ -20691,7 +20836,6 @@
       <c r="H32" s="29"/>
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
       <c r="N32" s="15"/>
       <c r="O32" s="15"/>
       <c r="P32" s="29"/>
@@ -20716,7 +20860,6 @@
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
       <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
       <c r="N33" s="31"/>
       <c r="O33" s="34"/>
       <c r="P33" s="33"/>
@@ -20737,7 +20880,6 @@
       <c r="H34" s="37"/>
       <c r="I34" s="37"/>
       <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
       <c r="N34" s="38"/>
       <c r="O34" s="39"/>
       <c r="P34" s="33"/>
@@ -20759,27 +20901,23 @@
         <v>27</v>
       </c>
       <c r="F35" s="42">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f>$D$33*F31</f>
+        <v>31</v>
       </c>
       <c r="G35" s="42">
-        <f t="shared" si="2"/>
+        <f>$D$33*G31</f>
         <v>31</v>
       </c>
       <c r="H35" s="42">
-        <f t="shared" si="2"/>
+        <f>$D$33*H31</f>
         <v>31</v>
       </c>
       <c r="I35" s="42">
-        <f t="shared" si="2"/>
+        <f>$D$33*I31</f>
         <v>31</v>
       </c>
       <c r="J35" s="42">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="K35" s="42">
-        <f t="shared" si="2"/>
+        <f>$D$33*J31</f>
         <v>31</v>
       </c>
       <c r="N35" s="30"/>
@@ -20816,9 +20954,6 @@
       <c r="J36" s="45">
         <v>25</v>
       </c>
-      <c r="K36" s="45">
-        <v>25</v>
-      </c>
       <c r="N36" s="30"/>
       <c r="O36" s="44"/>
       <c r="P36" s="29"/>
@@ -20841,27 +20976,23 @@
         <v>52</v>
       </c>
       <c r="F37" s="49">
-        <f t="shared" ref="F37:K37" si="3">F36+F35</f>
-        <v>43</v>
+        <f>F36+F35</f>
+        <v>56</v>
       </c>
       <c r="G37" s="49">
-        <f t="shared" si="3"/>
+        <f>G36+G35</f>
         <v>56</v>
       </c>
       <c r="H37" s="49">
-        <f t="shared" si="3"/>
+        <f>H36+H35</f>
         <v>56</v>
       </c>
       <c r="I37" s="49">
-        <f t="shared" si="3"/>
+        <f>I36+I35</f>
         <v>56</v>
       </c>
       <c r="J37" s="49">
-        <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="K37" s="49">
-        <f t="shared" si="3"/>
+        <f>J36+J35</f>
         <v>56</v>
       </c>
       <c r="N37" s="51"/>
@@ -20995,76 +21126,76 @@
   <sheetData>
     <row r="1" spans="1:12" s="71" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="167" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="168" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B2" s="113" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="168"/>
       <c r="B3" s="113" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="169" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="169" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="277" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="277"/>
-      <c r="D8" s="277"/>
-      <c r="E8" s="277"/>
-      <c r="F8" s="277"/>
-      <c r="G8" s="277"/>
-      <c r="H8" s="277"/>
-      <c r="I8" s="277"/>
-      <c r="J8" s="277"/>
-      <c r="K8" s="277"/>
-      <c r="L8" s="277"/>
+      <c r="B8" s="275" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="275"/>
+      <c r="D8" s="275"/>
+      <c r="E8" s="275"/>
+      <c r="F8" s="275"/>
+      <c r="G8" s="275"/>
+      <c r="H8" s="275"/>
+      <c r="I8" s="275"/>
+      <c r="J8" s="275"/>
+      <c r="K8" s="275"/>
+      <c r="L8" s="275"/>
     </row>
     <row r="9" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="284" t="s">
-        <v>282</v>
-      </c>
-      <c r="C9" s="284"/>
-      <c r="D9" s="284"/>
-      <c r="E9" s="284"/>
-      <c r="F9" s="284"/>
-      <c r="G9" s="284"/>
-      <c r="H9" s="284"/>
-      <c r="I9" s="284"/>
-      <c r="J9" s="284"/>
-      <c r="K9" s="284"/>
-      <c r="L9" s="284"/>
+      <c r="B9" s="282" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" s="282"/>
+      <c r="D9" s="282"/>
+      <c r="E9" s="282"/>
+      <c r="F9" s="282"/>
+      <c r="G9" s="282"/>
+      <c r="H9" s="282"/>
+      <c r="I9" s="282"/>
+      <c r="J9" s="282"/>
+      <c r="K9" s="282"/>
+      <c r="L9" s="282"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="285" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="285"/>
-      <c r="D10" s="285"/>
-      <c r="E10" s="285"/>
-      <c r="F10" s="285"/>
-      <c r="G10" s="285"/>
-      <c r="H10" s="285"/>
-      <c r="I10" s="285"/>
-      <c r="J10" s="285"/>
+      <c r="B10" s="283" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="283"/>
+      <c r="D10" s="283"/>
+      <c r="E10" s="283"/>
+      <c r="F10" s="283"/>
+      <c r="G10" s="283"/>
+      <c r="H10" s="283"/>
+      <c r="I10" s="283"/>
+      <c r="J10" s="283"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="170"/>
@@ -21079,88 +21210,88 @@
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="171" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="284" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="284"/>
+      <c r="D14" s="284"/>
+      <c r="E14" s="284"/>
+      <c r="F14" s="284"/>
+      <c r="G14" s="284"/>
+      <c r="H14" s="284"/>
+      <c r="I14" s="284"/>
+      <c r="J14" s="284"/>
+      <c r="K14" s="284"/>
+      <c r="L14" s="284"/>
+    </row>
+    <row r="15" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="282" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="282"/>
+      <c r="D15" s="282"/>
+      <c r="E15" s="282"/>
+      <c r="F15" s="282"/>
+      <c r="G15" s="282"/>
+      <c r="H15" s="282"/>
+      <c r="I15" s="282"/>
+      <c r="J15" s="282"/>
+      <c r="K15" s="282"/>
+      <c r="L15" s="282"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="282" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="286" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="286"/>
-      <c r="D14" s="286"/>
-      <c r="E14" s="286"/>
-      <c r="F14" s="286"/>
-      <c r="G14" s="286"/>
-      <c r="H14" s="286"/>
-      <c r="I14" s="286"/>
-      <c r="J14" s="286"/>
-      <c r="K14" s="286"/>
-      <c r="L14" s="286"/>
-    </row>
-    <row r="15" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="284" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="284"/>
-      <c r="D15" s="284"/>
-      <c r="E15" s="284"/>
-      <c r="F15" s="284"/>
-      <c r="G15" s="284"/>
-      <c r="H15" s="284"/>
-      <c r="I15" s="284"/>
-      <c r="J15" s="284"/>
-      <c r="K15" s="284"/>
-      <c r="L15" s="284"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="284" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="284"/>
-      <c r="D16" s="284"/>
-      <c r="E16" s="284"/>
-      <c r="F16" s="284"/>
-      <c r="G16" s="284"/>
-      <c r="H16" s="284"/>
-      <c r="I16" s="284"/>
-      <c r="J16" s="284"/>
-      <c r="K16" s="284"/>
-      <c r="L16" s="284"/>
+      <c r="C16" s="282"/>
+      <c r="D16" s="282"/>
+      <c r="E16" s="282"/>
+      <c r="F16" s="282"/>
+      <c r="G16" s="282"/>
+      <c r="H16" s="282"/>
+      <c r="I16" s="282"/>
+      <c r="J16" s="282"/>
+      <c r="K16" s="282"/>
+      <c r="L16" s="282"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="172" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="172" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="71" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="284" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="284"/>
-      <c r="D19" s="284"/>
-      <c r="E19" s="284"/>
-      <c r="F19" s="284"/>
-      <c r="G19" s="284"/>
-      <c r="H19" s="284"/>
-      <c r="I19" s="284"/>
-      <c r="J19" s="284"/>
-      <c r="K19" s="284"/>
-      <c r="L19" s="284"/>
+      <c r="B19" s="282" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="282"/>
+      <c r="D19" s="282"/>
+      <c r="E19" s="282"/>
+      <c r="F19" s="282"/>
+      <c r="G19" s="282"/>
+      <c r="H19" s="282"/>
+      <c r="I19" s="282"/>
+      <c r="J19" s="282"/>
+      <c r="K19" s="282"/>
+      <c r="L19" s="282"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D20" s="173"/>
       <c r="E20" s="173"/>
@@ -21177,30 +21308,30 @@
     </row>
     <row r="23" spans="1:12" s="117" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="117" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B23" s="117" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="117" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="117" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="117" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="117" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="117" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -21208,136 +21339,136 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B29" s="174" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D29" s="172" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B30" s="174" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D30" s="172" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B31" s="174" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="175" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D40" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D41" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D43" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D44" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D45" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D46" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D47" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D48" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -21382,43 +21513,43 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="176" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="177" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="178" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="179" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="179" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="178" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="178" t="s">
+      <c r="F5" s="178" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="179" t="s">
+      <c r="G5" s="285" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="179" t="s">
-        <v>171</v>
-      </c>
-      <c r="E5" s="178" t="s">
-        <v>172</v>
-      </c>
-      <c r="F5" s="178" t="s">
-        <v>173</v>
-      </c>
-      <c r="G5" s="287" t="s">
-        <v>174</v>
-      </c>
-      <c r="H5" s="287"/>
+      <c r="H5" s="285"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="106" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B8" s="180">
         <v>163</v>
@@ -21430,18 +21561,18 @@
         <v>0.8</v>
       </c>
       <c r="E8" s="180" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F8" s="180" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G8" s="106" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="106" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B9" s="180"/>
       <c r="C9" s="181"/>
@@ -21451,12 +21582,12 @@
         <v>0.03</v>
       </c>
       <c r="G9" s="106" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B10" s="98">
         <v>615</v>
@@ -21474,35 +21605,35 @@
         <v>0.1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B11" s="98">
         <v>284</v>
       </c>
       <c r="C11" s="182" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D11" s="182" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E11" s="98" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F11" s="98" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B12" s="98">
         <v>154</v>
@@ -21514,18 +21645,18 @@
         <v>7.7</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B13" s="98">
         <v>92</v>
@@ -21537,18 +21668,18 @@
         <v>1.2</v>
       </c>
       <c r="E13" s="98" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F13" s="98" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="106" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B14" s="180">
         <v>96</v>
@@ -21560,18 +21691,18 @@
         <v>2.4</v>
       </c>
       <c r="E14" s="180" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F14" s="180" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G14" s="106" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="106" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B15" s="180">
         <v>238</v>
@@ -21583,18 +21714,18 @@
         <v>2.4</v>
       </c>
       <c r="E15" s="180" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F15" s="180" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G15" s="106" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="106" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B16" s="180"/>
       <c r="C16" s="181"/>
@@ -21609,7 +21740,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B17" s="98">
         <v>229</v>
@@ -21621,27 +21752,27 @@
         <v>1</v>
       </c>
       <c r="E17" s="98" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F17" s="98" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B18" s="98">
         <v>264</v>
       </c>
       <c r="C18" s="182" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D18" s="182" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E18" s="98">
         <v>3.8</v>
@@ -21650,12 +21781,12 @@
         <v>0.1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B19" s="98">
         <v>58</v>
@@ -21667,18 +21798,18 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="E19" s="98" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F19" s="98" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B20" s="98">
         <v>120</v>
@@ -21696,21 +21827,21 @@
         <v>0.12</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B21" s="98">
         <v>348</v>
       </c>
       <c r="C21" s="182" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D21" s="182" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E21" s="98">
         <v>2.9</v>
@@ -21719,21 +21850,21 @@
         <v>0.1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B22" s="98">
         <v>511</v>
       </c>
       <c r="C22" s="182" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D22" s="182" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E22" s="98">
         <v>2</v>
@@ -21742,21 +21873,21 @@
         <v>0.1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B23" s="98">
         <v>524</v>
       </c>
       <c r="C23" s="182" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D23" s="182" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E23" s="98">
         <v>1.9</v>
@@ -21765,12 +21896,12 @@
         <v>0.1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B24" s="98">
         <v>79</v>
@@ -21782,18 +21913,18 @@
         <v>0.4</v>
       </c>
       <c r="E24" s="98" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F24" s="98" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B25" s="98">
         <v>292</v>
@@ -21811,21 +21942,21 @@
         <v>0.1</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B26" s="98">
         <v>468</v>
       </c>
       <c r="C26" s="182" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D26" s="182" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E26" s="98">
         <v>2.1</v>
@@ -21834,12 +21965,12 @@
         <v>0.1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B27" s="98">
         <v>603</v>
@@ -21851,24 +21982,24 @@
         <v>0.1</v>
       </c>
       <c r="E27" s="98" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F27" s="98" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B28" s="98">
         <v>308</v>
       </c>
       <c r="C28" s="182" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D28" s="182" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E28" s="98">
         <v>3.2</v>
@@ -21877,21 +22008,21 @@
         <v>0.1</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B29" s="98">
         <v>1000</v>
       </c>
       <c r="C29" s="182" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D29" s="182" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E29" s="98">
         <v>0.5</v>
@@ -21900,12 +22031,12 @@
         <v>0.05</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B30" s="98">
         <v>2000</v>
@@ -21917,18 +22048,18 @@
         <v>0.1</v>
       </c>
       <c r="E30" s="98" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F30" s="98" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B31" s="98">
         <v>288</v>
@@ -21946,12 +22077,12 @@
         <v>0.01</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B32" s="98">
         <v>82</v>
@@ -21963,18 +22094,18 @@
         <v>0.41</v>
       </c>
       <c r="E32" s="98" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F32" s="98" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B33" s="98">
         <v>65</v>
@@ -21992,21 +22123,21 @@
         <v>0.02</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B34" s="98">
         <v>431</v>
       </c>
       <c r="C34" s="182" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D34" s="182" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E34" s="98">
         <v>2.2999999999999998</v>
@@ -22015,44 +22146,44 @@
         <v>0.1</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B35" s="98">
         <v>538</v>
       </c>
       <c r="C35" s="182" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D35" s="182" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E35" s="98" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F35" s="98" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B36" s="98">
         <v>114</v>
       </c>
       <c r="C36" s="182" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D36" s="182" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E36" s="98">
         <v>4.4000000000000004</v>
@@ -22061,35 +22192,35 @@
         <v>0.05</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B37" s="98">
         <v>583</v>
       </c>
       <c r="C37" s="182" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D37" s="182" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E37" s="98" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F37" s="98" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="106" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B38" s="180">
         <v>121</v>
@@ -22101,18 +22232,18 @@
         <v>1</v>
       </c>
       <c r="E38" s="180" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F38" s="180" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G38" s="106" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B39" s="98">
         <v>628</v>
@@ -22124,41 +22255,41 @@
         <v>0.1</v>
       </c>
       <c r="E39" s="98" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F39" s="98">
         <v>0.05</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B40" s="98">
         <v>1228</v>
       </c>
       <c r="C40" s="182" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D40" s="182">
         <v>0.6</v>
       </c>
       <c r="E40" s="98" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F40" s="98">
         <v>0.05</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="106" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B41" s="180">
         <v>60</v>
@@ -22170,18 +22301,18 @@
         <v>3</v>
       </c>
       <c r="E41" s="180" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F41" s="180" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G41" s="106" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B42" s="98">
         <v>392</v>
@@ -22193,13 +22324,13 @@
         <v>0.1</v>
       </c>
       <c r="E42" s="98" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F42" s="98" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -22212,119 +22343,119 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="106" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C45" s="183"/>
       <c r="D45" s="183"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="106" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C46" s="183"/>
       <c r="D46" s="183"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="106" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C47" s="183"/>
       <c r="D47" s="183"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="106" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C48" s="183"/>
       <c r="D48" s="183"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="106" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C49" s="183"/>
       <c r="D49" s="183"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="106" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C50" s="183"/>
       <c r="D50" s="183"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="106" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C51" s="183"/>
       <c r="D51" s="183"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="106" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C52" s="183"/>
       <c r="D52" s="183"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="106" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C53" s="183"/>
       <c r="D53" s="183"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="106" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C54" s="183"/>
       <c r="D54" s="183"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="184" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C55" s="183"/>
       <c r="D55" s="183"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="184" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C56" s="183"/>
       <c r="D56" s="183"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="106" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C57" s="183"/>
       <c r="D57" s="183"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="184" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C58" s="183"/>
       <c r="D58" s="183"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="184" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C59" s="183"/>
       <c r="D59" s="183"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="184" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C60" s="183"/>
       <c r="D60" s="183"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="106" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C61" s="183"/>
       <c r="D61" s="183"/>

--- a/WebRoot/costcenter_resources/UWPR sample submission form.xlsx
+++ b/WebRoot/costcenter_resources/UWPR sample submission form.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PriskaStuff\UWPR costcenter\SampleSubmissionForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ACF114-C205-4E85-B7C9-98A5BBBC1E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4CB54E-C9F7-410F-92EB-6C625ECD2E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,9 +408,6 @@
     </r>
   </si>
   <si>
-    <t>Then complete this form and upload it to your project online and email priska@uw.edu to coordinate a time to drop off your samples.</t>
-  </si>
-  <si>
     <t>Principal Investigator (PI):</t>
   </si>
   <si>
@@ -1639,6 +1636,9 @@
   </si>
   <si>
     <t>Revised 9/1/25</t>
+  </si>
+  <si>
+    <t>Then complete this form and upload it to your project online and email hoopmann@uw.edu to coordinate a time to drop off your samples.</t>
   </si>
 </sst>
 </file>
@@ -3423,9 +3423,75 @@
     <xf numFmtId="0" fontId="76" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3434,72 +3500,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3825,8 +3825,8 @@
             <a:xfrm>
               <a:off x="3924300" y="10115550"/>
               <a:ext cx="1371600" cy="209550"/>
-              <a:chOff x="2266950" y="4686300"/>
-              <a:chExt cx="1685925" cy="209550"/>
+              <a:chOff x="2266949" y="4686300"/>
+              <a:chExt cx="1685926" cy="209550"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -3845,7 +3845,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="2266950" y="4686300"/>
+                <a:off x="2266949" y="4686300"/>
                 <a:ext cx="781050" cy="209550"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -5539,8 +5539,8 @@
             <a:xfrm>
               <a:off x="2943225" y="3743325"/>
               <a:ext cx="1466850" cy="209550"/>
-              <a:chOff x="2266950" y="4686300"/>
-              <a:chExt cx="1685925" cy="209550"/>
+              <a:chOff x="2266949" y="4686300"/>
+              <a:chExt cx="1685926" cy="209550"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -5559,7 +5559,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="2266950" y="4686300"/>
+                <a:off x="2266949" y="4686300"/>
                 <a:ext cx="781050" cy="209550"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -15118,7 +15118,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15257,7 +15259,7 @@
     </row>
     <row r="7" spans="1:42" s="156" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="153" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C7" s="153"/>
       <c r="D7" s="153"/>
@@ -15285,7 +15287,7 @@
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C8" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D8" s="65"/>
       <c r="P8" s="94"/>
@@ -15308,7 +15310,7 @@
     </row>
     <row r="10" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="68" t="s">
-        <v>42</v>
+        <v>298</v>
       </c>
       <c r="C10" s="97"/>
       <c r="D10" s="97"/>
@@ -15322,7 +15324,7 @@
     </row>
     <row r="11" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="99" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C11" s="97"/>
       <c r="D11" s="97"/>
@@ -15353,7 +15355,7 @@
     <row r="13" spans="1:42" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="170"/>
       <c r="B13" s="244" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C13" s="245"/>
       <c r="D13" s="245"/>
@@ -15378,16 +15380,16 @@
     <row r="14" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="170"/>
       <c r="B14" s="248" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="306"/>
-      <c r="D14" s="306"/>
+        <v>42</v>
+      </c>
+      <c r="C14" s="304"/>
+      <c r="D14" s="304"/>
       <c r="E14" s="170"/>
       <c r="F14" s="248" t="s">
-        <v>273</v>
-      </c>
-      <c r="G14" s="300"/>
-      <c r="H14" s="300"/>
+        <v>272</v>
+      </c>
+      <c r="G14" s="297"/>
+      <c r="H14" s="297"/>
       <c r="I14" s="272"/>
       <c r="P14" s="94"/>
       <c r="Q14" s="94"/>
@@ -15400,16 +15402,16 @@
     <row r="15" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="170"/>
       <c r="B15" s="269" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="242"/>
       <c r="D15" s="241"/>
       <c r="E15" s="170"/>
       <c r="F15" s="248" t="s">
-        <v>264</v>
-      </c>
-      <c r="G15" s="307"/>
-      <c r="H15" s="308"/>
+        <v>263</v>
+      </c>
+      <c r="G15" s="305"/>
+      <c r="H15" s="306"/>
       <c r="I15" s="272"/>
       <c r="P15" s="94"/>
       <c r="Q15" s="94"/>
@@ -15422,18 +15424,18 @@
     <row r="16" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="170"/>
       <c r="B16" s="248" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="309"/>
-      <c r="D16" s="309"/>
+        <v>45</v>
+      </c>
+      <c r="C16" s="307"/>
+      <c r="D16" s="307"/>
       <c r="E16" s="170"/>
       <c r="F16" s="250" t="s">
-        <v>265</v>
-      </c>
-      <c r="G16" s="315" t="s">
-        <v>270</v>
-      </c>
-      <c r="H16" s="316"/>
+        <v>264</v>
+      </c>
+      <c r="G16" s="294" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="295"/>
       <c r="I16" s="272"/>
       <c r="K16" s="98"/>
       <c r="L16" s="98"/>
@@ -15456,18 +15458,18 @@
     <row r="17" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="170"/>
       <c r="B17" s="250" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="310"/>
-      <c r="D17" s="310"/>
+        <v>46</v>
+      </c>
+      <c r="C17" s="308"/>
+      <c r="D17" s="308"/>
       <c r="E17" s="170"/>
       <c r="F17" s="250" t="s">
-        <v>266</v>
-      </c>
-      <c r="G17" s="315" t="s">
-        <v>271</v>
-      </c>
-      <c r="H17" s="316"/>
+        <v>265</v>
+      </c>
+      <c r="G17" s="294" t="s">
+        <v>270</v>
+      </c>
+      <c r="H17" s="295"/>
       <c r="I17" s="272"/>
       <c r="J17" s="86"/>
       <c r="K17" s="98"/>
@@ -15491,18 +15493,18 @@
     <row r="18" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="170"/>
       <c r="B18" s="273" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="311"/>
-      <c r="D18" s="311"/>
+        <v>43</v>
+      </c>
+      <c r="C18" s="309"/>
+      <c r="D18" s="309"/>
       <c r="E18" s="270"/>
       <c r="F18" s="251" t="s">
-        <v>267</v>
-      </c>
-      <c r="G18" s="317" t="s">
-        <v>272</v>
-      </c>
-      <c r="H18" s="317"/>
+        <v>266</v>
+      </c>
+      <c r="G18" s="296" t="s">
+        <v>271</v>
+      </c>
+      <c r="H18" s="296"/>
       <c r="I18" s="274"/>
       <c r="J18" s="86"/>
       <c r="K18" s="98"/>
@@ -15548,7 +15550,7 @@
     </row>
     <row r="20" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="244" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C20" s="233"/>
       <c r="D20" s="233"/>
@@ -15574,15 +15576,15 @@
     <row r="21" spans="1:41" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="170"/>
       <c r="B21" s="248" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="301"/>
-      <c r="D21" s="301"/>
-      <c r="E21" s="301"/>
-      <c r="F21" s="301"/>
-      <c r="G21" s="301"/>
-      <c r="H21" s="301"/>
-      <c r="I21" s="302"/>
+        <v>47</v>
+      </c>
+      <c r="C21" s="298"/>
+      <c r="D21" s="298"/>
+      <c r="E21" s="298"/>
+      <c r="F21" s="298"/>
+      <c r="G21" s="298"/>
+      <c r="H21" s="298"/>
+      <c r="I21" s="299"/>
       <c r="P21" s="94"/>
       <c r="Q21" s="94"/>
       <c r="R21" s="94"/>
@@ -15600,15 +15602,15 @@
     <row r="22" spans="1:41" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="170"/>
       <c r="B22" s="248" t="s">
-        <v>255</v>
-      </c>
-      <c r="C22" s="301"/>
-      <c r="D22" s="301"/>
-      <c r="E22" s="301"/>
-      <c r="F22" s="301"/>
-      <c r="G22" s="301"/>
-      <c r="H22" s="301"/>
-      <c r="I22" s="302"/>
+        <v>254</v>
+      </c>
+      <c r="C22" s="298"/>
+      <c r="D22" s="298"/>
+      <c r="E22" s="298"/>
+      <c r="F22" s="298"/>
+      <c r="G22" s="298"/>
+      <c r="H22" s="298"/>
+      <c r="I22" s="299"/>
       <c r="J22" s="98"/>
       <c r="N22" s="171"/>
       <c r="O22" s="171"/>
@@ -15635,15 +15637,15 @@
     <row r="23" spans="1:41" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="170"/>
       <c r="B23" s="248" t="s">
-        <v>282</v>
-      </c>
-      <c r="C23" s="301"/>
-      <c r="D23" s="301"/>
-      <c r="E23" s="301"/>
-      <c r="F23" s="301"/>
-      <c r="G23" s="301"/>
-      <c r="H23" s="301"/>
-      <c r="I23" s="302"/>
+        <v>281</v>
+      </c>
+      <c r="C23" s="298"/>
+      <c r="D23" s="298"/>
+      <c r="E23" s="298"/>
+      <c r="F23" s="298"/>
+      <c r="G23" s="298"/>
+      <c r="H23" s="298"/>
+      <c r="I23" s="299"/>
       <c r="J23" s="98"/>
       <c r="N23" s="171"/>
       <c r="O23" s="171"/>
@@ -15669,16 +15671,16 @@
     </row>
     <row r="24" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="170"/>
-      <c r="B24" s="303" t="s">
-        <v>240</v>
-      </c>
-      <c r="C24" s="304"/>
-      <c r="D24" s="304"/>
-      <c r="E24" s="304"/>
-      <c r="F24" s="304"/>
-      <c r="G24" s="304"/>
-      <c r="H24" s="304"/>
-      <c r="I24" s="305"/>
+      <c r="B24" s="300" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" s="301"/>
+      <c r="D24" s="301"/>
+      <c r="E24" s="301"/>
+      <c r="F24" s="301"/>
+      <c r="G24" s="301"/>
+      <c r="H24" s="301"/>
+      <c r="I24" s="302"/>
       <c r="P24" s="94"/>
       <c r="Q24" s="94"/>
       <c r="R24" s="94"/>
@@ -15694,14 +15696,14 @@
       <c r="AO24" s="81"/>
     </row>
     <row r="25" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="303"/>
-      <c r="C25" s="304"/>
-      <c r="D25" s="304"/>
-      <c r="E25" s="304"/>
-      <c r="F25" s="304"/>
-      <c r="G25" s="304"/>
-      <c r="H25" s="304"/>
-      <c r="I25" s="305"/>
+      <c r="B25" s="300"/>
+      <c r="C25" s="301"/>
+      <c r="D25" s="301"/>
+      <c r="E25" s="301"/>
+      <c r="F25" s="301"/>
+      <c r="G25" s="301"/>
+      <c r="H25" s="301"/>
+      <c r="I25" s="302"/>
       <c r="P25" s="94"/>
       <c r="Q25" s="94"/>
       <c r="R25" s="94"/>
@@ -15718,17 +15720,17 @@
     </row>
     <row r="26" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="279" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C26" s="278">
         <v>1</v>
       </c>
-      <c r="D26" s="313">
+      <c r="D26" s="292">
         <f>ROUNDUP((2+($C26*$C27*140)/60),0)</f>
         <v>5</v>
       </c>
-      <c r="E26" s="314" t="s">
-        <v>294</v>
+      <c r="E26" s="293" t="s">
+        <v>293</v>
       </c>
       <c r="F26" s="235"/>
       <c r="G26" s="235"/>
@@ -15750,13 +15752,13 @@
     </row>
     <row r="27" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="281" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C27" s="243">
         <v>1</v>
       </c>
-      <c r="D27" s="313"/>
-      <c r="E27" s="314"/>
+      <c r="D27" s="292"/>
+      <c r="E27" s="293"/>
       <c r="F27" s="235"/>
       <c r="G27" s="235"/>
       <c r="H27" s="235"/>
@@ -15777,7 +15779,7 @@
     </row>
     <row r="28" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="282" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C28" s="271">
         <v>0</v>
@@ -15787,7 +15789,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="240" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F28" s="235"/>
       <c r="G28" s="235"/>
@@ -15809,7 +15811,7 @@
     </row>
     <row r="29" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="283" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="271">
         <v>0</v>
@@ -15819,7 +15821,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="240" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F29" s="235"/>
       <c r="G29" s="235"/>
@@ -15841,7 +15843,7 @@
     </row>
     <row r="30" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="284" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C30" s="275">
         <f>C26*C27+C28+C29</f>
@@ -15852,7 +15854,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="277" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F30" s="235"/>
       <c r="G30" s="235"/>
@@ -15874,7 +15876,7 @@
     </row>
     <row r="31" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="285" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C31" s="286"/>
       <c r="D31" s="287">
@@ -15923,16 +15925,16 @@
       <c r="AO32" s="81"/>
     </row>
     <row r="33" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="299" t="s">
-        <v>297</v>
-      </c>
-      <c r="C33" s="299"/>
-      <c r="D33" s="299"/>
-      <c r="E33" s="299"/>
-      <c r="F33" s="299"/>
-      <c r="G33" s="299"/>
-      <c r="H33" s="299"/>
-      <c r="I33" s="299"/>
+      <c r="B33" s="314" t="s">
+        <v>296</v>
+      </c>
+      <c r="C33" s="314"/>
+      <c r="D33" s="314"/>
+      <c r="E33" s="314"/>
+      <c r="F33" s="314"/>
+      <c r="G33" s="314"/>
+      <c r="H33" s="314"/>
+      <c r="I33" s="314"/>
       <c r="P33" s="94"/>
       <c r="Q33" s="94"/>
       <c r="R33" s="94"/>
@@ -15949,12 +15951,12 @@
     </row>
     <row r="34" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="65"/>
       <c r="D34" s="65"/>
       <c r="E34" s="65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P34" s="94"/>
       <c r="Q34" s="94"/>
@@ -15972,12 +15974,12 @@
     </row>
     <row r="35" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="68"/>
       <c r="D35" s="68"/>
       <c r="E35" s="65" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P35" s="94"/>
       <c r="Q35" s="94"/>
@@ -15995,14 +15997,14 @@
     </row>
     <row r="36" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="65"/>
-      <c r="D36" s="312"/>
-      <c r="E36" s="312"/>
-      <c r="F36" s="312"/>
-      <c r="G36" s="312"/>
-      <c r="H36" s="312"/>
+      <c r="D36" s="311"/>
+      <c r="E36" s="311"/>
+      <c r="F36" s="311"/>
+      <c r="G36" s="311"/>
+      <c r="H36" s="311"/>
       <c r="P36" s="94"/>
       <c r="Q36" s="94"/>
       <c r="R36" s="94"/>
@@ -16020,19 +16022,19 @@
     </row>
     <row r="37" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="65"/>
       <c r="D37" s="103"/>
       <c r="E37" s="76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F37" s="104"/>
       <c r="G37" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H37" s="86" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K37" s="98"/>
       <c r="P37" s="94"/>
@@ -16051,19 +16053,19 @@
     </row>
     <row r="38" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" s="65"/>
       <c r="D38" s="103"/>
       <c r="E38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="G38" s="76"/>
       <c r="H38" s="86" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K38" s="98"/>
       <c r="P38" s="94"/>
@@ -16082,14 +16084,14 @@
     </row>
     <row r="39" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="65"/>
-      <c r="D39" s="297"/>
-      <c r="E39" s="297"/>
-      <c r="F39" s="297"/>
-      <c r="G39" s="297"/>
-      <c r="H39" s="297"/>
+      <c r="D39" s="303"/>
+      <c r="E39" s="303"/>
+      <c r="F39" s="303"/>
+      <c r="G39" s="303"/>
+      <c r="H39" s="303"/>
       <c r="P39" s="94"/>
       <c r="Q39" s="94"/>
       <c r="R39" s="94"/>
@@ -16107,14 +16109,14 @@
     </row>
     <row r="40" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="65"/>
-      <c r="D40" s="296"/>
-      <c r="E40" s="296"/>
-      <c r="F40" s="296"/>
-      <c r="G40" s="296"/>
-      <c r="H40" s="296"/>
+      <c r="D40" s="312"/>
+      <c r="E40" s="312"/>
+      <c r="F40" s="312"/>
+      <c r="G40" s="312"/>
+      <c r="H40" s="312"/>
       <c r="P40" s="94"/>
       <c r="Q40" s="94"/>
       <c r="R40" s="94"/>
@@ -16132,7 +16134,7 @@
     </row>
     <row r="41" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="65"/>
       <c r="D41" s="68"/>
@@ -16157,14 +16159,14 @@
     </row>
     <row r="42" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="65"/>
-      <c r="D42" s="297"/>
-      <c r="E42" s="297"/>
-      <c r="F42" s="297"/>
-      <c r="G42" s="297"/>
-      <c r="H42" s="297"/>
+      <c r="D42" s="303"/>
+      <c r="E42" s="303"/>
+      <c r="F42" s="303"/>
+      <c r="G42" s="303"/>
+      <c r="H42" s="303"/>
       <c r="P42" s="94"/>
       <c r="Q42" s="94"/>
       <c r="R42" s="94"/>
@@ -16182,14 +16184,14 @@
     </row>
     <row r="43" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="65"/>
-      <c r="D43" s="298"/>
-      <c r="E43" s="298"/>
-      <c r="F43" s="298"/>
-      <c r="G43" s="298"/>
-      <c r="H43" s="298"/>
+      <c r="D43" s="313"/>
+      <c r="E43" s="313"/>
+      <c r="F43" s="313"/>
+      <c r="G43" s="313"/>
+      <c r="H43" s="313"/>
       <c r="P43" s="94"/>
       <c r="Q43" s="94"/>
       <c r="R43" s="94"/>
@@ -16207,7 +16209,7 @@
     </row>
     <row r="44" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="97" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C44" s="65"/>
       <c r="D44" s="219"/>
@@ -16232,14 +16234,14 @@
     </row>
     <row r="45" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="65" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C45" s="65"/>
-      <c r="D45" s="297"/>
-      <c r="E45" s="297"/>
-      <c r="F45" s="297"/>
-      <c r="G45" s="297"/>
-      <c r="H45" s="297"/>
+      <c r="D45" s="303"/>
+      <c r="E45" s="303"/>
+      <c r="F45" s="303"/>
+      <c r="G45" s="303"/>
+      <c r="H45" s="303"/>
       <c r="P45" s="94"/>
       <c r="Q45" s="94"/>
       <c r="R45" s="94"/>
@@ -16282,7 +16284,7 @@
     </row>
     <row r="47" spans="2:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C47" s="66"/>
       <c r="D47" s="66"/>
@@ -16302,7 +16304,7 @@
     </row>
     <row r="48" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="65"/>
       <c r="D48" s="65"/>
@@ -16322,13 +16324,13 @@
     </row>
     <row r="49" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="65" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C49" s="65"/>
       <c r="D49" s="65"/>
       <c r="G49" s="105"/>
       <c r="H49" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P49" s="94"/>
       <c r="Q49" s="94"/>
@@ -16346,13 +16348,13 @@
     </row>
     <row r="50" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="65" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C50" s="65"/>
       <c r="D50" s="65"/>
       <c r="G50" s="106"/>
       <c r="H50" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P50" s="94"/>
       <c r="Q50" s="94"/>
@@ -16385,7 +16387,7 @@
     </row>
     <row r="52" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P52" s="94"/>
       <c r="Q52" s="94"/>
@@ -16419,7 +16421,7 @@
     </row>
     <row r="54" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C54" s="65"/>
       <c r="D54" s="65"/>
@@ -16439,14 +16441,14 @@
     </row>
     <row r="55" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="65" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C55" s="65"/>
       <c r="D55" s="65"/>
-      <c r="E55" s="292"/>
-      <c r="F55" s="292"/>
-      <c r="G55" s="292"/>
-      <c r="H55" s="292"/>
+      <c r="E55" s="310"/>
+      <c r="F55" s="310"/>
+      <c r="G55" s="310"/>
+      <c r="H55" s="310"/>
       <c r="P55" s="94"/>
       <c r="Q55" s="94"/>
       <c r="R55" s="94"/>
@@ -16463,7 +16465,7 @@
     </row>
     <row r="56" spans="2:42" s="65" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D56" s="107"/>
       <c r="E56" s="68"/>
@@ -16494,13 +16496,13 @@
     </row>
     <row r="57" spans="2:42" s="65" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D57" s="107"/>
-      <c r="E57" s="292"/>
-      <c r="F57" s="292"/>
-      <c r="G57" s="292"/>
-      <c r="H57" s="292"/>
+      <c r="E57" s="310"/>
+      <c r="F57" s="310"/>
+      <c r="G57" s="310"/>
+      <c r="H57" s="310"/>
       <c r="J57" s="98"/>
       <c r="K57" s="98"/>
       <c r="L57" s="98"/>
@@ -16589,7 +16591,7 @@
       </c>
       <c r="E60" s="109"/>
       <c r="G60" s="72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H60" s="110">
         <f>C29</f>
@@ -16641,7 +16643,7 @@
         <v>36</v>
       </c>
       <c r="D62" s="134" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E62" s="135"/>
       <c r="F62" s="134" t="s">
@@ -16688,7 +16690,7 @@
       <c r="I63" s="141"/>
       <c r="J63" s="178"/>
       <c r="K63" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -16721,7 +16723,7 @@
       <c r="I64" s="146"/>
       <c r="J64" s="179"/>
       <c r="K64" s="147" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N64" s="148"/>
       <c r="O64" s="148"/>
@@ -16756,7 +16758,7 @@
       <c r="I65" s="141"/>
       <c r="J65" s="178"/>
       <c r="K65" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -16789,7 +16791,7 @@
       </c>
       <c r="J66" s="178"/>
       <c r="K66" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -16824,10 +16826,10 @@
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
-      <c r="O67" s="292"/>
-      <c r="P67" s="292"/>
-      <c r="Q67" s="292"/>
-      <c r="R67" s="292"/>
+      <c r="O67" s="310"/>
+      <c r="P67" s="310"/>
+      <c r="Q67" s="310"/>
+      <c r="R67" s="310"/>
       <c r="AI67" s="80"/>
       <c r="AJ67" s="89"/>
       <c r="AK67" s="89"/>
@@ -16914,7 +16916,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
@@ -16930,7 +16932,7 @@
       <c r="B70" s="127"/>
       <c r="C70" s="128"/>
       <c r="D70" s="129" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E70" s="130"/>
       <c r="F70" s="131">
@@ -16954,7 +16956,7 @@
         <v>2</v>
       </c>
       <c r="K70" s="177" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
@@ -16970,7 +16972,7 @@
       <c r="B71" s="65"/>
       <c r="C71" s="85"/>
       <c r="D71" s="129" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E71" s="130"/>
       <c r="F71" s="197">
@@ -17006,7 +17008,7 @@
       <c r="B72" s="65"/>
       <c r="C72" s="85"/>
       <c r="D72" s="200" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E72" s="201"/>
       <c r="F72" s="202"/>
@@ -17036,7 +17038,7 @@
       <c r="B73" s="65"/>
       <c r="C73" s="85"/>
       <c r="D73" s="176" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E73" s="115"/>
       <c r="G73" s="153"/>
@@ -17065,7 +17067,7 @@
       <c r="B74" s="65"/>
       <c r="C74" s="85"/>
       <c r="D74" s="176" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E74" s="115"/>
       <c r="G74" s="153"/>
@@ -17094,7 +17096,7 @@
       <c r="B75" s="65"/>
       <c r="C75" s="85"/>
       <c r="D75" s="206" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E75" s="207"/>
       <c r="F75" s="104"/>
@@ -17156,13 +17158,13 @@
     </row>
     <row r="77" spans="1:42" s="85" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="68" t="s">
-        <v>285</v>
-      </c>
-      <c r="C77" s="297"/>
-      <c r="D77" s="297"/>
-      <c r="E77" s="297"/>
-      <c r="F77" s="297"/>
-      <c r="G77" s="297"/>
+        <v>284</v>
+      </c>
+      <c r="C77" s="303"/>
+      <c r="D77" s="303"/>
+      <c r="E77" s="303"/>
+      <c r="F77" s="303"/>
+      <c r="G77" s="303"/>
       <c r="K77" s="101"/>
       <c r="L77" s="101"/>
       <c r="M77" s="192"/>
@@ -17220,7 +17222,7 @@
       <c r="L78" s="98"/>
       <c r="M78" s="184"/>
       <c r="N78" s="107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O78" s="222">
         <f>Rates!E31</f>
@@ -17264,16 +17266,16 @@
     </row>
     <row r="79" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" s="232" t="s">
         <v>76</v>
-      </c>
-      <c r="C79" s="232" t="s">
-        <v>77</v>
       </c>
       <c r="D79" s="65"/>
       <c r="K79" s="98"/>
       <c r="M79" s="174"/>
       <c r="N79" s="223" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O79" s="224">
         <f>Rates!E40</f>
@@ -17309,19 +17311,19 @@
     </row>
     <row r="80" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="72" t="s">
+      <c r="D80" s="315"/>
+      <c r="E80" s="315"/>
+      <c r="F80" s="72" t="s">
         <v>80</v>
-      </c>
-      <c r="D80" s="293"/>
-      <c r="E80" s="293"/>
-      <c r="F80" s="72" t="s">
-        <v>81</v>
       </c>
       <c r="G80" s="103"/>
       <c r="M80" s="120" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N80" s="225"/>
       <c r="O80" s="91"/>
@@ -17346,10 +17348,10 @@
     </row>
     <row r="81" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" s="72" t="s">
         <v>82</v>
-      </c>
-      <c r="C81" s="72" t="s">
-        <v>83</v>
       </c>
       <c r="D81" s="119"/>
       <c r="M81" s="175" t="s">
@@ -17397,12 +17399,12 @@
     <row r="82" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="65"/>
       <c r="C82" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="D82" s="316"/>
+      <c r="E82" s="316"/>
+      <c r="F82" s="72" t="s">
         <v>80</v>
-      </c>
-      <c r="D82" s="294"/>
-      <c r="E82" s="294"/>
-      <c r="F82" s="72" t="s">
-        <v>81</v>
       </c>
       <c r="G82" s="103"/>
       <c r="M82" s="123" t="s">
@@ -17449,14 +17451,14 @@
     </row>
     <row r="83" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C83" s="65"/>
-      <c r="D83" s="295"/>
-      <c r="E83" s="295"/>
-      <c r="F83" s="295"/>
-      <c r="G83" s="295"/>
-      <c r="H83" s="295"/>
+      <c r="D83" s="317"/>
+      <c r="E83" s="317"/>
+      <c r="F83" s="317"/>
+      <c r="G83" s="317"/>
+      <c r="H83" s="317"/>
       <c r="M83" s="175" t="s">
         <v>25</v>
       </c>
@@ -17601,7 +17603,7 @@
       <c r="C86" s="65"/>
       <c r="D86" s="98"/>
       <c r="M86" s="176" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -17623,7 +17625,7 @@
     <row r="87" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B87" s="65"/>
       <c r="M87" s="206" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N87" s="104"/>
       <c r="O87" s="104"/>
@@ -17648,7 +17650,7 @@
     </row>
     <row r="88" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N88" s="228"/>
       <c r="O88" s="228"/>
@@ -17663,11 +17665,11 @@
     <row r="89" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="65"/>
       <c r="C89" s="65"/>
-      <c r="D89" s="296"/>
-      <c r="E89" s="296"/>
-      <c r="F89" s="296"/>
-      <c r="G89" s="296"/>
-      <c r="H89" s="296"/>
+      <c r="D89" s="312"/>
+      <c r="E89" s="312"/>
+      <c r="F89" s="312"/>
+      <c r="G89" s="312"/>
+      <c r="H89" s="312"/>
       <c r="N89" s="228"/>
       <c r="O89" s="228"/>
       <c r="AB89" s="116"/>
@@ -17686,13 +17688,13 @@
     </row>
     <row r="90" spans="2:41" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="236" t="s">
+        <v>286</v>
+      </c>
+      <c r="C90" s="110" t="s">
         <v>287</v>
       </c>
-      <c r="C90" s="110" t="s">
+      <c r="D90" s="236" t="s">
         <v>288</v>
-      </c>
-      <c r="D90" s="236" t="s">
-        <v>289</v>
       </c>
       <c r="E90" s="65"/>
       <c r="F90" s="65"/>
@@ -18077,11 +18079,16 @@
     <protectedRange sqref="D30" name="Range1"/>
   </protectedRanges>
   <mergeCells count="31">
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="O67:R67"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="B33:I33"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="C23:I23"/>
     <mergeCell ref="B24:B25"/>
@@ -18098,16 +18105,11 @@
     <mergeCell ref="D39:H39"/>
     <mergeCell ref="D36:H36"/>
     <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="O67:R67"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
   </mergeCells>
   <conditionalFormatting sqref="C28:C29">
     <cfRule type="cellIs" dxfId="21" priority="2" operator="greaterThan">
@@ -18783,10 +18785,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="94" t="s">
         <v>227</v>
-      </c>
-      <c r="B1" s="94" t="s">
-        <v>228</v>
       </c>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -18794,13 +18796,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="94" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" s="94"/>
       <c r="C2" s="94"/>
       <c r="E2" s="94"/>
       <c r="K2" s="94" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -18831,13 +18833,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="94" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G1" s="91" t="s">
+        <v>237</v>
+      </c>
+      <c r="H1" s="91" t="s">
         <v>238</v>
-      </c>
-      <c r="H1" s="91" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -18845,22 +18847,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="156" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="156" t="s">
         <v>232</v>
       </c>
-      <c r="B3" s="156" t="s">
+      <c r="C3" s="156" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="156" t="s">
+      <c r="D3" s="156" t="s">
         <v>234</v>
       </c>
-      <c r="D3" s="156" t="s">
+      <c r="E3" s="156" t="s">
         <v>235</v>
       </c>
-      <c r="E3" s="156" t="s">
+      <c r="F3" s="156" t="s">
         <v>236</v>
-      </c>
-      <c r="F3" s="156" t="s">
-        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -18884,15 +18886,15 @@
   <sheetData>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="156" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA3" s="156" t="s">
         <v>242</v>
-      </c>
-      <c r="AA3" s="156" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="49" spans="34:34" x14ac:dyDescent="0.25">
       <c r="AH49" s="156" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -18925,10 +18927,10 @@
   <sheetData>
     <row r="1" spans="2:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>0</v>
@@ -18936,10 +18938,10 @@
     </row>
     <row r="2" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K2" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18952,7 +18954,7 @@
       <c r="H3" s="90"/>
       <c r="I3" s="90"/>
       <c r="K3" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>3</v>
@@ -18968,7 +18970,7 @@
       <c r="H4" s="90"/>
       <c r="I4" s="90"/>
       <c r="K4" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>3</v>
@@ -19097,13 +19099,13 @@
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
       <c r="E14" s="237" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F14" s="237" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G14" s="237" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H14" s="237" t="s">
         <v>6</v>
@@ -19503,13 +19505,13 @@
       <c r="C30" s="256"/>
       <c r="D30" s="257"/>
       <c r="E30" s="237" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F30" s="237" t="s">
+        <v>289</v>
+      </c>
+      <c r="G30" s="237" t="s">
         <v>290</v>
-      </c>
-      <c r="G30" s="237" t="s">
-        <v>291</v>
       </c>
       <c r="H30" s="237" t="s">
         <v>6</v>
@@ -19588,7 +19590,7 @@
     <row r="33" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="24"/>
       <c r="C33" s="258" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D33" s="259">
         <v>1</v>
@@ -19598,7 +19600,7 @@
         <v>5</v>
       </c>
       <c r="F33" s="323" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G33" s="260"/>
       <c r="H33" s="260"/>
@@ -19651,7 +19653,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="264" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
@@ -19670,7 +19672,7 @@
     <row r="36" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="24"/>
       <c r="C36" s="236" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D36" s="262">
         <v>0</v>
@@ -19680,7 +19682,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="264" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G36" s="30"/>
       <c r="H36" s="30"/>
@@ -19699,7 +19701,7 @@
     <row r="37" spans="2:22" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="62"/>
       <c r="C37" s="265" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D37" s="266">
         <f>D33*D34+D35+D36</f>
@@ -19710,7 +19712,7 @@
         <v>5</v>
       </c>
       <c r="F37" s="268" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
@@ -19905,52 +19907,52 @@
   <sheetData>
     <row r="1" spans="1:12" s="65" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="152" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="153" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="68" t="s">
         <v>88</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="153"/>
       <c r="B3" s="68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="154" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="154" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="299" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="299"/>
-      <c r="D8" s="299"/>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
-      <c r="G8" s="299"/>
-      <c r="H8" s="299"/>
-      <c r="I8" s="299"/>
-      <c r="J8" s="299"/>
-      <c r="K8" s="299"/>
-      <c r="L8" s="299"/>
+      <c r="B8" s="314" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="314"/>
+      <c r="D8" s="314"/>
+      <c r="E8" s="314"/>
+      <c r="F8" s="314"/>
+      <c r="G8" s="314"/>
+      <c r="H8" s="314"/>
+      <c r="I8" s="314"/>
+      <c r="J8" s="314"/>
+      <c r="K8" s="314"/>
+      <c r="L8" s="314"/>
     </row>
     <row r="9" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="325" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C9" s="325"/>
       <c r="D9" s="325"/>
@@ -19965,7 +19967,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="326" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="326"/>
       <c r="D10" s="326"/>
@@ -19989,15 +19991,15 @@
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="156" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="327" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="327"/>
       <c r="D14" s="327"/>
@@ -20012,7 +20014,7 @@
     </row>
     <row r="15" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="325" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="325"/>
       <c r="D15" s="325"/>
@@ -20027,7 +20029,7 @@
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="325" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="325"/>
       <c r="D16" s="325"/>
@@ -20042,17 +20044,17 @@
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="157" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="157" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="65" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="325" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="325"/>
       <c r="D19" s="325"/>
@@ -20067,10 +20069,10 @@
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="D20" s="158"/>
       <c r="E20" s="158"/>
@@ -20087,30 +20089,30 @@
     </row>
     <row r="23" spans="1:12" s="108" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="108" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="108" t="s">
         <v>104</v>
-      </c>
-      <c r="B23" s="108" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="108" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="108" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="108" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="108" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="108" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -20118,136 +20120,136 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="159" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="159" t="s">
+      <c r="D29" s="157" t="s">
         <v>111</v>
-      </c>
-      <c r="D29" s="157" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="159" t="s">
+      <c r="D30" s="157" t="s">
         <v>114</v>
-      </c>
-      <c r="D30" s="157" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="159" t="s">
         <v>116</v>
-      </c>
-      <c r="B31" s="159" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="160" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D40" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D41" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D43" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D44" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D45" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D46" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D47" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D48" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -20292,43 +20294,43 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="161" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="162" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="163" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="163" t="s">
+      <c r="C5" s="164" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="D5" s="164" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="164" t="s">
+      <c r="E5" s="163" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="163" t="s">
+      <c r="F5" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="163" t="s">
+      <c r="G5" s="328" t="s">
         <v>147</v>
-      </c>
-      <c r="G5" s="328" t="s">
-        <v>148</v>
       </c>
       <c r="H5" s="328"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="99" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" s="165">
         <v>163</v>
@@ -20340,18 +20342,18 @@
         <v>0.8</v>
       </c>
       <c r="E8" s="165" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="165" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="99" t="s">
         <v>150</v>
-      </c>
-      <c r="F8" s="165" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="99" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="165"/>
       <c r="C9" s="166"/>
@@ -20361,12 +20363,12 @@
         <v>0.03</v>
       </c>
       <c r="G9" s="99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="91">
         <v>615</v>
@@ -20384,35 +20386,35 @@
         <v>0.1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" s="91">
         <v>284</v>
       </c>
       <c r="C11" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E11" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="F11" s="91" t="s">
+      <c r="G11" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="91">
         <v>154</v>
@@ -20424,18 +20426,18 @@
         <v>7.7</v>
       </c>
       <c r="E12" s="91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F12" s="91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B13" s="91">
         <v>92</v>
@@ -20447,18 +20449,18 @@
         <v>1.2</v>
       </c>
       <c r="E13" s="91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F13" s="91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="99" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" s="165">
         <v>96</v>
@@ -20470,18 +20472,18 @@
         <v>2.4</v>
       </c>
       <c r="E14" s="165" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F14" s="165" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G14" s="99" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="99" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" s="165">
         <v>238</v>
@@ -20493,18 +20495,18 @@
         <v>2.4</v>
       </c>
       <c r="E15" s="165" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F15" s="165" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G15" s="99" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="99" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" s="165"/>
       <c r="C16" s="166"/>
@@ -20519,7 +20521,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17" s="91">
         <v>229</v>
@@ -20531,27 +20533,27 @@
         <v>1</v>
       </c>
       <c r="E17" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="F17" s="91" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B18" s="91">
         <v>264</v>
       </c>
       <c r="C18" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E18" s="91">
         <v>3.8</v>
@@ -20560,12 +20562,12 @@
         <v>0.1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B19" s="91">
         <v>58</v>
@@ -20577,18 +20579,18 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="E19" s="91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F19" s="91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B20" s="91">
         <v>120</v>
@@ -20606,21 +20608,21 @@
         <v>0.12</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" s="91">
         <v>348</v>
       </c>
       <c r="C21" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D21" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E21" s="91">
         <v>2.9</v>
@@ -20629,21 +20631,21 @@
         <v>0.1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B22" s="91">
         <v>511</v>
       </c>
       <c r="C22" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E22" s="91">
         <v>2</v>
@@ -20652,21 +20654,21 @@
         <v>0.1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B23" s="91">
         <v>524</v>
       </c>
       <c r="C23" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D23" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E23" s="91">
         <v>1.9</v>
@@ -20675,12 +20677,12 @@
         <v>0.1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B24" s="91">
         <v>79</v>
@@ -20692,18 +20694,18 @@
         <v>0.4</v>
       </c>
       <c r="E24" s="91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F24" s="91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B25" s="91">
         <v>292</v>
@@ -20721,21 +20723,21 @@
         <v>0.1</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B26" s="91">
         <v>468</v>
       </c>
       <c r="C26" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D26" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E26" s="91">
         <v>2.1</v>
@@ -20744,12 +20746,12 @@
         <v>0.1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B27" s="91">
         <v>603</v>
@@ -20761,24 +20763,24 @@
         <v>0.1</v>
       </c>
       <c r="E27" s="91" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F27" s="91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B28" s="91">
         <v>308</v>
       </c>
       <c r="C28" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D28" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E28" s="91">
         <v>3.2</v>
@@ -20787,21 +20789,21 @@
         <v>0.1</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B29" s="91">
         <v>1000</v>
       </c>
       <c r="C29" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D29" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E29" s="91">
         <v>0.5</v>
@@ -20810,12 +20812,12 @@
         <v>0.05</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B30" s="91">
         <v>2000</v>
@@ -20827,18 +20829,18 @@
         <v>0.1</v>
       </c>
       <c r="E30" s="91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F30" s="91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B31" s="91">
         <v>288</v>
@@ -20856,12 +20858,12 @@
         <v>0.01</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B32" s="91">
         <v>82</v>
@@ -20873,18 +20875,18 @@
         <v>0.41</v>
       </c>
       <c r="E32" s="91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F32" s="91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B33" s="91">
         <v>65</v>
@@ -20902,21 +20904,21 @@
         <v>0.02</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B34" s="91">
         <v>431</v>
       </c>
       <c r="C34" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D34" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E34" s="91">
         <v>2.2999999999999998</v>
@@ -20925,44 +20927,44 @@
         <v>0.1</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B35" s="91">
         <v>538</v>
       </c>
       <c r="C35" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D35" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E35" s="91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F35" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B36" s="91">
         <v>114</v>
       </c>
       <c r="C36" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D36" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E36" s="91">
         <v>4.4000000000000004</v>
@@ -20971,35 +20973,35 @@
         <v>0.05</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B37" s="91">
         <v>583</v>
       </c>
       <c r="C37" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D37" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E37" s="91" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F37" s="91" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="99" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B38" s="165">
         <v>121</v>
@@ -21011,18 +21013,18 @@
         <v>1</v>
       </c>
       <c r="E38" s="165" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F38" s="165" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G38" s="99" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B39" s="91">
         <v>628</v>
@@ -21034,41 +21036,41 @@
         <v>0.1</v>
       </c>
       <c r="E39" s="91" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F39" s="91">
         <v>0.05</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B40" s="91">
         <v>1228</v>
       </c>
       <c r="C40" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D40" s="167">
         <v>0.6</v>
       </c>
       <c r="E40" s="91" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F40" s="91">
         <v>0.05</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="99" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B41" s="165">
         <v>60</v>
@@ -21080,18 +21082,18 @@
         <v>3</v>
       </c>
       <c r="E41" s="165" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F41" s="165" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G41" s="99" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B42" s="91">
         <v>392</v>
@@ -21103,13 +21105,13 @@
         <v>0.1</v>
       </c>
       <c r="E42" s="91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F42" s="91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -21122,119 +21124,119 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="99" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C45" s="168"/>
       <c r="D45" s="168"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="99" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C46" s="168"/>
       <c r="D46" s="168"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="99" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C47" s="168"/>
       <c r="D47" s="168"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="99" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C48" s="168"/>
       <c r="D48" s="168"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="99" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C49" s="168"/>
       <c r="D49" s="168"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="99" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C50" s="168"/>
       <c r="D50" s="168"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C51" s="168"/>
       <c r="D51" s="168"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="99" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C52" s="168"/>
       <c r="D52" s="168"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="99" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C53" s="168"/>
       <c r="D53" s="168"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="99" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C54" s="168"/>
       <c r="D54" s="168"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="169" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C55" s="168"/>
       <c r="D55" s="168"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="169" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C56" s="168"/>
       <c r="D56" s="168"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="99" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C57" s="168"/>
       <c r="D57" s="168"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="169" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C58" s="168"/>
       <c r="D58" s="168"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="169" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C59" s="168"/>
       <c r="D59" s="168"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="169" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C60" s="168"/>
       <c r="D60" s="168"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="99" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C61" s="168"/>
       <c r="D61" s="168"/>
